--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="215">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -657,6 +657,9 @@
   <si>
     <t>['90+4']</t>
   </si>
+  <si>
+    <t>['12', '90+5']</t>
+  </si>
 </sst>
 </file>
 
@@ -1017,7 +1020,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK110"/>
+  <dimension ref="A1:BK111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3831,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT15">
         <v>1.2</v>
@@ -4598,7 +4601,7 @@
         <v>1.67</v>
       </c>
       <c r="AT19">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -6123,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT27">
         <v>2.17</v>
@@ -7272,7 +7275,7 @@
         <v>1.33</v>
       </c>
       <c r="AT33">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU33">
         <v>1.45</v>
@@ -10516,7 +10519,7 @@
         <v>3</v>
       </c>
       <c r="AS50">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT50">
         <v>2</v>
@@ -12047,7 +12050,7 @@
         <v>2.4</v>
       </c>
       <c r="AT58">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU58">
         <v>1.68</v>
@@ -14336,7 +14339,7 @@
         <v>0.33</v>
       </c>
       <c r="AS70">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT70">
         <v>1</v>
@@ -15294,7 +15297,7 @@
         <v>2.2</v>
       </c>
       <c r="AT75">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU75">
         <v>1.66</v>
@@ -18347,7 +18350,7 @@
         <v>1.5</v>
       </c>
       <c r="AS91">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT91">
         <v>1.67</v>
@@ -19878,7 +19881,7 @@
         <v>1.33</v>
       </c>
       <c r="AT99">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU99">
         <v>1.79</v>
@@ -22030,6 +22033,197 @@
         <v>8</v>
       </c>
       <c r="BK110">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:63">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>2982499</v>
+      </c>
+      <c r="C111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="2">
+        <v>44864.51041666666</v>
+      </c>
+      <c r="F111">
+        <v>11</v>
+      </c>
+      <c r="G111" t="s">
+        <v>77</v>
+      </c>
+      <c r="H111" t="s">
+        <v>66</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>2</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+      <c r="O111" t="s">
+        <v>93</v>
+      </c>
+      <c r="P111" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q111">
+        <v>2</v>
+      </c>
+      <c r="R111">
+        <v>7</v>
+      </c>
+      <c r="S111">
+        <v>9</v>
+      </c>
+      <c r="T111">
+        <v>3.1</v>
+      </c>
+      <c r="U111">
+        <v>1.95</v>
+      </c>
+      <c r="V111">
+        <v>4</v>
+      </c>
+      <c r="W111">
+        <v>1.53</v>
+      </c>
+      <c r="X111">
+        <v>2.38</v>
+      </c>
+      <c r="Y111">
+        <v>3.5</v>
+      </c>
+      <c r="Z111">
+        <v>1.29</v>
+      </c>
+      <c r="AA111">
+        <v>11</v>
+      </c>
+      <c r="AB111">
+        <v>1.05</v>
+      </c>
+      <c r="AC111">
+        <v>2.06</v>
+      </c>
+      <c r="AD111">
+        <v>3.2</v>
+      </c>
+      <c r="AE111">
+        <v>3.35</v>
+      </c>
+      <c r="AF111">
+        <v>1.07</v>
+      </c>
+      <c r="AG111">
+        <v>6.5</v>
+      </c>
+      <c r="AH111">
+        <v>1.42</v>
+      </c>
+      <c r="AI111">
+        <v>2.6</v>
+      </c>
+      <c r="AJ111">
+        <v>2.34</v>
+      </c>
+      <c r="AK111">
+        <v>1.53</v>
+      </c>
+      <c r="AL111">
+        <v>2.05</v>
+      </c>
+      <c r="AM111">
+        <v>1.7</v>
+      </c>
+      <c r="AN111">
+        <v>1.33</v>
+      </c>
+      <c r="AO111">
+        <v>1.35</v>
+      </c>
+      <c r="AP111">
+        <v>1.62</v>
+      </c>
+      <c r="AQ111">
+        <v>0.8</v>
+      </c>
+      <c r="AR111">
+        <v>0.6</v>
+      </c>
+      <c r="AS111">
+        <v>0.67</v>
+      </c>
+      <c r="AT111">
+        <v>1</v>
+      </c>
+      <c r="AU111">
+        <v>1.68</v>
+      </c>
+      <c r="AV111">
+        <v>1.28</v>
+      </c>
+      <c r="AW111">
+        <v>2.96</v>
+      </c>
+      <c r="AX111">
+        <v>1.95</v>
+      </c>
+      <c r="AY111">
+        <v>7.5</v>
+      </c>
+      <c r="AZ111">
+        <v>2.1</v>
+      </c>
+      <c r="BA111">
+        <v>1.32</v>
+      </c>
+      <c r="BB111">
+        <v>1.58</v>
+      </c>
+      <c r="BC111">
+        <v>2.02</v>
+      </c>
+      <c r="BD111">
+        <v>2.7</v>
+      </c>
+      <c r="BE111">
+        <v>3.8</v>
+      </c>
+      <c r="BF111">
+        <v>4</v>
+      </c>
+      <c r="BG111">
+        <v>7</v>
+      </c>
+      <c r="BH111">
+        <v>3</v>
+      </c>
+      <c r="BI111">
+        <v>8</v>
+      </c>
+      <c r="BJ111">
+        <v>7</v>
+      </c>
+      <c r="BK111">
         <v>15</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="230">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -487,6 +487,39 @@
     <t>['2']</t>
   </si>
   <si>
+    <t>['7', '90+4']</t>
+  </si>
+  <si>
+    <t>['12', '45+5', '62']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['15', '54']</t>
+  </si>
+  <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['17', '57', '67']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['45+1', '56', '63']</t>
+  </si>
+  <si>
+    <t>['43', '65']</t>
+  </si>
+  <si>
     <t>['11', '35']</t>
   </si>
   <si>
@@ -521,9 +554,6 @@
   </si>
   <si>
     <t>['59']</t>
-  </si>
-  <si>
-    <t>['45']</t>
   </si>
   <si>
     <t>['63', '69']</t>
@@ -566,9 +596,6 @@
   </si>
   <si>
     <t>['8', '59', '90+3']</t>
-  </si>
-  <si>
-    <t>['41']</t>
   </si>
   <si>
     <t>['86', '90+1']</t>
@@ -643,9 +670,6 @@
     <t>['67', '86']</t>
   </si>
   <si>
-    <t>['54']</t>
-  </si>
-  <si>
     <t>['9', '45+2']</t>
   </si>
   <si>
@@ -659,6 +683,27 @@
   </si>
   <si>
     <t>['12', '90+5']</t>
+  </si>
+  <si>
+    <t>['39', '74']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['55', '76']</t>
+  </si>
+  <si>
+    <t>['74', '77']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['41', '59']</t>
+  </si>
+  <si>
+    <t>['21', '37']</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1065,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK111"/>
+  <dimension ref="A1:BK131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1264,7 +1309,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1351,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT2">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1455,7 +1500,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1542,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT3">
         <v>1</v>
@@ -1733,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT4">
         <v>1</v>
@@ -1924,10 +1969,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT5">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2028,7 +2073,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2115,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT6">
         <v>1.67</v>
@@ -2219,7 +2264,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2306,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AT7">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2410,7 +2455,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="Q8">
         <v>8</v>
@@ -2497,10 +2542,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT8">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2688,10 +2733,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT9">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2879,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT10">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3070,10 +3115,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT11">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3261,10 +3306,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT12">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3452,10 +3497,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3643,10 +3688,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT14">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU14">
         <v>1.36</v>
@@ -3837,7 +3882,7 @@
         <v>0.67</v>
       </c>
       <c r="AT15">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4025,10 +4070,10 @@
         <v>3</v>
       </c>
       <c r="AS16">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT16">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4129,7 +4174,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -4216,10 +4261,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT17">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4320,7 +4365,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="Q18">
         <v>8</v>
@@ -4407,10 +4452,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT18">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4598,10 +4643,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT19">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4702,7 +4747,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -4789,10 +4834,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT20">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -4983,7 +5028,7 @@
         <v>3</v>
       </c>
       <c r="AT21">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5084,7 +5129,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="Q22">
         <v>12</v>
@@ -5171,10 +5216,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT22">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU22">
         <v>1.62</v>
@@ -5362,7 +5407,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT23">
         <v>1</v>
@@ -5553,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT24">
         <v>1.67</v>
@@ -5744,10 +5789,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT25">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -5935,10 +5980,10 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT26">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AU26">
         <v>1.77</v>
@@ -6039,7 +6084,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="Q27">
         <v>9</v>
@@ -6129,7 +6174,7 @@
         <v>0.67</v>
       </c>
       <c r="AT27">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU27">
         <v>1.03</v>
@@ -6230,7 +6275,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6317,10 +6362,10 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT28">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU28">
         <v>1.97</v>
@@ -6421,7 +6466,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6508,10 +6553,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT29">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU29">
         <v>1.86</v>
@@ -6699,10 +6744,10 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT30">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU30">
         <v>1.64</v>
@@ -6803,7 +6848,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -6890,10 +6935,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT31">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU31">
         <v>1.15</v>
@@ -7081,10 +7126,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT32">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU32">
         <v>2.09</v>
@@ -7272,10 +7317,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU33">
         <v>1.45</v>
@@ -7376,7 +7421,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7463,10 +7508,10 @@
         <v>1</v>
       </c>
       <c r="AS34">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT34">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU34">
         <v>2.15</v>
@@ -7567,7 +7612,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7654,10 +7699,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT35">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="AU35">
         <v>1.41</v>
@@ -7848,7 +7893,7 @@
         <v>3</v>
       </c>
       <c r="AT36">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU36">
         <v>1.81</v>
@@ -8036,10 +8081,10 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT37">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU37">
         <v>2.16</v>
@@ -8140,7 +8185,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8227,10 +8272,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT38">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU38">
         <v>1.37</v>
@@ -8331,7 +8376,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8418,10 +8463,10 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AT39">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU39">
         <v>1.46</v>
@@ -8522,7 +8567,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8609,10 +8654,10 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT40">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU40">
         <v>1.92</v>
@@ -8713,7 +8758,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -8800,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT41">
         <v>1</v>
@@ -8991,10 +9036,10 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT42">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AU42">
         <v>1.67</v>
@@ -9182,10 +9227,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT43">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU43">
         <v>1.69</v>
@@ -9286,7 +9331,7 @@
         <v>93</v>
       </c>
       <c r="P44" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9373,10 +9418,10 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT44">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU44">
         <v>1.46</v>
@@ -9477,7 +9522,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9564,7 +9609,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT45">
         <v>1.67</v>
@@ -9755,10 +9800,10 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT46">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU46">
         <v>1.9</v>
@@ -9859,7 +9904,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="Q47">
         <v>7</v>
@@ -9946,10 +9991,10 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT47">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU47">
         <v>1.49</v>
@@ -10050,7 +10095,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10137,7 +10182,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT48">
         <v>1</v>
@@ -10241,7 +10286,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="Q49">
         <v>10</v>
@@ -10328,10 +10373,10 @@
         <v>1.5</v>
       </c>
       <c r="AS49">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT49">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU49">
         <v>1.68</v>
@@ -10522,7 +10567,7 @@
         <v>0.67</v>
       </c>
       <c r="AT50">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU50">
         <v>1.82</v>
@@ -10710,10 +10755,10 @@
         <v>2</v>
       </c>
       <c r="AS51">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT51">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU51">
         <v>1.62</v>
@@ -10901,10 +10946,10 @@
         <v>2</v>
       </c>
       <c r="AS52">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT52">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU52">
         <v>1.71</v>
@@ -11005,7 +11050,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11092,10 +11137,10 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT53">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU53">
         <v>1.34</v>
@@ -11196,7 +11241,7 @@
         <v>93</v>
       </c>
       <c r="P54" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11283,10 +11328,10 @@
         <v>2.33</v>
       </c>
       <c r="AS54">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT54">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU54">
         <v>2.56</v>
@@ -11387,7 +11432,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="Q55">
         <v>4</v>
@@ -11474,10 +11519,10 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT55">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU55">
         <v>1.67</v>
@@ -11668,7 +11713,7 @@
         <v>3</v>
       </c>
       <c r="AT56">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU56">
         <v>2.25</v>
@@ -11856,7 +11901,7 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AT57">
         <v>1</v>
@@ -12047,10 +12092,10 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT58">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU58">
         <v>1.68</v>
@@ -12151,7 +12196,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12238,10 +12283,10 @@
         <v>1.33</v>
       </c>
       <c r="AS59">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT59">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU59">
         <v>1.11</v>
@@ -12429,10 +12474,10 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT60">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU60">
         <v>1.86</v>
@@ -12620,10 +12665,10 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT61">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="AU61">
         <v>1.36</v>
@@ -12724,7 +12769,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="Q62">
         <v>5</v>
@@ -12811,10 +12856,10 @@
         <v>0.5</v>
       </c>
       <c r="AS62">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT62">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU62">
         <v>1.19</v>
@@ -13002,10 +13047,10 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT63">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU63">
         <v>1.59</v>
@@ -13106,7 +13151,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13193,10 +13238,10 @@
         <v>2</v>
       </c>
       <c r="AS64">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT64">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU64">
         <v>1.93</v>
@@ -13297,7 +13342,7 @@
         <v>93</v>
       </c>
       <c r="P65" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13384,10 +13429,10 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT65">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AU65">
         <v>1.76</v>
@@ -13488,7 +13533,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13575,10 +13620,10 @@
         <v>1.33</v>
       </c>
       <c r="AS66">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT66">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU66">
         <v>2.14</v>
@@ -13679,7 +13724,7 @@
         <v>93</v>
       </c>
       <c r="P67" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -13766,7 +13811,7 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT67">
         <v>1.67</v>
@@ -13957,10 +14002,10 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT68">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU68">
         <v>1.73</v>
@@ -14061,7 +14106,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14148,10 +14193,10 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT69">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU69">
         <v>1.79</v>
@@ -14252,7 +14297,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14443,7 +14488,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14530,10 +14575,10 @@
         <v>1.5</v>
       </c>
       <c r="AS71">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT71">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU71">
         <v>1.68</v>
@@ -14721,7 +14766,7 @@
         <v>1.33</v>
       </c>
       <c r="AS72">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT72">
         <v>1</v>
@@ -14825,7 +14870,7 @@
         <v>106</v>
       </c>
       <c r="P73" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -14912,10 +14957,10 @@
         <v>2.5</v>
       </c>
       <c r="AS73">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AT73">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU73">
         <v>1.66</v>
@@ -15016,7 +15061,7 @@
         <v>95</v>
       </c>
       <c r="P74" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15103,10 +15148,10 @@
         <v>0</v>
       </c>
       <c r="AS74">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT74">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU74">
         <v>1.41</v>
@@ -15207,7 +15252,7 @@
         <v>109</v>
       </c>
       <c r="P75" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15294,10 +15339,10 @@
         <v>0.33</v>
       </c>
       <c r="AS75">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT75">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU75">
         <v>1.66</v>
@@ -15485,10 +15530,10 @@
         <v>1.67</v>
       </c>
       <c r="AS76">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT76">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU76">
         <v>1.66</v>
@@ -15676,10 +15721,10 @@
         <v>0.33</v>
       </c>
       <c r="AS77">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT77">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU77">
         <v>1.43</v>
@@ -15870,7 +15915,7 @@
         <v>3</v>
       </c>
       <c r="AT78">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU78">
         <v>2.01</v>
@@ -16058,10 +16103,10 @@
         <v>1.25</v>
       </c>
       <c r="AS79">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT79">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU79">
         <v>1.58</v>
@@ -16249,10 +16294,10 @@
         <v>0</v>
       </c>
       <c r="AS80">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT80">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="AU80">
         <v>1.64</v>
@@ -16353,7 +16398,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16440,10 +16485,10 @@
         <v>1.33</v>
       </c>
       <c r="AS81">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT81">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU81">
         <v>1.5</v>
@@ -16544,7 +16589,7 @@
         <v>120</v>
       </c>
       <c r="P82" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -16631,10 +16676,10 @@
         <v>0.75</v>
       </c>
       <c r="AS82">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AT82">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU82">
         <v>1.59</v>
@@ -16735,7 +16780,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16822,7 +16867,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT83">
         <v>1.67</v>
@@ -16926,7 +16971,7 @@
         <v>142</v>
       </c>
       <c r="P84" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17013,10 +17058,10 @@
         <v>1.5</v>
       </c>
       <c r="AS84">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT84">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU84">
         <v>2.07</v>
@@ -17204,10 +17249,10 @@
         <v>0.75</v>
       </c>
       <c r="AS85">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT85">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU85">
         <v>1.84</v>
@@ -17308,7 +17353,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17395,10 +17440,10 @@
         <v>2.25</v>
       </c>
       <c r="AS86">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT86">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AU86">
         <v>1.17</v>
@@ -17586,10 +17631,10 @@
         <v>0.33</v>
       </c>
       <c r="AS87">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT87">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU87">
         <v>1.53</v>
@@ -17690,7 +17735,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17777,7 +17822,7 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT88">
         <v>1</v>
@@ -17968,10 +18013,10 @@
         <v>1.5</v>
       </c>
       <c r="AS89">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT89">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU89">
         <v>1.69</v>
@@ -18072,7 +18117,7 @@
         <v>93</v>
       </c>
       <c r="P90" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18159,10 +18204,10 @@
         <v>1.33</v>
       </c>
       <c r="AS90">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT90">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU90">
         <v>1.88</v>
@@ -18263,7 +18308,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -18353,7 +18398,7 @@
         <v>0.67</v>
       </c>
       <c r="AT91">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU91">
         <v>1.73</v>
@@ -18541,10 +18586,10 @@
         <v>1</v>
       </c>
       <c r="AS92">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT92">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU92">
         <v>1.57</v>
@@ -18732,10 +18777,10 @@
         <v>1.5</v>
       </c>
       <c r="AS93">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT93">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU93">
         <v>1.44</v>
@@ -18836,7 +18881,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="Q94">
         <v>9</v>
@@ -18923,10 +18968,10 @@
         <v>0</v>
       </c>
       <c r="AS94">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT94">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="AU94">
         <v>1.74</v>
@@ -19027,7 +19072,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19114,10 +19159,10 @@
         <v>1.75</v>
       </c>
       <c r="AS95">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT95">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU95">
         <v>1.47</v>
@@ -19218,7 +19263,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19305,10 +19350,10 @@
         <v>1.25</v>
       </c>
       <c r="AS96">
+        <v>1.57</v>
+      </c>
+      <c r="AT96">
         <v>1.33</v>
-      </c>
-      <c r="AT96">
-        <v>1</v>
       </c>
       <c r="AU96">
         <v>1.64</v>
@@ -19499,7 +19544,7 @@
         <v>3</v>
       </c>
       <c r="AT97">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU97">
         <v>2.02</v>
@@ -19600,7 +19645,7 @@
         <v>124</v>
       </c>
       <c r="P98" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -19687,10 +19732,10 @@
         <v>2.4</v>
       </c>
       <c r="AS98">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT98">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AU98">
         <v>1.51</v>
@@ -19878,10 +19923,10 @@
         <v>0.5</v>
       </c>
       <c r="AS99">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT99">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU99">
         <v>1.79</v>
@@ -19982,7 +20027,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20069,10 +20114,10 @@
         <v>0.75</v>
       </c>
       <c r="AS100">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT100">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU100">
         <v>1.54</v>
@@ -20173,7 +20218,7 @@
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20260,7 +20305,7 @@
         <v>1.25</v>
       </c>
       <c r="AS101">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT101">
         <v>1</v>
@@ -20451,7 +20496,7 @@
         <v>1.8</v>
       </c>
       <c r="AS102">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT102">
         <v>1.67</v>
@@ -20555,7 +20600,7 @@
         <v>93</v>
       </c>
       <c r="P103" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -20642,10 +20687,10 @@
         <v>1.75</v>
       </c>
       <c r="AS103">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AT103">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU103">
         <v>1.57</v>
@@ -20746,7 +20791,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="Q104">
         <v>7</v>
@@ -20833,10 +20878,10 @@
         <v>1.8</v>
       </c>
       <c r="AS104">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT104">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU104">
         <v>1.53</v>
@@ -21024,10 +21069,10 @@
         <v>0.25</v>
       </c>
       <c r="AS105">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT105">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AU105">
         <v>1.58</v>
@@ -21128,7 +21173,7 @@
         <v>93</v>
       </c>
       <c r="P106" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21215,10 +21260,10 @@
         <v>0.25</v>
       </c>
       <c r="AS106">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT106">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU106">
         <v>1.68</v>
@@ -21319,7 +21364,7 @@
         <v>155</v>
       </c>
       <c r="P107" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21406,10 +21451,10 @@
         <v>1.2</v>
       </c>
       <c r="AS107">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT107">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU107">
         <v>1.06</v>
@@ -21510,7 +21555,7 @@
         <v>156</v>
       </c>
       <c r="P108" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -21597,10 +21642,10 @@
         <v>1.2</v>
       </c>
       <c r="AS108">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT108">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU108">
         <v>1.88</v>
@@ -21788,7 +21833,7 @@
         <v>1</v>
       </c>
       <c r="AS109">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT109">
         <v>1</v>
@@ -21892,7 +21937,7 @@
         <v>150</v>
       </c>
       <c r="P110" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -21979,10 +22024,10 @@
         <v>1.2</v>
       </c>
       <c r="AS110">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT110">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU110">
         <v>1.87</v>
@@ -22083,7 +22128,7 @@
         <v>93</v>
       </c>
       <c r="P111" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="Q111">
         <v>2</v>
@@ -22173,7 +22218,7 @@
         <v>0.67</v>
       </c>
       <c r="AT111">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU111">
         <v>1.68</v>
@@ -22225,6 +22270,3826 @@
       </c>
       <c r="BK111">
         <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:63">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>2982510</v>
+      </c>
+      <c r="C112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" s="2">
+        <v>44870.41666666666</v>
+      </c>
+      <c r="F112">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>79</v>
+      </c>
+      <c r="H112" t="s">
+        <v>81</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+      <c r="L112">
+        <v>2</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112">
+        <v>4</v>
+      </c>
+      <c r="O112" t="s">
+        <v>157</v>
+      </c>
+      <c r="P112" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q112">
+        <v>1</v>
+      </c>
+      <c r="R112">
+        <v>7</v>
+      </c>
+      <c r="S112">
+        <v>8</v>
+      </c>
+      <c r="T112">
+        <v>3.71</v>
+      </c>
+      <c r="U112">
+        <v>2.1</v>
+      </c>
+      <c r="V112">
+        <v>3.41</v>
+      </c>
+      <c r="W112">
+        <v>1.49</v>
+      </c>
+      <c r="X112">
+        <v>2.45</v>
+      </c>
+      <c r="Y112">
+        <v>3.25</v>
+      </c>
+      <c r="Z112">
+        <v>1.3</v>
+      </c>
+      <c r="AA112">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB112">
+        <v>1.04</v>
+      </c>
+      <c r="AC112">
+        <v>3.15</v>
+      </c>
+      <c r="AD112">
+        <v>2.9</v>
+      </c>
+      <c r="AE112">
+        <v>2.24</v>
+      </c>
+      <c r="AF112">
+        <v>1.07</v>
+      </c>
+      <c r="AG112">
+        <v>7</v>
+      </c>
+      <c r="AH112">
+        <v>1.4</v>
+      </c>
+      <c r="AI112">
+        <v>2.8</v>
+      </c>
+      <c r="AJ112">
+        <v>2.1</v>
+      </c>
+      <c r="AK112">
+        <v>1.65</v>
+      </c>
+      <c r="AL112">
+        <v>1.9</v>
+      </c>
+      <c r="AM112">
+        <v>1.83</v>
+      </c>
+      <c r="AN112">
+        <v>1.51</v>
+      </c>
+      <c r="AO112">
+        <v>1.42</v>
+      </c>
+      <c r="AP112">
+        <v>1.4</v>
+      </c>
+      <c r="AQ112">
+        <v>1.6</v>
+      </c>
+      <c r="AR112">
+        <v>1</v>
+      </c>
+      <c r="AS112">
+        <v>1.5</v>
+      </c>
+      <c r="AT112">
+        <v>1</v>
+      </c>
+      <c r="AU112">
+        <v>1.3</v>
+      </c>
+      <c r="AV112">
+        <v>1.36</v>
+      </c>
+      <c r="AW112">
+        <v>2.66</v>
+      </c>
+      <c r="AX112">
+        <v>2.29</v>
+      </c>
+      <c r="AY112">
+        <v>7.5</v>
+      </c>
+      <c r="AZ112">
+        <v>1.85</v>
+      </c>
+      <c r="BA112">
+        <v>1.45</v>
+      </c>
+      <c r="BB112">
+        <v>1.83</v>
+      </c>
+      <c r="BC112">
+        <v>2.4</v>
+      </c>
+      <c r="BD112">
+        <v>3.35</v>
+      </c>
+      <c r="BE112">
+        <v>4.8</v>
+      </c>
+      <c r="BF112">
+        <v>4</v>
+      </c>
+      <c r="BG112">
+        <v>7</v>
+      </c>
+      <c r="BH112">
+        <v>11</v>
+      </c>
+      <c r="BI112">
+        <v>9</v>
+      </c>
+      <c r="BJ112">
+        <v>15</v>
+      </c>
+      <c r="BK112">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:63">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>2982511</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="2">
+        <v>44870.41666666666</v>
+      </c>
+      <c r="F113">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>78</v>
+      </c>
+      <c r="H113" t="s">
+        <v>71</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113" t="s">
+        <v>93</v>
+      </c>
+      <c r="P113" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q113">
+        <v>3</v>
+      </c>
+      <c r="R113">
+        <v>6</v>
+      </c>
+      <c r="S113">
+        <v>9</v>
+      </c>
+      <c r="T113">
+        <v>2.6</v>
+      </c>
+      <c r="U113">
+        <v>2.1</v>
+      </c>
+      <c r="V113">
+        <v>4</v>
+      </c>
+      <c r="W113">
+        <v>1.4</v>
+      </c>
+      <c r="X113">
+        <v>2.75</v>
+      </c>
+      <c r="Y113">
+        <v>2.75</v>
+      </c>
+      <c r="Z113">
+        <v>1.4</v>
+      </c>
+      <c r="AA113">
+        <v>6.95</v>
+      </c>
+      <c r="AB113">
+        <v>1.07</v>
+      </c>
+      <c r="AC113">
+        <v>1.96</v>
+      </c>
+      <c r="AD113">
+        <v>3.15</v>
+      </c>
+      <c r="AE113">
+        <v>3.55</v>
+      </c>
+      <c r="AF113">
+        <v>1.01</v>
+      </c>
+      <c r="AG113">
+        <v>9.6</v>
+      </c>
+      <c r="AH113">
+        <v>1.28</v>
+      </c>
+      <c r="AI113">
+        <v>3.5</v>
+      </c>
+      <c r="AJ113">
+        <v>1.95</v>
+      </c>
+      <c r="AK113">
+        <v>1.9</v>
+      </c>
+      <c r="AL113">
+        <v>1.75</v>
+      </c>
+      <c r="AM113">
+        <v>2</v>
+      </c>
+      <c r="AN113">
+        <v>1.22</v>
+      </c>
+      <c r="AO113">
+        <v>1.25</v>
+      </c>
+      <c r="AP113">
+        <v>1.8</v>
+      </c>
+      <c r="AQ113">
+        <v>2</v>
+      </c>
+      <c r="AR113">
+        <v>0.8</v>
+      </c>
+      <c r="AS113">
+        <v>1.71</v>
+      </c>
+      <c r="AT113">
+        <v>0.83</v>
+      </c>
+      <c r="AU113">
+        <v>1.55</v>
+      </c>
+      <c r="AV113">
+        <v>1.53</v>
+      </c>
+      <c r="AW113">
+        <v>3.08</v>
+      </c>
+      <c r="AX113">
+        <v>1.59</v>
+      </c>
+      <c r="AY113">
+        <v>8.5</v>
+      </c>
+      <c r="AZ113">
+        <v>2.78</v>
+      </c>
+      <c r="BA113">
+        <v>1.22</v>
+      </c>
+      <c r="BB113">
+        <v>1.42</v>
+      </c>
+      <c r="BC113">
+        <v>1.74</v>
+      </c>
+      <c r="BD113">
+        <v>2.23</v>
+      </c>
+      <c r="BE113">
+        <v>3</v>
+      </c>
+      <c r="BF113">
+        <v>3</v>
+      </c>
+      <c r="BG113">
+        <v>0</v>
+      </c>
+      <c r="BH113">
+        <v>8</v>
+      </c>
+      <c r="BI113">
+        <v>15</v>
+      </c>
+      <c r="BJ113">
+        <v>11</v>
+      </c>
+      <c r="BK113">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:63">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>2982508</v>
+      </c>
+      <c r="C114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="2">
+        <v>44870.41666666666</v>
+      </c>
+      <c r="F114">
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>80</v>
+      </c>
+      <c r="H114" t="s">
+        <v>82</v>
+      </c>
+      <c r="I114">
+        <v>2</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>2</v>
+      </c>
+      <c r="L114">
+        <v>3</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>4</v>
+      </c>
+      <c r="O114" t="s">
+        <v>158</v>
+      </c>
+      <c r="P114" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q114">
+        <v>5</v>
+      </c>
+      <c r="R114">
+        <v>11</v>
+      </c>
+      <c r="S114">
+        <v>16</v>
+      </c>
+      <c r="T114">
+        <v>2.25</v>
+      </c>
+      <c r="U114">
+        <v>2.2</v>
+      </c>
+      <c r="V114">
+        <v>5.5</v>
+      </c>
+      <c r="W114">
+        <v>1.44</v>
+      </c>
+      <c r="X114">
+        <v>2.63</v>
+      </c>
+      <c r="Y114">
+        <v>3</v>
+      </c>
+      <c r="Z114">
+        <v>1.36</v>
+      </c>
+      <c r="AA114">
+        <v>9</v>
+      </c>
+      <c r="AB114">
+        <v>1.07</v>
+      </c>
+      <c r="AC114">
+        <v>1.59</v>
+      </c>
+      <c r="AD114">
+        <v>3.55</v>
+      </c>
+      <c r="AE114">
+        <v>5</v>
+      </c>
+      <c r="AF114">
+        <v>1.05</v>
+      </c>
+      <c r="AG114">
+        <v>10.75</v>
+      </c>
+      <c r="AH114">
+        <v>1.33</v>
+      </c>
+      <c r="AI114">
+        <v>3.1</v>
+      </c>
+      <c r="AJ114">
+        <v>2</v>
+      </c>
+      <c r="AK114">
+        <v>1.7</v>
+      </c>
+      <c r="AL114">
+        <v>2</v>
+      </c>
+      <c r="AM114">
+        <v>1.75</v>
+      </c>
+      <c r="AN114">
+        <v>1.15</v>
+      </c>
+      <c r="AO114">
+        <v>1.26</v>
+      </c>
+      <c r="AP114">
+        <v>2.2</v>
+      </c>
+      <c r="AQ114">
+        <v>1</v>
+      </c>
+      <c r="AR114">
+        <v>0.83</v>
+      </c>
+      <c r="AS114">
+        <v>1.33</v>
+      </c>
+      <c r="AT114">
+        <v>0.71</v>
+      </c>
+      <c r="AU114">
+        <v>1.61</v>
+      </c>
+      <c r="AV114">
+        <v>1</v>
+      </c>
+      <c r="AW114">
+        <v>2.61</v>
+      </c>
+      <c r="AX114">
+        <v>1.48</v>
+      </c>
+      <c r="AY114">
+        <v>6</v>
+      </c>
+      <c r="AZ114">
+        <v>3.15</v>
+      </c>
+      <c r="BA114">
+        <v>1.24</v>
+      </c>
+      <c r="BB114">
+        <v>1.46</v>
+      </c>
+      <c r="BC114">
+        <v>1.82</v>
+      </c>
+      <c r="BD114">
+        <v>2.4</v>
+      </c>
+      <c r="BE114">
+        <v>3.3</v>
+      </c>
+      <c r="BF114">
+        <v>7</v>
+      </c>
+      <c r="BG114">
+        <v>5</v>
+      </c>
+      <c r="BH114">
+        <v>9</v>
+      </c>
+      <c r="BI114">
+        <v>11</v>
+      </c>
+      <c r="BJ114">
+        <v>16</v>
+      </c>
+      <c r="BK114">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:63">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>2982504</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="2">
+        <v>44870.41666666666</v>
+      </c>
+      <c r="F115">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>66</v>
+      </c>
+      <c r="H115" t="s">
+        <v>74</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115" t="s">
+        <v>93</v>
+      </c>
+      <c r="P115" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q115">
+        <v>3</v>
+      </c>
+      <c r="R115">
+        <v>2</v>
+      </c>
+      <c r="S115">
+        <v>5</v>
+      </c>
+      <c r="T115">
+        <v>2.81</v>
+      </c>
+      <c r="U115">
+        <v>2.08</v>
+      </c>
+      <c r="V115">
+        <v>4.12</v>
+      </c>
+      <c r="W115">
+        <v>1.47</v>
+      </c>
+      <c r="X115">
+        <v>2.5</v>
+      </c>
+      <c r="Y115">
+        <v>3.05</v>
+      </c>
+      <c r="Z115">
+        <v>1.33</v>
+      </c>
+      <c r="AA115">
+        <v>7.9</v>
+      </c>
+      <c r="AB115">
+        <v>1.05</v>
+      </c>
+      <c r="AC115">
+        <v>2.11</v>
+      </c>
+      <c r="AD115">
+        <v>3</v>
+      </c>
+      <c r="AE115">
+        <v>3.35</v>
+      </c>
+      <c r="AF115">
+        <v>1.08</v>
+      </c>
+      <c r="AG115">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH115">
+        <v>1.38</v>
+      </c>
+      <c r="AI115">
+        <v>3.08</v>
+      </c>
+      <c r="AJ115">
+        <v>2</v>
+      </c>
+      <c r="AK115">
+        <v>1.7</v>
+      </c>
+      <c r="AL115">
+        <v>1.87</v>
+      </c>
+      <c r="AM115">
+        <v>1.89</v>
+      </c>
+      <c r="AN115">
+        <v>1.32</v>
+      </c>
+      <c r="AO115">
+        <v>1.32</v>
+      </c>
+      <c r="AP115">
+        <v>1.69</v>
+      </c>
+      <c r="AQ115">
+        <v>1.6</v>
+      </c>
+      <c r="AR115">
+        <v>0.6</v>
+      </c>
+      <c r="AS115">
+        <v>1.5</v>
+      </c>
+      <c r="AT115">
+        <v>0.67</v>
+      </c>
+      <c r="AU115">
+        <v>1.78</v>
+      </c>
+      <c r="AV115">
+        <v>1.38</v>
+      </c>
+      <c r="AW115">
+        <v>3.16</v>
+      </c>
+      <c r="AX115">
+        <v>1.64</v>
+      </c>
+      <c r="AY115">
+        <v>8</v>
+      </c>
+      <c r="AZ115">
+        <v>2.67</v>
+      </c>
+      <c r="BA115">
+        <v>1.29</v>
+      </c>
+      <c r="BB115">
+        <v>1.53</v>
+      </c>
+      <c r="BC115">
+        <v>1.98</v>
+      </c>
+      <c r="BD115">
+        <v>2.55</v>
+      </c>
+      <c r="BE115">
+        <v>3.5</v>
+      </c>
+      <c r="BF115">
+        <v>4</v>
+      </c>
+      <c r="BG115">
+        <v>3</v>
+      </c>
+      <c r="BH115">
+        <v>19</v>
+      </c>
+      <c r="BI115">
+        <v>3</v>
+      </c>
+      <c r="BJ115">
+        <v>23</v>
+      </c>
+      <c r="BK115">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:63">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>2982503</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="2">
+        <v>44870.41666666666</v>
+      </c>
+      <c r="F116">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>72</v>
+      </c>
+      <c r="H116" t="s">
+        <v>69</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116" t="s">
+        <v>159</v>
+      </c>
+      <c r="P116" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q116">
+        <v>1</v>
+      </c>
+      <c r="R116">
+        <v>11</v>
+      </c>
+      <c r="S116">
+        <v>12</v>
+      </c>
+      <c r="T116">
+        <v>2.65</v>
+      </c>
+      <c r="U116">
+        <v>2</v>
+      </c>
+      <c r="V116">
+        <v>4.33</v>
+      </c>
+      <c r="W116">
+        <v>1.47</v>
+      </c>
+      <c r="X116">
+        <v>2.5</v>
+      </c>
+      <c r="Y116">
+        <v>3.15</v>
+      </c>
+      <c r="Z116">
+        <v>1.32</v>
+      </c>
+      <c r="AA116">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB116">
+        <v>1.04</v>
+      </c>
+      <c r="AC116">
+        <v>1.85</v>
+      </c>
+      <c r="AD116">
+        <v>3.3</v>
+      </c>
+      <c r="AE116">
+        <v>3.75</v>
+      </c>
+      <c r="AF116">
+        <v>1.07</v>
+      </c>
+      <c r="AG116">
+        <v>7</v>
+      </c>
+      <c r="AH116">
+        <v>1.38</v>
+      </c>
+      <c r="AI116">
+        <v>2.8</v>
+      </c>
+      <c r="AJ116">
+        <v>2.15</v>
+      </c>
+      <c r="AK116">
+        <v>1.62</v>
+      </c>
+      <c r="AL116">
+        <v>1.95</v>
+      </c>
+      <c r="AM116">
+        <v>1.8</v>
+      </c>
+      <c r="AN116">
+        <v>1.2</v>
+      </c>
+      <c r="AO116">
+        <v>1.25</v>
+      </c>
+      <c r="AP116">
+        <v>1.8</v>
+      </c>
+      <c r="AQ116">
+        <v>2.2</v>
+      </c>
+      <c r="AR116">
+        <v>2</v>
+      </c>
+      <c r="AS116">
+        <v>2</v>
+      </c>
+      <c r="AT116">
+        <v>1.83</v>
+      </c>
+      <c r="AU116">
+        <v>1.45</v>
+      </c>
+      <c r="AV116">
+        <v>1.4</v>
+      </c>
+      <c r="AW116">
+        <v>2.85</v>
+      </c>
+      <c r="AX116">
+        <v>1.51</v>
+      </c>
+      <c r="AY116">
+        <v>8.5</v>
+      </c>
+      <c r="AZ116">
+        <v>3.07</v>
+      </c>
+      <c r="BA116">
+        <v>1.18</v>
+      </c>
+      <c r="BB116">
+        <v>1.34</v>
+      </c>
+      <c r="BC116">
+        <v>1.61</v>
+      </c>
+      <c r="BD116">
+        <v>2.02</v>
+      </c>
+      <c r="BE116">
+        <v>2.7</v>
+      </c>
+      <c r="BF116">
+        <v>6</v>
+      </c>
+      <c r="BG116">
+        <v>6</v>
+      </c>
+      <c r="BH116">
+        <v>8</v>
+      </c>
+      <c r="BI116">
+        <v>5</v>
+      </c>
+      <c r="BJ116">
+        <v>14</v>
+      </c>
+      <c r="BK116">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:63">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>2982502</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="2">
+        <v>44870.41666666666</v>
+      </c>
+      <c r="F117">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>73</v>
+      </c>
+      <c r="H117" t="s">
+        <v>75</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>2</v>
+      </c>
+      <c r="O117" t="s">
+        <v>102</v>
+      </c>
+      <c r="P117" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q117">
+        <v>7</v>
+      </c>
+      <c r="R117">
+        <v>2</v>
+      </c>
+      <c r="S117">
+        <v>9</v>
+      </c>
+      <c r="T117">
+        <v>3.35</v>
+      </c>
+      <c r="U117">
+        <v>2.19</v>
+      </c>
+      <c r="V117">
+        <v>3.52</v>
+      </c>
+      <c r="W117">
+        <v>1.44</v>
+      </c>
+      <c r="X117">
+        <v>2.89</v>
+      </c>
+      <c r="Y117">
+        <v>3.19</v>
+      </c>
+      <c r="Z117">
+        <v>1.38</v>
+      </c>
+      <c r="AA117">
+        <v>7.8</v>
+      </c>
+      <c r="AB117">
+        <v>1.07</v>
+      </c>
+      <c r="AC117">
+        <v>2.32</v>
+      </c>
+      <c r="AD117">
+        <v>3.05</v>
+      </c>
+      <c r="AE117">
+        <v>2.85</v>
+      </c>
+      <c r="AF117">
+        <v>1.05</v>
+      </c>
+      <c r="AG117">
+        <v>8</v>
+      </c>
+      <c r="AH117">
+        <v>1.33</v>
+      </c>
+      <c r="AI117">
+        <v>3.1</v>
+      </c>
+      <c r="AJ117">
+        <v>1.95</v>
+      </c>
+      <c r="AK117">
+        <v>1.75</v>
+      </c>
+      <c r="AL117">
+        <v>1.81</v>
+      </c>
+      <c r="AM117">
+        <v>1.95</v>
+      </c>
+      <c r="AN117">
+        <v>1.36</v>
+      </c>
+      <c r="AO117">
+        <v>1.28</v>
+      </c>
+      <c r="AP117">
+        <v>1.5</v>
+      </c>
+      <c r="AQ117">
+        <v>0.83</v>
+      </c>
+      <c r="AR117">
+        <v>2.17</v>
+      </c>
+      <c r="AS117">
+        <v>0.86</v>
+      </c>
+      <c r="AT117">
+        <v>2</v>
+      </c>
+      <c r="AU117">
+        <v>1.45</v>
+      </c>
+      <c r="AV117">
+        <v>1.27</v>
+      </c>
+      <c r="AW117">
+        <v>2.72</v>
+      </c>
+      <c r="AX117">
+        <v>2</v>
+      </c>
+      <c r="AY117">
+        <v>8</v>
+      </c>
+      <c r="AZ117">
+        <v>2</v>
+      </c>
+      <c r="BA117">
+        <v>1.22</v>
+      </c>
+      <c r="BB117">
+        <v>1.42</v>
+      </c>
+      <c r="BC117">
+        <v>1.74</v>
+      </c>
+      <c r="BD117">
+        <v>2.23</v>
+      </c>
+      <c r="BE117">
+        <v>3</v>
+      </c>
+      <c r="BF117">
+        <v>6</v>
+      </c>
+      <c r="BG117">
+        <v>3</v>
+      </c>
+      <c r="BH117">
+        <v>9</v>
+      </c>
+      <c r="BI117">
+        <v>8</v>
+      </c>
+      <c r="BJ117">
+        <v>15</v>
+      </c>
+      <c r="BK117">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:63">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>2982506</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="2">
+        <v>44870.51041666666</v>
+      </c>
+      <c r="F118">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>83</v>
+      </c>
+      <c r="H118" t="s">
+        <v>77</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
+      </c>
+      <c r="O118" t="s">
+        <v>160</v>
+      </c>
+      <c r="P118" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q118">
+        <v>4</v>
+      </c>
+      <c r="R118">
+        <v>3</v>
+      </c>
+      <c r="S118">
+        <v>7</v>
+      </c>
+      <c r="T118">
+        <v>2.25</v>
+      </c>
+      <c r="U118">
+        <v>2.15</v>
+      </c>
+      <c r="V118">
+        <v>4.75</v>
+      </c>
+      <c r="W118">
+        <v>1.44</v>
+      </c>
+      <c r="X118">
+        <v>2.6</v>
+      </c>
+      <c r="Y118">
+        <v>2.95</v>
+      </c>
+      <c r="Z118">
+        <v>1.35</v>
+      </c>
+      <c r="AA118">
+        <v>7.4</v>
+      </c>
+      <c r="AB118">
+        <v>1.06</v>
+      </c>
+      <c r="AC118">
+        <v>1.61</v>
+      </c>
+      <c r="AD118">
+        <v>3.5</v>
+      </c>
+      <c r="AE118">
+        <v>4.9</v>
+      </c>
+      <c r="AF118">
+        <v>1.07</v>
+      </c>
+      <c r="AG118">
+        <v>7.5</v>
+      </c>
+      <c r="AH118">
+        <v>1.33</v>
+      </c>
+      <c r="AI118">
+        <v>3.2</v>
+      </c>
+      <c r="AJ118">
+        <v>2</v>
+      </c>
+      <c r="AK118">
+        <v>1.85</v>
+      </c>
+      <c r="AL118">
+        <v>1.91</v>
+      </c>
+      <c r="AM118">
+        <v>1.8</v>
+      </c>
+      <c r="AN118">
+        <v>1.12</v>
+      </c>
+      <c r="AO118">
+        <v>1.29</v>
+      </c>
+      <c r="AP118">
+        <v>2.2</v>
+      </c>
+      <c r="AQ118">
+        <v>3</v>
+      </c>
+      <c r="AR118">
+        <v>0.6</v>
+      </c>
+      <c r="AS118">
+        <v>3</v>
+      </c>
+      <c r="AT118">
+        <v>0.57</v>
+      </c>
+      <c r="AU118">
+        <v>2.05</v>
+      </c>
+      <c r="AV118">
+        <v>1.38</v>
+      </c>
+      <c r="AW118">
+        <v>3.43</v>
+      </c>
+      <c r="AX118">
+        <v>1.34</v>
+      </c>
+      <c r="AY118">
+        <v>9.5</v>
+      </c>
+      <c r="AZ118">
+        <v>4.06</v>
+      </c>
+      <c r="BA118">
+        <v>1.27</v>
+      </c>
+      <c r="BB118">
+        <v>1.5</v>
+      </c>
+      <c r="BC118">
+        <v>1.85</v>
+      </c>
+      <c r="BD118">
+        <v>2.45</v>
+      </c>
+      <c r="BE118">
+        <v>3.4</v>
+      </c>
+      <c r="BF118">
+        <v>4</v>
+      </c>
+      <c r="BG118">
+        <v>3</v>
+      </c>
+      <c r="BH118">
+        <v>7</v>
+      </c>
+      <c r="BI118">
+        <v>12</v>
+      </c>
+      <c r="BJ118">
+        <v>11</v>
+      </c>
+      <c r="BK118">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:63">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>2982507</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" s="2">
+        <v>44870.51041666666</v>
+      </c>
+      <c r="F119">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>68</v>
+      </c>
+      <c r="H119" t="s">
+        <v>65</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119" t="s">
+        <v>105</v>
+      </c>
+      <c r="P119" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q119">
+        <v>5</v>
+      </c>
+      <c r="R119">
+        <v>12</v>
+      </c>
+      <c r="S119">
+        <v>17</v>
+      </c>
+      <c r="T119">
+        <v>3.25</v>
+      </c>
+      <c r="U119">
+        <v>2</v>
+      </c>
+      <c r="V119">
+        <v>3.25</v>
+      </c>
+      <c r="W119">
+        <v>1.44</v>
+      </c>
+      <c r="X119">
+        <v>2.7</v>
+      </c>
+      <c r="Y119">
+        <v>3.04</v>
+      </c>
+      <c r="Z119">
+        <v>1.36</v>
+      </c>
+      <c r="AA119">
+        <v>8</v>
+      </c>
+      <c r="AB119">
+        <v>1.06</v>
+      </c>
+      <c r="AC119">
+        <v>2.6</v>
+      </c>
+      <c r="AD119">
+        <v>3.05</v>
+      </c>
+      <c r="AE119">
+        <v>2.5</v>
+      </c>
+      <c r="AF119">
+        <v>1.03</v>
+      </c>
+      <c r="AG119">
+        <v>8.1</v>
+      </c>
+      <c r="AH119">
+        <v>1.34</v>
+      </c>
+      <c r="AI119">
+        <v>3.04</v>
+      </c>
+      <c r="AJ119">
+        <v>2</v>
+      </c>
+      <c r="AK119">
+        <v>1.7</v>
+      </c>
+      <c r="AL119">
+        <v>1.83</v>
+      </c>
+      <c r="AM119">
+        <v>1.93</v>
+      </c>
+      <c r="AN119">
+        <v>1.47</v>
+      </c>
+      <c r="AO119">
+        <v>1.28</v>
+      </c>
+      <c r="AP119">
+        <v>1.47</v>
+      </c>
+      <c r="AQ119">
+        <v>1.33</v>
+      </c>
+      <c r="AR119">
+        <v>1.2</v>
+      </c>
+      <c r="AS119">
+        <v>1.57</v>
+      </c>
+      <c r="AT119">
+        <v>1</v>
+      </c>
+      <c r="AU119">
+        <v>1.7</v>
+      </c>
+      <c r="AV119">
+        <v>1.88</v>
+      </c>
+      <c r="AW119">
+        <v>3.58</v>
+      </c>
+      <c r="AX119">
+        <v>1.85</v>
+      </c>
+      <c r="AY119">
+        <v>8</v>
+      </c>
+      <c r="AZ119">
+        <v>2.28</v>
+      </c>
+      <c r="BA119">
+        <v>1.27</v>
+      </c>
+      <c r="BB119">
+        <v>1.5</v>
+      </c>
+      <c r="BC119">
+        <v>1.9</v>
+      </c>
+      <c r="BD119">
+        <v>2.45</v>
+      </c>
+      <c r="BE119">
+        <v>3.4</v>
+      </c>
+      <c r="BF119">
+        <v>3</v>
+      </c>
+      <c r="BG119">
+        <v>4</v>
+      </c>
+      <c r="BH119">
+        <v>5</v>
+      </c>
+      <c r="BI119">
+        <v>17</v>
+      </c>
+      <c r="BJ119">
+        <v>8</v>
+      </c>
+      <c r="BK119">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" spans="1:63">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>2982505</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="2">
+        <v>44871.51041666666</v>
+      </c>
+      <c r="F120">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>67</v>
+      </c>
+      <c r="H120" t="s">
+        <v>70</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120" t="s">
+        <v>132</v>
+      </c>
+      <c r="P120" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q120">
+        <v>5</v>
+      </c>
+      <c r="R120">
+        <v>4</v>
+      </c>
+      <c r="S120">
+        <v>9</v>
+      </c>
+      <c r="T120">
+        <v>3.25</v>
+      </c>
+      <c r="U120">
+        <v>2.2</v>
+      </c>
+      <c r="V120">
+        <v>3.2</v>
+      </c>
+      <c r="W120">
+        <v>1.4</v>
+      </c>
+      <c r="X120">
+        <v>2.75</v>
+      </c>
+      <c r="Y120">
+        <v>2.75</v>
+      </c>
+      <c r="Z120">
+        <v>1.4</v>
+      </c>
+      <c r="AA120">
+        <v>8</v>
+      </c>
+      <c r="AB120">
+        <v>1.08</v>
+      </c>
+      <c r="AC120">
+        <v>2.8</v>
+      </c>
+      <c r="AD120">
+        <v>3.05</v>
+      </c>
+      <c r="AE120">
+        <v>2.37</v>
+      </c>
+      <c r="AF120">
+        <v>1.06</v>
+      </c>
+      <c r="AG120">
+        <v>8</v>
+      </c>
+      <c r="AH120">
+        <v>1.28</v>
+      </c>
+      <c r="AI120">
+        <v>3.5</v>
+      </c>
+      <c r="AJ120">
+        <v>1.87</v>
+      </c>
+      <c r="AK120">
+        <v>1.91</v>
+      </c>
+      <c r="AL120">
+        <v>1.7</v>
+      </c>
+      <c r="AM120">
+        <v>2.05</v>
+      </c>
+      <c r="AN120">
+        <v>1.5</v>
+      </c>
+      <c r="AO120">
+        <v>1.35</v>
+      </c>
+      <c r="AP120">
+        <v>1.45</v>
+      </c>
+      <c r="AQ120">
+        <v>1.33</v>
+      </c>
+      <c r="AR120">
+        <v>1.6</v>
+      </c>
+      <c r="AS120">
+        <v>1.57</v>
+      </c>
+      <c r="AT120">
+        <v>1.33</v>
+      </c>
+      <c r="AU120">
+        <v>1.51</v>
+      </c>
+      <c r="AV120">
+        <v>1.68</v>
+      </c>
+      <c r="AW120">
+        <v>3.19</v>
+      </c>
+      <c r="AX120">
+        <v>2.1</v>
+      </c>
+      <c r="AY120">
+        <v>8</v>
+      </c>
+      <c r="AZ120">
+        <v>1.91</v>
+      </c>
+      <c r="BA120">
+        <v>1.18</v>
+      </c>
+      <c r="BB120">
+        <v>1.34</v>
+      </c>
+      <c r="BC120">
+        <v>1.61</v>
+      </c>
+      <c r="BD120">
+        <v>2.02</v>
+      </c>
+      <c r="BE120">
+        <v>2.7</v>
+      </c>
+      <c r="BF120">
+        <v>6</v>
+      </c>
+      <c r="BG120">
+        <v>2</v>
+      </c>
+      <c r="BH120">
+        <v>15</v>
+      </c>
+      <c r="BI120">
+        <v>9</v>
+      </c>
+      <c r="BJ120">
+        <v>21</v>
+      </c>
+      <c r="BK120">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:63">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>2982509</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="2">
+        <v>44872.6875</v>
+      </c>
+      <c r="F121">
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>84</v>
+      </c>
+      <c r="H121" t="s">
+        <v>76</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>2</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>3</v>
+      </c>
+      <c r="O121" t="s">
+        <v>161</v>
+      </c>
+      <c r="P121" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q121">
+        <v>2</v>
+      </c>
+      <c r="R121">
+        <v>1</v>
+      </c>
+      <c r="S121">
+        <v>3</v>
+      </c>
+      <c r="T121">
+        <v>3.75</v>
+      </c>
+      <c r="U121">
+        <v>2.05</v>
+      </c>
+      <c r="V121">
+        <v>3.1</v>
+      </c>
+      <c r="W121">
+        <v>1.44</v>
+      </c>
+      <c r="X121">
+        <v>2.63</v>
+      </c>
+      <c r="Y121">
+        <v>3.25</v>
+      </c>
+      <c r="Z121">
+        <v>1.33</v>
+      </c>
+      <c r="AA121">
+        <v>10</v>
+      </c>
+      <c r="AB121">
+        <v>1.06</v>
+      </c>
+      <c r="AC121">
+        <v>3.1</v>
+      </c>
+      <c r="AD121">
+        <v>3.2</v>
+      </c>
+      <c r="AE121">
+        <v>2.3</v>
+      </c>
+      <c r="AF121">
+        <v>1.07</v>
+      </c>
+      <c r="AG121">
+        <v>7.75</v>
+      </c>
+      <c r="AH121">
+        <v>1.36</v>
+      </c>
+      <c r="AI121">
+        <v>2.87</v>
+      </c>
+      <c r="AJ121">
+        <v>1.98</v>
+      </c>
+      <c r="AK121">
+        <v>1.67</v>
+      </c>
+      <c r="AL121">
+        <v>1.91</v>
+      </c>
+      <c r="AM121">
+        <v>1.91</v>
+      </c>
+      <c r="AN121">
+        <v>1.57</v>
+      </c>
+      <c r="AO121">
+        <v>1.33</v>
+      </c>
+      <c r="AP121">
+        <v>1.37</v>
+      </c>
+      <c r="AQ121">
+        <v>2.4</v>
+      </c>
+      <c r="AR121">
+        <v>2.5</v>
+      </c>
+      <c r="AS121">
+        <v>2.5</v>
+      </c>
+      <c r="AT121">
+        <v>2.14</v>
+      </c>
+      <c r="AU121">
+        <v>2.12</v>
+      </c>
+      <c r="AV121">
+        <v>1.83</v>
+      </c>
+      <c r="AW121">
+        <v>3.95</v>
+      </c>
+      <c r="AX121">
+        <v>2.67</v>
+      </c>
+      <c r="AY121">
+        <v>8</v>
+      </c>
+      <c r="AZ121">
+        <v>1.64</v>
+      </c>
+      <c r="BA121">
+        <v>1.27</v>
+      </c>
+      <c r="BB121">
+        <v>1.53</v>
+      </c>
+      <c r="BC121">
+        <v>1.94</v>
+      </c>
+      <c r="BD121">
+        <v>2.53</v>
+      </c>
+      <c r="BE121">
+        <v>3.42</v>
+      </c>
+      <c r="BF121">
+        <v>7</v>
+      </c>
+      <c r="BG121">
+        <v>2</v>
+      </c>
+      <c r="BH121">
+        <v>2</v>
+      </c>
+      <c r="BI121">
+        <v>7</v>
+      </c>
+      <c r="BJ121">
+        <v>9</v>
+      </c>
+      <c r="BK121">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>2982512</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>44876.6875</v>
+      </c>
+      <c r="F122">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s">
+        <v>69</v>
+      </c>
+      <c r="H122" t="s">
+        <v>83</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122" t="s">
+        <v>93</v>
+      </c>
+      <c r="P122" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q122">
+        <v>2</v>
+      </c>
+      <c r="R122">
+        <v>3</v>
+      </c>
+      <c r="S122">
+        <v>5</v>
+      </c>
+      <c r="T122">
+        <v>3.75</v>
+      </c>
+      <c r="U122">
+        <v>1.95</v>
+      </c>
+      <c r="V122">
+        <v>2.88</v>
+      </c>
+      <c r="W122">
+        <v>1.44</v>
+      </c>
+      <c r="X122">
+        <v>2.62</v>
+      </c>
+      <c r="Y122">
+        <v>3</v>
+      </c>
+      <c r="Z122">
+        <v>1.36</v>
+      </c>
+      <c r="AA122">
+        <v>8</v>
+      </c>
+      <c r="AB122">
+        <v>1.06</v>
+      </c>
+      <c r="AC122">
+        <v>3</v>
+      </c>
+      <c r="AD122">
+        <v>3.2</v>
+      </c>
+      <c r="AE122">
+        <v>2.31</v>
+      </c>
+      <c r="AF122">
+        <v>1.08</v>
+      </c>
+      <c r="AG122">
+        <v>7</v>
+      </c>
+      <c r="AH122">
+        <v>1.4</v>
+      </c>
+      <c r="AI122">
+        <v>2.75</v>
+      </c>
+      <c r="AJ122">
+        <v>2.09</v>
+      </c>
+      <c r="AK122">
+        <v>1.66</v>
+      </c>
+      <c r="AL122">
+        <v>1.95</v>
+      </c>
+      <c r="AM122">
+        <v>1.81</v>
+      </c>
+      <c r="AN122">
+        <v>1.58</v>
+      </c>
+      <c r="AO122">
+        <v>1.34</v>
+      </c>
+      <c r="AP122">
+        <v>1.36</v>
+      </c>
+      <c r="AQ122">
+        <v>1.33</v>
+      </c>
+      <c r="AR122">
+        <v>1.5</v>
+      </c>
+      <c r="AS122">
+        <v>1.14</v>
+      </c>
+      <c r="AT122">
+        <v>1.71</v>
+      </c>
+      <c r="AU122">
+        <v>1.38</v>
+      </c>
+      <c r="AV122">
+        <v>1.85</v>
+      </c>
+      <c r="AW122">
+        <v>3.23</v>
+      </c>
+      <c r="AX122">
+        <v>2.92</v>
+      </c>
+      <c r="AY122">
+        <v>8.1</v>
+      </c>
+      <c r="AZ122">
+        <v>1.63</v>
+      </c>
+      <c r="BA122">
+        <v>1.22</v>
+      </c>
+      <c r="BB122">
+        <v>1.45</v>
+      </c>
+      <c r="BC122">
+        <v>1.81</v>
+      </c>
+      <c r="BD122">
+        <v>2.3</v>
+      </c>
+      <c r="BE122">
+        <v>3.08</v>
+      </c>
+      <c r="BF122">
+        <v>2</v>
+      </c>
+      <c r="BG122">
+        <v>3</v>
+      </c>
+      <c r="BH122">
+        <v>4</v>
+      </c>
+      <c r="BI122">
+        <v>9</v>
+      </c>
+      <c r="BJ122">
+        <v>6</v>
+      </c>
+      <c r="BK122">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>2982521</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>44877.41666666666</v>
+      </c>
+      <c r="F123">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s">
+        <v>70</v>
+      </c>
+      <c r="H123" t="s">
+        <v>84</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>2</v>
+      </c>
+      <c r="N123">
+        <v>3</v>
+      </c>
+      <c r="O123" t="s">
+        <v>162</v>
+      </c>
+      <c r="P123" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q123">
+        <v>6</v>
+      </c>
+      <c r="R123">
+        <v>8</v>
+      </c>
+      <c r="S123">
+        <v>14</v>
+      </c>
+      <c r="T123">
+        <v>3.3</v>
+      </c>
+      <c r="U123">
+        <v>1.98</v>
+      </c>
+      <c r="V123">
+        <v>3.45</v>
+      </c>
+      <c r="W123">
+        <v>1.43</v>
+      </c>
+      <c r="X123">
+        <v>2.6</v>
+      </c>
+      <c r="Y123">
+        <v>2.95</v>
+      </c>
+      <c r="Z123">
+        <v>1.34</v>
+      </c>
+      <c r="AA123">
+        <v>8</v>
+      </c>
+      <c r="AB123">
+        <v>1.07</v>
+      </c>
+      <c r="AC123">
+        <v>2.54</v>
+      </c>
+      <c r="AD123">
+        <v>3.32</v>
+      </c>
+      <c r="AE123">
+        <v>2.74</v>
+      </c>
+      <c r="AF123">
+        <v>1.07</v>
+      </c>
+      <c r="AG123">
+        <v>8</v>
+      </c>
+      <c r="AH123">
+        <v>1.36</v>
+      </c>
+      <c r="AI123">
+        <v>3</v>
+      </c>
+      <c r="AJ123">
+        <v>2.1</v>
+      </c>
+      <c r="AK123">
+        <v>1.74</v>
+      </c>
+      <c r="AL123">
+        <v>1.82</v>
+      </c>
+      <c r="AM123">
+        <v>1.87</v>
+      </c>
+      <c r="AN123">
+        <v>1.44</v>
+      </c>
+      <c r="AO123">
+        <v>1.32</v>
+      </c>
+      <c r="AP123">
+        <v>1.49</v>
+      </c>
+      <c r="AQ123">
+        <v>0.17</v>
+      </c>
+      <c r="AR123">
+        <v>1.17</v>
+      </c>
+      <c r="AS123">
+        <v>0.14</v>
+      </c>
+      <c r="AT123">
+        <v>1.43</v>
+      </c>
+      <c r="AU123">
+        <v>1.49</v>
+      </c>
+      <c r="AV123">
+        <v>1.6</v>
+      </c>
+      <c r="AW123">
+        <v>3.09</v>
+      </c>
+      <c r="AX123">
+        <v>1.95</v>
+      </c>
+      <c r="AY123">
+        <v>7.8</v>
+      </c>
+      <c r="AZ123">
+        <v>2.24</v>
+      </c>
+      <c r="BA123">
+        <v>1.18</v>
+      </c>
+      <c r="BB123">
+        <v>1.33</v>
+      </c>
+      <c r="BC123">
+        <v>1.64</v>
+      </c>
+      <c r="BD123">
+        <v>2.07</v>
+      </c>
+      <c r="BE123">
+        <v>2.73</v>
+      </c>
+      <c r="BF123">
+        <v>6</v>
+      </c>
+      <c r="BG123">
+        <v>6</v>
+      </c>
+      <c r="BH123">
+        <v>12</v>
+      </c>
+      <c r="BI123">
+        <v>14</v>
+      </c>
+      <c r="BJ123">
+        <v>18</v>
+      </c>
+      <c r="BK123">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>2982519</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>44877.41666666666</v>
+      </c>
+      <c r="F124">
+        <v>13</v>
+      </c>
+      <c r="G124" t="s">
+        <v>71</v>
+      </c>
+      <c r="H124" t="s">
+        <v>73</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>2</v>
+      </c>
+      <c r="N124">
+        <v>3</v>
+      </c>
+      <c r="O124" t="s">
+        <v>162</v>
+      </c>
+      <c r="P124" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q124">
+        <v>1</v>
+      </c>
+      <c r="R124">
+        <v>7</v>
+      </c>
+      <c r="S124">
+        <v>8</v>
+      </c>
+      <c r="T124">
+        <v>3</v>
+      </c>
+      <c r="U124">
+        <v>2</v>
+      </c>
+      <c r="V124">
+        <v>3.6</v>
+      </c>
+      <c r="W124">
+        <v>1.45</v>
+      </c>
+      <c r="X124">
+        <v>2.55</v>
+      </c>
+      <c r="Y124">
+        <v>2.95</v>
+      </c>
+      <c r="Z124">
+        <v>1.35</v>
+      </c>
+      <c r="AA124">
+        <v>7.4</v>
+      </c>
+      <c r="AB124">
+        <v>1.06</v>
+      </c>
+      <c r="AC124">
+        <v>2.35</v>
+      </c>
+      <c r="AD124">
+        <v>3.38</v>
+      </c>
+      <c r="AE124">
+        <v>2.98</v>
+      </c>
+      <c r="AF124">
+        <v>1.06</v>
+      </c>
+      <c r="AG124">
+        <v>8</v>
+      </c>
+      <c r="AH124">
+        <v>1.33</v>
+      </c>
+      <c r="AI124">
+        <v>3.2</v>
+      </c>
+      <c r="AJ124">
+        <v>2.01</v>
+      </c>
+      <c r="AK124">
+        <v>1.81</v>
+      </c>
+      <c r="AL124">
+        <v>1.75</v>
+      </c>
+      <c r="AM124">
+        <v>2</v>
+      </c>
+      <c r="AN124">
+        <v>1.3</v>
+      </c>
+      <c r="AO124">
+        <v>1.3</v>
+      </c>
+      <c r="AP124">
+        <v>1.55</v>
+      </c>
+      <c r="AQ124">
+        <v>1.67</v>
+      </c>
+      <c r="AR124">
+        <v>1</v>
+      </c>
+      <c r="AS124">
+        <v>1.43</v>
+      </c>
+      <c r="AT124">
+        <v>1.33</v>
+      </c>
+      <c r="AU124">
+        <v>1.53</v>
+      </c>
+      <c r="AV124">
+        <v>1.32</v>
+      </c>
+      <c r="AW124">
+        <v>2.85</v>
+      </c>
+      <c r="AX124">
+        <v>1.7</v>
+      </c>
+      <c r="AY124">
+        <v>7.9</v>
+      </c>
+      <c r="AZ124">
+        <v>2.73</v>
+      </c>
+      <c r="BA124">
+        <v>1.2</v>
+      </c>
+      <c r="BB124">
+        <v>1.4</v>
+      </c>
+      <c r="BC124">
+        <v>1.74</v>
+      </c>
+      <c r="BD124">
+        <v>2.19</v>
+      </c>
+      <c r="BE124">
+        <v>2.88</v>
+      </c>
+      <c r="BF124">
+        <v>4</v>
+      </c>
+      <c r="BG124">
+        <v>7</v>
+      </c>
+      <c r="BH124">
+        <v>4</v>
+      </c>
+      <c r="BI124">
+        <v>16</v>
+      </c>
+      <c r="BJ124">
+        <v>8</v>
+      </c>
+      <c r="BK124">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>2982518</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>44877.41666666666</v>
+      </c>
+      <c r="F125">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s">
+        <v>65</v>
+      </c>
+      <c r="H125" t="s">
+        <v>66</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>3</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <v>4</v>
+      </c>
+      <c r="O125" t="s">
+        <v>163</v>
+      </c>
+      <c r="P125" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q125">
+        <v>7</v>
+      </c>
+      <c r="R125">
+        <v>5</v>
+      </c>
+      <c r="S125">
+        <v>12</v>
+      </c>
+      <c r="T125">
+        <v>2.75</v>
+      </c>
+      <c r="U125">
+        <v>1.95</v>
+      </c>
+      <c r="V125">
+        <v>4.2</v>
+      </c>
+      <c r="W125">
+        <v>1.51</v>
+      </c>
+      <c r="X125">
+        <v>2.4</v>
+      </c>
+      <c r="Y125">
+        <v>3.25</v>
+      </c>
+      <c r="Z125">
+        <v>1.3</v>
+      </c>
+      <c r="AA125">
+        <v>8.9</v>
+      </c>
+      <c r="AB125">
+        <v>1.04</v>
+      </c>
+      <c r="AC125">
+        <v>1.98</v>
+      </c>
+      <c r="AD125">
+        <v>3.38</v>
+      </c>
+      <c r="AE125">
+        <v>3.88</v>
+      </c>
+      <c r="AF125">
+        <v>1.08</v>
+      </c>
+      <c r="AG125">
+        <v>7</v>
+      </c>
+      <c r="AH125">
+        <v>1.42</v>
+      </c>
+      <c r="AI125">
+        <v>2.75</v>
+      </c>
+      <c r="AJ125">
+        <v>2.25</v>
+      </c>
+      <c r="AK125">
+        <v>1.57</v>
+      </c>
+      <c r="AL125">
+        <v>2</v>
+      </c>
+      <c r="AM125">
+        <v>1.75</v>
+      </c>
+      <c r="AN125">
+        <v>1.2</v>
+      </c>
+      <c r="AO125">
+        <v>1.28</v>
+      </c>
+      <c r="AP125">
+        <v>1.72</v>
+      </c>
+      <c r="AQ125">
+        <v>2.17</v>
+      </c>
+      <c r="AR125">
+        <v>1</v>
+      </c>
+      <c r="AS125">
+        <v>2.29</v>
+      </c>
+      <c r="AT125">
+        <v>0.86</v>
+      </c>
+      <c r="AU125">
+        <v>1.48</v>
+      </c>
+      <c r="AV125">
+        <v>1.37</v>
+      </c>
+      <c r="AW125">
+        <v>2.85</v>
+      </c>
+      <c r="AX125">
+        <v>1.82</v>
+      </c>
+      <c r="AY125">
+        <v>7.8</v>
+      </c>
+      <c r="AZ125">
+        <v>2.49</v>
+      </c>
+      <c r="BA125">
+        <v>1.22</v>
+      </c>
+      <c r="BB125">
+        <v>1.45</v>
+      </c>
+      <c r="BC125">
+        <v>1.81</v>
+      </c>
+      <c r="BD125">
+        <v>2.3</v>
+      </c>
+      <c r="BE125">
+        <v>3.08</v>
+      </c>
+      <c r="BF125">
+        <v>5</v>
+      </c>
+      <c r="BG125">
+        <v>5</v>
+      </c>
+      <c r="BH125">
+        <v>9</v>
+      </c>
+      <c r="BI125">
+        <v>6</v>
+      </c>
+      <c r="BJ125">
+        <v>14</v>
+      </c>
+      <c r="BK125">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>2982517</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>44877.41666666666</v>
+      </c>
+      <c r="F126">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s">
+        <v>74</v>
+      </c>
+      <c r="H126" t="s">
+        <v>77</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>2</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>2</v>
+      </c>
+      <c r="O126" t="s">
+        <v>164</v>
+      </c>
+      <c r="P126" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q126">
+        <v>5</v>
+      </c>
+      <c r="R126">
+        <v>5</v>
+      </c>
+      <c r="S126">
+        <v>10</v>
+      </c>
+      <c r="T126">
+        <v>2.75</v>
+      </c>
+      <c r="U126">
+        <v>2.05</v>
+      </c>
+      <c r="V126">
+        <v>3.75</v>
+      </c>
+      <c r="W126">
+        <v>1.42</v>
+      </c>
+      <c r="X126">
+        <v>2.65</v>
+      </c>
+      <c r="Y126">
+        <v>2.85</v>
+      </c>
+      <c r="Z126">
+        <v>1.37</v>
+      </c>
+      <c r="AA126">
+        <v>7.4</v>
+      </c>
+      <c r="AB126">
+        <v>1.06</v>
+      </c>
+      <c r="AC126">
+        <v>2.07</v>
+      </c>
+      <c r="AD126">
+        <v>3.5</v>
+      </c>
+      <c r="AE126">
+        <v>3.48</v>
+      </c>
+      <c r="AF126">
+        <v>1.06</v>
+      </c>
+      <c r="AG126">
+        <v>8</v>
+      </c>
+      <c r="AH126">
+        <v>1.3</v>
+      </c>
+      <c r="AI126">
+        <v>3.3</v>
+      </c>
+      <c r="AJ126">
+        <v>1.97</v>
+      </c>
+      <c r="AK126">
+        <v>1.83</v>
+      </c>
+      <c r="AL126">
+        <v>1.78</v>
+      </c>
+      <c r="AM126">
+        <v>2</v>
+      </c>
+      <c r="AN126">
+        <v>1.25</v>
+      </c>
+      <c r="AO126">
+        <v>1.25</v>
+      </c>
+      <c r="AP126">
+        <v>1.72</v>
+      </c>
+      <c r="AQ126">
+        <v>1.5</v>
+      </c>
+      <c r="AR126">
+        <v>0.5</v>
+      </c>
+      <c r="AS126">
+        <v>1.43</v>
+      </c>
+      <c r="AT126">
+        <v>0.57</v>
+      </c>
+      <c r="AU126">
+        <v>1.67</v>
+      </c>
+      <c r="AV126">
+        <v>1.4</v>
+      </c>
+      <c r="AW126">
+        <v>3.07</v>
+      </c>
+      <c r="AX126">
+        <v>1.68</v>
+      </c>
+      <c r="AY126">
+        <v>8</v>
+      </c>
+      <c r="AZ126">
+        <v>2.78</v>
+      </c>
+      <c r="BA126">
+        <v>1.22</v>
+      </c>
+      <c r="BB126">
+        <v>1.44</v>
+      </c>
+      <c r="BC126">
+        <v>1.79</v>
+      </c>
+      <c r="BD126">
+        <v>2.26</v>
+      </c>
+      <c r="BE126">
+        <v>3.04</v>
+      </c>
+      <c r="BF126">
+        <v>4</v>
+      </c>
+      <c r="BG126">
+        <v>4</v>
+      </c>
+      <c r="BH126">
+        <v>11</v>
+      </c>
+      <c r="BI126">
+        <v>13</v>
+      </c>
+      <c r="BJ126">
+        <v>15</v>
+      </c>
+      <c r="BK126">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>2982514</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>44877.41666666666</v>
+      </c>
+      <c r="F127">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s">
+        <v>81</v>
+      </c>
+      <c r="H127" t="s">
+        <v>80</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
+      <c r="O127" t="s">
+        <v>165</v>
+      </c>
+      <c r="P127" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q127">
+        <v>6</v>
+      </c>
+      <c r="R127">
+        <v>5</v>
+      </c>
+      <c r="S127">
+        <v>11</v>
+      </c>
+      <c r="T127">
+        <v>2.75</v>
+      </c>
+      <c r="U127">
+        <v>2</v>
+      </c>
+      <c r="V127">
+        <v>4</v>
+      </c>
+      <c r="W127">
+        <v>1.47</v>
+      </c>
+      <c r="X127">
+        <v>2.5</v>
+      </c>
+      <c r="Y127">
+        <v>3.05</v>
+      </c>
+      <c r="Z127">
+        <v>1.33</v>
+      </c>
+      <c r="AA127">
+        <v>7.9</v>
+      </c>
+      <c r="AB127">
+        <v>1.05</v>
+      </c>
+      <c r="AC127">
+        <v>2.05</v>
+      </c>
+      <c r="AD127">
+        <v>3.44</v>
+      </c>
+      <c r="AE127">
+        <v>3.58</v>
+      </c>
+      <c r="AF127">
+        <v>1.08</v>
+      </c>
+      <c r="AG127">
+        <v>7</v>
+      </c>
+      <c r="AH127">
+        <v>1.36</v>
+      </c>
+      <c r="AI127">
+        <v>3</v>
+      </c>
+      <c r="AJ127">
+        <v>2.07</v>
+      </c>
+      <c r="AK127">
+        <v>1.75</v>
+      </c>
+      <c r="AL127">
+        <v>1.85</v>
+      </c>
+      <c r="AM127">
+        <v>1.9</v>
+      </c>
+      <c r="AN127">
+        <v>1.22</v>
+      </c>
+      <c r="AO127">
+        <v>1.28</v>
+      </c>
+      <c r="AP127">
+        <v>1.68</v>
+      </c>
+      <c r="AQ127">
+        <v>1.67</v>
+      </c>
+      <c r="AR127">
+        <v>1</v>
+      </c>
+      <c r="AS127">
+        <v>1.57</v>
+      </c>
+      <c r="AT127">
+        <v>1</v>
+      </c>
+      <c r="AU127">
+        <v>1.77</v>
+      </c>
+      <c r="AV127">
+        <v>1.48</v>
+      </c>
+      <c r="AW127">
+        <v>3.25</v>
+      </c>
+      <c r="AX127">
+        <v>1.54</v>
+      </c>
+      <c r="AY127">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ127">
+        <v>3.22</v>
+      </c>
+      <c r="BA127">
+        <v>1.22</v>
+      </c>
+      <c r="BB127">
+        <v>1.45</v>
+      </c>
+      <c r="BC127">
+        <v>1.81</v>
+      </c>
+      <c r="BD127">
+        <v>2.3</v>
+      </c>
+      <c r="BE127">
+        <v>3.08</v>
+      </c>
+      <c r="BF127">
+        <v>6</v>
+      </c>
+      <c r="BG127">
+        <v>6</v>
+      </c>
+      <c r="BH127">
+        <v>9</v>
+      </c>
+      <c r="BI127">
+        <v>5</v>
+      </c>
+      <c r="BJ127">
+        <v>15</v>
+      </c>
+      <c r="BK127">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:63">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>2982515</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2">
+        <v>44877.41666666666</v>
+      </c>
+      <c r="F128">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s">
+        <v>82</v>
+      </c>
+      <c r="H128" t="s">
+        <v>68</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>2</v>
+      </c>
+      <c r="L128">
+        <v>3</v>
+      </c>
+      <c r="M128">
+        <v>2</v>
+      </c>
+      <c r="N128">
+        <v>5</v>
+      </c>
+      <c r="O128" t="s">
+        <v>166</v>
+      </c>
+      <c r="P128" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q128">
+        <v>1</v>
+      </c>
+      <c r="R128">
+        <v>5</v>
+      </c>
+      <c r="S128">
+        <v>6</v>
+      </c>
+      <c r="T128">
+        <v>3.75</v>
+      </c>
+      <c r="U128">
+        <v>2.05</v>
+      </c>
+      <c r="V128">
+        <v>3</v>
+      </c>
+      <c r="W128">
+        <v>1.44</v>
+      </c>
+      <c r="X128">
+        <v>2.63</v>
+      </c>
+      <c r="Y128">
+        <v>3.25</v>
+      </c>
+      <c r="Z128">
+        <v>1.33</v>
+      </c>
+      <c r="AA128">
+        <v>9</v>
+      </c>
+      <c r="AB128">
+        <v>1.07</v>
+      </c>
+      <c r="AC128">
+        <v>3.24</v>
+      </c>
+      <c r="AD128">
+        <v>3.32</v>
+      </c>
+      <c r="AE128">
+        <v>2.23</v>
+      </c>
+      <c r="AF128">
+        <v>1.07</v>
+      </c>
+      <c r="AG128">
+        <v>7.5</v>
+      </c>
+      <c r="AH128">
+        <v>1.36</v>
+      </c>
+      <c r="AI128">
+        <v>3</v>
+      </c>
+      <c r="AJ128">
+        <v>2.15</v>
+      </c>
+      <c r="AK128">
+        <v>1.7</v>
+      </c>
+      <c r="AL128">
+        <v>1.8</v>
+      </c>
+      <c r="AM128">
+        <v>1.95</v>
+      </c>
+      <c r="AN128">
+        <v>1.57</v>
+      </c>
+      <c r="AO128">
+        <v>1.38</v>
+      </c>
+      <c r="AP128">
+        <v>1.32</v>
+      </c>
+      <c r="AQ128">
+        <v>1.2</v>
+      </c>
+      <c r="AR128">
+        <v>0.8</v>
+      </c>
+      <c r="AS128">
+        <v>1.5</v>
+      </c>
+      <c r="AT128">
+        <v>0.67</v>
+      </c>
+      <c r="AU128">
+        <v>1.01</v>
+      </c>
+      <c r="AV128">
+        <v>1.29</v>
+      </c>
+      <c r="AW128">
+        <v>2.3</v>
+      </c>
+      <c r="AX128">
+        <v>2.32</v>
+      </c>
+      <c r="AY128">
+        <v>7.6</v>
+      </c>
+      <c r="AZ128">
+        <v>1.91</v>
+      </c>
+      <c r="BA128">
+        <v>1.29</v>
+      </c>
+      <c r="BB128">
+        <v>1.56</v>
+      </c>
+      <c r="BC128">
+        <v>1.99</v>
+      </c>
+      <c r="BD128">
+        <v>2.62</v>
+      </c>
+      <c r="BE128">
+        <v>3.56</v>
+      </c>
+      <c r="BF128">
+        <v>7</v>
+      </c>
+      <c r="BG128">
+        <v>9</v>
+      </c>
+      <c r="BH128">
+        <v>5</v>
+      </c>
+      <c r="BI128">
+        <v>7</v>
+      </c>
+      <c r="BJ128">
+        <v>12</v>
+      </c>
+      <c r="BK128">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>2982513</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>44877.41666666666</v>
+      </c>
+      <c r="F129">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s">
+        <v>75</v>
+      </c>
+      <c r="H129" t="s">
+        <v>79</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>2</v>
+      </c>
+      <c r="K129">
+        <v>3</v>
+      </c>
+      <c r="L129">
+        <v>2</v>
+      </c>
+      <c r="M129">
+        <v>2</v>
+      </c>
+      <c r="N129">
+        <v>4</v>
+      </c>
+      <c r="O129" t="s">
+        <v>167</v>
+      </c>
+      <c r="P129" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q129">
+        <v>10</v>
+      </c>
+      <c r="R129">
+        <v>4</v>
+      </c>
+      <c r="S129">
+        <v>14</v>
+      </c>
+      <c r="T129">
+        <v>2.6</v>
+      </c>
+      <c r="U129">
+        <v>2</v>
+      </c>
+      <c r="V129">
+        <v>4.5</v>
+      </c>
+      <c r="W129">
+        <v>1.49</v>
+      </c>
+      <c r="X129">
+        <v>2.45</v>
+      </c>
+      <c r="Y129">
+        <v>3.25</v>
+      </c>
+      <c r="Z129">
+        <v>1.3</v>
+      </c>
+      <c r="AA129">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB129">
+        <v>1.04</v>
+      </c>
+      <c r="AC129">
+        <v>1.92</v>
+      </c>
+      <c r="AD129">
+        <v>3.42</v>
+      </c>
+      <c r="AE129">
+        <v>4.1</v>
+      </c>
+      <c r="AF129">
+        <v>1.08</v>
+      </c>
+      <c r="AG129">
+        <v>7</v>
+      </c>
+      <c r="AH129">
+        <v>1.4</v>
+      </c>
+      <c r="AI129">
+        <v>2.8</v>
+      </c>
+      <c r="AJ129">
+        <v>2.15</v>
+      </c>
+      <c r="AK129">
+        <v>1.61</v>
+      </c>
+      <c r="AL129">
+        <v>2</v>
+      </c>
+      <c r="AM129">
+        <v>1.75</v>
+      </c>
+      <c r="AN129">
+        <v>1.18</v>
+      </c>
+      <c r="AO129">
+        <v>1.28</v>
+      </c>
+      <c r="AP129">
+        <v>1.83</v>
+      </c>
+      <c r="AQ129">
+        <v>1.2</v>
+      </c>
+      <c r="AR129">
+        <v>1.67</v>
+      </c>
+      <c r="AS129">
+        <v>1.17</v>
+      </c>
+      <c r="AT129">
+        <v>1.57</v>
+      </c>
+      <c r="AU129">
+        <v>1.93</v>
+      </c>
+      <c r="AV129">
+        <v>1.55</v>
+      </c>
+      <c r="AW129">
+        <v>3.48</v>
+      </c>
+      <c r="AX129">
+        <v>1.49</v>
+      </c>
+      <c r="AY129">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ129">
+        <v>3.46</v>
+      </c>
+      <c r="BA129">
+        <v>1.32</v>
+      </c>
+      <c r="BB129">
+        <v>1.6</v>
+      </c>
+      <c r="BC129">
+        <v>2.07</v>
+      </c>
+      <c r="BD129">
+        <v>2.73</v>
+      </c>
+      <c r="BE129">
+        <v>3.74</v>
+      </c>
+      <c r="BF129">
+        <v>6</v>
+      </c>
+      <c r="BG129">
+        <v>5</v>
+      </c>
+      <c r="BH129">
+        <v>21</v>
+      </c>
+      <c r="BI129">
+        <v>4</v>
+      </c>
+      <c r="BJ129">
+        <v>27</v>
+      </c>
+      <c r="BK129">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:63">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>2982520</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="2">
+        <v>44877.51041666666</v>
+      </c>
+      <c r="F130">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s">
+        <v>78</v>
+      </c>
+      <c r="H130" t="s">
+        <v>72</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130" t="s">
+        <v>93</v>
+      </c>
+      <c r="P130" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q130">
+        <v>6</v>
+      </c>
+      <c r="R130">
+        <v>4</v>
+      </c>
+      <c r="S130">
+        <v>10</v>
+      </c>
+      <c r="T130">
+        <v>2.85</v>
+      </c>
+      <c r="U130">
+        <v>2.05</v>
+      </c>
+      <c r="V130">
+        <v>3.75</v>
+      </c>
+      <c r="W130">
+        <v>1.42</v>
+      </c>
+      <c r="X130">
+        <v>2.78</v>
+      </c>
+      <c r="Y130">
+        <v>2.86</v>
+      </c>
+      <c r="Z130">
+        <v>1.4</v>
+      </c>
+      <c r="AA130">
+        <v>7.3</v>
+      </c>
+      <c r="AB130">
+        <v>1.08</v>
+      </c>
+      <c r="AC130">
+        <v>2.2</v>
+      </c>
+      <c r="AD130">
+        <v>3.44</v>
+      </c>
+      <c r="AE130">
+        <v>3.19</v>
+      </c>
+      <c r="AF130">
+        <v>1.06</v>
+      </c>
+      <c r="AG130">
+        <v>8</v>
+      </c>
+      <c r="AH130">
+        <v>1.3</v>
+      </c>
+      <c r="AI130">
+        <v>3.3</v>
+      </c>
+      <c r="AJ130">
+        <v>1.94</v>
+      </c>
+      <c r="AK130">
+        <v>1.86</v>
+      </c>
+      <c r="AL130">
+        <v>1.72</v>
+      </c>
+      <c r="AM130">
+        <v>2.05</v>
+      </c>
+      <c r="AN130">
+        <v>1.25</v>
+      </c>
+      <c r="AO130">
+        <v>1.28</v>
+      </c>
+      <c r="AP130">
+        <v>1.65</v>
+      </c>
+      <c r="AQ130">
+        <v>1.83</v>
+      </c>
+      <c r="AR130">
+        <v>1.17</v>
+      </c>
+      <c r="AS130">
+        <v>1.71</v>
+      </c>
+      <c r="AT130">
+        <v>1.14</v>
+      </c>
+      <c r="AU130">
+        <v>1.51</v>
+      </c>
+      <c r="AV130">
+        <v>1.69</v>
+      </c>
+      <c r="AW130">
+        <v>3.2</v>
+      </c>
+      <c r="AX130">
+        <v>1.84</v>
+      </c>
+      <c r="AY130">
+        <v>7.8</v>
+      </c>
+      <c r="AZ130">
+        <v>2.45</v>
+      </c>
+      <c r="BA130">
+        <v>1.22</v>
+      </c>
+      <c r="BB130">
+        <v>1.43</v>
+      </c>
+      <c r="BC130">
+        <v>1.79</v>
+      </c>
+      <c r="BD130">
+        <v>2.26</v>
+      </c>
+      <c r="BE130">
+        <v>3.04</v>
+      </c>
+      <c r="BF130">
+        <v>2</v>
+      </c>
+      <c r="BG130">
+        <v>0</v>
+      </c>
+      <c r="BH130">
+        <v>9</v>
+      </c>
+      <c r="BI130">
+        <v>13</v>
+      </c>
+      <c r="BJ130">
+        <v>11</v>
+      </c>
+      <c r="BK130">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>2982516</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>44878.51041666666</v>
+      </c>
+      <c r="F131">
+        <v>13</v>
+      </c>
+      <c r="G131" t="s">
+        <v>76</v>
+      </c>
+      <c r="H131" t="s">
+        <v>67</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>2</v>
+      </c>
+      <c r="O131" t="s">
+        <v>114</v>
+      </c>
+      <c r="P131" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q131">
+        <v>7</v>
+      </c>
+      <c r="R131">
+        <v>1</v>
+      </c>
+      <c r="S131">
+        <v>8</v>
+      </c>
+      <c r="T131">
+        <v>1.83</v>
+      </c>
+      <c r="U131">
+        <v>2.38</v>
+      </c>
+      <c r="V131">
+        <v>6.5</v>
+      </c>
+      <c r="W131">
+        <v>1.33</v>
+      </c>
+      <c r="X131">
+        <v>3.25</v>
+      </c>
+      <c r="Y131">
+        <v>2.5</v>
+      </c>
+      <c r="Z131">
+        <v>1.5</v>
+      </c>
+      <c r="AA131">
+        <v>6</v>
+      </c>
+      <c r="AB131">
+        <v>1.11</v>
+      </c>
+      <c r="AC131">
+        <v>1.38</v>
+      </c>
+      <c r="AD131">
+        <v>4.74</v>
+      </c>
+      <c r="AE131">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AF131">
+        <v>1.05</v>
+      </c>
+      <c r="AG131">
+        <v>9</v>
+      </c>
+      <c r="AH131">
+        <v>1.29</v>
+      </c>
+      <c r="AI131">
+        <v>3.5</v>
+      </c>
+      <c r="AJ131">
+        <v>1.75</v>
+      </c>
+      <c r="AK131">
+        <v>1.95</v>
+      </c>
+      <c r="AL131">
+        <v>2.1</v>
+      </c>
+      <c r="AM131">
+        <v>1.67</v>
+      </c>
+      <c r="AN131">
+        <v>1.05</v>
+      </c>
+      <c r="AO131">
+        <v>1.2</v>
+      </c>
+      <c r="AP131">
+        <v>3</v>
+      </c>
+      <c r="AQ131">
+        <v>1.4</v>
+      </c>
+      <c r="AR131">
+        <v>0.2</v>
+      </c>
+      <c r="AS131">
+        <v>1.33</v>
+      </c>
+      <c r="AT131">
+        <v>0.33</v>
+      </c>
+      <c r="AU131">
+        <v>1.74</v>
+      </c>
+      <c r="AV131">
+        <v>1.35</v>
+      </c>
+      <c r="AW131">
+        <v>3.09</v>
+      </c>
+      <c r="AX131">
+        <v>1.03</v>
+      </c>
+      <c r="AY131">
+        <v>19</v>
+      </c>
+      <c r="AZ131">
+        <v>18</v>
+      </c>
+      <c r="BA131">
+        <v>1.24</v>
+      </c>
+      <c r="BB131">
+        <v>1.48</v>
+      </c>
+      <c r="BC131">
+        <v>1.86</v>
+      </c>
+      <c r="BD131">
+        <v>2.39</v>
+      </c>
+      <c r="BE131">
+        <v>3.2</v>
+      </c>
+      <c r="BF131">
+        <v>8</v>
+      </c>
+      <c r="BG131">
+        <v>6</v>
+      </c>
+      <c r="BH131">
+        <v>6</v>
+      </c>
+      <c r="BI131">
+        <v>4</v>
+      </c>
+      <c r="BJ131">
+        <v>14</v>
+      </c>
+      <c r="BK131">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK141"/>
+  <dimension ref="A1:BK151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>1.38</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AT7" t="n">
         <v>1.88</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT9" t="n">
         <v>1.57</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT10" t="n">
         <v>0.75</v>
@@ -2730,7 +2730,7 @@
         <v>1.43</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT13" t="n">
         <v>1.29</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT14" t="n">
         <v>0.71</v>
@@ -3745,7 +3745,7 @@
         <v>1.71</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT17" t="n">
         <v>1.57</v>
@@ -4151,7 +4151,7 @@
         <v>1.57</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT20" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT23" t="n">
         <v>1</v>
@@ -5369,7 +5369,7 @@
         <v>1.43</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU24" t="n">
         <v>1.55</v>
@@ -6381,10 +6381,10 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU29" t="n">
         <v>1.86</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT32" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU32" t="n">
         <v>2.09</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU33" t="n">
         <v>1.45</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT34" t="n">
         <v>0.71</v>
@@ -7599,10 +7599,10 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU35" t="n">
         <v>1.41</v>
@@ -7805,7 +7805,7 @@
         <v>2.71</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AU36" t="n">
         <v>1.81</v>
@@ -8008,7 +8008,7 @@
         <v>2.29</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU37" t="n">
         <v>2.16</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AT39" t="n">
         <v>1.29</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT40" t="n">
         <v>1</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT41" t="n">
         <v>1</v>
@@ -9226,7 +9226,7 @@
         <v>1.57</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU43" t="n">
         <v>1.69</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT44" t="n">
         <v>1.88</v>
@@ -9632,7 +9632,7 @@
         <v>2</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU45" t="n">
         <v>1.64</v>
@@ -9835,7 +9835,7 @@
         <v>1.43</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU46" t="n">
         <v>1.9</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT48" t="n">
         <v>1</v>
@@ -10847,7 +10847,7 @@
         <v>2</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT51" t="n">
         <v>1.57</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT52" t="n">
         <v>1.29</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT53" t="n">
         <v>1</v>
@@ -11456,7 +11456,7 @@
         <v>2.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT54" t="n">
         <v>1.88</v>
@@ -11865,7 +11865,7 @@
         <v>2.71</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU56" t="n">
         <v>2.25</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AT57" t="n">
         <v>1</v>
@@ -12271,7 +12271,7 @@
         <v>2.29</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU58" t="n">
         <v>1.68</v>
@@ -12471,7 +12471,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT59" t="n">
         <v>0.75</v>
@@ -12674,10 +12674,10 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT60" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU60" t="n">
         <v>1.86</v>
@@ -12880,7 +12880,7 @@
         <v>1.71</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU61" t="n">
         <v>1.36</v>
@@ -13080,10 +13080,10 @@
         <v>0.5</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AU62" t="n">
         <v>1.19</v>
@@ -13486,7 +13486,7 @@
         <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT64" t="n">
         <v>1.14</v>
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT65" t="n">
         <v>1.88</v>
@@ -13892,7 +13892,7 @@
         <v>1.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT66" t="n">
         <v>1.57</v>
@@ -14098,7 +14098,7 @@
         <v>1.43</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU67" t="n">
         <v>1.79</v>
@@ -14301,7 +14301,7 @@
         <v>1.43</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU68" t="n">
         <v>1.73</v>
@@ -14504,7 +14504,7 @@
         <v>2</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU69" t="n">
         <v>1.79</v>
@@ -14907,7 +14907,7 @@
         <v>1.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT71" t="n">
         <v>1.71</v>
@@ -15110,7 +15110,7 @@
         <v>1.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT72" t="n">
         <v>1</v>
@@ -15313,7 +15313,7 @@
         <v>2.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AT73" t="n">
         <v>1.88</v>
@@ -15516,10 +15516,10 @@
         <v>0</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT74" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU74" t="n">
         <v>1.41</v>
@@ -15719,10 +15719,10 @@
         <v>0.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU75" t="n">
         <v>1.66</v>
@@ -16128,7 +16128,7 @@
         <v>1.71</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU77" t="n">
         <v>1.43</v>
@@ -16737,7 +16737,7 @@
         <v>1.5</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU80" t="n">
         <v>1.64</v>
@@ -16937,7 +16937,7 @@
         <v>1.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT81" t="n">
         <v>1.29</v>
@@ -17140,10 +17140,10 @@
         <v>0.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU82" t="n">
         <v>1.59</v>
@@ -17343,10 +17343,10 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU83" t="n">
         <v>1.51</v>
@@ -17546,7 +17546,7 @@
         <v>1.5</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT84" t="n">
         <v>1.14</v>
@@ -17952,7 +17952,7 @@
         <v>2.25</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT86" t="n">
         <v>1.88</v>
@@ -18158,7 +18158,7 @@
         <v>1.43</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AU87" t="n">
         <v>1.53</v>
@@ -18564,7 +18564,7 @@
         <v>2</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU89" t="n">
         <v>1.69</v>
@@ -18764,7 +18764,7 @@
         <v>1.33</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT90" t="n">
         <v>1.71</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT92" t="n">
         <v>0.75</v>
@@ -19373,7 +19373,7 @@
         <v>1.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT93" t="n">
         <v>1</v>
@@ -19579,7 +19579,7 @@
         <v>2.29</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU94" t="n">
         <v>1.74</v>
@@ -19779,7 +19779,7 @@
         <v>1.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT95" t="n">
         <v>1.57</v>
@@ -20594,7 +20594,7 @@
         <v>1.38</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU99" t="n">
         <v>1.79</v>
@@ -20797,7 +20797,7 @@
         <v>1.57</v>
       </c>
       <c r="AT100" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU100" t="n">
         <v>1.54</v>
@@ -20997,7 +20997,7 @@
         <v>1.25</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT101" t="n">
         <v>1</v>
@@ -21200,10 +21200,10 @@
         <v>1.8</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU102" t="n">
         <v>1.8</v>
@@ -21403,7 +21403,7 @@
         <v>1.75</v>
       </c>
       <c r="AS103" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AT103" t="n">
         <v>1.71</v>
@@ -21606,7 +21606,7 @@
         <v>1.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT104" t="n">
         <v>1.57</v>
@@ -21812,7 +21812,7 @@
         <v>2</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AU105" t="n">
         <v>1.58</v>
@@ -22015,7 +22015,7 @@
         <v>1.43</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU106" t="n">
         <v>1.68</v>
@@ -22215,10 +22215,10 @@
         <v>1.2</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU107" t="n">
         <v>1.06</v>
@@ -22418,10 +22418,10 @@
         <v>1.2</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU108" t="n">
         <v>1.88</v>
@@ -22621,7 +22621,7 @@
         <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT109" t="n">
         <v>1</v>
@@ -22824,7 +22824,7 @@
         <v>1.2</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT110" t="n">
         <v>1.14</v>
@@ -23030,7 +23030,7 @@
         <v>1</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU111" t="n">
         <v>1.68</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT112" t="n">
         <v>1</v>
@@ -23842,7 +23842,7 @@
         <v>1.43</v>
       </c>
       <c r="AT115" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU115" t="n">
         <v>1.78</v>
@@ -24042,7 +24042,7 @@
         <v>2</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT116" t="n">
         <v>1.71</v>
@@ -24245,7 +24245,7 @@
         <v>2.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT117" t="n">
         <v>1.88</v>
@@ -24451,7 +24451,7 @@
         <v>2.71</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU118" t="n">
         <v>2.05</v>
@@ -25260,10 +25260,10 @@
         <v>1.5</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU122" t="n">
         <v>1.38</v>
@@ -25463,10 +25463,10 @@
         <v>1.17</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU123" t="n">
         <v>1.49</v>
@@ -25666,7 +25666,7 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT124" t="n">
         <v>1.29</v>
@@ -25872,7 +25872,7 @@
         <v>2</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU125" t="n">
         <v>1.48</v>
@@ -26075,7 +26075,7 @@
         <v>1.43</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU126" t="n">
         <v>1.67</v>
@@ -26275,7 +26275,7 @@
         <v>1</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT127" t="n">
         <v>1</v>
@@ -26478,10 +26478,10 @@
         <v>0.8</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU128" t="n">
         <v>1.01</v>
@@ -26681,7 +26681,7 @@
         <v>1.67</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT129" t="n">
         <v>1.57</v>
@@ -27087,10 +27087,10 @@
         <v>0.2</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AU131" t="n">
         <v>1.74</v>
@@ -27293,7 +27293,7 @@
         <v>2</v>
       </c>
       <c r="AT132" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU132" t="n">
         <v>1.49</v>
@@ -27496,7 +27496,7 @@
         <v>1.57</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU133" t="n">
         <v>1.64</v>
@@ -28508,7 +28508,7 @@
         <v>0.83</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT138" t="n">
         <v>0.71</v>
@@ -28914,7 +28914,7 @@
         <v>1.83</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT140" t="n">
         <v>1.71</v>
@@ -29172,6 +29172,2036 @@
       </c>
       <c r="BK141" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>2982541</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>44898.41666666666</v>
+      </c>
+      <c r="F142" t="n">
+        <v>15</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>2</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" t="n">
+        <v>3</v>
+      </c>
+      <c r="L142" t="n">
+        <v>2</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="n">
+        <v>3</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['9', '45+2']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>3</v>
+      </c>
+      <c r="R142" t="n">
+        <v>6</v>
+      </c>
+      <c r="S142" t="n">
+        <v>9</v>
+      </c>
+      <c r="T142" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V142" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X142" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>2982536</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>44898.58333333334</v>
+      </c>
+      <c r="F143" t="n">
+        <v>15</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="n">
+        <v>2</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>5</v>
+      </c>
+      <c r="R143" t="n">
+        <v>7</v>
+      </c>
+      <c r="S143" t="n">
+        <v>12</v>
+      </c>
+      <c r="T143" t="n">
+        <v>3</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V143" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X143" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2982539</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>44899.35416666666</v>
+      </c>
+      <c r="F144" t="n">
+        <v>15</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>SPAL</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>2</v>
+      </c>
+      <c r="M144" t="n">
+        <v>3</v>
+      </c>
+      <c r="N144" t="n">
+        <v>5</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>['58', '90+7']</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>['45+1', '72', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>2</v>
+      </c>
+      <c r="R144" t="n">
+        <v>1</v>
+      </c>
+      <c r="S144" t="n">
+        <v>3</v>
+      </c>
+      <c r="T144" t="n">
+        <v>3</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V144" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X144" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2982532</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>44899.45833333334</v>
+      </c>
+      <c r="F145" t="n">
+        <v>15</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>2</v>
+      </c>
+      <c r="K145" t="n">
+        <v>3</v>
+      </c>
+      <c r="L145" t="n">
+        <v>3</v>
+      </c>
+      <c r="M145" t="n">
+        <v>3</v>
+      </c>
+      <c r="N145" t="n">
+        <v>6</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['6', '73', '83']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['17', '29', '79']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>6</v>
+      </c>
+      <c r="R145" t="n">
+        <v>3</v>
+      </c>
+      <c r="S145" t="n">
+        <v>9</v>
+      </c>
+      <c r="T145" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U145" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V145" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X145" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2982533</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>44899.45833333334</v>
+      </c>
+      <c r="F146" t="n">
+        <v>15</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Bari 1908</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>8</v>
+      </c>
+      <c r="R146" t="n">
+        <v>7</v>
+      </c>
+      <c r="S146" t="n">
+        <v>15</v>
+      </c>
+      <c r="T146" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V146" t="n">
+        <v>4</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X146" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2982535</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>44899.45833333334</v>
+      </c>
+      <c r="F147" t="n">
+        <v>15</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Reggina</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>2</v>
+      </c>
+      <c r="K147" t="n">
+        <v>2</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>2</v>
+      </c>
+      <c r="N147" t="n">
+        <v>2</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>['3', '11']</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>4</v>
+      </c>
+      <c r="R147" t="n">
+        <v>5</v>
+      </c>
+      <c r="S147" t="n">
+        <v>9</v>
+      </c>
+      <c r="T147" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U147" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V147" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X147" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2982537</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>44899.45833333334</v>
+      </c>
+      <c r="F148" t="n">
+        <v>15</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>3</v>
+      </c>
+      <c r="R148" t="n">
+        <v>4</v>
+      </c>
+      <c r="S148" t="n">
+        <v>7</v>
+      </c>
+      <c r="T148" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U148" t="n">
+        <v>2</v>
+      </c>
+      <c r="V148" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X148" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2982538</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>44899.45833333334</v>
+      </c>
+      <c r="F149" t="n">
+        <v>15</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>11</v>
+      </c>
+      <c r="R149" t="n">
+        <v>1</v>
+      </c>
+      <c r="S149" t="n">
+        <v>12</v>
+      </c>
+      <c r="T149" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U149" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V149" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X149" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2982540</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>44899.45833333334</v>
+      </c>
+      <c r="F150" t="n">
+        <v>15</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="n">
+        <v>2</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>1</v>
+      </c>
+      <c r="R150" t="n">
+        <v>9</v>
+      </c>
+      <c r="S150" t="n">
+        <v>10</v>
+      </c>
+      <c r="T150" t="n">
+        <v>4</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2</v>
+      </c>
+      <c r="V150" t="n">
+        <v>3</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X150" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>17</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2982534</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>44899.58333333334</v>
+      </c>
+      <c r="F151" t="n">
+        <v>15</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Benevento</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>6</v>
+      </c>
+      <c r="R151" t="n">
+        <v>3</v>
+      </c>
+      <c r="S151" t="n">
+        <v>9</v>
+      </c>
+      <c r="T151" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="V151" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X151" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK151"/>
+  <dimension ref="A1:BK161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -1309,7 +1309,7 @@
         <v>1.5</v>
       </c>
       <c r="AT4" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT5" t="n">
         <v>0.63</v>
@@ -2324,7 +2324,7 @@
         <v>1.88</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.13</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU14" t="n">
         <v>1.36</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT16" t="n">
         <v>1.63</v>
@@ -3948,7 +3948,7 @@
         <v>1.38</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT20" t="n">
         <v>1.25</v>
@@ -4760,7 +4760,7 @@
         <v>2.71</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU22" t="n">
         <v>1.62</v>
@@ -5166,7 +5166,7 @@
         <v>1.25</v>
       </c>
       <c r="AT23" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU23" t="n">
         <v>1.87</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT24" t="n">
         <v>1.25</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT26" t="n">
         <v>1.88</v>
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU27" t="n">
         <v>1.03</v>
@@ -6178,10 +6178,10 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU28" t="n">
         <v>1.97</v>
@@ -6384,7 +6384,7 @@
         <v>0.75</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU29" t="n">
         <v>1.86</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT30" t="n">
         <v>0.75</v>
@@ -6790,7 +6790,7 @@
         <v>1.5</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU31" t="n">
         <v>1.15</v>
@@ -7399,7 +7399,7 @@
         <v>1.14</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU34" t="n">
         <v>2.15</v>
@@ -7805,7 +7805,7 @@
         <v>2.71</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU36" t="n">
         <v>1.81</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT37" t="n">
         <v>1</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT38" t="n">
         <v>0.75</v>
@@ -8414,7 +8414,7 @@
         <v>0.5</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU39" t="n">
         <v>1.46</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT40" t="n">
         <v>1</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT42" t="n">
         <v>1.88</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT43" t="n">
         <v>1.63</v>
@@ -9426,10 +9426,10 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU44" t="n">
         <v>1.46</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT45" t="n">
         <v>1.25</v>
@@ -9832,10 +9832,10 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU46" t="n">
         <v>1.9</v>
@@ -10038,7 +10038,7 @@
         <v>1.5</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU47" t="n">
         <v>1.49</v>
@@ -10241,7 +10241,7 @@
         <v>0.75</v>
       </c>
       <c r="AT48" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU48" t="n">
         <v>1.53</v>
@@ -10441,10 +10441,10 @@
         <v>1.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU49" t="n">
         <v>1.68</v>
@@ -10647,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU50" t="n">
         <v>1.82</v>
@@ -10850,7 +10850,7 @@
         <v>1.25</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU51" t="n">
         <v>1.62</v>
@@ -11053,7 +11053,7 @@
         <v>1.88</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU52" t="n">
         <v>1.71</v>
@@ -11459,7 +11459,7 @@
         <v>1.5</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU54" t="n">
         <v>2.56</v>
@@ -11662,7 +11662,7 @@
         <v>1.5</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU55" t="n">
         <v>1.67</v>
@@ -12268,7 +12268,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT58" t="n">
         <v>1.13</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT60" t="n">
         <v>1.25</v>
@@ -12877,7 +12877,7 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT61" t="n">
         <v>0.63</v>
@@ -13080,10 +13080,10 @@
         <v>0.5</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU62" t="n">
         <v>1.19</v>
@@ -13283,10 +13283,10 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT63" t="n">
         <v>1.38</v>
-      </c>
-      <c r="AT63" t="n">
-        <v>1.57</v>
       </c>
       <c r="AU63" t="n">
         <v>1.59</v>
@@ -13489,7 +13489,7 @@
         <v>1.14</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU64" t="n">
         <v>1.93</v>
@@ -13895,7 +13895,7 @@
         <v>1.5</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU66" t="n">
         <v>2.14</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT67" t="n">
         <v>1.25</v>
@@ -14298,7 +14298,7 @@
         <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT68" t="n">
         <v>1.63</v>
@@ -14501,10 +14501,10 @@
         <v>1</v>
       </c>
       <c r="AS69" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU69" t="n">
         <v>1.79</v>
@@ -14910,7 +14910,7 @@
         <v>0.75</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU71" t="n">
         <v>1.68</v>
@@ -15110,10 +15110,10 @@
         <v>1.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT72" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU72" t="n">
         <v>1.83</v>
@@ -15316,7 +15316,7 @@
         <v>0.5</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU73" t="n">
         <v>1.66</v>
@@ -15922,7 +15922,7 @@
         <v>1.67</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT76" t="n">
         <v>1</v>
@@ -16125,7 +16125,7 @@
         <v>0.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT77" t="n">
         <v>1</v>
@@ -16331,7 +16331,7 @@
         <v>2.71</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU78" t="n">
         <v>2.01</v>
@@ -16531,7 +16531,7 @@
         <v>1.25</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT79" t="n">
         <v>0.75</v>
@@ -16940,7 +16940,7 @@
         <v>1.38</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU81" t="n">
         <v>1.5</v>
@@ -17143,7 +17143,7 @@
         <v>0.5</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU82" t="n">
         <v>1.59</v>
@@ -17549,7 +17549,7 @@
         <v>1.5</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU84" t="n">
         <v>2.07</v>
@@ -17749,10 +17749,10 @@
         <v>0.75</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU85" t="n">
         <v>1.84</v>
@@ -17952,7 +17952,7 @@
         <v>2.25</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT86" t="n">
         <v>1.88</v>
@@ -18155,10 +18155,10 @@
         <v>0.33</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU87" t="n">
         <v>1.53</v>
@@ -18358,7 +18358,7 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT88" t="n">
         <v>1</v>
@@ -18561,7 +18561,7 @@
         <v>1.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT89" t="n">
         <v>1.63</v>
@@ -18767,7 +18767,7 @@
         <v>1.14</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU90" t="n">
         <v>1.88</v>
@@ -18970,7 +18970,7 @@
         <v>1</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU91" t="n">
         <v>1.73</v>
@@ -19576,7 +19576,7 @@
         <v>0</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT94" t="n">
         <v>0.63</v>
@@ -19782,7 +19782,7 @@
         <v>1.88</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU95" t="n">
         <v>1.47</v>
@@ -19985,7 +19985,7 @@
         <v>1.5</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU96" t="n">
         <v>1.64</v>
@@ -20188,7 +20188,7 @@
         <v>2.71</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU97" t="n">
         <v>2.02</v>
@@ -20388,7 +20388,7 @@
         <v>2.4</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT98" t="n">
         <v>1.88</v>
@@ -20591,7 +20591,7 @@
         <v>0.5</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT99" t="n">
         <v>1.13</v>
@@ -20794,7 +20794,7 @@
         <v>0.75</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT100" t="n">
         <v>1.25</v>
@@ -21000,7 +21000,7 @@
         <v>1.13</v>
       </c>
       <c r="AT101" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU101" t="n">
         <v>1.47</v>
@@ -21406,7 +21406,7 @@
         <v>0.5</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU103" t="n">
         <v>1.57</v>
@@ -21609,7 +21609,7 @@
         <v>1.25</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU104" t="n">
         <v>1.53</v>
@@ -21809,10 +21809,10 @@
         <v>0.25</v>
       </c>
       <c r="AS105" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU105" t="n">
         <v>1.58</v>
@@ -22012,7 +22012,7 @@
         <v>0.25</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT106" t="n">
         <v>1</v>
@@ -22215,10 +22215,10 @@
         <v>1.2</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU107" t="n">
         <v>1.06</v>
@@ -22824,10 +22824,10 @@
         <v>1.2</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU110" t="n">
         <v>1.87</v>
@@ -23233,7 +23233,7 @@
         <v>1.38</v>
       </c>
       <c r="AT112" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU112" t="n">
         <v>1.3</v>
@@ -23433,10 +23433,10 @@
         <v>0.8</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU113" t="n">
         <v>1.55</v>
@@ -23636,7 +23636,7 @@
         <v>0.83</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT114" t="n">
         <v>0.75</v>
@@ -23839,7 +23839,7 @@
         <v>0.6</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT115" t="n">
         <v>1.25</v>
@@ -24045,7 +24045,7 @@
         <v>1.88</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU116" t="n">
         <v>1.45</v>
@@ -24248,7 +24248,7 @@
         <v>0.75</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU117" t="n">
         <v>1.45</v>
@@ -24651,7 +24651,7 @@
         <v>1.2</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT119" t="n">
         <v>1</v>
@@ -24857,7 +24857,7 @@
         <v>1.5</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU120" t="n">
         <v>1.51</v>
@@ -25057,7 +25057,7 @@
         <v>2.5</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT121" t="n">
         <v>1.88</v>
@@ -25263,7 +25263,7 @@
         <v>1.13</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU122" t="n">
         <v>1.38</v>
@@ -25669,7 +25669,7 @@
         <v>1.25</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU124" t="n">
         <v>1.53</v>
@@ -25869,7 +25869,7 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT125" t="n">
         <v>1.13</v>
@@ -26072,7 +26072,7 @@
         <v>0.5</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT126" t="n">
         <v>0.63</v>
@@ -26478,7 +26478,7 @@
         <v>0.8</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT128" t="n">
         <v>1</v>
@@ -26684,7 +26684,7 @@
         <v>1.14</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU129" t="n">
         <v>1.93</v>
@@ -26884,10 +26884,10 @@
         <v>1.17</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU130" t="n">
         <v>1.51</v>
@@ -27087,10 +27087,10 @@
         <v>0.2</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU131" t="n">
         <v>1.74</v>
@@ -27290,7 +27290,7 @@
         <v>0.67</v>
       </c>
       <c r="AS132" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT132" t="n">
         <v>1.25</v>
@@ -27493,7 +27493,7 @@
         <v>1.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT133" t="n">
         <v>1.25</v>
@@ -27696,10 +27696,10 @@
         <v>1.33</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU134" t="n">
         <v>1.98</v>
@@ -27902,7 +27902,7 @@
         <v>2.71</v>
       </c>
       <c r="AT135" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU135" t="n">
         <v>1.92</v>
@@ -28102,7 +28102,7 @@
         <v>0.71</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT136" t="n">
         <v>0.75</v>
@@ -28511,7 +28511,7 @@
         <v>1.88</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU138" t="n">
         <v>1.47</v>
@@ -28714,7 +28714,7 @@
         <v>1.5</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU139" t="n">
         <v>1.58</v>
@@ -28917,7 +28917,7 @@
         <v>1.38</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU140" t="n">
         <v>1.32</v>
@@ -29117,10 +29117,10 @@
         <v>1.33</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU141" t="n">
         <v>1.58</v>
@@ -29932,7 +29932,7 @@
         <v>1.13</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU145" t="n">
         <v>1.29</v>
@@ -30538,7 +30538,7 @@
         <v>0.57</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT148" t="n">
         <v>0.63</v>
@@ -30741,7 +30741,7 @@
         <v>0.86</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT149" t="n">
         <v>1.13</v>
@@ -30947,7 +30947,7 @@
         <v>1.38</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU150" t="n">
         <v>1.39</v>
@@ -31202,6 +31202,2036 @@
       </c>
       <c r="BK151" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2982551</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>44902.6875</v>
+      </c>
+      <c r="F152" t="n">
+        <v>16</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>2</v>
+      </c>
+      <c r="R152" t="n">
+        <v>12</v>
+      </c>
+      <c r="S152" t="n">
+        <v>14</v>
+      </c>
+      <c r="T152" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U152" t="n">
+        <v>2</v>
+      </c>
+      <c r="V152" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X152" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>13</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2982547</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>44903.35416666666</v>
+      </c>
+      <c r="F153" t="n">
+        <v>16</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Benevento</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>13</v>
+      </c>
+      <c r="R153" t="n">
+        <v>0</v>
+      </c>
+      <c r="S153" t="n">
+        <v>13</v>
+      </c>
+      <c r="T153" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V153" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X153" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2982548</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>44903.45833333334</v>
+      </c>
+      <c r="F154" t="n">
+        <v>16</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>SPAL</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>6</v>
+      </c>
+      <c r="R154" t="n">
+        <v>4</v>
+      </c>
+      <c r="S154" t="n">
+        <v>10</v>
+      </c>
+      <c r="T154" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2</v>
+      </c>
+      <c r="V154" t="n">
+        <v>4</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X154" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2982550</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>44903.45833333334</v>
+      </c>
+      <c r="F155" t="n">
+        <v>16</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Reggina</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>3</v>
+      </c>
+      <c r="N155" t="n">
+        <v>3</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>['34', '50', '68']</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>7</v>
+      </c>
+      <c r="R155" t="n">
+        <v>6</v>
+      </c>
+      <c r="S155" t="n">
+        <v>13</v>
+      </c>
+      <c r="T155" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U155" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V155" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X155" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2982544</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>44903.45833333334</v>
+      </c>
+      <c r="F156" t="n">
+        <v>16</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>2</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>2</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['65', '90+3']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>5</v>
+      </c>
+      <c r="R156" t="n">
+        <v>1</v>
+      </c>
+      <c r="S156" t="n">
+        <v>6</v>
+      </c>
+      <c r="T156" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V156" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X156" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2982543</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>44903.45833333334</v>
+      </c>
+      <c r="F157" t="n">
+        <v>16</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="n">
+        <v>2</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>3</v>
+      </c>
+      <c r="R157" t="n">
+        <v>8</v>
+      </c>
+      <c r="S157" t="n">
+        <v>11</v>
+      </c>
+      <c r="T157" t="n">
+        <v>4</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V157" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X157" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2982542</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>44903.45833333334</v>
+      </c>
+      <c r="F158" t="n">
+        <v>16</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Bari 1908</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>2</v>
+      </c>
+      <c r="K158" t="n">
+        <v>2</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>3</v>
+      </c>
+      <c r="N158" t="n">
+        <v>3</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['13', '32', '68']</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>7</v>
+      </c>
+      <c r="R158" t="n">
+        <v>3</v>
+      </c>
+      <c r="S158" t="n">
+        <v>10</v>
+      </c>
+      <c r="T158" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U158" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V158" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X158" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2982545</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>44903.45833333334</v>
+      </c>
+      <c r="F159" t="n">
+        <v>16</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>2</v>
+      </c>
+      <c r="M159" t="n">
+        <v>2</v>
+      </c>
+      <c r="N159" t="n">
+        <v>4</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['37', '53']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['60', '90']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>4</v>
+      </c>
+      <c r="R159" t="n">
+        <v>3</v>
+      </c>
+      <c r="S159" t="n">
+        <v>7</v>
+      </c>
+      <c r="T159" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U159" t="n">
+        <v>2</v>
+      </c>
+      <c r="V159" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X159" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2982549</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>44903.58333333334</v>
+      </c>
+      <c r="F160" t="n">
+        <v>16</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>2</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>2</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['45+3', '87']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>5</v>
+      </c>
+      <c r="R160" t="n">
+        <v>4</v>
+      </c>
+      <c r="S160" t="n">
+        <v>9</v>
+      </c>
+      <c r="T160" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2</v>
+      </c>
+      <c r="V160" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X160" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2982546</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>44903.6875</v>
+      </c>
+      <c r="F161" t="n">
+        <v>16</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>7</v>
+      </c>
+      <c r="R161" t="n">
+        <v>1</v>
+      </c>
+      <c r="S161" t="n">
+        <v>8</v>
+      </c>
+      <c r="T161" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="U161" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V161" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X161" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK161"/>
+  <dimension ref="A1:BK171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT4" t="n">
         <v>0.88</v>
@@ -1512,7 +1512,7 @@
         <v>1.33</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT9" t="n">
         <v>1.38</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT12" t="n">
         <v>1</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT14" t="n">
         <v>0.75</v>
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.88</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT17" t="n">
         <v>1.5</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.38</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT21" t="n">
         <v>1.13</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT23" t="n">
         <v>0.88</v>
@@ -5369,7 +5369,7 @@
         <v>1.38</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU24" t="n">
         <v>1.55</v>
@@ -5775,7 +5775,7 @@
         <v>1.75</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU26" t="n">
         <v>1.77</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT29" t="n">
         <v>1.78</v>
@@ -6587,7 +6587,7 @@
         <v>1.78</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU30" t="n">
         <v>1.64</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT31" t="n">
         <v>1.13</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU32" t="n">
         <v>2.09</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU33" t="n">
         <v>1.45</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT34" t="n">
         <v>0.75</v>
@@ -7599,10 +7599,10 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU35" t="n">
         <v>1.41</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT36" t="n">
         <v>0.5</v>
@@ -8211,7 +8211,7 @@
         <v>1.88</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU38" t="n">
         <v>1.37</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT39" t="n">
         <v>1.5</v>
@@ -8617,7 +8617,7 @@
         <v>1.38</v>
       </c>
       <c r="AT40" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU40" t="n">
         <v>1.92</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT41" t="n">
         <v>1</v>
@@ -9023,7 +9023,7 @@
         <v>1.33</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU42" t="n">
         <v>1.67</v>
@@ -9226,7 +9226,7 @@
         <v>1.75</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU43" t="n">
         <v>1.69</v>
@@ -9632,7 +9632,7 @@
         <v>1.78</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU45" t="n">
         <v>1.64</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT47" t="n">
         <v>1.38</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT48" t="n">
         <v>0.88</v>
@@ -10847,7 +10847,7 @@
         <v>2</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT51" t="n">
         <v>1.5</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT52" t="n">
         <v>1.5</v>
@@ -11253,10 +11253,10 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT53" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU53" t="n">
         <v>1.34</v>
@@ -11456,7 +11456,7 @@
         <v>2.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT54" t="n">
         <v>2</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT55" t="n">
         <v>0.75</v>
@@ -11862,7 +11862,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT56" t="n">
         <v>1</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT57" t="n">
         <v>1</v>
@@ -12271,7 +12271,7 @@
         <v>2</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU58" t="n">
         <v>1.68</v>
@@ -12471,10 +12471,10 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU59" t="n">
         <v>1.11</v>
@@ -12677,7 +12677,7 @@
         <v>1.38</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU60" t="n">
         <v>1.86</v>
@@ -12880,7 +12880,7 @@
         <v>1.88</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU61" t="n">
         <v>1.36</v>
@@ -13486,7 +13486,7 @@
         <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT64" t="n">
         <v>1.13</v>
@@ -13689,10 +13689,10 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU65" t="n">
         <v>1.76</v>
@@ -13892,7 +13892,7 @@
         <v>1.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT66" t="n">
         <v>1.5</v>
@@ -14098,7 +14098,7 @@
         <v>1.25</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU67" t="n">
         <v>1.79</v>
@@ -14301,7 +14301,7 @@
         <v>1.38</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU68" t="n">
         <v>1.73</v>
@@ -14907,7 +14907,7 @@
         <v>1.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT71" t="n">
         <v>1.5</v>
@@ -15313,7 +15313,7 @@
         <v>2.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT73" t="n">
         <v>2</v>
@@ -15516,10 +15516,10 @@
         <v>0</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU74" t="n">
         <v>1.41</v>
@@ -15719,10 +15719,10 @@
         <v>0.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU75" t="n">
         <v>1.66</v>
@@ -15925,7 +15925,7 @@
         <v>1.75</v>
       </c>
       <c r="AT76" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU76" t="n">
         <v>1.66</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT78" t="n">
         <v>0.75</v>
@@ -16534,7 +16534,7 @@
         <v>2</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU79" t="n">
         <v>1.58</v>
@@ -16734,10 +16734,10 @@
         <v>0</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU80" t="n">
         <v>1.64</v>
@@ -16937,7 +16937,7 @@
         <v>1.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT81" t="n">
         <v>1.5</v>
@@ -17140,7 +17140,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT82" t="n">
         <v>1.78</v>
@@ -17343,10 +17343,10 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU83" t="n">
         <v>1.51</v>
@@ -17546,7 +17546,7 @@
         <v>1.5</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT84" t="n">
         <v>1.13</v>
@@ -17955,7 +17955,7 @@
         <v>1.38</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU86" t="n">
         <v>1.17</v>
@@ -18564,7 +18564,7 @@
         <v>1.78</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU89" t="n">
         <v>1.69</v>
@@ -18764,7 +18764,7 @@
         <v>1.33</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT90" t="n">
         <v>1.5</v>
@@ -19170,10 +19170,10 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU92" t="n">
         <v>1.57</v>
@@ -19373,10 +19373,10 @@
         <v>1.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT93" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU93" t="n">
         <v>1.44</v>
@@ -19579,7 +19579,7 @@
         <v>2</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU94" t="n">
         <v>1.74</v>
@@ -19779,7 +19779,7 @@
         <v>1.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT95" t="n">
         <v>1.5</v>
@@ -19982,7 +19982,7 @@
         <v>1.25</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT96" t="n">
         <v>1.5</v>
@@ -20185,7 +20185,7 @@
         <v>2.6</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT97" t="n">
         <v>2</v>
@@ -20391,7 +20391,7 @@
         <v>1.88</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU98" t="n">
         <v>1.51</v>
@@ -20594,7 +20594,7 @@
         <v>1.33</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU99" t="n">
         <v>1.79</v>
@@ -20797,7 +20797,7 @@
         <v>1.75</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU100" t="n">
         <v>1.54</v>
@@ -20997,7 +20997,7 @@
         <v>1.25</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT101" t="n">
         <v>0.88</v>
@@ -21200,10 +21200,10 @@
         <v>1.8</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU102" t="n">
         <v>1.8</v>
@@ -21403,7 +21403,7 @@
         <v>1.75</v>
       </c>
       <c r="AS103" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT103" t="n">
         <v>1.5</v>
@@ -21606,7 +21606,7 @@
         <v>1.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT104" t="n">
         <v>1.38</v>
@@ -22418,10 +22418,10 @@
         <v>1.2</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU108" t="n">
         <v>1.88</v>
@@ -22621,7 +22621,7 @@
         <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT109" t="n">
         <v>1</v>
@@ -23030,7 +23030,7 @@
         <v>1</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU111" t="n">
         <v>1.68</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT112" t="n">
         <v>0.88</v>
@@ -23639,7 +23639,7 @@
         <v>1.75</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU114" t="n">
         <v>1.61</v>
@@ -23842,7 +23842,7 @@
         <v>1.25</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU115" t="n">
         <v>1.78</v>
@@ -24042,7 +24042,7 @@
         <v>2</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT116" t="n">
         <v>1.5</v>
@@ -24245,7 +24245,7 @@
         <v>2.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT117" t="n">
         <v>2</v>
@@ -24448,10 +24448,10 @@
         <v>0.6</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU118" t="n">
         <v>2.05</v>
@@ -24654,7 +24654,7 @@
         <v>1.33</v>
       </c>
       <c r="AT119" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU119" t="n">
         <v>1.7</v>
@@ -24854,7 +24854,7 @@
         <v>1.6</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT120" t="n">
         <v>1.5</v>
@@ -25060,7 +25060,7 @@
         <v>2</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU121" t="n">
         <v>2.12</v>
@@ -25260,7 +25260,7 @@
         <v>1.5</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT122" t="n">
         <v>1.78</v>
@@ -25463,10 +25463,10 @@
         <v>1.17</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU123" t="n">
         <v>1.49</v>
@@ -25666,7 +25666,7 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT124" t="n">
         <v>1.5</v>
@@ -25872,7 +25872,7 @@
         <v>1.78</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU125" t="n">
         <v>1.48</v>
@@ -26075,7 +26075,7 @@
         <v>1.38</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU126" t="n">
         <v>1.67</v>
@@ -26275,7 +26275,7 @@
         <v>1</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT127" t="n">
         <v>1</v>
@@ -26681,7 +26681,7 @@
         <v>1.67</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT129" t="n">
         <v>1.38</v>
@@ -27293,7 +27293,7 @@
         <v>1.78</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU132" t="n">
         <v>1.49</v>
@@ -27496,7 +27496,7 @@
         <v>1.75</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU133" t="n">
         <v>1.64</v>
@@ -27899,7 +27899,7 @@
         <v>1</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT135" t="n">
         <v>0.88</v>
@@ -28105,7 +28105,7 @@
         <v>1.25</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU136" t="n">
         <v>1.85</v>
@@ -28308,7 +28308,7 @@
         <v>1</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU137" t="n">
         <v>1.57</v>
@@ -28508,7 +28508,7 @@
         <v>0.83</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT138" t="n">
         <v>0.75</v>
@@ -28711,7 +28711,7 @@
         <v>2</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT139" t="n">
         <v>2</v>
@@ -28914,7 +28914,7 @@
         <v>1.83</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT140" t="n">
         <v>1.5</v>
@@ -29320,10 +29320,10 @@
         <v>1.43</v>
       </c>
       <c r="AS142" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU142" t="n">
         <v>1.54</v>
@@ -29523,10 +29523,10 @@
         <v>1</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT143" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU143" t="n">
         <v>1.77</v>
@@ -29726,10 +29726,10 @@
         <v>1</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU144" t="n">
         <v>1.43</v>
@@ -29929,7 +29929,7 @@
         <v>0.33</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT145" t="n">
         <v>0.5</v>
@@ -30132,7 +30132,7 @@
         <v>1</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT146" t="n">
         <v>1</v>
@@ -30335,10 +30335,10 @@
         <v>1.43</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU147" t="n">
         <v>1.47</v>
@@ -30541,7 +30541,7 @@
         <v>1.38</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU148" t="n">
         <v>1.1</v>
@@ -30744,7 +30744,7 @@
         <v>1.38</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU149" t="n">
         <v>1.74</v>
@@ -30944,7 +30944,7 @@
         <v>1.71</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT150" t="n">
         <v>1.78</v>
@@ -31147,7 +31147,7 @@
         <v>0.67</v>
       </c>
       <c r="AS151" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT151" t="n">
         <v>1</v>
@@ -31875,13 +31875,13 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R155" t="n">
         <v>6</v>
       </c>
       <c r="S155" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T155" t="n">
         <v>3.25</v>
@@ -33093,13 +33093,13 @@
         </is>
       </c>
       <c r="Q161" t="n">
+        <v>6</v>
+      </c>
+      <c r="R161" t="n">
+        <v>1</v>
+      </c>
+      <c r="S161" t="n">
         <v>7</v>
-      </c>
-      <c r="R161" t="n">
-        <v>1</v>
-      </c>
-      <c r="S161" t="n">
-        <v>8</v>
       </c>
       <c r="T161" t="n">
         <v>2.59</v>
@@ -33232,6 +33232,2036 @@
       </c>
       <c r="BK161" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2982556</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>44906.35416666666</v>
+      </c>
+      <c r="F162" t="n">
+        <v>17</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>2</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
+      <c r="K162" t="n">
+        <v>3</v>
+      </c>
+      <c r="L162" t="n">
+        <v>3</v>
+      </c>
+      <c r="M162" t="n">
+        <v>2</v>
+      </c>
+      <c r="N162" t="n">
+        <v>5</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>['20', '27', '82']</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>['29', '54']</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>7</v>
+      </c>
+      <c r="R162" t="n">
+        <v>3</v>
+      </c>
+      <c r="S162" t="n">
+        <v>10</v>
+      </c>
+      <c r="T162" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U162" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V162" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X162" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>26</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2982561</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>44906.45833333334</v>
+      </c>
+      <c r="F163" t="n">
+        <v>17</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>2</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>2</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['18', '75']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>7</v>
+      </c>
+      <c r="R163" t="n">
+        <v>3</v>
+      </c>
+      <c r="S163" t="n">
+        <v>10</v>
+      </c>
+      <c r="T163" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V163" t="n">
+        <v>6</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X163" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2982559</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>44906.45833333334</v>
+      </c>
+      <c r="F164" t="n">
+        <v>17</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>SPAL</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
+      <c r="K164" t="n">
+        <v>2</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="n">
+        <v>2</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>4</v>
+      </c>
+      <c r="R164" t="n">
+        <v>3</v>
+      </c>
+      <c r="S164" t="n">
+        <v>7</v>
+      </c>
+      <c r="T164" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U164" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V164" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X164" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2982557</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>44906.45833333334</v>
+      </c>
+      <c r="F165" t="n">
+        <v>17</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Reggina</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>4</v>
+      </c>
+      <c r="R165" t="n">
+        <v>8</v>
+      </c>
+      <c r="S165" t="n">
+        <v>12</v>
+      </c>
+      <c r="T165" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2</v>
+      </c>
+      <c r="V165" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X165" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2982560</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>44906.45833333334</v>
+      </c>
+      <c r="F166" t="n">
+        <v>17</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>7</v>
+      </c>
+      <c r="R166" t="n">
+        <v>5</v>
+      </c>
+      <c r="S166" t="n">
+        <v>12</v>
+      </c>
+      <c r="T166" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U166" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V166" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X166" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2982554</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>44906.45833333334</v>
+      </c>
+      <c r="F167" t="n">
+        <v>17</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Benevento</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" t="n">
+        <v>1</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>6</v>
+      </c>
+      <c r="R167" t="n">
+        <v>6</v>
+      </c>
+      <c r="S167" t="n">
+        <v>12</v>
+      </c>
+      <c r="T167" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U167" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V167" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X167" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2982552</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>44906.45833333334</v>
+      </c>
+      <c r="F168" t="n">
+        <v>17</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>1</v>
+      </c>
+      <c r="R168" t="n">
+        <v>1</v>
+      </c>
+      <c r="S168" t="n">
+        <v>2</v>
+      </c>
+      <c r="T168" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U168" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V168" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X168" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2982553</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>44906.58333333334</v>
+      </c>
+      <c r="F169" t="n">
+        <v>17</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Bari 1908</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>2</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>2</v>
+      </c>
+      <c r="L169" t="n">
+        <v>4</v>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="n">
+        <v>5</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>['6', '20', '54', '90+1']</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>1</v>
+      </c>
+      <c r="R169" t="n">
+        <v>11</v>
+      </c>
+      <c r="S169" t="n">
+        <v>12</v>
+      </c>
+      <c r="T169" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U169" t="n">
+        <v>2</v>
+      </c>
+      <c r="V169" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X169" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>2982558</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>44906.6875</v>
+      </c>
+      <c r="F170" t="n">
+        <v>17</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>1</v>
+      </c>
+      <c r="R170" t="n">
+        <v>7</v>
+      </c>
+      <c r="S170" t="n">
+        <v>8</v>
+      </c>
+      <c r="T170" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2</v>
+      </c>
+      <c r="V170" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X170" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2982555</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>44907.6875</v>
+      </c>
+      <c r="F171" t="n">
+        <v>17</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>2</v>
+      </c>
+      <c r="N171" t="n">
+        <v>2</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['16', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>6</v>
+      </c>
+      <c r="R171" t="n">
+        <v>3</v>
+      </c>
+      <c r="S171" t="n">
+        <v>9</v>
+      </c>
+      <c r="T171" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U171" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V171" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X171" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK171"/>
+  <dimension ref="A1:BK181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT2" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -1309,7 +1309,7 @@
         <v>1.33</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT5" t="n">
         <v>0.5600000000000001</v>
@@ -2324,7 +2324,7 @@
         <v>1.67</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.11</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>1.36</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT15" t="n">
         <v>1.25</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT16" t="n">
         <v>1.78</v>
@@ -3948,7 +3948,7 @@
         <v>1.33</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT20" t="n">
         <v>1.11</v>
@@ -4760,7 +4760,7 @@
         <v>2.5</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU22" t="n">
         <v>1.62</v>
@@ -5166,7 +5166,7 @@
         <v>1.22</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU23" t="n">
         <v>1.87</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT24" t="n">
         <v>1.22</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT26" t="n">
         <v>1.78</v>
@@ -5975,10 +5975,10 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT27" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU27" t="n">
         <v>1.03</v>
@@ -6178,10 +6178,10 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU28" t="n">
         <v>1.97</v>
@@ -6384,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU29" t="n">
         <v>1.86</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT30" t="n">
         <v>0.67</v>
@@ -6790,7 +6790,7 @@
         <v>1.33</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU31" t="n">
         <v>1.15</v>
@@ -7399,7 +7399,7 @@
         <v>1.38</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU34" t="n">
         <v>2.15</v>
@@ -7805,7 +7805,7 @@
         <v>2.5</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU36" t="n">
         <v>1.81</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT37" t="n">
         <v>1</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT38" t="n">
         <v>0.67</v>
@@ -8414,7 +8414,7 @@
         <v>0.78</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU39" t="n">
         <v>1.46</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT40" t="n">
         <v>1.25</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT42" t="n">
         <v>1.78</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT43" t="n">
         <v>1.78</v>
@@ -9426,10 +9426,10 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT44" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU44" t="n">
         <v>1.46</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT45" t="n">
         <v>1.22</v>
@@ -9832,10 +9832,10 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU46" t="n">
         <v>1.9</v>
@@ -10038,7 +10038,7 @@
         <v>1.33</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU47" t="n">
         <v>1.49</v>
@@ -10241,7 +10241,7 @@
         <v>1</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU48" t="n">
         <v>1.53</v>
@@ -10441,10 +10441,10 @@
         <v>1.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU49" t="n">
         <v>1.68</v>
@@ -10644,10 +10644,10 @@
         <v>3</v>
       </c>
       <c r="AS50" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU50" t="n">
         <v>1.82</v>
@@ -10850,7 +10850,7 @@
         <v>1.22</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU51" t="n">
         <v>1.62</v>
@@ -11053,7 +11053,7 @@
         <v>1.67</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU52" t="n">
         <v>1.71</v>
@@ -11459,7 +11459,7 @@
         <v>1.67</v>
       </c>
       <c r="AT54" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU54" t="n">
         <v>2.56</v>
@@ -11662,7 +11662,7 @@
         <v>1.33</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU55" t="n">
         <v>1.67</v>
@@ -12268,7 +12268,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT58" t="n">
         <v>1</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT60" t="n">
         <v>1.11</v>
@@ -12877,7 +12877,7 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT61" t="n">
         <v>0.5600000000000001</v>
@@ -13080,10 +13080,10 @@
         <v>0.5</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU62" t="n">
         <v>1.19</v>
@@ -13283,10 +13283,10 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU63" t="n">
         <v>1.59</v>
@@ -13489,7 +13489,7 @@
         <v>1.38</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU64" t="n">
         <v>1.93</v>
@@ -13895,7 +13895,7 @@
         <v>1.67</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU66" t="n">
         <v>2.14</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT67" t="n">
         <v>1.22</v>
@@ -14298,7 +14298,7 @@
         <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT68" t="n">
         <v>1.78</v>
@@ -14501,10 +14501,10 @@
         <v>1</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU69" t="n">
         <v>1.79</v>
@@ -14704,7 +14704,7 @@
         <v>0.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT70" t="n">
         <v>1</v>
@@ -14910,7 +14910,7 @@
         <v>1</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU71" t="n">
         <v>1.68</v>
@@ -15110,10 +15110,10 @@
         <v>1.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU72" t="n">
         <v>1.83</v>
@@ -15316,7 +15316,7 @@
         <v>0.78</v>
       </c>
       <c r="AT73" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU73" t="n">
         <v>1.66</v>
@@ -15922,7 +15922,7 @@
         <v>1.67</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT76" t="n">
         <v>1.25</v>
@@ -16125,7 +16125,7 @@
         <v>0.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT77" t="n">
         <v>1</v>
@@ -16331,7 +16331,7 @@
         <v>2.5</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU78" t="n">
         <v>2.01</v>
@@ -16531,7 +16531,7 @@
         <v>1.25</v>
       </c>
       <c r="AS79" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT79" t="n">
         <v>0.67</v>
@@ -16940,7 +16940,7 @@
         <v>1.33</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU81" t="n">
         <v>1.5</v>
@@ -17143,7 +17143,7 @@
         <v>0.78</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU82" t="n">
         <v>1.59</v>
@@ -17549,7 +17549,7 @@
         <v>1.67</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU84" t="n">
         <v>2.07</v>
@@ -17749,10 +17749,10 @@
         <v>0.75</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU85" t="n">
         <v>1.84</v>
@@ -17952,7 +17952,7 @@
         <v>2.25</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT86" t="n">
         <v>1.78</v>
@@ -18155,10 +18155,10 @@
         <v>0.33</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU87" t="n">
         <v>1.53</v>
@@ -18358,7 +18358,7 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT88" t="n">
         <v>1</v>
@@ -18561,7 +18561,7 @@
         <v>1.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT89" t="n">
         <v>1.78</v>
@@ -18767,7 +18767,7 @@
         <v>1.38</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU90" t="n">
         <v>1.88</v>
@@ -18967,10 +18967,10 @@
         <v>1.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU91" t="n">
         <v>1.73</v>
@@ -19576,7 +19576,7 @@
         <v>0</v>
       </c>
       <c r="AS94" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT94" t="n">
         <v>0.5600000000000001</v>
@@ -19782,7 +19782,7 @@
         <v>1.67</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU95" t="n">
         <v>1.47</v>
@@ -19985,7 +19985,7 @@
         <v>1.33</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU96" t="n">
         <v>1.64</v>
@@ -20188,7 +20188,7 @@
         <v>2.5</v>
       </c>
       <c r="AT97" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU97" t="n">
         <v>2.02</v>
@@ -20388,7 +20388,7 @@
         <v>2.4</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT98" t="n">
         <v>1.78</v>
@@ -20591,7 +20591,7 @@
         <v>0.5</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT99" t="n">
         <v>1</v>
@@ -20794,7 +20794,7 @@
         <v>0.75</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT100" t="n">
         <v>1.11</v>
@@ -21000,7 +21000,7 @@
         <v>1.11</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU101" t="n">
         <v>1.47</v>
@@ -21406,7 +21406,7 @@
         <v>0.78</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU103" t="n">
         <v>1.57</v>
@@ -21609,7 +21609,7 @@
         <v>1.22</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU104" t="n">
         <v>1.53</v>
@@ -21809,10 +21809,10 @@
         <v>0.25</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU105" t="n">
         <v>1.58</v>
@@ -22012,7 +22012,7 @@
         <v>0.25</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT106" t="n">
         <v>1</v>
@@ -22215,10 +22215,10 @@
         <v>1.2</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU107" t="n">
         <v>1.06</v>
@@ -22824,10 +22824,10 @@
         <v>1.2</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU110" t="n">
         <v>1.87</v>
@@ -23027,7 +23027,7 @@
         <v>0.6</v>
       </c>
       <c r="AS111" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT111" t="n">
         <v>1</v>
@@ -23233,7 +23233,7 @@
         <v>1.33</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU112" t="n">
         <v>1.3</v>
@@ -23433,10 +23433,10 @@
         <v>0.8</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU113" t="n">
         <v>1.55</v>
@@ -23636,7 +23636,7 @@
         <v>0.83</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT114" t="n">
         <v>0.67</v>
@@ -23839,7 +23839,7 @@
         <v>0.6</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT115" t="n">
         <v>1.11</v>
@@ -24045,7 +24045,7 @@
         <v>1.67</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU116" t="n">
         <v>1.45</v>
@@ -24248,7 +24248,7 @@
         <v>1</v>
       </c>
       <c r="AT117" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU117" t="n">
         <v>1.45</v>
@@ -24651,7 +24651,7 @@
         <v>1.2</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT119" t="n">
         <v>1.25</v>
@@ -24857,7 +24857,7 @@
         <v>1.33</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU120" t="n">
         <v>1.51</v>
@@ -25057,7 +25057,7 @@
         <v>2.5</v>
       </c>
       <c r="AS121" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT121" t="n">
         <v>1.78</v>
@@ -25263,7 +25263,7 @@
         <v>1.11</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU122" t="n">
         <v>1.38</v>
@@ -25669,7 +25669,7 @@
         <v>1.22</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU124" t="n">
         <v>1.53</v>
@@ -25869,7 +25869,7 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT125" t="n">
         <v>1</v>
@@ -26072,7 +26072,7 @@
         <v>0.5</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT126" t="n">
         <v>0.5600000000000001</v>
@@ -26478,7 +26478,7 @@
         <v>0.8</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT128" t="n">
         <v>1</v>
@@ -26684,7 +26684,7 @@
         <v>1.38</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU129" t="n">
         <v>1.93</v>
@@ -26884,10 +26884,10 @@
         <v>1.17</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU130" t="n">
         <v>1.51</v>
@@ -27087,10 +27087,10 @@
         <v>0.2</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU131" t="n">
         <v>1.74</v>
@@ -27290,7 +27290,7 @@
         <v>0.67</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT132" t="n">
         <v>1.11</v>
@@ -27493,7 +27493,7 @@
         <v>1.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT133" t="n">
         <v>1.22</v>
@@ -27696,10 +27696,10 @@
         <v>1.33</v>
       </c>
       <c r="AS134" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU134" t="n">
         <v>1.98</v>
@@ -27902,7 +27902,7 @@
         <v>2.5</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU135" t="n">
         <v>1.92</v>
@@ -28102,7 +28102,7 @@
         <v>0.71</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT136" t="n">
         <v>0.67</v>
@@ -28305,7 +28305,7 @@
         <v>2.14</v>
       </c>
       <c r="AS137" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT137" t="n">
         <v>1.78</v>
@@ -28511,7 +28511,7 @@
         <v>1.67</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU138" t="n">
         <v>1.47</v>
@@ -28714,7 +28714,7 @@
         <v>1.33</v>
       </c>
       <c r="AT139" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU139" t="n">
         <v>1.58</v>
@@ -28917,7 +28917,7 @@
         <v>1.33</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU140" t="n">
         <v>1.32</v>
@@ -29117,10 +29117,10 @@
         <v>1.33</v>
       </c>
       <c r="AS141" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT141" t="n">
         <v>1.33</v>
-      </c>
-      <c r="AT141" t="n">
-        <v>1.5</v>
       </c>
       <c r="AU141" t="n">
         <v>1.58</v>
@@ -29932,7 +29932,7 @@
         <v>1.11</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU145" t="n">
         <v>1.29</v>
@@ -30538,7 +30538,7 @@
         <v>0.57</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT148" t="n">
         <v>0.5600000000000001</v>
@@ -30741,7 +30741,7 @@
         <v>0.86</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT149" t="n">
         <v>1</v>
@@ -30947,7 +30947,7 @@
         <v>1.33</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU150" t="n">
         <v>1.39</v>
@@ -31350,10 +31350,10 @@
         <v>1</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU152" t="n">
         <v>1.46</v>
@@ -31553,10 +31553,10 @@
         <v>1.29</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU153" t="n">
         <v>1.64</v>
@@ -31756,10 +31756,10 @@
         <v>0.71</v>
       </c>
       <c r="AS154" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU154" t="n">
         <v>1.54</v>
@@ -31959,10 +31959,10 @@
         <v>1.63</v>
       </c>
       <c r="AS155" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU155" t="n">
         <v>1.92</v>
@@ -32162,10 +32162,10 @@
         <v>1.57</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU156" t="n">
         <v>1.75</v>
@@ -32365,10 +32365,10 @@
         <v>1.14</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU157" t="n">
         <v>1.15</v>
@@ -32568,10 +32568,10 @@
         <v>1.88</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT158" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AU158" t="n">
         <v>1.85</v>
@@ -32771,10 +32771,10 @@
         <v>1.57</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU159" t="n">
         <v>1.66</v>
@@ -32974,10 +32974,10 @@
         <v>1.71</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU160" t="n">
         <v>1.64</v>
@@ -33177,10 +33177,10 @@
         <v>0.43</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU161" t="n">
         <v>1.57</v>
@@ -35261,6 +35261,2036 @@
         <v>8</v>
       </c>
       <c r="BK171" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2982569</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>44912.58333333334</v>
+      </c>
+      <c r="F172" t="n">
+        <v>18</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>2</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>2</v>
+      </c>
+      <c r="L172" t="n">
+        <v>3</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>3</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>['4', '20', '85']</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>3</v>
+      </c>
+      <c r="R172" t="n">
+        <v>2</v>
+      </c>
+      <c r="S172" t="n">
+        <v>5</v>
+      </c>
+      <c r="T172" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U172" t="n">
+        <v>2</v>
+      </c>
+      <c r="V172" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X172" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2982570</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>44912.6875</v>
+      </c>
+      <c r="F173" t="n">
+        <v>18</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Reggina</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Bari 1908</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>7</v>
+      </c>
+      <c r="R173" t="n">
+        <v>2</v>
+      </c>
+      <c r="S173" t="n">
+        <v>9</v>
+      </c>
+      <c r="T173" t="n">
+        <v>3</v>
+      </c>
+      <c r="U173" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V173" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X173" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>2982571</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>44913.41666666666</v>
+      </c>
+      <c r="F174" t="n">
+        <v>18</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>1</v>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>3</v>
+      </c>
+      <c r="N174" t="n">
+        <v>3</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>['15', '77', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>9</v>
+      </c>
+      <c r="R174" t="n">
+        <v>11</v>
+      </c>
+      <c r="S174" t="n">
+        <v>20</v>
+      </c>
+      <c r="T174" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U174" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V174" t="n">
+        <v>4</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X174" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>21</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>27</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>2982562</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>44913.41666666666</v>
+      </c>
+      <c r="F175" t="n">
+        <v>18</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>2</v>
+      </c>
+      <c r="K175" t="n">
+        <v>2</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>2</v>
+      </c>
+      <c r="N175" t="n">
+        <v>2</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>['29', '45+1']</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>8</v>
+      </c>
+      <c r="R175" t="n">
+        <v>1</v>
+      </c>
+      <c r="S175" t="n">
+        <v>9</v>
+      </c>
+      <c r="T175" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U175" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V175" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X175" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>2982563</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>44913.41666666666</v>
+      </c>
+      <c r="F176" t="n">
+        <v>18</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="n">
+        <v>3</v>
+      </c>
+      <c r="N176" t="n">
+        <v>4</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>['17', '89', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>4</v>
+      </c>
+      <c r="R176" t="n">
+        <v>3</v>
+      </c>
+      <c r="S176" t="n">
+        <v>7</v>
+      </c>
+      <c r="T176" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U176" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V176" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X176" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>2982565</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>44913.41666666666</v>
+      </c>
+      <c r="F177" t="n">
+        <v>18</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Benevento</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
+      <c r="K177" t="n">
+        <v>2</v>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="n">
+        <v>2</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>5</v>
+      </c>
+      <c r="R177" t="n">
+        <v>2</v>
+      </c>
+      <c r="S177" t="n">
+        <v>7</v>
+      </c>
+      <c r="T177" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U177" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V177" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X177" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2982567</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>44913.41666666666</v>
+      </c>
+      <c r="F178" t="n">
+        <v>18</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>SPAL</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="n">
+        <v>1</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>17</v>
+      </c>
+      <c r="R178" t="n">
+        <v>5</v>
+      </c>
+      <c r="S178" t="n">
+        <v>22</v>
+      </c>
+      <c r="T178" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U178" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V178" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X178" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>19</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2982566</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>44913.61458333334</v>
+      </c>
+      <c r="F179" t="n">
+        <v>18</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="n">
+        <v>2</v>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="n">
+        <v>3</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>['37', '53']</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>9</v>
+      </c>
+      <c r="R179" t="n">
+        <v>2</v>
+      </c>
+      <c r="S179" t="n">
+        <v>11</v>
+      </c>
+      <c r="T179" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U179" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V179" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X179" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2982564</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>44913.69791666666</v>
+      </c>
+      <c r="F180" t="n">
+        <v>18</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="n">
+        <v>1</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>6</v>
+      </c>
+      <c r="R180" t="n">
+        <v>4</v>
+      </c>
+      <c r="S180" t="n">
+        <v>10</v>
+      </c>
+      <c r="T180" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V180" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X180" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2982568</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>44914.6875</v>
+      </c>
+      <c r="F181" t="n">
+        <v>18</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>2</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>2</v>
+      </c>
+      <c r="L181" t="n">
+        <v>2</v>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="n">
+        <v>3</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>['8', '15']</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>9</v>
+      </c>
+      <c r="R181" t="n">
+        <v>6</v>
+      </c>
+      <c r="S181" t="n">
+        <v>15</v>
+      </c>
+      <c r="T181" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U181" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V181" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X181" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK181" t="n">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK181"/>
+  <dimension ref="A1:BK182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT9" t="n">
         <v>1.56</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT35" t="n">
         <v>0.5600000000000001</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT52" t="n">
         <v>1.44</v>
@@ -15719,7 +15719,7 @@
         <v>0.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT75" t="n">
         <v>1</v>
@@ -19779,7 +19779,7 @@
         <v>1.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT95" t="n">
         <v>1.33</v>
@@ -24042,7 +24042,7 @@
         <v>2</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT116" t="n">
         <v>1.67</v>
@@ -28508,7 +28508,7 @@
         <v>0.83</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT138" t="n">
         <v>1</v>
@@ -30335,7 +30335,7 @@
         <v>1.43</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT147" t="n">
         <v>1.78</v>
@@ -35207,7 +35207,7 @@
         <v>1</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT171" t="n">
         <v>1.25</v>
@@ -37292,6 +37292,209 @@
       </c>
       <c r="BK181" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2982575</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>44921.35416666666</v>
+      </c>
+      <c r="F182" t="n">
+        <v>19</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="n">
+        <v>2</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q182" t="n">
+        <v>2</v>
+      </c>
+      <c r="R182" t="n">
+        <v>6</v>
+      </c>
+      <c r="S182" t="n">
+        <v>8</v>
+      </c>
+      <c r="T182" t="n">
+        <v>3</v>
+      </c>
+      <c r="U182" t="n">
+        <v>2</v>
+      </c>
+      <c r="V182" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X182" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ182" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA182" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BF182" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK182"/>
+  <dimension ref="A1:BK191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.11</v>
       </c>
       <c r="AT3" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT4" t="n">
         <v>0.78</v>
@@ -1512,7 +1512,7 @@
         <v>1.5</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT12" t="n">
         <v>1</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -3542,7 +3542,7 @@
         <v>1.22</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.67</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT17" t="n">
         <v>1.33</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT19" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.22</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT21" t="n">
         <v>1</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT23" t="n">
         <v>0.78</v>
@@ -5369,7 +5369,7 @@
         <v>1.33</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU24" t="n">
         <v>1.55</v>
@@ -5775,7 +5775,7 @@
         <v>1.89</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU26" t="n">
         <v>1.77</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT29" t="n">
         <v>1.6</v>
@@ -6587,7 +6587,7 @@
         <v>1.6</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU30" t="n">
         <v>1.64</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT31" t="n">
         <v>1</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU32" t="n">
         <v>2.09</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT33" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU33" t="n">
         <v>1.45</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT34" t="n">
         <v>1</v>
@@ -7602,7 +7602,7 @@
         <v>1.6</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU35" t="n">
         <v>1.41</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT36" t="n">
         <v>0.78</v>
@@ -8211,7 +8211,7 @@
         <v>1.67</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU38" t="n">
         <v>1.37</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT39" t="n">
         <v>1.44</v>
@@ -8617,7 +8617,7 @@
         <v>1.56</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU40" t="n">
         <v>1.92</v>
@@ -8817,10 +8817,10 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT41" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU41" t="n">
         <v>0.73</v>
@@ -9023,7 +9023,7 @@
         <v>1.5</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU42" t="n">
         <v>1.67</v>
@@ -9226,7 +9226,7 @@
         <v>1.89</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU43" t="n">
         <v>1.69</v>
@@ -9632,7 +9632,7 @@
         <v>1.6</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU45" t="n">
         <v>1.64</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT47" t="n">
         <v>1.56</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT48" t="n">
         <v>0.78</v>
@@ -10847,7 +10847,7 @@
         <v>2</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT51" t="n">
         <v>1.33</v>
@@ -11253,10 +11253,10 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU53" t="n">
         <v>1.34</v>
@@ -11456,7 +11456,7 @@
         <v>2.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT54" t="n">
         <v>1.9</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT55" t="n">
         <v>1</v>
@@ -11862,7 +11862,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT56" t="n">
         <v>1</v>
@@ -12065,10 +12065,10 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT57" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU57" t="n">
         <v>1.49</v>
@@ -12271,7 +12271,7 @@
         <v>1.89</v>
       </c>
       <c r="AT58" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU58" t="n">
         <v>1.68</v>
@@ -12471,10 +12471,10 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU59" t="n">
         <v>1.11</v>
@@ -12677,7 +12677,7 @@
         <v>1.56</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU60" t="n">
         <v>1.86</v>
@@ -12880,7 +12880,7 @@
         <v>1.67</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU61" t="n">
         <v>1.36</v>
@@ -13486,7 +13486,7 @@
         <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT64" t="n">
         <v>1</v>
@@ -13689,10 +13689,10 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU65" t="n">
         <v>1.76</v>
@@ -13892,7 +13892,7 @@
         <v>1.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT66" t="n">
         <v>1.33</v>
@@ -14098,7 +14098,7 @@
         <v>1.11</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU67" t="n">
         <v>1.79</v>
@@ -14301,7 +14301,7 @@
         <v>1.33</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU68" t="n">
         <v>1.73</v>
@@ -14707,7 +14707,7 @@
         <v>1.22</v>
       </c>
       <c r="AT70" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU70" t="n">
         <v>1.8</v>
@@ -14907,7 +14907,7 @@
         <v>1.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT71" t="n">
         <v>1.67</v>
@@ -15313,7 +15313,7 @@
         <v>2.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT73" t="n">
         <v>1.9</v>
@@ -15516,10 +15516,10 @@
         <v>0</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU74" t="n">
         <v>1.41</v>
@@ -15722,7 +15722,7 @@
         <v>1.6</v>
       </c>
       <c r="AT75" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU75" t="n">
         <v>1.66</v>
@@ -15925,7 +15925,7 @@
         <v>1.89</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU76" t="n">
         <v>1.66</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT78" t="n">
         <v>1</v>
@@ -16534,7 +16534,7 @@
         <v>1.89</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU79" t="n">
         <v>1.58</v>
@@ -16734,10 +16734,10 @@
         <v>0</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU80" t="n">
         <v>1.64</v>
@@ -16937,7 +16937,7 @@
         <v>1.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT81" t="n">
         <v>1.44</v>
@@ -17140,7 +17140,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT82" t="n">
         <v>1.6</v>
@@ -17343,10 +17343,10 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU83" t="n">
         <v>1.51</v>
@@ -17546,7 +17546,7 @@
         <v>1.5</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT84" t="n">
         <v>1</v>
@@ -17955,7 +17955,7 @@
         <v>1.22</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU86" t="n">
         <v>1.17</v>
@@ -18361,7 +18361,7 @@
         <v>1.5</v>
       </c>
       <c r="AT88" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU88" t="n">
         <v>1.79</v>
@@ -18564,7 +18564,7 @@
         <v>1.6</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU89" t="n">
         <v>1.69</v>
@@ -18764,7 +18764,7 @@
         <v>1.33</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT90" t="n">
         <v>1.67</v>
@@ -19170,10 +19170,10 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU92" t="n">
         <v>1.57</v>
@@ -19373,10 +19373,10 @@
         <v>1.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU93" t="n">
         <v>1.44</v>
@@ -19579,7 +19579,7 @@
         <v>1.89</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU94" t="n">
         <v>1.74</v>
@@ -19982,7 +19982,7 @@
         <v>1.25</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT96" t="n">
         <v>1.44</v>
@@ -20185,7 +20185,7 @@
         <v>2.6</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT97" t="n">
         <v>1.9</v>
@@ -20391,7 +20391,7 @@
         <v>1.67</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU98" t="n">
         <v>1.51</v>
@@ -20594,7 +20594,7 @@
         <v>1.5</v>
       </c>
       <c r="AT99" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU99" t="n">
         <v>1.79</v>
@@ -20797,7 +20797,7 @@
         <v>1.89</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU100" t="n">
         <v>1.54</v>
@@ -20997,7 +20997,7 @@
         <v>1.25</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT101" t="n">
         <v>0.78</v>
@@ -21200,10 +21200,10 @@
         <v>1.8</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU102" t="n">
         <v>1.8</v>
@@ -21403,7 +21403,7 @@
         <v>1.75</v>
       </c>
       <c r="AS103" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT103" t="n">
         <v>1.67</v>
@@ -21606,7 +21606,7 @@
         <v>1.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT104" t="n">
         <v>1.56</v>
@@ -22418,10 +22418,10 @@
         <v>1.2</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU108" t="n">
         <v>1.88</v>
@@ -22621,10 +22621,10 @@
         <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT109" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU109" t="n">
         <v>1.52</v>
@@ -23030,7 +23030,7 @@
         <v>1.22</v>
       </c>
       <c r="AT111" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU111" t="n">
         <v>1.68</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT112" t="n">
         <v>0.78</v>
@@ -23639,7 +23639,7 @@
         <v>1.89</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU114" t="n">
         <v>1.61</v>
@@ -23842,7 +23842,7 @@
         <v>1.11</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU115" t="n">
         <v>1.78</v>
@@ -24245,7 +24245,7 @@
         <v>2.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT117" t="n">
         <v>1.9</v>
@@ -24448,10 +24448,10 @@
         <v>0.6</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU118" t="n">
         <v>2.05</v>
@@ -24654,7 +24654,7 @@
         <v>1.5</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU119" t="n">
         <v>1.7</v>
@@ -24854,7 +24854,7 @@
         <v>1.6</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT120" t="n">
         <v>1.33</v>
@@ -25060,7 +25060,7 @@
         <v>1.89</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU121" t="n">
         <v>2.12</v>
@@ -25260,7 +25260,7 @@
         <v>1.5</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT122" t="n">
         <v>1.6</v>
@@ -25463,10 +25463,10 @@
         <v>1.17</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU123" t="n">
         <v>1.49</v>
@@ -25666,7 +25666,7 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT124" t="n">
         <v>1.44</v>
@@ -25872,7 +25872,7 @@
         <v>1.6</v>
       </c>
       <c r="AT125" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU125" t="n">
         <v>1.48</v>
@@ -26075,7 +26075,7 @@
         <v>1.33</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU126" t="n">
         <v>1.67</v>
@@ -26275,10 +26275,10 @@
         <v>1</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT127" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU127" t="n">
         <v>1.77</v>
@@ -26681,7 +26681,7 @@
         <v>1.67</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT129" t="n">
         <v>1.56</v>
@@ -27293,7 +27293,7 @@
         <v>1.6</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU132" t="n">
         <v>1.49</v>
@@ -27496,7 +27496,7 @@
         <v>1.89</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU133" t="n">
         <v>1.64</v>
@@ -27899,7 +27899,7 @@
         <v>1</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT135" t="n">
         <v>0.78</v>
@@ -28105,7 +28105,7 @@
         <v>1.11</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU136" t="n">
         <v>1.85</v>
@@ -28308,7 +28308,7 @@
         <v>1.22</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU137" t="n">
         <v>1.57</v>
@@ -28711,7 +28711,7 @@
         <v>2</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT139" t="n">
         <v>1.9</v>
@@ -28914,7 +28914,7 @@
         <v>1.83</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT140" t="n">
         <v>1.67</v>
@@ -29320,10 +29320,10 @@
         <v>1.43</v>
       </c>
       <c r="AS142" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU142" t="n">
         <v>1.54</v>
@@ -29523,10 +29523,10 @@
         <v>1</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU143" t="n">
         <v>1.77</v>
@@ -29726,10 +29726,10 @@
         <v>1</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU144" t="n">
         <v>1.43</v>
@@ -29929,7 +29929,7 @@
         <v>0.33</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT145" t="n">
         <v>0.78</v>
@@ -30132,10 +30132,10 @@
         <v>1</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT146" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU146" t="n">
         <v>2.05</v>
@@ -30338,7 +30338,7 @@
         <v>1.6</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU147" t="n">
         <v>1.47</v>
@@ -30541,7 +30541,7 @@
         <v>1.22</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU148" t="n">
         <v>1.1</v>
@@ -30744,7 +30744,7 @@
         <v>1.56</v>
       </c>
       <c r="AT149" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU149" t="n">
         <v>1.74</v>
@@ -30944,7 +30944,7 @@
         <v>1.71</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT150" t="n">
         <v>1.6</v>
@@ -31147,7 +31147,7 @@
         <v>0.67</v>
       </c>
       <c r="AS151" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT151" t="n">
         <v>1</v>
@@ -33380,10 +33380,10 @@
         <v>0.63</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU162" t="n">
         <v>1.71</v>
@@ -33583,10 +33583,10 @@
         <v>0.75</v>
       </c>
       <c r="AS163" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU163" t="n">
         <v>1.56</v>
@@ -33786,7 +33786,7 @@
         <v>1</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT164" t="n">
         <v>1</v>
@@ -33989,10 +33989,10 @@
         <v>1.63</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU165" t="n">
         <v>1.62</v>
@@ -34192,10 +34192,10 @@
         <v>1.25</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU166" t="n">
         <v>1.34</v>
@@ -34395,10 +34395,10 @@
         <v>1.13</v>
       </c>
       <c r="AS167" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT167" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU167" t="n">
         <v>1.48</v>
@@ -34598,10 +34598,10 @@
         <v>1.88</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU168" t="n">
         <v>1.37</v>
@@ -34801,10 +34801,10 @@
         <v>1.25</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU169" t="n">
         <v>2.01</v>
@@ -35004,10 +35004,10 @@
         <v>1</v>
       </c>
       <c r="AS170" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT170" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU170" t="n">
         <v>1.94</v>
@@ -35210,7 +35210,7 @@
         <v>1.6</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU171" t="n">
         <v>1.41</v>
@@ -37359,10 +37359,10 @@
         <v>2</v>
       </c>
       <c r="R182" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S182" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T182" t="n">
         <v>3</v>
@@ -37479,22 +37479,1849 @@
         <v>3.7</v>
       </c>
       <c r="BF182" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2982577</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>44921.45833333334</v>
+      </c>
+      <c r="F183" t="n">
+        <v>19</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="n">
+        <v>2</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N183" t="n">
+        <v>2</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>['4', '72']</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q183" t="n">
+        <v>4</v>
+      </c>
+      <c r="R183" t="n">
+        <v>8</v>
+      </c>
+      <c r="S183" t="n">
+        <v>12</v>
+      </c>
+      <c r="T183" t="n">
+        <v>3</v>
+      </c>
+      <c r="U183" t="n">
+        <v>2</v>
+      </c>
+      <c r="V183" t="n">
+        <v>4</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X183" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ183" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA183" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF183" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH183" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>17</v>
+      </c>
+      <c r="BJ183" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK183" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2982580</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>44921.45833333334</v>
+      </c>
+      <c r="F184" t="n">
+        <v>19</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M184" t="n">
+        <v>2</v>
+      </c>
+      <c r="N184" t="n">
+        <v>2</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>['22', '81']</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>3</v>
+      </c>
+      <c r="R184" t="n">
+        <v>4</v>
+      </c>
+      <c r="S184" t="n">
+        <v>7</v>
+      </c>
+      <c r="T184" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U184" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V184" t="n">
+        <v>4</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X184" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF184" t="n">
         <v>5</v>
       </c>
-      <c r="BG182" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH182" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI182" t="n">
+      <c r="BG184" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2982579</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>44921.45833333334</v>
+      </c>
+      <c r="F185" t="n">
+        <v>19</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>SPAL</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="n">
+        <v>1</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
         <v>5</v>
       </c>
-      <c r="BJ182" t="n">
+      <c r="R185" t="n">
+        <v>3</v>
+      </c>
+      <c r="S185" t="n">
         <v>8</v>
       </c>
-      <c r="BK182" t="n">
+      <c r="T185" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U185" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V185" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X185" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2982581</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>44921.45833333334</v>
+      </c>
+      <c r="F186" t="n">
+        <v>19</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="n">
+        <v>2</v>
+      </c>
+      <c r="M186" t="n">
+        <v>2</v>
+      </c>
+      <c r="N186" t="n">
+        <v>4</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>['70', '82']</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>['45', '50']</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>2</v>
+      </c>
+      <c r="R186" t="n">
         <v>8</v>
+      </c>
+      <c r="S186" t="n">
+        <v>10</v>
+      </c>
+      <c r="T186" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U186" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V186" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X186" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2982574</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>44921.45833333334</v>
+      </c>
+      <c r="F187" t="n">
+        <v>19</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Benevento</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M187" t="n">
+        <v>2</v>
+      </c>
+      <c r="N187" t="n">
+        <v>2</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>['45+1', '83']</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>10</v>
+      </c>
+      <c r="R187" t="n">
+        <v>7</v>
+      </c>
+      <c r="S187" t="n">
+        <v>17</v>
+      </c>
+      <c r="T187" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U187" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V187" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X187" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2982572</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>44921.45833333334</v>
+      </c>
+      <c r="F188" t="n">
+        <v>19</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Reggina</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="n">
+        <v>1</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>3</v>
+      </c>
+      <c r="R188" t="n">
+        <v>4</v>
+      </c>
+      <c r="S188" t="n">
+        <v>7</v>
+      </c>
+      <c r="T188" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U188" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V188" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X188" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2982576</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>44921.45833333334</v>
+      </c>
+      <c r="F189" t="n">
+        <v>19</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>2</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N189" t="n">
+        <v>2</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>['65', '86']</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>9</v>
+      </c>
+      <c r="R189" t="n">
+        <v>4</v>
+      </c>
+      <c r="S189" t="n">
+        <v>13</v>
+      </c>
+      <c r="T189" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V189" t="n">
+        <v>6</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X189" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>19</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>27</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2982578</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>44921.58333333334</v>
+      </c>
+      <c r="F190" t="n">
+        <v>19</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="n">
+        <v>3</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N190" t="n">
+        <v>3</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>['38', '54', '72']</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>5</v>
+      </c>
+      <c r="R190" t="n">
+        <v>2</v>
+      </c>
+      <c r="S190" t="n">
+        <v>7</v>
+      </c>
+      <c r="T190" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U190" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V190" t="n">
+        <v>5</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X190" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2982573</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>44921.6875</v>
+      </c>
+      <c r="F191" t="n">
+        <v>19</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Bari 1908</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
+      <c r="K191" t="n">
+        <v>2</v>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="n">
+        <v>2</v>
+      </c>
+      <c r="N191" t="n">
+        <v>3</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>['2', '58']</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>6</v>
+      </c>
+      <c r="R191" t="n">
+        <v>4</v>
+      </c>
+      <c r="S191" t="n">
+        <v>10</v>
+      </c>
+      <c r="T191" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U191" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V191" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X191" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK191"/>
+  <dimension ref="A1:BK197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT12" t="n">
         <v>1</v>
@@ -3339,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU14" t="n">
         <v>1.36</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.22</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT21" t="n">
         <v>1</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT25" t="n">
         <v>1.56</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT26" t="n">
         <v>1.9</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT27" t="n">
         <v>1.9</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU32" t="n">
         <v>2.09</v>
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU33" t="n">
         <v>1.45</v>
@@ -7396,10 +7396,10 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT34" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU34" t="n">
         <v>2.15</v>
@@ -7802,10 +7802,10 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU36" t="n">
         <v>1.81</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT37" t="n">
         <v>1</v>
@@ -8617,7 +8617,7 @@
         <v>1.56</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU40" t="n">
         <v>1.92</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT43" t="n">
         <v>1.9</v>
@@ -10644,7 +10644,7 @@
         <v>3</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT50" t="n">
         <v>1.67</v>
@@ -11256,7 +11256,7 @@
         <v>1</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU53" t="n">
         <v>1.34</v>
@@ -11456,7 +11456,7 @@
         <v>2.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT54" t="n">
         <v>1.9</v>
@@ -11662,7 +11662,7 @@
         <v>1.5</v>
       </c>
       <c r="AT55" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU55" t="n">
         <v>1.67</v>
@@ -11862,7 +11862,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT56" t="n">
         <v>1</v>
@@ -12268,10 +12268,10 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU58" t="n">
         <v>1.68</v>
@@ -12677,7 +12677,7 @@
         <v>1.56</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU60" t="n">
         <v>1.86</v>
@@ -13083,7 +13083,7 @@
         <v>1.22</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU62" t="n">
         <v>1.19</v>
@@ -13486,7 +13486,7 @@
         <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT64" t="n">
         <v>1</v>
@@ -13892,7 +13892,7 @@
         <v>1.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT66" t="n">
         <v>1.33</v>
@@ -14704,7 +14704,7 @@
         <v>0.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT70" t="n">
         <v>1.2</v>
@@ -15519,7 +15519,7 @@
         <v>1</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU74" t="n">
         <v>1.41</v>
@@ -15722,7 +15722,7 @@
         <v>1.6</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU75" t="n">
         <v>1.66</v>
@@ -15922,10 +15922,10 @@
         <v>1.67</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU76" t="n">
         <v>1.66</v>
@@ -16328,10 +16328,10 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT78" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU78" t="n">
         <v>2.01</v>
@@ -16531,7 +16531,7 @@
         <v>1.25</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT79" t="n">
         <v>0.6</v>
@@ -17546,7 +17546,7 @@
         <v>1.5</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT84" t="n">
         <v>1</v>
@@ -17752,7 +17752,7 @@
         <v>1.11</v>
       </c>
       <c r="AT85" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU85" t="n">
         <v>1.84</v>
@@ -18158,7 +18158,7 @@
         <v>1.33</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU87" t="n">
         <v>1.53</v>
@@ -18764,7 +18764,7 @@
         <v>1.33</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT90" t="n">
         <v>1.67</v>
@@ -18967,7 +18967,7 @@
         <v>1.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT91" t="n">
         <v>1.56</v>
@@ -19376,7 +19376,7 @@
         <v>1.2</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU93" t="n">
         <v>1.44</v>
@@ -19576,7 +19576,7 @@
         <v>0</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT94" t="n">
         <v>0.8</v>
@@ -20185,7 +20185,7 @@
         <v>2.6</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT97" t="n">
         <v>1.9</v>
@@ -20594,7 +20594,7 @@
         <v>1.5</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU99" t="n">
         <v>1.79</v>
@@ -20794,10 +20794,10 @@
         <v>0.75</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU100" t="n">
         <v>1.54</v>
@@ -21200,7 +21200,7 @@
         <v>1.8</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT102" t="n">
         <v>1.1</v>
@@ -21812,7 +21812,7 @@
         <v>1.6</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU105" t="n">
         <v>1.58</v>
@@ -22418,7 +22418,7 @@
         <v>1.2</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT108" t="n">
         <v>1.9</v>
@@ -23027,10 +23027,10 @@
         <v>0.6</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU111" t="n">
         <v>1.68</v>
@@ -23436,7 +23436,7 @@
         <v>1.67</v>
       </c>
       <c r="AT113" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU113" t="n">
         <v>1.55</v>
@@ -23636,7 +23636,7 @@
         <v>0.83</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT114" t="n">
         <v>0.6</v>
@@ -23842,7 +23842,7 @@
         <v>1.11</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU115" t="n">
         <v>1.78</v>
@@ -24448,7 +24448,7 @@
         <v>0.6</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT118" t="n">
         <v>0.8</v>
@@ -24654,7 +24654,7 @@
         <v>1.5</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU119" t="n">
         <v>1.7</v>
@@ -25057,7 +25057,7 @@
         <v>2.5</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT121" t="n">
         <v>1.9</v>
@@ -25872,7 +25872,7 @@
         <v>1.6</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU125" t="n">
         <v>1.48</v>
@@ -26275,7 +26275,7 @@
         <v>1</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT127" t="n">
         <v>1.2</v>
@@ -26681,7 +26681,7 @@
         <v>1.67</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT129" t="n">
         <v>1.56</v>
@@ -27090,7 +27090,7 @@
         <v>1.56</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU131" t="n">
         <v>1.74</v>
@@ -27293,7 +27293,7 @@
         <v>1.6</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU132" t="n">
         <v>1.49</v>
@@ -27493,7 +27493,7 @@
         <v>1.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT133" t="n">
         <v>1.1</v>
@@ -27696,7 +27696,7 @@
         <v>1.33</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT134" t="n">
         <v>1.44</v>
@@ -27899,7 +27899,7 @@
         <v>1</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT135" t="n">
         <v>0.78</v>
@@ -28305,7 +28305,7 @@
         <v>2.14</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT137" t="n">
         <v>1.9</v>
@@ -28511,7 +28511,7 @@
         <v>1.6</v>
       </c>
       <c r="AT138" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU138" t="n">
         <v>1.47</v>
@@ -29523,10 +29523,10 @@
         <v>1</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU143" t="n">
         <v>1.77</v>
@@ -29729,7 +29729,7 @@
         <v>1.1</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU144" t="n">
         <v>1.43</v>
@@ -29932,7 +29932,7 @@
         <v>1</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU145" t="n">
         <v>1.29</v>
@@ -30132,7 +30132,7 @@
         <v>1</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT146" t="n">
         <v>1.2</v>
@@ -30744,7 +30744,7 @@
         <v>1.56</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU149" t="n">
         <v>1.74</v>
@@ -31756,10 +31756,10 @@
         <v>0.71</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT154" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU154" t="n">
         <v>1.54</v>
@@ -31959,7 +31959,7 @@
         <v>1.63</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT155" t="n">
         <v>1.6</v>
@@ -32974,7 +32974,7 @@
         <v>1.71</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT160" t="n">
         <v>1.67</v>
@@ -33180,7 +33180,7 @@
         <v>1.5</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU161" t="n">
         <v>1.57</v>
@@ -33380,7 +33380,7 @@
         <v>0.63</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT162" t="n">
         <v>0.8</v>
@@ -34398,7 +34398,7 @@
         <v>0.9</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU167" t="n">
         <v>1.48</v>
@@ -34801,10 +34801,10 @@
         <v>1.25</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU169" t="n">
         <v>2.01</v>
@@ -35004,7 +35004,7 @@
         <v>1</v>
       </c>
       <c r="AS170" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT170" t="n">
         <v>1.2</v>
@@ -35210,7 +35210,7 @@
         <v>1.6</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU171" t="n">
         <v>1.41</v>
@@ -35410,7 +35410,7 @@
         <v>1.13</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT172" t="n">
         <v>1</v>
@@ -35613,7 +35613,7 @@
         <v>2</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT173" t="n">
         <v>1.9</v>
@@ -35819,7 +35819,7 @@
         <v>1.67</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU174" t="n">
         <v>1.46</v>
@@ -36631,7 +36631,7 @@
         <v>1.6</v>
       </c>
       <c r="AT178" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU178" t="n">
         <v>1.73</v>
@@ -37237,7 +37237,7 @@
         <v>1.5</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT181" t="n">
         <v>1.33</v>
@@ -37646,7 +37646,7 @@
         <v>1.5</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU183" t="n">
         <v>1.59</v>
@@ -37849,7 +37849,7 @@
         <v>1.2</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU184" t="n">
         <v>1.39</v>
@@ -38255,7 +38255,7 @@
         <v>0.8</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU186" t="n">
         <v>1.56</v>
@@ -38861,7 +38861,7 @@
         <v>0.67</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT189" t="n">
         <v>0.6</v>
@@ -39064,7 +39064,7 @@
         <v>1.22</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT190" t="n">
         <v>1.1</v>
@@ -39267,7 +39267,7 @@
         <v>1.78</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT191" t="n">
         <v>1.9</v>
@@ -39322,6 +39322,1224 @@
       </c>
       <c r="BK191" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2982582</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>44940.41666666666</v>
+      </c>
+      <c r="F192" t="n">
+        <v>20</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Bari 1908</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>3</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>3</v>
+      </c>
+      <c r="L192" t="n">
+        <v>4</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N192" t="n">
+        <v>4</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>['5', '13', '43', '90+3']</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>4</v>
+      </c>
+      <c r="R192" t="n">
+        <v>10</v>
+      </c>
+      <c r="S192" t="n">
+        <v>14</v>
+      </c>
+      <c r="T192" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U192" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V192" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X192" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2982583</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>44940.41666666666</v>
+      </c>
+      <c r="F193" t="n">
+        <v>20</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="n">
+        <v>2</v>
+      </c>
+      <c r="M193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N193" t="n">
+        <v>2</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>['16', '49']</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>2</v>
+      </c>
+      <c r="R193" t="n">
+        <v>5</v>
+      </c>
+      <c r="S193" t="n">
+        <v>7</v>
+      </c>
+      <c r="T193" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U193" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V193" t="n">
+        <v>5</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X193" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>2982587</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>44940.41666666666</v>
+      </c>
+      <c r="F194" t="n">
+        <v>20</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>3</v>
+      </c>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
+      <c r="K194" t="n">
+        <v>4</v>
+      </c>
+      <c r="L194" t="n">
+        <v>3</v>
+      </c>
+      <c r="M194" t="n">
+        <v>3</v>
+      </c>
+      <c r="N194" t="n">
+        <v>6</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>['2', '7', '36']</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>['23', '48', '89']</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>4</v>
+      </c>
+      <c r="R194" t="n">
+        <v>2</v>
+      </c>
+      <c r="S194" t="n">
+        <v>6</v>
+      </c>
+      <c r="T194" t="n">
+        <v>3</v>
+      </c>
+      <c r="U194" t="n">
+        <v>2</v>
+      </c>
+      <c r="V194" t="n">
+        <v>4</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X194" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2982588</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>44940.41666666666</v>
+      </c>
+      <c r="F195" t="n">
+        <v>20</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>2</v>
+      </c>
+      <c r="K195" t="n">
+        <v>2</v>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="n">
+        <v>2</v>
+      </c>
+      <c r="N195" t="n">
+        <v>3</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>['4', '43']</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>6</v>
+      </c>
+      <c r="R195" t="n">
+        <v>2</v>
+      </c>
+      <c r="S195" t="n">
+        <v>8</v>
+      </c>
+      <c r="T195" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U195" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V195" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X195" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>2982589</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>44940.41666666666</v>
+      </c>
+      <c r="F196" t="n">
+        <v>20</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Reggina</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>SPAL</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0</v>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>8</v>
+      </c>
+      <c r="R196" t="n">
+        <v>2</v>
+      </c>
+      <c r="S196" t="n">
+        <v>10</v>
+      </c>
+      <c r="T196" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U196" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V196" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X196" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>2982585</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>44940.51041666666</v>
+      </c>
+      <c r="F197" t="n">
+        <v>20</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L197" t="n">
+        <v>2</v>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="n">
+        <v>3</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['64', '68']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>7</v>
+      </c>
+      <c r="R197" t="n">
+        <v>8</v>
+      </c>
+      <c r="S197" t="n">
+        <v>15</v>
+      </c>
+      <c r="T197" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U197" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V197" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X197" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -39509,19 +39509,19 @@
         <v>3</v>
       </c>
       <c r="BF192" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG192" t="n">
         <v>5</v>
       </c>
       <c r="BH192" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BI192" t="n">
         <v>3</v>
       </c>
       <c r="BJ192" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BK192" t="n">
         <v>8</v>
@@ -39592,10 +39592,10 @@
         <v>2</v>
       </c>
       <c r="R193" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S193" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T193" t="n">
         <v>2.5</v>
@@ -39712,19 +39712,19 @@
         <v>3</v>
       </c>
       <c r="BF193" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG193" t="n">
         <v>3</v>
       </c>
       <c r="BH193" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI193" t="n">
         <v>5</v>
       </c>
       <c r="BJ193" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BK193" t="n">
         <v>8</v>
@@ -39795,10 +39795,10 @@
         <v>4</v>
       </c>
       <c r="R194" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S194" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T194" t="n">
         <v>3</v>
@@ -39915,22 +39915,22 @@
         <v>3.4</v>
       </c>
       <c r="BF194" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BG194" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH194" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI194" t="n">
         <v>2</v>
       </c>
       <c r="BJ194" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BK194" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195">
@@ -39995,13 +39995,13 @@
         </is>
       </c>
       <c r="Q195" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R195" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S195" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T195" t="n">
         <v>2.6</v>
@@ -40118,22 +40118,22 @@
         <v>3.4</v>
       </c>
       <c r="BF195" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG195" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BH195" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BI195" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BJ195" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="BK195" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="196">
@@ -40321,22 +40321,22 @@
         <v>3.25</v>
       </c>
       <c r="BF196" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BG196" t="n">
         <v>4</v>
       </c>
       <c r="BH196" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI196" t="n">
         <v>8</v>
-      </c>
-      <c r="BI196" t="n">
-        <v>5</v>
       </c>
       <c r="BJ196" t="n">
         <v>19</v>
       </c>
       <c r="BK196" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="197">
@@ -40524,22 +40524,22 @@
         <v>3.25</v>
       </c>
       <c r="BF197" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG197" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH197" t="n">
         <v>4</v>
       </c>
       <c r="BI197" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BJ197" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BK197" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK197"/>
+  <dimension ref="A1:BK200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3136,7 +3136,7 @@
         <v>1.56</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT16" t="n">
         <v>1.9</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT17" t="n">
         <v>1.33</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT20" t="n">
         <v>1.18</v>
@@ -4760,7 +4760,7 @@
         <v>2.6</v>
       </c>
       <c r="AT21" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1.5</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU22" t="n">
         <v>1.62</v>
@@ -6790,7 +6790,7 @@
         <v>1.5</v>
       </c>
       <c r="AT31" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU31" t="n">
         <v>1.15</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT38" t="n">
         <v>0.6</v>
@@ -8414,7 +8414,7 @@
         <v>0.8</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU39" t="n">
         <v>1.46</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT41" t="n">
         <v>1.2</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT44" t="n">
         <v>1.9</v>
@@ -10444,7 +10444,7 @@
         <v>1.33</v>
       </c>
       <c r="AT49" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU49" t="n">
         <v>1.68</v>
@@ -10647,7 +10647,7 @@
         <v>1.2</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU50" t="n">
         <v>1.82</v>
@@ -11053,7 +11053,7 @@
         <v>1.6</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU52" t="n">
         <v>1.71</v>
@@ -12471,7 +12471,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT59" t="n">
         <v>0.6</v>
@@ -12877,7 +12877,7 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT61" t="n">
         <v>0.8</v>
@@ -13080,7 +13080,7 @@
         <v>0.5</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT62" t="n">
         <v>0.7</v>
@@ -13489,7 +13489,7 @@
         <v>1.4</v>
       </c>
       <c r="AT64" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU64" t="n">
         <v>1.93</v>
@@ -14910,7 +14910,7 @@
         <v>0.9</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU71" t="n">
         <v>1.68</v>
@@ -16125,7 +16125,7 @@
         <v>0.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT77" t="n">
         <v>1</v>
@@ -16937,10 +16937,10 @@
         <v>1.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU81" t="n">
         <v>1.5</v>
@@ -17549,7 +17549,7 @@
         <v>1.91</v>
       </c>
       <c r="AT84" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU84" t="n">
         <v>2.07</v>
@@ -17952,7 +17952,7 @@
         <v>2.25</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT86" t="n">
         <v>1.9</v>
@@ -18767,7 +18767,7 @@
         <v>1.4</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU90" t="n">
         <v>1.88</v>
@@ -19373,7 +19373,7 @@
         <v>1.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT93" t="n">
         <v>1.1</v>
@@ -19985,7 +19985,7 @@
         <v>1.5</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU96" t="n">
         <v>1.64</v>
@@ -20388,7 +20388,7 @@
         <v>2.4</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT98" t="n">
         <v>1.9</v>
@@ -21406,7 +21406,7 @@
         <v>0.8</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU103" t="n">
         <v>1.57</v>
@@ -22215,7 +22215,7 @@
         <v>1.2</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT107" t="n">
         <v>1.6</v>
@@ -22827,7 +22827,7 @@
         <v>1.56</v>
       </c>
       <c r="AT110" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU110" t="n">
         <v>1.87</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT112" t="n">
         <v>0.78</v>
@@ -23433,7 +23433,7 @@
         <v>0.8</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT113" t="n">
         <v>1.2</v>
@@ -24045,7 +24045,7 @@
         <v>1.6</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU116" t="n">
         <v>1.45</v>
@@ -25669,7 +25669,7 @@
         <v>1.1</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU124" t="n">
         <v>1.53</v>
@@ -26478,7 +26478,7 @@
         <v>0.8</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT128" t="n">
         <v>1</v>
@@ -26884,10 +26884,10 @@
         <v>1.17</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT130" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU130" t="n">
         <v>1.51</v>
@@ -27699,7 +27699,7 @@
         <v>1.7</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU134" t="n">
         <v>1.98</v>
@@ -28914,10 +28914,10 @@
         <v>1.83</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU140" t="n">
         <v>1.32</v>
@@ -30538,7 +30538,7 @@
         <v>0.57</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT148" t="n">
         <v>0.8</v>
@@ -30944,7 +30944,7 @@
         <v>1.71</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT150" t="n">
         <v>1.6</v>
@@ -31350,7 +31350,7 @@
         <v>1</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT152" t="n">
         <v>0.78</v>
@@ -31556,7 +31556,7 @@
         <v>1.6</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU153" t="n">
         <v>1.64</v>
@@ -32365,10 +32365,10 @@
         <v>1.14</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT157" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU157" t="n">
         <v>1.15</v>
@@ -32977,7 +32977,7 @@
         <v>1.7</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU160" t="n">
         <v>1.64</v>
@@ -34192,7 +34192,7 @@
         <v>1.25</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT166" t="n">
         <v>1.1</v>
@@ -35413,7 +35413,7 @@
         <v>1.7</v>
       </c>
       <c r="AT172" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU172" t="n">
         <v>1.55</v>
@@ -35816,7 +35816,7 @@
         <v>0.5</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT174" t="n">
         <v>0.7</v>
@@ -36222,10 +36222,10 @@
         <v>1.5</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU176" t="n">
         <v>1.19</v>
@@ -36428,7 +36428,7 @@
         <v>1.33</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU177" t="n">
         <v>1.61</v>
@@ -37846,7 +37846,7 @@
         <v>1.11</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT184" t="n">
         <v>1.18</v>
@@ -40540,6 +40540,615 @@
       </c>
       <c r="BK197" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>2982590</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>44941.41666666666</v>
+      </c>
+      <c r="F198" t="n">
+        <v>20</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>1</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>0</v>
+      </c>
+      <c r="R198" t="n">
+        <v>1</v>
+      </c>
+      <c r="S198" t="n">
+        <v>1</v>
+      </c>
+      <c r="T198" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U198" t="n">
+        <v>2</v>
+      </c>
+      <c r="V198" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X198" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2982584</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>44941.51041666666</v>
+      </c>
+      <c r="F199" t="n">
+        <v>20</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Benevento</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="n">
+        <v>2</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>7</v>
+      </c>
+      <c r="R199" t="n">
+        <v>8</v>
+      </c>
+      <c r="S199" t="n">
+        <v>15</v>
+      </c>
+      <c r="T199" t="n">
+        <v>4</v>
+      </c>
+      <c r="U199" t="n">
+        <v>2</v>
+      </c>
+      <c r="V199" t="n">
+        <v>3</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X199" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2982591</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>44941.51041666666</v>
+      </c>
+      <c r="F200" t="n">
+        <v>20</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>1</v>
+      </c>
+      <c r="R200" t="n">
+        <v>10</v>
+      </c>
+      <c r="S200" t="n">
+        <v>11</v>
+      </c>
+      <c r="T200" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U200" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V200" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X200" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>18</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK200"/>
+  <dimension ref="A1:BK201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT13" t="n">
         <v>1.4</v>
@@ -3948,7 +3948,7 @@
         <v>1.36</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>1.11</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU28" t="n">
         <v>1.97</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT40" t="n">
         <v>1.1</v>
@@ -10850,7 +10850,7 @@
         <v>1.1</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU51" t="n">
         <v>1.62</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT60" t="n">
         <v>1.18</v>
@@ -13895,7 +13895,7 @@
         <v>1.91</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU66" t="n">
         <v>2.14</v>
@@ -15110,7 +15110,7 @@
         <v>1.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT72" t="n">
         <v>0.78</v>
@@ -19782,7 +19782,7 @@
         <v>1.6</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU95" t="n">
         <v>1.47</v>
@@ -22824,7 +22824,7 @@
         <v>1.2</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT110" t="n">
         <v>0.9</v>
@@ -24857,7 +24857,7 @@
         <v>1.5</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU120" t="n">
         <v>1.51</v>
@@ -27087,7 +27087,7 @@
         <v>0.2</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT131" t="n">
         <v>0.7</v>
@@ -29120,7 +29120,7 @@
         <v>1.5</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU141" t="n">
         <v>1.58</v>
@@ -30741,7 +30741,7 @@
         <v>0.86</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT149" t="n">
         <v>1.09</v>
@@ -32162,7 +32162,7 @@
         <v>1.57</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT156" t="n">
         <v>1.56</v>
@@ -32774,7 +32774,7 @@
         <v>1.33</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU159" t="n">
         <v>1.66</v>
@@ -37034,7 +37034,7 @@
         <v>1.78</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT180" t="n">
         <v>1.6</v>
@@ -37240,7 +37240,7 @@
         <v>1.2</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU181" t="n">
         <v>1.49</v>
@@ -41149,6 +41149,209 @@
       </c>
       <c r="BK200" t="n">
         <v>22</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>2982586</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>44942.61458333334</v>
+      </c>
+      <c r="F201" t="n">
+        <v>20</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>3</v>
+      </c>
+      <c r="R201" t="n">
+        <v>3</v>
+      </c>
+      <c r="S201" t="n">
+        <v>6</v>
+      </c>
+      <c r="T201" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U201" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V201" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X201" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK201"/>
+  <dimension ref="A1:BK202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.6</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT5" t="n">
         <v>0.8</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT22" t="n">
         <v>1.5</v>
@@ -5978,7 +5978,7 @@
         <v>1.2</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU27" t="n">
         <v>1.03</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT42" t="n">
         <v>1.9</v>
@@ -9429,7 +9429,7 @@
         <v>1.2</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU44" t="n">
         <v>1.46</v>
@@ -11459,7 +11459,7 @@
         <v>1.91</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU54" t="n">
         <v>2.56</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT63" t="n">
         <v>1.56</v>
@@ -15316,7 +15316,7 @@
         <v>0.8</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU73" t="n">
         <v>1.66</v>
@@ -18358,7 +18358,7 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT88" t="n">
         <v>1.2</v>
@@ -20188,7 +20188,7 @@
         <v>2.6</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU97" t="n">
         <v>2.02</v>
@@ -20591,7 +20591,7 @@
         <v>0.5</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT99" t="n">
         <v>1.09</v>
@@ -24248,7 +24248,7 @@
         <v>0.9</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU117" t="n">
         <v>1.45</v>
@@ -24651,7 +24651,7 @@
         <v>1.2</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT119" t="n">
         <v>1.1</v>
@@ -28714,7 +28714,7 @@
         <v>1.5</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU139" t="n">
         <v>1.58</v>
@@ -29117,7 +29117,7 @@
         <v>1.33</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT141" t="n">
         <v>1.2</v>
@@ -32571,7 +32571,7 @@
         <v>1.11</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU158" t="n">
         <v>1.85</v>
@@ -33177,7 +33177,7 @@
         <v>0.43</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT161" t="n">
         <v>0.7</v>
@@ -35616,7 +35616,7 @@
         <v>1.7</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU173" t="n">
         <v>1.86</v>
@@ -36831,7 +36831,7 @@
         <v>0.88</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT179" t="n">
         <v>0.78</v>
@@ -41352,6 +41352,209 @@
       </c>
       <c r="BK201" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>2982597</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>44946.6875</v>
+      </c>
+      <c r="F202" t="n">
+        <v>21</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Bari 1908</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N202" t="n">
+        <v>1</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>10</v>
+      </c>
+      <c r="R202" t="n">
+        <v>2</v>
+      </c>
+      <c r="S202" t="n">
+        <v>12</v>
+      </c>
+      <c r="T202" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U202" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V202" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X202" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK202"/>
+  <dimension ref="A1:BK210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT2" t="n">
         <v>1.73</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.64</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT8" t="n">
         <v>1.9</v>
@@ -2324,7 +2324,7 @@
         <v>1.6</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT11" t="n">
         <v>1.6</v>
@@ -4963,7 +4963,7 @@
         <v>1.64</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU22" t="n">
         <v>1.62</v>
@@ -5163,10 +5163,10 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU23" t="n">
         <v>1.87</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU24" t="n">
         <v>1.55</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT25" t="n">
         <v>1.7</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>1.56</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>1.7</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU26" t="n">
         <v>1.77</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT28" t="n">
         <v>1.2</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT29" t="n">
         <v>1.6</v>
@@ -6584,10 +6584,10 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU30" t="n">
         <v>1.64</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT31" t="n">
         <v>0.9</v>
@@ -7602,7 +7602,7 @@
         <v>1.6</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU35" t="n">
         <v>1.41</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT37" t="n">
         <v>1</v>
@@ -8211,7 +8211,7 @@
         <v>1.8</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU38" t="n">
         <v>1.37</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT39" t="n">
         <v>1.4</v>
@@ -8820,7 +8820,7 @@
         <v>1.36</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU41" t="n">
         <v>0.73</v>
@@ -9023,7 +9023,7 @@
         <v>1.64</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU42" t="n">
         <v>1.67</v>
@@ -9629,10 +9629,10 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU45" t="n">
         <v>1.64</v>
@@ -9832,7 +9832,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT46" t="n">
         <v>1.6</v>
@@ -10035,10 +10035,10 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU47" t="n">
         <v>1.49</v>
@@ -10238,10 +10238,10 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU48" t="n">
         <v>1.53</v>
@@ -10441,7 +10441,7 @@
         <v>1.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT49" t="n">
         <v>0.9</v>
@@ -10647,7 +10647,7 @@
         <v>1.2</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU50" t="n">
         <v>1.82</v>
@@ -10847,7 +10847,7 @@
         <v>2</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT51" t="n">
         <v>1.2</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT55" t="n">
         <v>1.2</v>
@@ -12065,10 +12065,10 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU57" t="n">
         <v>1.49</v>
@@ -12268,7 +12268,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT58" t="n">
         <v>1.09</v>
@@ -12474,7 +12474,7 @@
         <v>1.36</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU59" t="n">
         <v>1.11</v>
@@ -12880,7 +12880,7 @@
         <v>1.8</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU61" t="n">
         <v>1.36</v>
@@ -13286,7 +13286,7 @@
         <v>1.64</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU63" t="n">
         <v>1.59</v>
@@ -13689,10 +13689,10 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU65" t="n">
         <v>1.76</v>
@@ -14095,10 +14095,10 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU67" t="n">
         <v>1.79</v>
@@ -14298,7 +14298,7 @@
         <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT68" t="n">
         <v>1.9</v>
@@ -14501,7 +14501,7 @@
         <v>1</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT69" t="n">
         <v>1.6</v>
@@ -14707,7 +14707,7 @@
         <v>1.2</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU70" t="n">
         <v>1.8</v>
@@ -14907,10 +14907,10 @@
         <v>1.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU71" t="n">
         <v>1.68</v>
@@ -15113,7 +15113,7 @@
         <v>1.7</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU72" t="n">
         <v>1.83</v>
@@ -15313,7 +15313,7 @@
         <v>2.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT73" t="n">
         <v>1.73</v>
@@ -16531,10 +16531,10 @@
         <v>1.25</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU79" t="n">
         <v>1.58</v>
@@ -16734,10 +16734,10 @@
         <v>0</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU80" t="n">
         <v>1.64</v>
@@ -17140,7 +17140,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT82" t="n">
         <v>1.6</v>
@@ -17343,10 +17343,10 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU83" t="n">
         <v>1.51</v>
@@ -17749,7 +17749,7 @@
         <v>0.75</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT85" t="n">
         <v>1.2</v>
@@ -17955,7 +17955,7 @@
         <v>1.2</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU86" t="n">
         <v>1.17</v>
@@ -18155,7 +18155,7 @@
         <v>0.33</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT87" t="n">
         <v>0.7</v>
@@ -18361,7 +18361,7 @@
         <v>1.64</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU88" t="n">
         <v>1.79</v>
@@ -18561,7 +18561,7 @@
         <v>1.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT89" t="n">
         <v>1.9</v>
@@ -18767,7 +18767,7 @@
         <v>1.4</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU90" t="n">
         <v>1.88</v>
@@ -18970,7 +18970,7 @@
         <v>1.2</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU91" t="n">
         <v>1.73</v>
@@ -19170,10 +19170,10 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU92" t="n">
         <v>1.57</v>
@@ -19576,10 +19576,10 @@
         <v>0</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU94" t="n">
         <v>1.74</v>
@@ -19982,7 +19982,7 @@
         <v>1.25</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT96" t="n">
         <v>1.4</v>
@@ -20391,7 +20391,7 @@
         <v>1.8</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU98" t="n">
         <v>1.51</v>
@@ -21000,7 +21000,7 @@
         <v>1</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU101" t="n">
         <v>1.47</v>
@@ -21203,7 +21203,7 @@
         <v>1.4</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU102" t="n">
         <v>1.8</v>
@@ -21403,10 +21403,10 @@
         <v>1.75</v>
       </c>
       <c r="AS103" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU103" t="n">
         <v>1.57</v>
@@ -21606,10 +21606,10 @@
         <v>1.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU104" t="n">
         <v>1.53</v>
@@ -21809,7 +21809,7 @@
         <v>0.25</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT105" t="n">
         <v>0.7</v>
@@ -22012,7 +22012,7 @@
         <v>0.25</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT106" t="n">
         <v>1</v>
@@ -22621,10 +22621,10 @@
         <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU109" t="n">
         <v>1.52</v>
@@ -23233,7 +23233,7 @@
         <v>1.36</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU112" t="n">
         <v>1.3</v>
@@ -23639,7 +23639,7 @@
         <v>1.7</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU114" t="n">
         <v>1.61</v>
@@ -23839,7 +23839,7 @@
         <v>0.6</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT115" t="n">
         <v>1.18</v>
@@ -24045,7 +24045,7 @@
         <v>1.6</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU116" t="n">
         <v>1.45</v>
@@ -24245,7 +24245,7 @@
         <v>2.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT117" t="n">
         <v>1.73</v>
@@ -24451,7 +24451,7 @@
         <v>2.6</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU118" t="n">
         <v>2.05</v>
@@ -24854,7 +24854,7 @@
         <v>1.6</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT120" t="n">
         <v>1.2</v>
@@ -25057,10 +25057,10 @@
         <v>2.5</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU121" t="n">
         <v>2.12</v>
@@ -25463,7 +25463,7 @@
         <v>1.17</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT123" t="n">
         <v>1.9</v>
@@ -25666,7 +25666,7 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT124" t="n">
         <v>1.4</v>
@@ -25869,7 +25869,7 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT125" t="n">
         <v>1.09</v>
@@ -26072,10 +26072,10 @@
         <v>0.5</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU126" t="n">
         <v>1.67</v>
@@ -26278,7 +26278,7 @@
         <v>1.91</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU127" t="n">
         <v>1.77</v>
@@ -26684,7 +26684,7 @@
         <v>1.4</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU129" t="n">
         <v>1.93</v>
@@ -27290,7 +27290,7 @@
         <v>0.67</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT132" t="n">
         <v>1.18</v>
@@ -27496,7 +27496,7 @@
         <v>1.7</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU133" t="n">
         <v>1.64</v>
@@ -27696,7 +27696,7 @@
         <v>1.33</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT134" t="n">
         <v>1.4</v>
@@ -27902,7 +27902,7 @@
         <v>2.6</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU135" t="n">
         <v>1.92</v>
@@ -28102,10 +28102,10 @@
         <v>0.71</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU136" t="n">
         <v>1.85</v>
@@ -28308,7 +28308,7 @@
         <v>1.2</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU137" t="n">
         <v>1.57</v>
@@ -28711,7 +28711,7 @@
         <v>2</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT139" t="n">
         <v>1.73</v>
@@ -28917,7 +28917,7 @@
         <v>1.36</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU140" t="n">
         <v>1.32</v>
@@ -29320,10 +29320,10 @@
         <v>1.43</v>
       </c>
       <c r="AS142" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU142" t="n">
         <v>1.54</v>
@@ -29726,7 +29726,7 @@
         <v>1</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT144" t="n">
         <v>1.18</v>
@@ -30135,7 +30135,7 @@
         <v>1.4</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU146" t="n">
         <v>2.05</v>
@@ -30541,7 +30541,7 @@
         <v>1.2</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU148" t="n">
         <v>1.1</v>
@@ -31147,7 +31147,7 @@
         <v>0.67</v>
       </c>
       <c r="AS151" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT151" t="n">
         <v>1</v>
@@ -31353,7 +31353,7 @@
         <v>1.8</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU152" t="n">
         <v>1.46</v>
@@ -31553,7 +31553,7 @@
         <v>1.29</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT153" t="n">
         <v>1.4</v>
@@ -31959,7 +31959,7 @@
         <v>1.63</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT155" t="n">
         <v>1.6</v>
@@ -32165,7 +32165,7 @@
         <v>1.7</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU156" t="n">
         <v>1.75</v>
@@ -32568,7 +32568,7 @@
         <v>1.88</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT158" t="n">
         <v>1.73</v>
@@ -32771,7 +32771,7 @@
         <v>1.57</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT159" t="n">
         <v>1.2</v>
@@ -32977,7 +32977,7 @@
         <v>1.7</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU160" t="n">
         <v>1.64</v>
@@ -33383,7 +33383,7 @@
         <v>1.91</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU162" t="n">
         <v>1.71</v>
@@ -33583,10 +33583,10 @@
         <v>0.75</v>
       </c>
       <c r="AS163" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU163" t="n">
         <v>1.56</v>
@@ -33786,7 +33786,7 @@
         <v>1</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT164" t="n">
         <v>1</v>
@@ -33989,7 +33989,7 @@
         <v>1.63</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT165" t="n">
         <v>1.9</v>
@@ -34195,7 +34195,7 @@
         <v>1.36</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU166" t="n">
         <v>1.34</v>
@@ -34395,7 +34395,7 @@
         <v>1.13</v>
       </c>
       <c r="AS167" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT167" t="n">
         <v>1.09</v>
@@ -34601,7 +34601,7 @@
         <v>1</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU168" t="n">
         <v>1.37</v>
@@ -35007,7 +35007,7 @@
         <v>2.6</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU170" t="n">
         <v>1.94</v>
@@ -35613,7 +35613,7 @@
         <v>2</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT173" t="n">
         <v>1.73</v>
@@ -36019,10 +36019,10 @@
         <v>1.38</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU175" t="n">
         <v>1.88</v>
@@ -36225,7 +36225,7 @@
         <v>1.2</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU176" t="n">
         <v>1.19</v>
@@ -36425,7 +36425,7 @@
         <v>1.5</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT177" t="n">
         <v>1.4</v>
@@ -36628,7 +36628,7 @@
         <v>0.75</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT178" t="n">
         <v>1.2</v>
@@ -36834,7 +36834,7 @@
         <v>1.64</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU179" t="n">
         <v>1.61</v>
@@ -37643,7 +37643,7 @@
         <v>1</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT183" t="n">
         <v>1.09</v>
@@ -38049,10 +38049,10 @@
         <v>1</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU185" t="n">
         <v>1.54</v>
@@ -38252,7 +38252,7 @@
         <v>1.25</v>
       </c>
       <c r="AS186" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT186" t="n">
         <v>1.1</v>
@@ -38455,10 +38455,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS187" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU187" t="n">
         <v>1.41</v>
@@ -38864,7 +38864,7 @@
         <v>1.91</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU189" t="n">
         <v>1.83</v>
@@ -39067,7 +39067,7 @@
         <v>2.6</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU190" t="n">
         <v>1.87</v>
@@ -39270,7 +39270,7 @@
         <v>1.4</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU191" t="n">
         <v>1.92</v>
@@ -39329,7 +39329,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>2982582</v>
+        <v>2982589</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -39349,59 +39349,59 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Bari 1908</t>
+          <t>Reggina</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>SPAL</t>
         </is>
       </c>
       <c r="I192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J192" t="n">
         <v>0</v>
       </c>
       <c r="K192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L192" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N192" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>['5', '13', '43', '90+3']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P192" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['65']</t>
         </is>
       </c>
       <c r="Q192" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R192" t="n">
+        <v>2</v>
+      </c>
+      <c r="S192" t="n">
         <v>10</v>
       </c>
-      <c r="S192" t="n">
-        <v>14</v>
-      </c>
       <c r="T192" t="n">
-        <v>3.2</v>
+        <v>2.38</v>
       </c>
       <c r="U192" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V192" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="W192" t="n">
         <v>1.44</v>
@@ -39410,10 +39410,10 @@
         <v>2.63</v>
       </c>
       <c r="Y192" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Z192" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AA192" t="n">
         <v>10</v>
@@ -39422,109 +39422,109 @@
         <v>1.06</v>
       </c>
       <c r="AC192" t="n">
-        <v>2.54</v>
+        <v>1.67</v>
       </c>
       <c r="AD192" t="n">
-        <v>3.29</v>
+        <v>3.78</v>
       </c>
       <c r="AE192" t="n">
-        <v>2.84</v>
+        <v>5.39</v>
       </c>
       <c r="AF192" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AG192" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH192" t="n">
         <v>1.36</v>
       </c>
       <c r="AI192" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="AJ192" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP192" t="n">
         <v>2.15</v>
       </c>
-      <c r="AK192" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AL192" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AM192" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AN192" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AO192" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP192" t="n">
-        <v>1.55</v>
-      </c>
       <c r="AQ192" t="n">
-        <v>1.22</v>
+        <v>1.89</v>
       </c>
       <c r="AR192" t="n">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AU192" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="AV192" t="n">
-        <v>1.86</v>
+        <v>1.42</v>
       </c>
       <c r="AW192" t="n">
-        <v>3.75</v>
+        <v>3.23</v>
       </c>
       <c r="AX192" t="n">
-        <v>2.2</v>
+        <v>1.49</v>
       </c>
       <c r="AY192" t="n">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="AZ192" t="n">
-        <v>1.99</v>
+        <v>3.44</v>
       </c>
       <c r="BA192" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="BB192" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="BC192" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="BD192" t="n">
-        <v>2.23</v>
+        <v>2.38</v>
       </c>
       <c r="BE192" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="BF192" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI192" t="n">
         <v>8</v>
       </c>
-      <c r="BG192" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH192" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI192" t="n">
-        <v>3</v>
-      </c>
       <c r="BJ192" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BK192" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193">
@@ -39532,7 +39532,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>2982583</v>
+        <v>2982588</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -39552,59 +39552,59 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="I193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N193" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>['16', '49']</t>
+          <t>['60']</t>
         </is>
       </c>
       <c r="P193" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['4', '43']</t>
         </is>
       </c>
       <c r="Q193" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R193" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S193" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T193" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="U193" t="n">
         <v>2.1</v>
       </c>
       <c r="V193" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="W193" t="n">
         <v>1.44</v>
@@ -39619,37 +39619,37 @@
         <v>1.33</v>
       </c>
       <c r="AA193" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB193" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AC193" t="n">
-        <v>1.74</v>
+        <v>1.94</v>
       </c>
       <c r="AD193" t="n">
-        <v>3.71</v>
+        <v>3.32</v>
       </c>
       <c r="AE193" t="n">
-        <v>4.83</v>
+        <v>4.29</v>
       </c>
       <c r="AF193" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AG193" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH193" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AI193" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AJ193" t="n">
-        <v>1.93</v>
+        <v>2.3</v>
       </c>
       <c r="AK193" t="n">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="AL193" t="n">
         <v>1.95</v>
@@ -39658,76 +39658,76 @@
         <v>1.8</v>
       </c>
       <c r="AN193" t="n">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AO193" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="AP193" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AQ193" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="AR193" t="n">
-        <v>0.78</v>
+        <v>0.9</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.7</v>
+        <v>1.09</v>
       </c>
       <c r="AU193" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC193" t="n">
         <v>1.93</v>
       </c>
-      <c r="AV193" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AW193" t="n">
+      <c r="BD193" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE193" t="n">
         <v>3.4</v>
       </c>
-      <c r="AX193" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AY193" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ193" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="BA193" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="BB193" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="BC193" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="BD193" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="BE193" t="n">
-        <v>3</v>
-      </c>
       <c r="BF193" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG193" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BH193" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BI193" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BJ193" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BK193" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194">
@@ -39938,7 +39938,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>2982588</v>
+        <v>2982583</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -39958,59 +39958,59 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>['60']</t>
+          <t>['16', '49']</t>
         </is>
       </c>
       <c r="P195" t="inlineStr">
         <is>
-          <t>['4', '43']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q195" t="n">
+        <v>2</v>
+      </c>
+      <c r="R195" t="n">
+        <v>7</v>
+      </c>
+      <c r="S195" t="n">
         <v>9</v>
       </c>
-      <c r="R195" t="n">
-        <v>5</v>
-      </c>
-      <c r="S195" t="n">
-        <v>14</v>
-      </c>
       <c r="T195" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="U195" t="n">
         <v>2.1</v>
       </c>
       <c r="V195" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="W195" t="n">
         <v>1.44</v>
@@ -40025,37 +40025,37 @@
         <v>1.33</v>
       </c>
       <c r="AA195" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB195" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AC195" t="n">
-        <v>1.94</v>
+        <v>1.74</v>
       </c>
       <c r="AD195" t="n">
-        <v>3.32</v>
+        <v>3.71</v>
       </c>
       <c r="AE195" t="n">
-        <v>4.29</v>
+        <v>4.83</v>
       </c>
       <c r="AF195" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AG195" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH195" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AI195" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="AJ195" t="n">
-        <v>2.3</v>
+        <v>1.93</v>
       </c>
       <c r="AK195" t="n">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="AL195" t="n">
         <v>1.95</v>
@@ -40064,76 +40064,76 @@
         <v>1.8</v>
       </c>
       <c r="AN195" t="n">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="AO195" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AP195" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR195" t="n">
-        <v>0.9</v>
+        <v>0.78</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.09</v>
+        <v>0.7</v>
       </c>
       <c r="AU195" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB195" t="n">
         <v>1.42</v>
       </c>
-      <c r="AV195" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AW195" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AX195" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AY195" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AZ195" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="BA195" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="BB195" t="n">
-        <v>1.5</v>
-      </c>
       <c r="BC195" t="n">
-        <v>1.93</v>
+        <v>1.74</v>
       </c>
       <c r="BD195" t="n">
-        <v>2.45</v>
+        <v>2.23</v>
       </c>
       <c r="BE195" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="BF195" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG195" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BH195" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ195" t="n">
         <v>9</v>
       </c>
-      <c r="BI195" t="n">
-        <v>9</v>
-      </c>
-      <c r="BJ195" t="n">
-        <v>15</v>
-      </c>
       <c r="BK195" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196">
@@ -40141,7 +40141,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>2982589</v>
+        <v>2982582</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -40161,59 +40161,59 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Reggina</t>
+          <t>Bari 1908</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>SPAL</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J196" t="n">
         <v>0</v>
       </c>
       <c r="K196" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L196" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N196" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
+          <t>['5', '13', '43', '90+3']</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P196" t="inlineStr">
-        <is>
-          <t>['65']</t>
-        </is>
-      </c>
       <c r="Q196" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R196" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S196" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T196" t="n">
-        <v>2.38</v>
+        <v>3.2</v>
       </c>
       <c r="U196" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V196" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="W196" t="n">
         <v>1.44</v>
@@ -40222,10 +40222,10 @@
         <v>2.63</v>
       </c>
       <c r="Y196" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Z196" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AA196" t="n">
         <v>10</v>
@@ -40234,109 +40234,109 @@
         <v>1.06</v>
       </c>
       <c r="AC196" t="n">
-        <v>1.67</v>
+        <v>2.54</v>
       </c>
       <c r="AD196" t="n">
-        <v>3.78</v>
+        <v>3.29</v>
       </c>
       <c r="AE196" t="n">
-        <v>5.39</v>
+        <v>2.84</v>
       </c>
       <c r="AF196" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AG196" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH196" t="n">
         <v>1.36</v>
       </c>
       <c r="AI196" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="AJ196" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX196" t="n">
         <v>2.2</v>
       </c>
-      <c r="AK196" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AL196" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AM196" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AN196" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AO196" t="n">
+      <c r="AY196" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BA196" t="n">
         <v>1.22</v>
       </c>
-      <c r="AP196" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AQ196" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AR196" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS196" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AT196" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AU196" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AV196" t="n">
+      <c r="BB196" t="n">
         <v>1.42</v>
       </c>
-      <c r="AW196" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="AX196" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AY196" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AZ196" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="BA196" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="BB196" t="n">
-        <v>1.47</v>
-      </c>
       <c r="BC196" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="BD196" t="n">
-        <v>2.38</v>
+        <v>2.23</v>
       </c>
       <c r="BE196" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="BF196" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG196" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH196" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BI196" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK196" t="n">
         <v>8</v>
-      </c>
-      <c r="BJ196" t="n">
-        <v>19</v>
-      </c>
-      <c r="BK196" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="197">
@@ -40750,7 +40750,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>2982584</v>
+        <v>2982591</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -40770,19 +40770,19 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K199" t="n">
         <v>1</v>
@@ -40791,161 +40791,161 @@
         <v>1</v>
       </c>
       <c r="M199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>['89']</t>
+          <t>['27']</t>
         </is>
       </c>
       <c r="P199" t="inlineStr">
         <is>
-          <t>['31']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q199" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R199" t="n">
+        <v>10</v>
+      </c>
+      <c r="S199" t="n">
+        <v>11</v>
+      </c>
+      <c r="T199" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U199" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V199" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X199" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA199" t="n">
         <v>8</v>
       </c>
-      <c r="S199" t="n">
-        <v>15</v>
-      </c>
-      <c r="T199" t="n">
-        <v>4</v>
-      </c>
-      <c r="U199" t="n">
-        <v>2</v>
-      </c>
-      <c r="V199" t="n">
-        <v>3</v>
-      </c>
-      <c r="W199" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X199" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Y199" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Z199" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AA199" t="n">
-        <v>10</v>
-      </c>
       <c r="AB199" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AC199" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD199" t="n">
         <v>3.3</v>
       </c>
-      <c r="AD199" t="n">
-        <v>3.1</v>
-      </c>
       <c r="AE199" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="AF199" t="n">
         <v>1.05</v>
       </c>
       <c r="AG199" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AH199" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AI199" t="n">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="AJ199" t="n">
-        <v>2.25</v>
+        <v>1.79</v>
       </c>
       <c r="AK199" t="n">
-        <v>1.57</v>
+        <v>1.81</v>
       </c>
       <c r="AL199" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="AM199" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS199" t="n">
         <v>1.8</v>
       </c>
-      <c r="AN199" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AO199" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AP199" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AQ199" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AR199" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AS199" t="n">
-        <v>1.2</v>
-      </c>
       <c r="AT199" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="AU199" t="n">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="AV199" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AW199" t="n">
-        <v>2.67</v>
+        <v>2.96</v>
       </c>
       <c r="AX199" t="n">
-        <v>2.06</v>
+        <v>1.77</v>
       </c>
       <c r="AY199" t="n">
         <v>7.7</v>
       </c>
       <c r="AZ199" t="n">
-        <v>2.12</v>
+        <v>2.59</v>
       </c>
       <c r="BA199" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="BB199" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="BC199" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="BD199" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="BE199" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="BF199" t="n">
         <v>4</v>
       </c>
       <c r="BG199" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BH199" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BI199" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="BJ199" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BK199" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="200">
@@ -40953,7 +40953,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>2982591</v>
+        <v>2982584</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -40973,19 +40973,19 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="I200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K200" t="n">
         <v>1</v>
@@ -40994,161 +40994,161 @@
         <v>1</v>
       </c>
       <c r="M200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>['27']</t>
+          <t>['89']</t>
         </is>
       </c>
       <c r="P200" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['31']</t>
         </is>
       </c>
       <c r="Q200" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R200" t="n">
+        <v>8</v>
+      </c>
+      <c r="S200" t="n">
+        <v>15</v>
+      </c>
+      <c r="T200" t="n">
+        <v>4</v>
+      </c>
+      <c r="U200" t="n">
+        <v>2</v>
+      </c>
+      <c r="V200" t="n">
+        <v>3</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X200" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA200" t="n">
         <v>10</v>
       </c>
-      <c r="S200" t="n">
-        <v>11</v>
-      </c>
-      <c r="T200" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U200" t="n">
+      <c r="AB200" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE200" t="n">
         <v>2.2</v>
-      </c>
-      <c r="V200" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W200" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X200" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y200" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z200" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA200" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB200" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC200" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AD200" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AE200" t="n">
-        <v>3.3</v>
       </c>
       <c r="AF200" t="n">
         <v>1.05</v>
       </c>
       <c r="AG200" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AH200" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AI200" t="n">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="AJ200" t="n">
-        <v>1.79</v>
+        <v>2.25</v>
       </c>
       <c r="AK200" t="n">
-        <v>1.81</v>
+        <v>1.57</v>
       </c>
       <c r="AL200" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="AM200" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="AN200" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU200" t="n">
         <v>1.33</v>
       </c>
-      <c r="AO200" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP200" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AQ200" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AR200" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AS200" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AT200" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AU200" t="n">
-        <v>1.6</v>
-      </c>
       <c r="AV200" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AW200" t="n">
-        <v>2.96</v>
+        <v>2.67</v>
       </c>
       <c r="AX200" t="n">
-        <v>1.77</v>
+        <v>2.06</v>
       </c>
       <c r="AY200" t="n">
         <v>7.7</v>
       </c>
       <c r="AZ200" t="n">
-        <v>2.59</v>
+        <v>2.12</v>
       </c>
       <c r="BA200" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="BB200" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="BC200" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="BD200" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="BE200" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="BF200" t="n">
         <v>4</v>
       </c>
       <c r="BG200" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BH200" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BI200" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="BJ200" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BK200" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="201">
@@ -41555,6 +41555,1630 @@
       </c>
       <c r="BK202" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>2982592</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>44947.41666666666</v>
+      </c>
+      <c r="F203" t="n">
+        <v>21</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Benevento</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="n">
+        <v>2</v>
+      </c>
+      <c r="N203" t="n">
+        <v>3</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['12', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>3</v>
+      </c>
+      <c r="R203" t="n">
+        <v>5</v>
+      </c>
+      <c r="S203" t="n">
+        <v>8</v>
+      </c>
+      <c r="T203" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U203" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V203" t="n">
+        <v>3</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X203" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>2982600</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>44947.41666666666</v>
+      </c>
+      <c r="F204" t="n">
+        <v>21</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>SPAL</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>1</v>
+      </c>
+      <c r="K204" t="n">
+        <v>2</v>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="n">
+        <v>2</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>6</v>
+      </c>
+      <c r="R204" t="n">
+        <v>7</v>
+      </c>
+      <c r="S204" t="n">
+        <v>13</v>
+      </c>
+      <c r="T204" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U204" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V204" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X204" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>2982599</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>44947.41666666666</v>
+      </c>
+      <c r="F205" t="n">
+        <v>21</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Reggina</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="n">
+        <v>1</v>
+      </c>
+      <c r="K205" t="n">
+        <v>2</v>
+      </c>
+      <c r="L205" t="n">
+        <v>2</v>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="n">
+        <v>3</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['36', '78']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>8</v>
+      </c>
+      <c r="R205" t="n">
+        <v>10</v>
+      </c>
+      <c r="S205" t="n">
+        <v>18</v>
+      </c>
+      <c r="T205" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U205" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V205" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X205" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>2982595</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>44947.41666666666</v>
+      </c>
+      <c r="F206" t="n">
+        <v>21</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>1</v>
+      </c>
+      <c r="J206" t="n">
+        <v>1</v>
+      </c>
+      <c r="K206" t="n">
+        <v>2</v>
+      </c>
+      <c r="L206" t="n">
+        <v>2</v>
+      </c>
+      <c r="M206" t="n">
+        <v>2</v>
+      </c>
+      <c r="N206" t="n">
+        <v>4</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>['10', '90+5']</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>['43', '83']</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>4</v>
+      </c>
+      <c r="R206" t="n">
+        <v>5</v>
+      </c>
+      <c r="S206" t="n">
+        <v>9</v>
+      </c>
+      <c r="T206" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U206" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V206" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X206" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>2982596</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>44947.41666666666</v>
+      </c>
+      <c r="F207" t="n">
+        <v>21</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" t="n">
+        <v>2</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N207" t="n">
+        <v>2</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>['83', '85']</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>7</v>
+      </c>
+      <c r="R207" t="n">
+        <v>5</v>
+      </c>
+      <c r="S207" t="n">
+        <v>12</v>
+      </c>
+      <c r="T207" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U207" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V207" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X207" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>2982598</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>44947.41666666666</v>
+      </c>
+      <c r="F208" t="n">
+        <v>21</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>1</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="n">
+        <v>2</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N208" t="n">
+        <v>2</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>['12', '60']</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>6</v>
+      </c>
+      <c r="R208" t="n">
+        <v>7</v>
+      </c>
+      <c r="S208" t="n">
+        <v>13</v>
+      </c>
+      <c r="T208" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U208" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V208" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X208" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>2982601</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>44947.4375</v>
+      </c>
+      <c r="F209" t="n">
+        <v>21</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
+        <v>0</v>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="n">
+        <v>1</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>2</v>
+      </c>
+      <c r="R209" t="n">
+        <v>2</v>
+      </c>
+      <c r="S209" t="n">
+        <v>4</v>
+      </c>
+      <c r="T209" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U209" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V209" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X209" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>2982594</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>44947.51041666666</v>
+      </c>
+      <c r="F210" t="n">
+        <v>21</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>0</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N210" t="n">
+        <v>0</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>0</v>
+      </c>
+      <c r="R210" t="n">
+        <v>4</v>
+      </c>
+      <c r="S210" t="n">
+        <v>4</v>
+      </c>
+      <c r="T210" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="U210" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V210" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X210" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK210"/>
+  <dimension ref="A1:BK211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT9" t="n">
         <v>1.7</v>
@@ -2730,7 +2730,7 @@
         <v>1.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -6384,7 +6384,7 @@
         <v>0.82</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU29" t="n">
         <v>1.86</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT35" t="n">
         <v>0.73</v>
@@ -9835,7 +9835,7 @@
         <v>1.1</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU46" t="n">
         <v>1.9</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT52" t="n">
         <v>1.4</v>
@@ -14504,7 +14504,7 @@
         <v>1.73</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU69" t="n">
         <v>1.79</v>
@@ -15719,7 +15719,7 @@
         <v>0.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT75" t="n">
         <v>1.09</v>
@@ -17143,7 +17143,7 @@
         <v>0.73</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU82" t="n">
         <v>1.59</v>
@@ -19779,7 +19779,7 @@
         <v>1.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT95" t="n">
         <v>1.2</v>
@@ -22218,7 +22218,7 @@
         <v>1.2</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU107" t="n">
         <v>1.06</v>
@@ -24042,7 +24042,7 @@
         <v>2</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT116" t="n">
         <v>1.45</v>
@@ -25263,7 +25263,7 @@
         <v>1</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU122" t="n">
         <v>1.38</v>
@@ -28508,7 +28508,7 @@
         <v>0.83</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT138" t="n">
         <v>1.2</v>
@@ -30335,7 +30335,7 @@
         <v>1.43</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT147" t="n">
         <v>1.9</v>
@@ -30947,7 +30947,7 @@
         <v>1.36</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU150" t="n">
         <v>1.39</v>
@@ -31962,7 +31962,7 @@
         <v>1.82</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU155" t="n">
         <v>1.92</v>
@@ -35207,7 +35207,7 @@
         <v>1</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT171" t="n">
         <v>1.1</v>
@@ -37037,7 +37037,7 @@
         <v>1.7</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU180" t="n">
         <v>1.73</v>
@@ -37440,7 +37440,7 @@
         <v>1</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT182" t="n">
         <v>1</v>
@@ -43178,6 +43178,209 @@
         <v>9</v>
       </c>
       <c r="BK210" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>2982593</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>44948.51041666666</v>
+      </c>
+      <c r="F211" t="n">
+        <v>21</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="n">
+        <v>2</v>
+      </c>
+      <c r="K211" t="n">
+        <v>3</v>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="n">
+        <v>3</v>
+      </c>
+      <c r="N211" t="n">
+        <v>4</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>['37', '40', '76']</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>5</v>
+      </c>
+      <c r="R211" t="n">
+        <v>4</v>
+      </c>
+      <c r="S211" t="n">
+        <v>9</v>
+      </c>
+      <c r="T211" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U211" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V211" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X211" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF211" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ211" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK211" t="n">
         <v>13</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK211"/>
+  <dimension ref="A1:BK219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.1</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.64</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT7" t="n">
         <v>2</v>
@@ -2121,7 +2121,7 @@
         <v>1.09</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT9" t="n">
         <v>1.7</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT12" t="n">
         <v>1</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT13" t="n">
         <v>1.4</v>
@@ -3339,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU14" t="n">
         <v>1.36</v>
@@ -3542,7 +3542,7 @@
         <v>1.2</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT17" t="n">
         <v>1.2</v>
@@ -4151,7 +4151,7 @@
         <v>1.7</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU32" t="n">
         <v>2.09</v>
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU33" t="n">
         <v>1.45</v>
@@ -7396,10 +7396,10 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU34" t="n">
         <v>2.15</v>
@@ -7599,10 +7599,10 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU35" t="n">
         <v>1.41</v>
@@ -7805,7 +7805,7 @@
         <v>2.6</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU36" t="n">
         <v>1.81</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT38" t="n">
         <v>0.55</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT39" t="n">
         <v>1.4</v>
@@ -8614,10 +8614,10 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU40" t="n">
         <v>1.92</v>
@@ -8817,10 +8817,10 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU41" t="n">
         <v>0.73</v>
@@ -9226,7 +9226,7 @@
         <v>1.7</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU43" t="n">
         <v>1.69</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT44" t="n">
         <v>1.73</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT52" t="n">
         <v>1.4</v>
@@ -11256,7 +11256,7 @@
         <v>1</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU53" t="n">
         <v>1.34</v>
@@ -11456,7 +11456,7 @@
         <v>2.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT54" t="n">
         <v>1.73</v>
@@ -11662,7 +11662,7 @@
         <v>1.45</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU55" t="n">
         <v>1.67</v>
@@ -12065,10 +12065,10 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU57" t="n">
         <v>1.49</v>
@@ -12271,7 +12271,7 @@
         <v>1.82</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU58" t="n">
         <v>1.68</v>
@@ -12471,7 +12471,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT59" t="n">
         <v>0.55</v>
@@ -12674,10 +12674,10 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU60" t="n">
         <v>1.86</v>
@@ -12877,10 +12877,10 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU61" t="n">
         <v>1.36</v>
@@ -13080,10 +13080,10 @@
         <v>0.5</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU62" t="n">
         <v>1.19</v>
@@ -13486,7 +13486,7 @@
         <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT64" t="n">
         <v>0.9</v>
@@ -13892,7 +13892,7 @@
         <v>1.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT66" t="n">
         <v>1.2</v>
@@ -14301,7 +14301,7 @@
         <v>1.5</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU68" t="n">
         <v>1.73</v>
@@ -14707,7 +14707,7 @@
         <v>1.2</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU70" t="n">
         <v>1.8</v>
@@ -15110,7 +15110,7 @@
         <v>1.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT72" t="n">
         <v>0.8</v>
@@ -15313,7 +15313,7 @@
         <v>2.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT73" t="n">
         <v>1.73</v>
@@ -15519,7 +15519,7 @@
         <v>1</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU74" t="n">
         <v>1.41</v>
@@ -15719,10 +15719,10 @@
         <v>0.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU75" t="n">
         <v>1.66</v>
@@ -15925,7 +15925,7 @@
         <v>1.7</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU76" t="n">
         <v>1.66</v>
@@ -16125,7 +16125,7 @@
         <v>0.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT77" t="n">
         <v>1</v>
@@ -16331,7 +16331,7 @@
         <v>2.6</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU78" t="n">
         <v>2.01</v>
@@ -16737,7 +16737,7 @@
         <v>1.45</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU80" t="n">
         <v>1.64</v>
@@ -16937,7 +16937,7 @@
         <v>1.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT81" t="n">
         <v>1.4</v>
@@ -17140,7 +17140,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT82" t="n">
         <v>1.73</v>
@@ -17546,7 +17546,7 @@
         <v>1.5</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT84" t="n">
         <v>0.9</v>
@@ -17752,7 +17752,7 @@
         <v>1.1</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU85" t="n">
         <v>1.84</v>
@@ -17952,7 +17952,7 @@
         <v>2.25</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT86" t="n">
         <v>2</v>
@@ -18158,7 +18158,7 @@
         <v>1.5</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU87" t="n">
         <v>1.53</v>
@@ -18361,7 +18361,7 @@
         <v>1.64</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU88" t="n">
         <v>1.79</v>
@@ -18564,7 +18564,7 @@
         <v>1.73</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU89" t="n">
         <v>1.69</v>
@@ -18764,7 +18764,7 @@
         <v>1.33</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT90" t="n">
         <v>1.45</v>
@@ -19373,10 +19373,10 @@
         <v>1.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU93" t="n">
         <v>1.44</v>
@@ -19579,7 +19579,7 @@
         <v>1.82</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU94" t="n">
         <v>1.74</v>
@@ -19779,7 +19779,7 @@
         <v>1.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT95" t="n">
         <v>1.2</v>
@@ -20388,7 +20388,7 @@
         <v>2.4</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT98" t="n">
         <v>2</v>
@@ -20594,7 +20594,7 @@
         <v>1.64</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU99" t="n">
         <v>1.79</v>
@@ -20797,7 +20797,7 @@
         <v>1.7</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU100" t="n">
         <v>1.54</v>
@@ -21200,7 +21200,7 @@
         <v>1.8</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT102" t="n">
         <v>1</v>
@@ -21403,7 +21403,7 @@
         <v>1.75</v>
       </c>
       <c r="AS103" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT103" t="n">
         <v>1.45</v>
@@ -21812,7 +21812,7 @@
         <v>1.73</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU105" t="n">
         <v>1.58</v>
@@ -22215,7 +22215,7 @@
         <v>1.2</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT107" t="n">
         <v>1.73</v>
@@ -22418,10 +22418,10 @@
         <v>1.2</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU108" t="n">
         <v>1.88</v>
@@ -22624,7 +22624,7 @@
         <v>0.82</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU109" t="n">
         <v>1.52</v>
@@ -22824,7 +22824,7 @@
         <v>1.2</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT110" t="n">
         <v>0.9</v>
@@ -23030,7 +23030,7 @@
         <v>1.2</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU111" t="n">
         <v>1.68</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT112" t="n">
         <v>0.8</v>
@@ -23433,10 +23433,10 @@
         <v>0.8</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU113" t="n">
         <v>1.55</v>
@@ -23842,7 +23842,7 @@
         <v>1.1</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU115" t="n">
         <v>1.78</v>
@@ -24042,7 +24042,7 @@
         <v>2</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT116" t="n">
         <v>1.45</v>
@@ -24451,7 +24451,7 @@
         <v>2.6</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU118" t="n">
         <v>2.05</v>
@@ -24654,7 +24654,7 @@
         <v>1.64</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU119" t="n">
         <v>1.7</v>
@@ -25463,10 +25463,10 @@
         <v>1.17</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU123" t="n">
         <v>1.49</v>
@@ -25872,7 +25872,7 @@
         <v>1.73</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU125" t="n">
         <v>1.48</v>
@@ -26075,7 +26075,7 @@
         <v>1.5</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU126" t="n">
         <v>1.67</v>
@@ -26275,10 +26275,10 @@
         <v>1</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU127" t="n">
         <v>1.77</v>
@@ -26478,7 +26478,7 @@
         <v>0.8</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT128" t="n">
         <v>1</v>
@@ -26681,7 +26681,7 @@
         <v>1.67</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT129" t="n">
         <v>1.7</v>
@@ -26884,7 +26884,7 @@
         <v>1.17</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT130" t="n">
         <v>0.9</v>
@@ -27087,10 +27087,10 @@
         <v>0.2</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU131" t="n">
         <v>1.74</v>
@@ -27293,7 +27293,7 @@
         <v>1.73</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU132" t="n">
         <v>1.49</v>
@@ -28508,10 +28508,10 @@
         <v>0.83</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU138" t="n">
         <v>1.47</v>
@@ -28914,7 +28914,7 @@
         <v>1.83</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT140" t="n">
         <v>1.45</v>
@@ -29320,7 +29320,7 @@
         <v>1.43</v>
       </c>
       <c r="AS142" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT142" t="n">
         <v>1</v>
@@ -29523,10 +29523,10 @@
         <v>1</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU143" t="n">
         <v>1.77</v>
@@ -29729,7 +29729,7 @@
         <v>1.09</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU144" t="n">
         <v>1.43</v>
@@ -29932,7 +29932,7 @@
         <v>1</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU145" t="n">
         <v>1.29</v>
@@ -30132,10 +30132,10 @@
         <v>1</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU146" t="n">
         <v>2.05</v>
@@ -30335,10 +30335,10 @@
         <v>1.43</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU147" t="n">
         <v>1.47</v>
@@ -30538,10 +30538,10 @@
         <v>0.57</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU148" t="n">
         <v>1.1</v>
@@ -30741,10 +30741,10 @@
         <v>0.86</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU149" t="n">
         <v>1.74</v>
@@ -30944,7 +30944,7 @@
         <v>1.71</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT150" t="n">
         <v>1.73</v>
@@ -31350,7 +31350,7 @@
         <v>1</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT152" t="n">
         <v>0.8</v>
@@ -31759,7 +31759,7 @@
         <v>1.2</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU154" t="n">
         <v>1.54</v>
@@ -32162,7 +32162,7 @@
         <v>1.57</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT156" t="n">
         <v>1.7</v>
@@ -32365,7 +32365,7 @@
         <v>1.14</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT157" t="n">
         <v>0.9</v>
@@ -33180,7 +33180,7 @@
         <v>1.64</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU161" t="n">
         <v>1.57</v>
@@ -33380,10 +33380,10 @@
         <v>0.63</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU162" t="n">
         <v>1.71</v>
@@ -33583,7 +33583,7 @@
         <v>0.75</v>
       </c>
       <c r="AS163" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT163" t="n">
         <v>0.55</v>
@@ -33992,7 +33992,7 @@
         <v>1.45</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU165" t="n">
         <v>1.62</v>
@@ -34192,7 +34192,7 @@
         <v>1.25</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT166" t="n">
         <v>1</v>
@@ -34398,7 +34398,7 @@
         <v>0.82</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU167" t="n">
         <v>1.48</v>
@@ -34801,10 +34801,10 @@
         <v>1.25</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU169" t="n">
         <v>2.01</v>
@@ -35007,7 +35007,7 @@
         <v>2.6</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU170" t="n">
         <v>1.94</v>
@@ -35207,10 +35207,10 @@
         <v>1</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU171" t="n">
         <v>1.41</v>
@@ -35816,10 +35816,10 @@
         <v>0.5</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU174" t="n">
         <v>1.46</v>
@@ -36222,7 +36222,7 @@
         <v>1.5</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT176" t="n">
         <v>1.45</v>
@@ -36631,7 +36631,7 @@
         <v>1.73</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU178" t="n">
         <v>1.73</v>
@@ -37034,7 +37034,7 @@
         <v>1.78</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT180" t="n">
         <v>1.73</v>
@@ -37440,7 +37440,7 @@
         <v>1</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT182" t="n">
         <v>1</v>
@@ -37646,7 +37646,7 @@
         <v>1.45</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU183" t="n">
         <v>1.59</v>
@@ -37846,10 +37846,10 @@
         <v>1.11</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU184" t="n">
         <v>1.39</v>
@@ -38052,7 +38052,7 @@
         <v>1.09</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU185" t="n">
         <v>1.54</v>
@@ -38252,10 +38252,10 @@
         <v>1.25</v>
       </c>
       <c r="AS186" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU186" t="n">
         <v>1.56</v>
@@ -38458,7 +38458,7 @@
         <v>0.82</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU187" t="n">
         <v>1.41</v>
@@ -38661,7 +38661,7 @@
         <v>1</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU188" t="n">
         <v>1.34</v>
@@ -38861,7 +38861,7 @@
         <v>0.67</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT189" t="n">
         <v>0.55</v>
@@ -39267,7 +39267,7 @@
         <v>1.78</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT191" t="n">
         <v>2</v>
@@ -39473,7 +39473,7 @@
         <v>1.82</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU192" t="n">
         <v>1.81</v>
@@ -39676,7 +39676,7 @@
         <v>1.7</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU193" t="n">
         <v>1.42</v>
@@ -40079,10 +40079,10 @@
         <v>0.78</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT195" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU195" t="n">
         <v>1.93</v>
@@ -40282,10 +40282,10 @@
         <v>1.22</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU196" t="n">
         <v>1.89</v>
@@ -40488,7 +40488,7 @@
         <v>2.6</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU197" t="n">
         <v>1.87</v>
@@ -40688,7 +40688,7 @@
         <v>1</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT198" t="n">
         <v>0.9</v>
@@ -40891,7 +40891,7 @@
         <v>1.67</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT199" t="n">
         <v>1.45</v>
@@ -41094,7 +41094,7 @@
         <v>1.44</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT200" t="n">
         <v>1.4</v>
@@ -41297,7 +41297,7 @@
         <v>1.33</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT201" t="n">
         <v>1.2</v>
@@ -42315,7 +42315,7 @@
         <v>1.45</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU206" t="n">
         <v>1.58</v>
@@ -42721,7 +42721,7 @@
         <v>1.73</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU208" t="n">
         <v>1.8</v>
@@ -42921,7 +42921,7 @@
         <v>1.56</v>
       </c>
       <c r="AS209" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT209" t="n">
         <v>1.7</v>
@@ -43327,7 +43327,7 @@
         <v>1.6</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT211" t="n">
         <v>1.73</v>
@@ -43382,6 +43382,1630 @@
       </c>
       <c r="BK211" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>2982617</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>44953.6875</v>
+      </c>
+      <c r="F212" t="n">
+        <v>22</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>SPAL</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>1</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1</v>
+      </c>
+      <c r="K212" t="n">
+        <v>2</v>
+      </c>
+      <c r="L212" t="n">
+        <v>2</v>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="n">
+        <v>3</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>['15', '76']</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q212" t="n">
+        <v>5</v>
+      </c>
+      <c r="R212" t="n">
+        <v>4</v>
+      </c>
+      <c r="S212" t="n">
+        <v>9</v>
+      </c>
+      <c r="T212" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U212" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V212" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X212" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ212" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BA212" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF212" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG212" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH212" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI212" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ212" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK212" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>2982603</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>44954.41666666666</v>
+      </c>
+      <c r="F213" t="n">
+        <v>22</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Bari 1908</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L213" t="n">
+        <v>0</v>
+      </c>
+      <c r="M213" t="n">
+        <v>2</v>
+      </c>
+      <c r="N213" t="n">
+        <v>2</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>['75', '81']</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
+        <v>3</v>
+      </c>
+      <c r="R213" t="n">
+        <v>7</v>
+      </c>
+      <c r="S213" t="n">
+        <v>10</v>
+      </c>
+      <c r="T213" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U213" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V213" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X213" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA213" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF213" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG213" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH213" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ213" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK213" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>2982616</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>44954.41666666666</v>
+      </c>
+      <c r="F214" t="n">
+        <v>22</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="n">
+        <v>1</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="Q214" t="n">
+        <v>7</v>
+      </c>
+      <c r="R214" t="n">
+        <v>6</v>
+      </c>
+      <c r="S214" t="n">
+        <v>13</v>
+      </c>
+      <c r="T214" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U214" t="n">
+        <v>2</v>
+      </c>
+      <c r="V214" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W214" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X214" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP214" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ214" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AS214" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT214" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AU214" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ214" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BA214" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB214" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC214" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD214" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE214" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF214" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG214" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH214" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI214" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ214" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK214" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>2982618</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>44954.41666666666</v>
+      </c>
+      <c r="F215" t="n">
+        <v>22</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="n">
+        <v>0</v>
+      </c>
+      <c r="N215" t="n">
+        <v>1</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q215" t="n">
+        <v>5</v>
+      </c>
+      <c r="R215" t="n">
+        <v>7</v>
+      </c>
+      <c r="S215" t="n">
+        <v>12</v>
+      </c>
+      <c r="T215" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="U215" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V215" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W215" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X215" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL215" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN215" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO215" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP215" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ215" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR215" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS215" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT215" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU215" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX215" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ215" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BA215" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB215" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC215" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD215" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE215" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF215" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG215" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH215" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI215" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ215" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK215" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>2982621</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>44954.41666666666</v>
+      </c>
+      <c r="F216" t="n">
+        <v>22</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Reggina</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="n">
+        <v>1</v>
+      </c>
+      <c r="K216" t="n">
+        <v>2</v>
+      </c>
+      <c r="L216" t="n">
+        <v>2</v>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="n">
+        <v>3</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>['36', '85']</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q216" t="n">
+        <v>6</v>
+      </c>
+      <c r="R216" t="n">
+        <v>3</v>
+      </c>
+      <c r="S216" t="n">
+        <v>9</v>
+      </c>
+      <c r="T216" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U216" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V216" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W216" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X216" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP216" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ216" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT216" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AU216" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX216" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ216" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BA216" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB216" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC216" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD216" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BE216" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF216" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG216" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH216" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI216" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ216" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK216" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>2982622</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>44954.41666666666</v>
+      </c>
+      <c r="F217" t="n">
+        <v>22</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>2</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>2</v>
+      </c>
+      <c r="L217" t="n">
+        <v>2</v>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="n">
+        <v>3</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>['7', '16']</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q217" t="n">
+        <v>5</v>
+      </c>
+      <c r="R217" t="n">
+        <v>2</v>
+      </c>
+      <c r="S217" t="n">
+        <v>7</v>
+      </c>
+      <c r="T217" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U217" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V217" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W217" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X217" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ217" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AT217" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX217" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ217" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA217" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB217" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC217" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD217" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE217" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF217" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG217" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH217" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI217" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ217" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK217" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>2982623</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>44954.41666666666</v>
+      </c>
+      <c r="F218" t="n">
+        <v>22</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>1</v>
+      </c>
+      <c r="J218" t="n">
+        <v>1</v>
+      </c>
+      <c r="K218" t="n">
+        <v>2</v>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="n">
+        <v>2</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>6</v>
+      </c>
+      <c r="R218" t="n">
+        <v>4</v>
+      </c>
+      <c r="S218" t="n">
+        <v>10</v>
+      </c>
+      <c r="T218" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U218" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V218" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X218" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>2982620</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>44954.51041666666</v>
+      </c>
+      <c r="F219" t="n">
+        <v>22</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N219" t="n">
+        <v>0</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>9</v>
+      </c>
+      <c r="R219" t="n">
+        <v>0</v>
+      </c>
+      <c r="S219" t="n">
+        <v>9</v>
+      </c>
+      <c r="T219" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="U219" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="V219" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X219" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK219"/>
+  <dimension ref="A1:BK221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT6" t="n">
         <v>1</v>
@@ -2933,7 +2933,7 @@
         <v>1.27</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.64</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT14" t="n">
         <v>1.09</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT21" t="n">
         <v>0.9</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT33" t="n">
         <v>1.08</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT36" t="n">
         <v>0.91</v>
@@ -8008,7 +8008,7 @@
         <v>1.82</v>
       </c>
       <c r="AT37" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU37" t="n">
         <v>2.16</v>
@@ -8414,7 +8414,7 @@
         <v>0.75</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU39" t="n">
         <v>1.46</v>
@@ -11053,7 +11053,7 @@
         <v>1.33</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU52" t="n">
         <v>1.71</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT53" t="n">
         <v>1</v>
@@ -11862,10 +11862,10 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT56" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU56" t="n">
         <v>2.25</v>
@@ -15516,7 +15516,7 @@
         <v>0</v>
       </c>
       <c r="AS74" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT74" t="n">
         <v>1.08</v>
@@ -16128,7 +16128,7 @@
         <v>1.91</v>
       </c>
       <c r="AT77" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU77" t="n">
         <v>1.43</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT78" t="n">
         <v>1.09</v>
@@ -16940,7 +16940,7 @@
         <v>1.5</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU81" t="n">
         <v>1.5</v>
@@ -19985,7 +19985,7 @@
         <v>1.45</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU96" t="n">
         <v>1.64</v>
@@ -20185,7 +20185,7 @@
         <v>2.6</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT97" t="n">
         <v>1.73</v>
@@ -20997,7 +20997,7 @@
         <v>1.25</v>
       </c>
       <c r="AS101" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT101" t="n">
         <v>0.8</v>
@@ -22015,7 +22015,7 @@
         <v>1.5</v>
       </c>
       <c r="AT106" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU106" t="n">
         <v>1.68</v>
@@ -24448,7 +24448,7 @@
         <v>0.6</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT118" t="n">
         <v>0.92</v>
@@ -25260,7 +25260,7 @@
         <v>1.5</v>
       </c>
       <c r="AS122" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT122" t="n">
         <v>1.73</v>
@@ -25669,7 +25669,7 @@
         <v>1.09</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU124" t="n">
         <v>1.53</v>
@@ -26481,7 +26481,7 @@
         <v>1.36</v>
       </c>
       <c r="AT128" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU128" t="n">
         <v>1.01</v>
@@ -27699,7 +27699,7 @@
         <v>1.82</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU134" t="n">
         <v>1.98</v>
@@ -27899,7 +27899,7 @@
         <v>1</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT135" t="n">
         <v>0.8</v>
@@ -29929,7 +29929,7 @@
         <v>0.33</v>
       </c>
       <c r="AS145" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT145" t="n">
         <v>0.91</v>
@@ -31150,7 +31150,7 @@
         <v>0.82</v>
       </c>
       <c r="AT151" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU151" t="n">
         <v>1.47</v>
@@ -31556,7 +31556,7 @@
         <v>1.73</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU153" t="n">
         <v>1.64</v>
@@ -33789,7 +33789,7 @@
         <v>1.09</v>
       </c>
       <c r="AT164" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU164" t="n">
         <v>1.55</v>
@@ -34598,7 +34598,7 @@
         <v>1.88</v>
       </c>
       <c r="AS168" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT168" t="n">
         <v>2</v>
@@ -35004,7 +35004,7 @@
         <v>1</v>
       </c>
       <c r="AS170" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT170" t="n">
         <v>1.17</v>
@@ -36428,7 +36428,7 @@
         <v>1.5</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU177" t="n">
         <v>1.61</v>
@@ -37443,7 +37443,7 @@
         <v>1.33</v>
       </c>
       <c r="AT182" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU182" t="n">
         <v>1.36</v>
@@ -38658,7 +38658,7 @@
         <v>1.78</v>
       </c>
       <c r="AS188" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT188" t="n">
         <v>1.73</v>
@@ -39064,7 +39064,7 @@
         <v>1.22</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT190" t="n">
         <v>1</v>
@@ -39879,7 +39879,7 @@
         <v>1.2</v>
       </c>
       <c r="AT194" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU194" t="n">
         <v>1.51</v>
@@ -40485,7 +40485,7 @@
         <v>1.3</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT197" t="n">
         <v>1.08</v>
@@ -41097,7 +41097,7 @@
         <v>1.36</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU200" t="n">
         <v>1.33</v>
@@ -45006,6 +45006,412 @@
       </c>
       <c r="BK219" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>2982602</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>44955.41666666666</v>
+      </c>
+      <c r="F220" t="n">
+        <v>22</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="n">
+        <v>2</v>
+      </c>
+      <c r="N220" t="n">
+        <v>3</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>['15', '82']</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>12</v>
+      </c>
+      <c r="R220" t="n">
+        <v>2</v>
+      </c>
+      <c r="S220" t="n">
+        <v>14</v>
+      </c>
+      <c r="T220" t="n">
+        <v>3</v>
+      </c>
+      <c r="U220" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V220" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X220" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>26</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>2982619</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>44955.51041666666</v>
+      </c>
+      <c r="F221" t="n">
+        <v>22</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Benevento</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N221" t="n">
+        <v>1</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>1</v>
+      </c>
+      <c r="R221" t="n">
+        <v>1</v>
+      </c>
+      <c r="S221" t="n">
+        <v>2</v>
+      </c>
+      <c r="T221" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U221" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V221" t="n">
+        <v>5</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X221" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -45273,13 +45273,13 @@
         </is>
       </c>
       <c r="Q221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S221" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T221" t="n">
         <v>2.4</v>
@@ -45402,16 +45402,16 @@
         <v>2</v>
       </c>
       <c r="BH221" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BI221" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BJ221" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BK221" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK221"/>
+  <dimension ref="A1:BK229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.73</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT3" t="n">
         <v>1.17</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT8" t="n">
         <v>1.73</v>
@@ -2324,7 +2324,7 @@
         <v>1.33</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT10" t="n">
         <v>0.55</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT15" t="n">
         <v>1</v>
@@ -3948,7 +3948,7 @@
         <v>1.5</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT18" t="n">
         <v>0.91</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT20" t="n">
         <v>1.08</v>
@@ -4760,7 +4760,7 @@
         <v>2.64</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1.64</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU22" t="n">
         <v>1.62</v>
@@ -5163,10 +5163,10 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU23" t="n">
         <v>1.87</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT24" t="n">
         <v>1</v>
@@ -5572,7 +5572,7 @@
         <v>1.82</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT26" t="n">
         <v>2</v>
@@ -5975,10 +5975,10 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU27" t="n">
         <v>1.03</v>
@@ -6178,10 +6178,10 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU28" t="n">
         <v>1.97</v>
@@ -6381,10 +6381,10 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU29" t="n">
         <v>1.86</v>
@@ -6787,10 +6787,10 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU31" t="n">
         <v>1.15</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT43" t="n">
         <v>1.73</v>
@@ -9426,10 +9426,10 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU44" t="n">
         <v>1.46</v>
@@ -9832,10 +9832,10 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU46" t="n">
         <v>1.9</v>
@@ -10035,10 +10035,10 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU47" t="n">
         <v>1.49</v>
@@ -10238,10 +10238,10 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU48" t="n">
         <v>1.53</v>
@@ -10441,10 +10441,10 @@
         <v>1.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU49" t="n">
         <v>1.68</v>
@@ -10644,10 +10644,10 @@
         <v>3</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU50" t="n">
         <v>1.82</v>
@@ -10847,10 +10847,10 @@
         <v>2</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU51" t="n">
         <v>1.62</v>
@@ -11459,7 +11459,7 @@
         <v>2</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU54" t="n">
         <v>2.56</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT55" t="n">
         <v>1.09</v>
@@ -13080,7 +13080,7 @@
         <v>0.5</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT62" t="n">
         <v>0.91</v>
@@ -13286,7 +13286,7 @@
         <v>1.64</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU63" t="n">
         <v>1.59</v>
@@ -13489,7 +13489,7 @@
         <v>1.27</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU64" t="n">
         <v>1.93</v>
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT65" t="n">
         <v>2</v>
@@ -13895,7 +13895,7 @@
         <v>2</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU66" t="n">
         <v>2.14</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT67" t="n">
         <v>1</v>
@@ -14298,7 +14298,7 @@
         <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT68" t="n">
         <v>1.73</v>
@@ -14504,7 +14504,7 @@
         <v>1.73</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU69" t="n">
         <v>1.79</v>
@@ -14704,7 +14704,7 @@
         <v>0.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT70" t="n">
         <v>1.17</v>
@@ -14907,10 +14907,10 @@
         <v>1.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU71" t="n">
         <v>1.68</v>
@@ -15113,7 +15113,7 @@
         <v>1.64</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU72" t="n">
         <v>1.83</v>
@@ -15316,7 +15316,7 @@
         <v>0.75</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU73" t="n">
         <v>1.66</v>
@@ -15922,7 +15922,7 @@
         <v>1.67</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT76" t="n">
         <v>1</v>
@@ -16734,7 +16734,7 @@
         <v>0</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT80" t="n">
         <v>0.92</v>
@@ -17143,7 +17143,7 @@
         <v>0.75</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU82" t="n">
         <v>1.59</v>
@@ -17343,7 +17343,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT83" t="n">
         <v>1</v>
@@ -17549,7 +17549,7 @@
         <v>2</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU84" t="n">
         <v>2.07</v>
@@ -17749,7 +17749,7 @@
         <v>0.75</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT85" t="n">
         <v>1.09</v>
@@ -17952,7 +17952,7 @@
         <v>2.25</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT86" t="n">
         <v>2</v>
@@ -18155,7 +18155,7 @@
         <v>0.33</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT87" t="n">
         <v>0.91</v>
@@ -18767,7 +18767,7 @@
         <v>1.27</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU90" t="n">
         <v>1.88</v>
@@ -18967,10 +18967,10 @@
         <v>1.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU91" t="n">
         <v>1.73</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT92" t="n">
         <v>0.55</v>
@@ -19782,7 +19782,7 @@
         <v>1.33</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU95" t="n">
         <v>1.47</v>
@@ -19982,7 +19982,7 @@
         <v>1.25</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT96" t="n">
         <v>1.27</v>
@@ -20188,7 +20188,7 @@
         <v>2.64</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU97" t="n">
         <v>2.02</v>
@@ -20794,7 +20794,7 @@
         <v>0.75</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT100" t="n">
         <v>1.08</v>
@@ -21000,7 +21000,7 @@
         <v>0.91</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU101" t="n">
         <v>1.47</v>
@@ -21406,7 +21406,7 @@
         <v>0.75</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU103" t="n">
         <v>1.57</v>
@@ -21606,10 +21606,10 @@
         <v>1.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU104" t="n">
         <v>1.53</v>
@@ -22012,7 +22012,7 @@
         <v>0.25</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT106" t="n">
         <v>1.18</v>
@@ -22215,10 +22215,10 @@
         <v>1.2</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU107" t="n">
         <v>1.06</v>
@@ -22621,7 +22621,7 @@
         <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT109" t="n">
         <v>1.17</v>
@@ -22827,7 +22827,7 @@
         <v>1.64</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU110" t="n">
         <v>1.87</v>
@@ -23027,7 +23027,7 @@
         <v>0.6</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT111" t="n">
         <v>1.08</v>
@@ -23233,7 +23233,7 @@
         <v>1.5</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU112" t="n">
         <v>1.3</v>
@@ -23636,7 +23636,7 @@
         <v>0.83</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT114" t="n">
         <v>0.55</v>
@@ -23839,7 +23839,7 @@
         <v>0.6</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT115" t="n">
         <v>1.08</v>
@@ -24045,7 +24045,7 @@
         <v>1.33</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU116" t="n">
         <v>1.45</v>
@@ -24245,10 +24245,10 @@
         <v>2.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU117" t="n">
         <v>1.45</v>
@@ -24854,10 +24854,10 @@
         <v>1.6</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU120" t="n">
         <v>1.51</v>
@@ -25263,7 +25263,7 @@
         <v>0.91</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU122" t="n">
         <v>1.38</v>
@@ -25666,7 +25666,7 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT124" t="n">
         <v>1.27</v>
@@ -26072,7 +26072,7 @@
         <v>0.5</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT126" t="n">
         <v>0.92</v>
@@ -26478,7 +26478,7 @@
         <v>0.8</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT128" t="n">
         <v>1.18</v>
@@ -26684,7 +26684,7 @@
         <v>1.27</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU129" t="n">
         <v>1.93</v>
@@ -26887,7 +26887,7 @@
         <v>1.91</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU130" t="n">
         <v>1.51</v>
@@ -27493,7 +27493,7 @@
         <v>1.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT133" t="n">
         <v>1</v>
@@ -27902,7 +27902,7 @@
         <v>2.64</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU135" t="n">
         <v>1.92</v>
@@ -28102,7 +28102,7 @@
         <v>0.71</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT136" t="n">
         <v>0.55</v>
@@ -28305,7 +28305,7 @@
         <v>2.14</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT137" t="n">
         <v>2</v>
@@ -28711,10 +28711,10 @@
         <v>2</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU139" t="n">
         <v>1.58</v>
@@ -28917,7 +28917,7 @@
         <v>1.5</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU140" t="n">
         <v>1.32</v>
@@ -29120,7 +29120,7 @@
         <v>1.64</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU141" t="n">
         <v>1.58</v>
@@ -29726,7 +29726,7 @@
         <v>1</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT144" t="n">
         <v>1.08</v>
@@ -30538,7 +30538,7 @@
         <v>0.57</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT148" t="n">
         <v>0.92</v>
@@ -30947,7 +30947,7 @@
         <v>1.5</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU150" t="n">
         <v>1.39</v>
@@ -31147,7 +31147,7 @@
         <v>0.67</v>
       </c>
       <c r="AS151" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT151" t="n">
         <v>1.18</v>
@@ -31353,7 +31353,7 @@
         <v>1.91</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU152" t="n">
         <v>1.46</v>
@@ -31756,7 +31756,7 @@
         <v>0.71</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT154" t="n">
         <v>1.09</v>
@@ -31962,7 +31962,7 @@
         <v>1.82</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU155" t="n">
         <v>1.92</v>
@@ -32165,7 +32165,7 @@
         <v>1.64</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU156" t="n">
         <v>1.75</v>
@@ -32365,10 +32365,10 @@
         <v>1.14</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU157" t="n">
         <v>1.15</v>
@@ -32568,10 +32568,10 @@
         <v>1.88</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU158" t="n">
         <v>1.85</v>
@@ -32771,10 +32771,10 @@
         <v>1.57</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU159" t="n">
         <v>1.66</v>
@@ -32974,10 +32974,10 @@
         <v>1.71</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU160" t="n">
         <v>1.64</v>
@@ -33786,7 +33786,7 @@
         <v>1</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT164" t="n">
         <v>1.18</v>
@@ -33989,7 +33989,7 @@
         <v>1.63</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT165" t="n">
         <v>1.73</v>
@@ -34395,7 +34395,7 @@
         <v>1.13</v>
       </c>
       <c r="AS167" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT167" t="n">
         <v>1.08</v>
@@ -35410,10 +35410,10 @@
         <v>1.13</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU172" t="n">
         <v>1.55</v>
@@ -35616,7 +35616,7 @@
         <v>1.82</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU173" t="n">
         <v>1.86</v>
@@ -36019,10 +36019,10 @@
         <v>1.38</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU175" t="n">
         <v>1.88</v>
@@ -36222,10 +36222,10 @@
         <v>1.5</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU176" t="n">
         <v>1.19</v>
@@ -36425,7 +36425,7 @@
         <v>1.5</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT177" t="n">
         <v>1.27</v>
@@ -36834,7 +36834,7 @@
         <v>1.64</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU179" t="n">
         <v>1.61</v>
@@ -37037,7 +37037,7 @@
         <v>1.64</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU180" t="n">
         <v>1.73</v>
@@ -37237,10 +37237,10 @@
         <v>1.5</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU181" t="n">
         <v>1.49</v>
@@ -37643,7 +37643,7 @@
         <v>1</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT183" t="n">
         <v>1.08</v>
@@ -38049,7 +38049,7 @@
         <v>1</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT185" t="n">
         <v>1.17</v>
@@ -38455,7 +38455,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS187" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT187" t="n">
         <v>0.92</v>
@@ -39673,7 +39673,7 @@
         <v>0.9</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT193" t="n">
         <v>1.08</v>
@@ -39876,7 +39876,7 @@
         <v>1</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT194" t="n">
         <v>1.18</v>
@@ -40691,7 +40691,7 @@
         <v>1.5</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU198" t="n">
         <v>1.43</v>
@@ -40894,7 +40894,7 @@
         <v>1.91</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU199" t="n">
         <v>1.6</v>
@@ -41094,7 +41094,7 @@
         <v>1.44</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT200" t="n">
         <v>1.27</v>
@@ -41300,7 +41300,7 @@
         <v>1.64</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU201" t="n">
         <v>1.74</v>
@@ -41503,7 +41503,7 @@
         <v>1.64</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU202" t="n">
         <v>1.64</v>
@@ -41703,7 +41703,7 @@
         <v>1.9</v>
       </c>
       <c r="AS203" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT203" t="n">
         <v>2</v>
@@ -41906,10 +41906,10 @@
         <v>1.5</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT204" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU204" t="n">
         <v>1.54</v>
@@ -42312,7 +42312,7 @@
         <v>1.2</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT206" t="n">
         <v>1.17</v>
@@ -42515,7 +42515,7 @@
         <v>0.6</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT207" t="n">
         <v>0.55</v>
@@ -42924,7 +42924,7 @@
         <v>0.75</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU209" t="n">
         <v>1.55</v>
@@ -43124,10 +43124,10 @@
         <v>0.78</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU210" t="n">
         <v>1.87</v>
@@ -43330,7 +43330,7 @@
         <v>1.33</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU211" t="n">
         <v>1.31</v>
@@ -44139,7 +44139,7 @@
         <v>1.1</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT215" t="n">
         <v>1</v>
@@ -45412,6 +45412,1630 @@
       </c>
       <c r="BK221" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>2982628</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>44960.6875</v>
+      </c>
+      <c r="F222" t="n">
+        <v>23</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="n">
+        <v>2</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N222" t="n">
+        <v>2</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>['25', '83']</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>6</v>
+      </c>
+      <c r="R222" t="n">
+        <v>4</v>
+      </c>
+      <c r="S222" t="n">
+        <v>10</v>
+      </c>
+      <c r="T222" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U222" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V222" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X222" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH222" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ222" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK222" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>2982633</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>44961.41666666666</v>
+      </c>
+      <c r="F223" t="n">
+        <v>23</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>SPAL</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Bari 1908</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>2</v>
+      </c>
+      <c r="K223" t="n">
+        <v>2</v>
+      </c>
+      <c r="L223" t="n">
+        <v>3</v>
+      </c>
+      <c r="M223" t="n">
+        <v>4</v>
+      </c>
+      <c r="N223" t="n">
+        <v>7</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>['62', '81', '83']</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>['20', '26', '56', '67']</t>
+        </is>
+      </c>
+      <c r="Q223" t="n">
+        <v>7</v>
+      </c>
+      <c r="R223" t="n">
+        <v>0</v>
+      </c>
+      <c r="S223" t="n">
+        <v>7</v>
+      </c>
+      <c r="T223" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U223" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V223" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X223" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>25</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>2982632</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>44961.41666666666</v>
+      </c>
+      <c r="F224" t="n">
+        <v>23</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>1</v>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0</v>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="n">
+        <v>1</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="Q224" t="n">
+        <v>6</v>
+      </c>
+      <c r="R224" t="n">
+        <v>6</v>
+      </c>
+      <c r="S224" t="n">
+        <v>12</v>
+      </c>
+      <c r="T224" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U224" t="n">
+        <v>2</v>
+      </c>
+      <c r="V224" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W224" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X224" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AJ224" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK224" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL224" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN224" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP224" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ224" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT224" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AU224" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW224" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX224" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ224" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BA224" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB224" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC224" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD224" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE224" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF224" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG224" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH224" t="n">
+        <v>24</v>
+      </c>
+      <c r="BI224" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ224" t="n">
+        <v>30</v>
+      </c>
+      <c r="BK224" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>2982631</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>44961.41666666666</v>
+      </c>
+      <c r="F225" t="n">
+        <v>23</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>1</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="n">
+        <v>4</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N225" t="n">
+        <v>4</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>['40', '48', '52', '74']</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q225" t="n">
+        <v>11</v>
+      </c>
+      <c r="R225" t="n">
+        <v>5</v>
+      </c>
+      <c r="S225" t="n">
+        <v>16</v>
+      </c>
+      <c r="T225" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U225" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V225" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="W225" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X225" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW225" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BA225" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB225" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC225" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD225" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE225" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BF225" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG225" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH225" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI225" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ225" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK225" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>2982624</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>44961.41666666666</v>
+      </c>
+      <c r="F226" t="n">
+        <v>23</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Benevento</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J226" t="n">
+        <v>1</v>
+      </c>
+      <c r="K226" t="n">
+        <v>2</v>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="n">
+        <v>2</v>
+      </c>
+      <c r="N226" t="n">
+        <v>3</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>['45+4']</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>['3', '70']</t>
+        </is>
+      </c>
+      <c r="Q226" t="n">
+        <v>7</v>
+      </c>
+      <c r="R226" t="n">
+        <v>3</v>
+      </c>
+      <c r="S226" t="n">
+        <v>10</v>
+      </c>
+      <c r="T226" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U226" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V226" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W226" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X226" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA226" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BF226" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG226" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH226" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ226" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>2982625</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>44961.41666666666</v>
+      </c>
+      <c r="F227" t="n">
+        <v>23</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="n">
+        <v>3</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N227" t="n">
+        <v>3</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>['18', '76', '78']</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>2</v>
+      </c>
+      <c r="R227" t="n">
+        <v>6</v>
+      </c>
+      <c r="S227" t="n">
+        <v>8</v>
+      </c>
+      <c r="T227" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U227" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V227" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X227" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>2982627</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>44961.41666666666</v>
+      </c>
+      <c r="F228" t="n">
+        <v>23</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>7</v>
+      </c>
+      <c r="R228" t="n">
+        <v>6</v>
+      </c>
+      <c r="S228" t="n">
+        <v>13</v>
+      </c>
+      <c r="T228" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U228" t="n">
+        <v>2</v>
+      </c>
+      <c r="V228" t="n">
+        <v>3</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X228" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>2982626</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>44961.51041666666</v>
+      </c>
+      <c r="F229" t="n">
+        <v>23</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>2</v>
+      </c>
+      <c r="K229" t="n">
+        <v>2</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" t="n">
+        <v>2</v>
+      </c>
+      <c r="N229" t="n">
+        <v>2</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>['14', '29']</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>7</v>
+      </c>
+      <c r="R229" t="n">
+        <v>6</v>
+      </c>
+      <c r="S229" t="n">
+        <v>13</v>
+      </c>
+      <c r="T229" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U229" t="n">
+        <v>2</v>
+      </c>
+      <c r="V229" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X229" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK229"/>
+  <dimension ref="A1:BK231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT2" t="n">
         <v>1.83</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT5" t="n">
         <v>0.92</v>
@@ -1918,7 +1918,7 @@
         <v>0.75</v>
       </c>
       <c r="AT7" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.91</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT22" t="n">
         <v>1.33</v>
@@ -5775,7 +5775,7 @@
         <v>1.55</v>
       </c>
       <c r="AT26" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU26" t="n">
         <v>1.77</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT30" t="n">
         <v>0.55</v>
@@ -9020,10 +9020,10 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT42" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU42" t="n">
         <v>1.67</v>
@@ -9226,7 +9226,7 @@
         <v>1.55</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU43" t="n">
         <v>1.69</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT45" t="n">
         <v>1</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT63" t="n">
         <v>1.82</v>
@@ -13692,7 +13692,7 @@
         <v>1</v>
       </c>
       <c r="AT65" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU65" t="n">
         <v>1.76</v>
@@ -14301,7 +14301,7 @@
         <v>1.64</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU68" t="n">
         <v>1.73</v>
@@ -14501,7 +14501,7 @@
         <v>1</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT69" t="n">
         <v>1.83</v>
@@ -17955,7 +17955,7 @@
         <v>1.33</v>
       </c>
       <c r="AT86" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU86" t="n">
         <v>1.17</v>
@@ -18358,7 +18358,7 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT88" t="n">
         <v>1.17</v>
@@ -18561,10 +18561,10 @@
         <v>1.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU89" t="n">
         <v>1.69</v>
@@ -20391,7 +20391,7 @@
         <v>1.91</v>
       </c>
       <c r="AT98" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU98" t="n">
         <v>1.51</v>
@@ -20591,7 +20591,7 @@
         <v>0.5</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT99" t="n">
         <v>1.08</v>
@@ -21809,7 +21809,7 @@
         <v>0.25</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT105" t="n">
         <v>0.91</v>
@@ -22421,7 +22421,7 @@
         <v>2</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU108" t="n">
         <v>1.88</v>
@@ -24651,7 +24651,7 @@
         <v>1.2</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT119" t="n">
         <v>1</v>
@@ -25060,7 +25060,7 @@
         <v>1.82</v>
       </c>
       <c r="AT121" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU121" t="n">
         <v>2.12</v>
@@ -25466,7 +25466,7 @@
         <v>0.75</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU123" t="n">
         <v>1.49</v>
@@ -25869,7 +25869,7 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT125" t="n">
         <v>1.08</v>
@@ -27290,7 +27290,7 @@
         <v>0.67</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT132" t="n">
         <v>1.08</v>
@@ -28308,7 +28308,7 @@
         <v>1.36</v>
       </c>
       <c r="AT137" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU137" t="n">
         <v>1.57</v>
@@ -29117,7 +29117,7 @@
         <v>1.33</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT141" t="n">
         <v>1.36</v>
@@ -30338,7 +30338,7 @@
         <v>1.33</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU147" t="n">
         <v>1.47</v>
@@ -31553,7 +31553,7 @@
         <v>1.29</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT153" t="n">
         <v>1.27</v>
@@ -33177,7 +33177,7 @@
         <v>0.43</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT161" t="n">
         <v>0.91</v>
@@ -33992,7 +33992,7 @@
         <v>1.33</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU165" t="n">
         <v>1.62</v>
@@ -34601,7 +34601,7 @@
         <v>0.91</v>
       </c>
       <c r="AT168" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU168" t="n">
         <v>1.37</v>
@@ -36628,7 +36628,7 @@
         <v>0.75</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT178" t="n">
         <v>1.09</v>
@@ -36831,7 +36831,7 @@
         <v>0.88</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT179" t="n">
         <v>0.73</v>
@@ -38661,7 +38661,7 @@
         <v>0.91</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU188" t="n">
         <v>1.34</v>
@@ -39270,7 +39270,7 @@
         <v>1.27</v>
       </c>
       <c r="AT191" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU191" t="n">
         <v>1.92</v>
@@ -41500,7 +41500,7 @@
         <v>1.9</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT202" t="n">
         <v>1.83</v>
@@ -41706,7 +41706,7 @@
         <v>0.75</v>
       </c>
       <c r="AT203" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU203" t="n">
         <v>1.46</v>
@@ -42718,7 +42718,7 @@
         <v>0.8</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT208" t="n">
         <v>0.92</v>
@@ -44345,7 +44345,7 @@
         <v>1.5</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU216" t="n">
         <v>1.4</v>
@@ -46085,13 +46085,13 @@
         </is>
       </c>
       <c r="Q225" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R225" t="n">
         <v>5</v>
       </c>
       <c r="S225" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T225" t="n">
         <v>2.75</v>
@@ -47036,6 +47036,412 @@
       </c>
       <c r="BK229" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>2982629</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>44962.51041666666</v>
+      </c>
+      <c r="F230" t="n">
+        <v>23</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Reggina</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
+        <v>2</v>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="n">
+        <v>3</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>['47', '81']</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>3</v>
+      </c>
+      <c r="R230" t="n">
+        <v>8</v>
+      </c>
+      <c r="S230" t="n">
+        <v>11</v>
+      </c>
+      <c r="T230" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U230" t="n">
+        <v>2</v>
+      </c>
+      <c r="V230" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X230" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>2982630</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>44962.51041666666</v>
+      </c>
+      <c r="F231" t="n">
+        <v>23</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>1</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="n">
+        <v>2</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N231" t="n">
+        <v>2</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>['32', '53']</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q231" t="n">
+        <v>6</v>
+      </c>
+      <c r="R231" t="n">
+        <v>5</v>
+      </c>
+      <c r="S231" t="n">
+        <v>11</v>
+      </c>
+      <c r="T231" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U231" t="n">
+        <v>2</v>
+      </c>
+      <c r="V231" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X231" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -47154,22 +47154,22 @@
         <v>3.4</v>
       </c>
       <c r="BF240">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG240">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH240">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BI240">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BJ240">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="BK240">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="318">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1329,7 +1329,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK241"/>
+  <dimension ref="A1:BK242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4528,7 +4528,7 @@
         <v>1.46</v>
       </c>
       <c r="AT17">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT18">
         <v>0.92</v>
@@ -6244,7 +6244,7 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT26">
         <v>1.83</v>
@@ -6629,7 +6629,7 @@
         <v>1.27</v>
       </c>
       <c r="AT28">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU28">
         <v>1.97</v>
@@ -9491,7 +9491,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT43">
         <v>1.58</v>
@@ -11022,7 +11022,7 @@
         <v>1</v>
       </c>
       <c r="AT51">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU51">
         <v>1.62</v>
@@ -13887,7 +13887,7 @@
         <v>2.08</v>
       </c>
       <c r="AT66">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU66">
         <v>2.14</v>
@@ -15794,7 +15794,7 @@
         <v>1.67</v>
       </c>
       <c r="AS76">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT76">
         <v>1</v>
@@ -19426,7 +19426,7 @@
         <v>1.23</v>
       </c>
       <c r="AT95">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU95">
         <v>1.47</v>
@@ -20378,7 +20378,7 @@
         <v>0.75</v>
       </c>
       <c r="AS100">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT100">
         <v>1.23</v>
@@ -23052,7 +23052,7 @@
         <v>0.83</v>
       </c>
       <c r="AS114">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT114">
         <v>0.5</v>
@@ -24201,7 +24201,7 @@
         <v>1.33</v>
       </c>
       <c r="AT120">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU120">
         <v>1.51</v>
@@ -26681,7 +26681,7 @@
         <v>1.67</v>
       </c>
       <c r="AS133">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT133">
         <v>1</v>
@@ -28212,7 +28212,7 @@
         <v>1.75</v>
       </c>
       <c r="AT141">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU141">
         <v>1.58</v>
@@ -31650,7 +31650,7 @@
         <v>1.64</v>
       </c>
       <c r="AT159">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU159">
         <v>1.66</v>
@@ -31838,7 +31838,7 @@
         <v>1.71</v>
       </c>
       <c r="AS160">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT160">
         <v>1.33</v>
@@ -34130,7 +34130,7 @@
         <v>1.13</v>
       </c>
       <c r="AS172">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT172">
         <v>0.82</v>
@@ -35852,7 +35852,7 @@
         <v>1.36</v>
       </c>
       <c r="AT181">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU181">
         <v>1.49</v>
@@ -38141,7 +38141,7 @@
         <v>0.9</v>
       </c>
       <c r="AS193">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT193">
         <v>1</v>
@@ -39672,7 +39672,7 @@
         <v>1.75</v>
       </c>
       <c r="AT201">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU201">
         <v>1.74</v>
@@ -44062,7 +44062,7 @@
         <v>1.7</v>
       </c>
       <c r="AS224">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT224">
         <v>1.82</v>
@@ -44447,7 +44447,7 @@
         <v>0.75</v>
       </c>
       <c r="AT226">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU226">
         <v>1.45</v>
@@ -47364,6 +47364,197 @@
       </c>
       <c r="BK241">
         <v>17</v>
+      </c>
+    </row>
+    <row r="242" spans="1:63">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>2982652</v>
+      </c>
+      <c r="C242" t="s">
+        <v>63</v>
+      </c>
+      <c r="D242" t="s">
+        <v>64</v>
+      </c>
+      <c r="E242" s="2">
+        <v>44974.6875</v>
+      </c>
+      <c r="F242">
+        <v>25</v>
+      </c>
+      <c r="G242" t="s">
+        <v>80</v>
+      </c>
+      <c r="H242" t="s">
+        <v>70</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>1</v>
+      </c>
+      <c r="K242">
+        <v>1</v>
+      </c>
+      <c r="L242">
+        <v>1</v>
+      </c>
+      <c r="M242">
+        <v>1</v>
+      </c>
+      <c r="N242">
+        <v>2</v>
+      </c>
+      <c r="O242" t="s">
+        <v>173</v>
+      </c>
+      <c r="P242" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q242">
+        <v>7</v>
+      </c>
+      <c r="R242">
+        <v>2</v>
+      </c>
+      <c r="S242">
+        <v>9</v>
+      </c>
+      <c r="T242">
+        <v>2.8</v>
+      </c>
+      <c r="U242">
+        <v>2.02</v>
+      </c>
+      <c r="V242">
+        <v>4.28</v>
+      </c>
+      <c r="W242">
+        <v>1.44</v>
+      </c>
+      <c r="X242">
+        <v>2.62</v>
+      </c>
+      <c r="Y242">
+        <v>3</v>
+      </c>
+      <c r="Z242">
+        <v>1.36</v>
+      </c>
+      <c r="AA242">
+        <v>8</v>
+      </c>
+      <c r="AB242">
+        <v>1.06</v>
+      </c>
+      <c r="AC242">
+        <v>2.17</v>
+      </c>
+      <c r="AD242">
+        <v>3.32</v>
+      </c>
+      <c r="AE242">
+        <v>3.42</v>
+      </c>
+      <c r="AF242">
+        <v>1.08</v>
+      </c>
+      <c r="AG242">
+        <v>7</v>
+      </c>
+      <c r="AH242">
+        <v>1.4</v>
+      </c>
+      <c r="AI242">
+        <v>2.75</v>
+      </c>
+      <c r="AJ242">
+        <v>2.2</v>
+      </c>
+      <c r="AK242">
+        <v>1.6</v>
+      </c>
+      <c r="AL242">
+        <v>1.94</v>
+      </c>
+      <c r="AM242">
+        <v>1.82</v>
+      </c>
+      <c r="AN242">
+        <v>1.31</v>
+      </c>
+      <c r="AO242">
+        <v>1.33</v>
+      </c>
+      <c r="AP242">
+        <v>1.69</v>
+      </c>
+      <c r="AQ242">
+        <v>1.55</v>
+      </c>
+      <c r="AR242">
+        <v>1.36</v>
+      </c>
+      <c r="AS242">
+        <v>1.5</v>
+      </c>
+      <c r="AT242">
+        <v>1.33</v>
+      </c>
+      <c r="AU242">
+        <v>1.58</v>
+      </c>
+      <c r="AV242">
+        <v>1.63</v>
+      </c>
+      <c r="AW242">
+        <v>3.21</v>
+      </c>
+      <c r="AX242">
+        <v>1.69</v>
+      </c>
+      <c r="AY242">
+        <v>8</v>
+      </c>
+      <c r="AZ242">
+        <v>2.63</v>
+      </c>
+      <c r="BA242">
+        <v>1.21</v>
+      </c>
+      <c r="BB242">
+        <v>1.4</v>
+      </c>
+      <c r="BC242">
+        <v>1.71</v>
+      </c>
+      <c r="BD242">
+        <v>2.2</v>
+      </c>
+      <c r="BE242">
+        <v>3</v>
+      </c>
+      <c r="BF242">
+        <v>6</v>
+      </c>
+      <c r="BG242">
+        <v>5</v>
+      </c>
+      <c r="BH242">
+        <v>11</v>
+      </c>
+      <c r="BI242">
+        <v>6</v>
+      </c>
+      <c r="BJ242">
+        <v>17</v>
+      </c>
+      <c r="BK242">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="324">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -697,6 +697,21 @@
     <t>['3', '69']</t>
   </si>
   <si>
+    <t>['46', '67', '86']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['54', '76', '90+5']</t>
+  </si>
+  <si>
+    <t>['33', '55']</t>
+  </si>
+  <si>
     <t>['11', '35']</t>
   </si>
   <si>
@@ -776,9 +791,6 @@
   </si>
   <si>
     <t>['4', '88', '90+1']</t>
-  </si>
-  <si>
-    <t>['6']</t>
   </si>
   <si>
     <t>['46', '83']</t>
@@ -874,9 +886,6 @@
     <t>['62']</t>
   </si>
   <si>
-    <t>['90+5']</t>
-  </si>
-  <si>
     <t>['34', '50', '68']</t>
   </si>
   <si>
@@ -968,6 +977,15 @@
   </si>
   <si>
     <t>['36']</t>
+  </si>
+  <si>
+    <t>['20', '26']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['6', '85']</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK242"/>
+  <dimension ref="A1:BK251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1573,7 +1591,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1660,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT2">
         <v>1.83</v>
@@ -1764,7 +1782,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1851,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT3">
         <v>1.31</v>
@@ -2045,7 +2063,7 @@
         <v>1.33</v>
       </c>
       <c r="AT4">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2233,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT5">
         <v>0.85</v>
@@ -2427,7 +2445,7 @@
         <v>1.08</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2528,7 +2546,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2618,7 +2636,7 @@
         <v>0.92</v>
       </c>
       <c r="AT7">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2719,7 +2737,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q8">
         <v>8</v>
@@ -2809,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="AT8">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3000,7 +3018,7 @@
         <v>1.23</v>
       </c>
       <c r="AT9">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3188,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT10">
         <v>0.5</v>
@@ -3379,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT11">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3570,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT12">
         <v>1.08</v>
@@ -4143,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT15">
         <v>1</v>
@@ -4337,7 +4355,7 @@
         <v>1.83</v>
       </c>
       <c r="AT16">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4438,7 +4456,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -4629,7 +4647,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q18">
         <v>8</v>
@@ -5098,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT20">
         <v>1.23</v>
@@ -5292,7 +5310,7 @@
         <v>2.67</v>
       </c>
       <c r="AT21">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5393,7 +5411,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q22">
         <v>12</v>
@@ -5480,10 +5498,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT22">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU22">
         <v>1.62</v>
@@ -5674,7 +5692,7 @@
         <v>1</v>
       </c>
       <c r="AT23">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU23">
         <v>1.87</v>
@@ -5862,10 +5880,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT24">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU24">
         <v>1.55</v>
@@ -6056,7 +6074,7 @@
         <v>1.67</v>
       </c>
       <c r="AT25">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6247,7 +6265,7 @@
         <v>1.5</v>
       </c>
       <c r="AT26">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU26">
         <v>1.77</v>
@@ -6348,7 +6366,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q27">
         <v>9</v>
@@ -6435,7 +6453,7 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT27">
         <v>1.83</v>
@@ -6626,7 +6644,7 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT28">
         <v>1.33</v>
@@ -6730,7 +6748,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6817,10 +6835,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT29">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU29">
         <v>1.86</v>
@@ -7008,7 +7026,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT30">
         <v>0.5</v>
@@ -7202,7 +7220,7 @@
         <v>1.33</v>
       </c>
       <c r="AT31">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU31">
         <v>1.15</v>
@@ -7685,7 +7703,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7772,7 +7790,7 @@
         <v>1</v>
       </c>
       <c r="AS34">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT34">
         <v>1</v>
@@ -7876,7 +7894,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8449,7 +8467,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8640,7 +8658,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8831,7 +8849,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9022,7 +9040,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9300,10 +9318,10 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT42">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU42">
         <v>1.67</v>
@@ -9494,7 +9512,7 @@
         <v>1.5</v>
       </c>
       <c r="AT43">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU43">
         <v>1.69</v>
@@ -9682,7 +9700,7 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT44">
         <v>1.83</v>
@@ -9786,7 +9804,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9873,10 +9891,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT45">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU45">
         <v>1.64</v>
@@ -10064,10 +10082,10 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT46">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU46">
         <v>1.9</v>
@@ -10168,7 +10186,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q47">
         <v>7</v>
@@ -10258,7 +10276,7 @@
         <v>1.33</v>
       </c>
       <c r="AT47">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU47">
         <v>1.49</v>
@@ -10359,7 +10377,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10446,10 +10464,10 @@
         <v>0.5</v>
       </c>
       <c r="AS48">
+        <v>0.92</v>
+      </c>
+      <c r="AT48">
         <v>0.75</v>
-      </c>
-      <c r="AT48">
-        <v>0.73</v>
       </c>
       <c r="AU48">
         <v>1.53</v>
@@ -10550,7 +10568,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q49">
         <v>10</v>
@@ -10637,10 +10655,10 @@
         <v>1.5</v>
       </c>
       <c r="AS49">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT49">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU49">
         <v>1.68</v>
@@ -10828,10 +10846,10 @@
         <v>3</v>
       </c>
       <c r="AS50">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT50">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU50">
         <v>1.82</v>
@@ -11314,7 +11332,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11505,7 +11523,7 @@
         <v>93</v>
       </c>
       <c r="P54" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11696,7 +11714,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q55">
         <v>4</v>
@@ -12460,7 +12478,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13120,7 +13138,7 @@
         <v>0.5</v>
       </c>
       <c r="AS62">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT62">
         <v>0.92</v>
@@ -13311,10 +13329,10 @@
         <v>1</v>
       </c>
       <c r="AS63">
+        <v>1.69</v>
+      </c>
+      <c r="AT63">
         <v>1.75</v>
-      </c>
-      <c r="AT63">
-        <v>1.82</v>
       </c>
       <c r="AU63">
         <v>1.59</v>
@@ -13415,7 +13433,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13502,10 +13520,10 @@
         <v>2</v>
       </c>
       <c r="AS64">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT64">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU64">
         <v>1.93</v>
@@ -13606,7 +13624,7 @@
         <v>93</v>
       </c>
       <c r="P65" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13696,7 +13714,7 @@
         <v>1</v>
       </c>
       <c r="AT65">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU65">
         <v>1.76</v>
@@ -13797,7 +13815,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13988,7 +14006,7 @@
         <v>93</v>
       </c>
       <c r="P67" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14075,10 +14093,10 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT67">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU67">
         <v>1.79</v>
@@ -14266,10 +14284,10 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT68">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU68">
         <v>1.73</v>
@@ -14457,10 +14475,10 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT69">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU69">
         <v>1.79</v>
@@ -14561,7 +14579,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14648,7 +14666,7 @@
         <v>0.33</v>
       </c>
       <c r="AS70">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT70">
         <v>1.31</v>
@@ -14752,7 +14770,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14839,10 +14857,10 @@
         <v>1.5</v>
       </c>
       <c r="AS71">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT71">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU71">
         <v>1.68</v>
@@ -15033,7 +15051,7 @@
         <v>1.75</v>
       </c>
       <c r="AT72">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU72">
         <v>1.83</v>
@@ -15134,7 +15152,7 @@
         <v>106</v>
       </c>
       <c r="P73" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15325,7 +15343,7 @@
         <v>95</v>
       </c>
       <c r="P74" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -16662,7 +16680,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16853,7 +16871,7 @@
         <v>120</v>
       </c>
       <c r="P82" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -16943,7 +16961,7 @@
         <v>0.92</v>
       </c>
       <c r="AT82">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU82">
         <v>1.59</v>
@@ -17044,7 +17062,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17131,10 +17149,10 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT83">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU83">
         <v>1.51</v>
@@ -17235,7 +17253,7 @@
         <v>142</v>
       </c>
       <c r="P84" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17325,7 +17343,7 @@
         <v>2.08</v>
       </c>
       <c r="AT84">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU84">
         <v>2.07</v>
@@ -17513,7 +17531,7 @@
         <v>0.75</v>
       </c>
       <c r="AS85">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT85">
         <v>1</v>
@@ -17617,7 +17635,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17704,10 +17722,10 @@
         <v>2.25</v>
       </c>
       <c r="AS86">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT86">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU86">
         <v>1.17</v>
@@ -17895,7 +17913,7 @@
         <v>0.33</v>
       </c>
       <c r="AS87">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT87">
         <v>0.92</v>
@@ -17999,7 +18017,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -18086,7 +18104,7 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT88">
         <v>1.31</v>
@@ -18277,10 +18295,10 @@
         <v>1.5</v>
       </c>
       <c r="AS89">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT89">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU89">
         <v>1.69</v>
@@ -18381,7 +18399,7 @@
         <v>93</v>
       </c>
       <c r="P90" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18468,10 +18486,10 @@
         <v>1.33</v>
       </c>
       <c r="AS90">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT90">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU90">
         <v>1.88</v>
@@ -18572,7 +18590,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -18659,10 +18677,10 @@
         <v>1.5</v>
       </c>
       <c r="AS91">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT91">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU91">
         <v>1.73</v>
@@ -19145,7 +19163,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q94">
         <v>9</v>
@@ -19336,7 +19354,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19909,7 +19927,7 @@
         <v>124</v>
       </c>
       <c r="P98" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -19999,7 +20017,7 @@
         <v>1.83</v>
       </c>
       <c r="AT98">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU98">
         <v>1.51</v>
@@ -20187,7 +20205,7 @@
         <v>0.5</v>
       </c>
       <c r="AS99">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT99">
         <v>1</v>
@@ -20291,7 +20309,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20572,7 +20590,7 @@
         <v>1.08</v>
       </c>
       <c r="AT101">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU101">
         <v>1.47</v>
@@ -20760,10 +20778,10 @@
         <v>1.8</v>
       </c>
       <c r="AS102">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT102">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU102">
         <v>1.8</v>
@@ -20864,7 +20882,7 @@
         <v>93</v>
       </c>
       <c r="P103" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -20954,7 +20972,7 @@
         <v>0.92</v>
       </c>
       <c r="AT103">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU103">
         <v>1.57</v>
@@ -21145,7 +21163,7 @@
         <v>1</v>
       </c>
       <c r="AT104">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU104">
         <v>1.53</v>
@@ -21333,7 +21351,7 @@
         <v>0.25</v>
       </c>
       <c r="AS105">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT105">
         <v>0.92</v>
@@ -21524,7 +21542,7 @@
         <v>0.25</v>
       </c>
       <c r="AS106">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT106">
         <v>1.08</v>
@@ -21628,7 +21646,7 @@
         <v>155</v>
       </c>
       <c r="P107" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21715,10 +21733,10 @@
         <v>1.2</v>
       </c>
       <c r="AS107">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT107">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU107">
         <v>1.06</v>
@@ -21909,7 +21927,7 @@
         <v>2.08</v>
       </c>
       <c r="AT108">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU108">
         <v>1.88</v>
@@ -22097,7 +22115,7 @@
         <v>1</v>
       </c>
       <c r="AS109">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT109">
         <v>1.31</v>
@@ -22201,7 +22219,7 @@
         <v>150</v>
       </c>
       <c r="P110" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22291,7 +22309,7 @@
         <v>1.75</v>
       </c>
       <c r="AT110">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU110">
         <v>1.87</v>
@@ -22392,7 +22410,7 @@
         <v>93</v>
       </c>
       <c r="P111" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q111">
         <v>2</v>
@@ -22479,7 +22497,7 @@
         <v>0.6</v>
       </c>
       <c r="AS111">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT111">
         <v>1</v>
@@ -22583,7 +22601,7 @@
         <v>157</v>
       </c>
       <c r="P112" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q112">
         <v>1</v>
@@ -22673,7 +22691,7 @@
         <v>1.46</v>
       </c>
       <c r="AT112">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU112">
         <v>1.3</v>
@@ -23243,7 +23261,7 @@
         <v>0.6</v>
       </c>
       <c r="AS115">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT115">
         <v>1.23</v>
@@ -23437,7 +23455,7 @@
         <v>1.23</v>
       </c>
       <c r="AT116">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU116">
         <v>1.45</v>
@@ -23538,7 +23556,7 @@
         <v>102</v>
       </c>
       <c r="P117" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23625,7 +23643,7 @@
         <v>2.17</v>
       </c>
       <c r="AS117">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT117">
         <v>1.83</v>
@@ -24007,7 +24025,7 @@
         <v>1.2</v>
       </c>
       <c r="AS119">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT119">
         <v>1</v>
@@ -24392,7 +24410,7 @@
         <v>1.67</v>
       </c>
       <c r="AT121">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU121">
         <v>2.12</v>
@@ -24583,7 +24601,7 @@
         <v>1.08</v>
       </c>
       <c r="AT122">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU122">
         <v>1.38</v>
@@ -24684,7 +24702,7 @@
         <v>162</v>
       </c>
       <c r="P123" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24774,7 +24792,7 @@
         <v>0.92</v>
       </c>
       <c r="AT123">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU123">
         <v>1.49</v>
@@ -24875,7 +24893,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q124">
         <v>1</v>
@@ -25153,7 +25171,7 @@
         <v>1</v>
       </c>
       <c r="AS125">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT125">
         <v>1</v>
@@ -25344,7 +25362,7 @@
         <v>0.5</v>
       </c>
       <c r="AS126">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT126">
         <v>0.85</v>
@@ -25639,7 +25657,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25726,7 +25744,7 @@
         <v>0.8</v>
       </c>
       <c r="AS128">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT128">
         <v>1.08</v>
@@ -25830,7 +25848,7 @@
         <v>167</v>
       </c>
       <c r="P129" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q129">
         <v>10</v>
@@ -25917,10 +25935,10 @@
         <v>1.67</v>
       </c>
       <c r="AS129">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT129">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU129">
         <v>1.93</v>
@@ -26111,7 +26129,7 @@
         <v>1.83</v>
       </c>
       <c r="AT130">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU130">
         <v>1.51</v>
@@ -26403,7 +26421,7 @@
         <v>168</v>
       </c>
       <c r="P132" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -26490,7 +26508,7 @@
         <v>0.67</v>
       </c>
       <c r="AS132">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT132">
         <v>1.23</v>
@@ -26684,7 +26702,7 @@
         <v>1.5</v>
       </c>
       <c r="AT133">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU133">
         <v>1.64</v>
@@ -26785,7 +26803,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26976,7 +26994,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27066,7 +27084,7 @@
         <v>2.67</v>
       </c>
       <c r="AT135">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU135">
         <v>1.92</v>
@@ -27254,7 +27272,7 @@
         <v>0.71</v>
       </c>
       <c r="AS136">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT136">
         <v>0.5</v>
@@ -27445,10 +27463,10 @@
         <v>2.14</v>
       </c>
       <c r="AS137">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT137">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU137">
         <v>1.57</v>
@@ -27740,7 +27758,7 @@
         <v>128</v>
       </c>
       <c r="P139" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -27931,7 +27949,7 @@
         <v>175</v>
       </c>
       <c r="P140" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q140">
         <v>1</v>
@@ -28021,7 +28039,7 @@
         <v>1.46</v>
       </c>
       <c r="AT140">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU140">
         <v>1.32</v>
@@ -28209,7 +28227,7 @@
         <v>1.33</v>
       </c>
       <c r="AS141">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT141">
         <v>1.33</v>
@@ -28403,7 +28421,7 @@
         <v>0.92</v>
       </c>
       <c r="AT142">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU142">
         <v>1.54</v>
@@ -28695,7 +28713,7 @@
         <v>177</v>
       </c>
       <c r="P144" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q144">
         <v>2</v>
@@ -28886,7 +28904,7 @@
         <v>178</v>
       </c>
       <c r="P145" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29164,7 +29182,7 @@
         <v>1</v>
       </c>
       <c r="AS146">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT146">
         <v>1.31</v>
@@ -29268,7 +29286,7 @@
         <v>93</v>
       </c>
       <c r="P147" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29358,7 +29376,7 @@
         <v>1.23</v>
       </c>
       <c r="AT147">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU147">
         <v>1.47</v>
@@ -29546,7 +29564,7 @@
         <v>0.57</v>
       </c>
       <c r="AS148">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT148">
         <v>0.85</v>
@@ -29650,7 +29668,7 @@
         <v>93</v>
       </c>
       <c r="P149" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q149">
         <v>11</v>
@@ -29841,7 +29859,7 @@
         <v>179</v>
       </c>
       <c r="P150" t="s">
-        <v>286</v>
+        <v>229</v>
       </c>
       <c r="Q150">
         <v>1</v>
@@ -29931,7 +29949,7 @@
         <v>1.46</v>
       </c>
       <c r="AT150">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU150">
         <v>1.39</v>
@@ -30119,7 +30137,7 @@
         <v>0.67</v>
       </c>
       <c r="AS151">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT151">
         <v>1.08</v>
@@ -30313,7 +30331,7 @@
         <v>1.83</v>
       </c>
       <c r="AT152">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU152">
         <v>1.46</v>
@@ -30501,7 +30519,7 @@
         <v>1.29</v>
       </c>
       <c r="AS153">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT153">
         <v>1.17</v>
@@ -30692,7 +30710,7 @@
         <v>0.71</v>
       </c>
       <c r="AS154">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT154">
         <v>1</v>
@@ -30796,7 +30814,7 @@
         <v>93</v>
       </c>
       <c r="P155" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -30886,7 +30904,7 @@
         <v>1.67</v>
       </c>
       <c r="AT155">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU155">
         <v>1.92</v>
@@ -31077,7 +31095,7 @@
         <v>1.75</v>
       </c>
       <c r="AT156">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU156">
         <v>1.75</v>
@@ -31265,10 +31283,10 @@
         <v>1.14</v>
       </c>
       <c r="AS157">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT157">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU157">
         <v>1.15</v>
@@ -31369,7 +31387,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q158">
         <v>7</v>
@@ -31456,7 +31474,7 @@
         <v>1.88</v>
       </c>
       <c r="AS158">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT158">
         <v>1.83</v>
@@ -31560,7 +31578,7 @@
         <v>182</v>
       </c>
       <c r="P159" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -31647,7 +31665,7 @@
         <v>1.57</v>
       </c>
       <c r="AS159">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT159">
         <v>1.33</v>
@@ -31841,7 +31859,7 @@
         <v>1.5</v>
       </c>
       <c r="AT160">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU160">
         <v>1.64</v>
@@ -32029,7 +32047,7 @@
         <v>0.43</v>
       </c>
       <c r="AS161">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT161">
         <v>0.92</v>
@@ -32133,7 +32151,7 @@
         <v>184</v>
       </c>
       <c r="P162" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q162">
         <v>7</v>
@@ -32515,7 +32533,7 @@
         <v>162</v>
       </c>
       <c r="P164" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q164">
         <v>4</v>
@@ -32706,7 +32724,7 @@
         <v>93</v>
       </c>
       <c r="P165" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -32796,7 +32814,7 @@
         <v>1.33</v>
       </c>
       <c r="AT165">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU165">
         <v>1.62</v>
@@ -32987,7 +33005,7 @@
         <v>1.46</v>
       </c>
       <c r="AT166">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU166">
         <v>1.34</v>
@@ -33175,7 +33193,7 @@
         <v>1.13</v>
       </c>
       <c r="AS167">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT167">
         <v>1</v>
@@ -33369,7 +33387,7 @@
         <v>1.08</v>
       </c>
       <c r="AT168">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU168">
         <v>1.37</v>
@@ -33470,7 +33488,7 @@
         <v>186</v>
       </c>
       <c r="P169" t="s">
-        <v>286</v>
+        <v>229</v>
       </c>
       <c r="Q169">
         <v>1</v>
@@ -33557,7 +33575,7 @@
         <v>1.25</v>
       </c>
       <c r="AS169">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT169">
         <v>1.23</v>
@@ -33852,7 +33870,7 @@
         <v>93</v>
       </c>
       <c r="P171" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q171">
         <v>6</v>
@@ -34133,7 +34151,7 @@
         <v>1.5</v>
       </c>
       <c r="AT172">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU172">
         <v>1.55</v>
@@ -34425,7 +34443,7 @@
         <v>93</v>
       </c>
       <c r="P174" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q174">
         <v>9</v>
@@ -34616,7 +34634,7 @@
         <v>93</v>
       </c>
       <c r="P175" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q175">
         <v>8</v>
@@ -34703,10 +34721,10 @@
         <v>1.38</v>
       </c>
       <c r="AS175">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT175">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU175">
         <v>1.88</v>
@@ -34807,7 +34825,7 @@
         <v>122</v>
       </c>
       <c r="P176" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -34894,10 +34912,10 @@
         <v>1.5</v>
       </c>
       <c r="AS176">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT176">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU176">
         <v>1.19</v>
@@ -35085,7 +35103,7 @@
         <v>1.5</v>
       </c>
       <c r="AS177">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT177">
         <v>1.17</v>
@@ -35276,7 +35294,7 @@
         <v>0.75</v>
       </c>
       <c r="AS178">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT178">
         <v>1</v>
@@ -35380,7 +35398,7 @@
         <v>182</v>
       </c>
       <c r="P179" t="s">
-        <v>286</v>
+        <v>229</v>
       </c>
       <c r="Q179">
         <v>9</v>
@@ -35467,10 +35485,10 @@
         <v>0.88</v>
       </c>
       <c r="AS179">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT179">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU179">
         <v>1.61</v>
@@ -35661,7 +35679,7 @@
         <v>1.75</v>
       </c>
       <c r="AT180">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU180">
         <v>1.73</v>
@@ -35762,7 +35780,7 @@
         <v>188</v>
       </c>
       <c r="P181" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q181">
         <v>9</v>
@@ -35849,7 +35867,7 @@
         <v>1.5</v>
       </c>
       <c r="AS181">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT181">
         <v>1.33</v>
@@ -35953,7 +35971,7 @@
         <v>147</v>
       </c>
       <c r="P182" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q182">
         <v>2</v>
@@ -36335,7 +36353,7 @@
         <v>93</v>
       </c>
       <c r="P184" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36717,7 +36735,7 @@
         <v>190</v>
       </c>
       <c r="P186" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q186">
         <v>2</v>
@@ -36908,7 +36926,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q187">
         <v>10</v>
@@ -36995,7 +37013,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS187">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT187">
         <v>0.85</v>
@@ -37189,7 +37207,7 @@
         <v>1.08</v>
       </c>
       <c r="AT188">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU188">
         <v>1.34</v>
@@ -37571,7 +37589,7 @@
         <v>2.67</v>
       </c>
       <c r="AT190">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU190">
         <v>1.87</v>
@@ -37672,7 +37690,7 @@
         <v>193</v>
       </c>
       <c r="P191" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q191">
         <v>6</v>
@@ -37759,10 +37777,10 @@
         <v>1.78</v>
       </c>
       <c r="AS191">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT191">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU191">
         <v>1.92</v>
@@ -38054,7 +38072,7 @@
         <v>96</v>
       </c>
       <c r="P193" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q193">
         <v>9</v>
@@ -38245,7 +38263,7 @@
         <v>194</v>
       </c>
       <c r="P194" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q194">
         <v>4</v>
@@ -38332,7 +38350,7 @@
         <v>1</v>
       </c>
       <c r="AS194">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT194">
         <v>1.08</v>
@@ -38714,7 +38732,7 @@
         <v>1.22</v>
       </c>
       <c r="AS196">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT196">
         <v>1</v>
@@ -38818,7 +38836,7 @@
         <v>197</v>
       </c>
       <c r="P197" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q197">
         <v>7</v>
@@ -39099,7 +39117,7 @@
         <v>1.46</v>
       </c>
       <c r="AT198">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU198">
         <v>1.43</v>
@@ -39290,7 +39308,7 @@
         <v>1.83</v>
       </c>
       <c r="AT199">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU199">
         <v>1.6</v>
@@ -39478,7 +39496,7 @@
         <v>1.44</v>
       </c>
       <c r="AS200">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT200">
         <v>1.17</v>
@@ -39860,7 +39878,7 @@
         <v>1.9</v>
       </c>
       <c r="AS202">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT202">
         <v>1.83</v>
@@ -39964,7 +39982,7 @@
         <v>203</v>
       </c>
       <c r="P203" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -40051,10 +40069,10 @@
         <v>1.9</v>
       </c>
       <c r="AS203">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT203">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU203">
         <v>1.46</v>
@@ -40245,7 +40263,7 @@
         <v>1</v>
       </c>
       <c r="AT204">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU204">
         <v>1.54</v>
@@ -40436,7 +40454,7 @@
         <v>1.67</v>
       </c>
       <c r="AT205">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU205">
         <v>1.83</v>
@@ -40537,7 +40555,7 @@
         <v>206</v>
       </c>
       <c r="P206" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q206">
         <v>4</v>
@@ -40815,7 +40833,7 @@
         <v>0.6</v>
       </c>
       <c r="AS207">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT207">
         <v>0.5</v>
@@ -41006,7 +41024,7 @@
         <v>0.8</v>
       </c>
       <c r="AS208">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT208">
         <v>0.85</v>
@@ -41200,7 +41218,7 @@
         <v>0.92</v>
       </c>
       <c r="AT209">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU209">
         <v>1.55</v>
@@ -41388,10 +41406,10 @@
         <v>0.78</v>
       </c>
       <c r="AS210">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT210">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU210">
         <v>1.87</v>
@@ -41492,7 +41510,7 @@
         <v>119</v>
       </c>
       <c r="P211" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q211">
         <v>5</v>
@@ -41582,7 +41600,7 @@
         <v>1.23</v>
       </c>
       <c r="AT211">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU211">
         <v>1.31</v>
@@ -41874,7 +41892,7 @@
         <v>93</v>
       </c>
       <c r="P213" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q213">
         <v>3</v>
@@ -41961,7 +41979,7 @@
         <v>0.73</v>
       </c>
       <c r="AS213">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT213">
         <v>0.85</v>
@@ -42343,7 +42361,7 @@
         <v>1.1</v>
       </c>
       <c r="AS215">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT215">
         <v>1</v>
@@ -42537,7 +42555,7 @@
         <v>1.46</v>
       </c>
       <c r="AT216">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU216">
         <v>1.4</v>
@@ -42638,7 +42656,7 @@
         <v>211</v>
       </c>
       <c r="P217" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q217">
         <v>5</v>
@@ -43211,7 +43229,7 @@
         <v>212</v>
       </c>
       <c r="P220" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q220">
         <v>12</v>
@@ -43680,10 +43698,10 @@
         <v>0.8</v>
       </c>
       <c r="AS222">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT222">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU222">
         <v>1.66</v>
@@ -43784,7 +43802,7 @@
         <v>215</v>
       </c>
       <c r="P223" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q223">
         <v>7</v>
@@ -43975,7 +43993,7 @@
         <v>93</v>
       </c>
       <c r="P224" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q224">
         <v>6</v>
@@ -44065,7 +44083,7 @@
         <v>1.5</v>
       </c>
       <c r="AT224">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU224">
         <v>1.44</v>
@@ -44253,10 +44271,10 @@
         <v>0.9</v>
       </c>
       <c r="AS225">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT225">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU225">
         <v>1.56</v>
@@ -44357,7 +44375,7 @@
         <v>217</v>
       </c>
       <c r="P226" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q226">
         <v>7</v>
@@ -44444,7 +44462,7 @@
         <v>1.2</v>
       </c>
       <c r="AS226">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT226">
         <v>1.33</v>
@@ -44635,10 +44653,10 @@
         <v>1.45</v>
       </c>
       <c r="AS227">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT227">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU227">
         <v>1.78</v>
@@ -44826,10 +44844,10 @@
         <v>1</v>
       </c>
       <c r="AS228">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT228">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU228">
         <v>1.31</v>
@@ -44930,7 +44948,7 @@
         <v>93</v>
       </c>
       <c r="P229" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -45020,7 +45038,7 @@
         <v>1.33</v>
       </c>
       <c r="AT229">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU229">
         <v>1.63</v>
@@ -45208,10 +45226,10 @@
         <v>1.73</v>
       </c>
       <c r="AS230">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT230">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU230">
         <v>1.62</v>
@@ -45399,10 +45417,10 @@
         <v>2</v>
       </c>
       <c r="AS231">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT231">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU231">
         <v>1.74</v>
@@ -45694,7 +45712,7 @@
         <v>93</v>
       </c>
       <c r="P233" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q233">
         <v>11</v>
@@ -45885,7 +45903,7 @@
         <v>222</v>
       </c>
       <c r="P234" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q234">
         <v>4</v>
@@ -46076,7 +46094,7 @@
         <v>223</v>
       </c>
       <c r="P235" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q235">
         <v>3</v>
@@ -46840,7 +46858,7 @@
         <v>154</v>
       </c>
       <c r="P239" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q239">
         <v>5</v>
@@ -47309,7 +47327,7 @@
         <v>0.55</v>
       </c>
       <c r="AS241">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT241">
         <v>0.5</v>
@@ -47555,6 +47573,1725 @@
       </c>
       <c r="BK242">
         <v>11</v>
+      </c>
+    </row>
+    <row r="243" spans="1:63">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>2982645</v>
+      </c>
+      <c r="C243" t="s">
+        <v>63</v>
+      </c>
+      <c r="D243" t="s">
+        <v>64</v>
+      </c>
+      <c r="E243" s="2">
+        <v>44975.41666666666</v>
+      </c>
+      <c r="F243">
+        <v>25</v>
+      </c>
+      <c r="G243" t="s">
+        <v>73</v>
+      </c>
+      <c r="H243" t="s">
+        <v>72</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>0</v>
+      </c>
+      <c r="L243">
+        <v>1</v>
+      </c>
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243">
+        <v>1</v>
+      </c>
+      <c r="O243" t="s">
+        <v>135</v>
+      </c>
+      <c r="P243" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q243">
+        <v>2</v>
+      </c>
+      <c r="R243">
+        <v>2</v>
+      </c>
+      <c r="S243">
+        <v>4</v>
+      </c>
+      <c r="T243">
+        <v>2.7</v>
+      </c>
+      <c r="U243">
+        <v>1.95</v>
+      </c>
+      <c r="V243">
+        <v>4</v>
+      </c>
+      <c r="W243">
+        <v>1.44</v>
+      </c>
+      <c r="X243">
+        <v>2.62</v>
+      </c>
+      <c r="Y243">
+        <v>3.25</v>
+      </c>
+      <c r="Z243">
+        <v>1.33</v>
+      </c>
+      <c r="AA243">
+        <v>7.5</v>
+      </c>
+      <c r="AB243">
+        <v>1.07</v>
+      </c>
+      <c r="AC243">
+        <v>2.12</v>
+      </c>
+      <c r="AD243">
+        <v>3.1</v>
+      </c>
+      <c r="AE243">
+        <v>3.6</v>
+      </c>
+      <c r="AF243">
+        <v>1.08</v>
+      </c>
+      <c r="AG243">
+        <v>7</v>
+      </c>
+      <c r="AH243">
+        <v>1.4</v>
+      </c>
+      <c r="AI243">
+        <v>2.75</v>
+      </c>
+      <c r="AJ243">
+        <v>2.18</v>
+      </c>
+      <c r="AK243">
+        <v>1.64</v>
+      </c>
+      <c r="AL243">
+        <v>1.91</v>
+      </c>
+      <c r="AM243">
+        <v>1.8</v>
+      </c>
+      <c r="AN243">
+        <v>1.25</v>
+      </c>
+      <c r="AO243">
+        <v>1.35</v>
+      </c>
+      <c r="AP243">
+        <v>1.7</v>
+      </c>
+      <c r="AQ243">
+        <v>0.75</v>
+      </c>
+      <c r="AR243">
+        <v>0.82</v>
+      </c>
+      <c r="AS243">
+        <v>0.92</v>
+      </c>
+      <c r="AT243">
+        <v>0.75</v>
+      </c>
+      <c r="AU243">
+        <v>1.46</v>
+      </c>
+      <c r="AV243">
+        <v>1.43</v>
+      </c>
+      <c r="AW243">
+        <v>2.89</v>
+      </c>
+      <c r="AX243">
+        <v>1.75</v>
+      </c>
+      <c r="AY243">
+        <v>8</v>
+      </c>
+      <c r="AZ243">
+        <v>2.44</v>
+      </c>
+      <c r="BA243">
+        <v>1.18</v>
+      </c>
+      <c r="BB243">
+        <v>1.35</v>
+      </c>
+      <c r="BC243">
+        <v>1.63</v>
+      </c>
+      <c r="BD243">
+        <v>2.1</v>
+      </c>
+      <c r="BE243">
+        <v>2.8</v>
+      </c>
+      <c r="BF243">
+        <v>3</v>
+      </c>
+      <c r="BG243">
+        <v>3</v>
+      </c>
+      <c r="BH243">
+        <v>6</v>
+      </c>
+      <c r="BI243">
+        <v>5</v>
+      </c>
+      <c r="BJ243">
+        <v>9</v>
+      </c>
+      <c r="BK243">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:63">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>2982646</v>
+      </c>
+      <c r="C244" t="s">
+        <v>63</v>
+      </c>
+      <c r="D244" t="s">
+        <v>64</v>
+      </c>
+      <c r="E244" s="2">
+        <v>44975.41666666666</v>
+      </c>
+      <c r="F244">
+        <v>25</v>
+      </c>
+      <c r="G244" t="s">
+        <v>66</v>
+      </c>
+      <c r="H244" t="s">
+        <v>84</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>2</v>
+      </c>
+      <c r="K244">
+        <v>2</v>
+      </c>
+      <c r="L244">
+        <v>3</v>
+      </c>
+      <c r="M244">
+        <v>2</v>
+      </c>
+      <c r="N244">
+        <v>5</v>
+      </c>
+      <c r="O244" t="s">
+        <v>227</v>
+      </c>
+      <c r="P244" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q244">
+        <v>8</v>
+      </c>
+      <c r="R244">
+        <v>4</v>
+      </c>
+      <c r="S244">
+        <v>12</v>
+      </c>
+      <c r="T244">
+        <v>3.3</v>
+      </c>
+      <c r="U244">
+        <v>1.85</v>
+      </c>
+      <c r="V244">
+        <v>3.5</v>
+      </c>
+      <c r="W244">
+        <v>1.53</v>
+      </c>
+      <c r="X244">
+        <v>2.38</v>
+      </c>
+      <c r="Y244">
+        <v>3.4</v>
+      </c>
+      <c r="Z244">
+        <v>1.3</v>
+      </c>
+      <c r="AA244">
+        <v>9</v>
+      </c>
+      <c r="AB244">
+        <v>1.05</v>
+      </c>
+      <c r="AC244">
+        <v>2.63</v>
+      </c>
+      <c r="AD244">
+        <v>2.95</v>
+      </c>
+      <c r="AE244">
+        <v>2.8</v>
+      </c>
+      <c r="AF244">
+        <v>1.11</v>
+      </c>
+      <c r="AG244">
+        <v>6</v>
+      </c>
+      <c r="AH244">
+        <v>1.5</v>
+      </c>
+      <c r="AI244">
+        <v>2.48</v>
+      </c>
+      <c r="AJ244">
+        <v>2.55</v>
+      </c>
+      <c r="AK244">
+        <v>1.45</v>
+      </c>
+      <c r="AL244">
+        <v>2.05</v>
+      </c>
+      <c r="AM244">
+        <v>1.7</v>
+      </c>
+      <c r="AN244">
+        <v>1.44</v>
+      </c>
+      <c r="AO244">
+        <v>1.36</v>
+      </c>
+      <c r="AP244">
+        <v>1.44</v>
+      </c>
+      <c r="AQ244">
+        <v>1.27</v>
+      </c>
+      <c r="AR244">
+        <v>1.58</v>
+      </c>
+      <c r="AS244">
+        <v>1.42</v>
+      </c>
+      <c r="AT244">
+        <v>1.46</v>
+      </c>
+      <c r="AU244">
+        <v>1.79</v>
+      </c>
+      <c r="AV244">
+        <v>1.6</v>
+      </c>
+      <c r="AW244">
+        <v>3.39</v>
+      </c>
+      <c r="AX244">
+        <v>1.82</v>
+      </c>
+      <c r="AY244">
+        <v>8</v>
+      </c>
+      <c r="AZ244">
+        <v>2.33</v>
+      </c>
+      <c r="BA244">
+        <v>1.27</v>
+      </c>
+      <c r="BB244">
+        <v>1.5</v>
+      </c>
+      <c r="BC244">
+        <v>1.98</v>
+      </c>
+      <c r="BD244">
+        <v>2.5</v>
+      </c>
+      <c r="BE244">
+        <v>3.5</v>
+      </c>
+      <c r="BF244">
+        <v>6</v>
+      </c>
+      <c r="BG244">
+        <v>5</v>
+      </c>
+      <c r="BH244">
+        <v>3</v>
+      </c>
+      <c r="BI244">
+        <v>3</v>
+      </c>
+      <c r="BJ244">
+        <v>9</v>
+      </c>
+      <c r="BK244">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:63">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>2982647</v>
+      </c>
+      <c r="C245" t="s">
+        <v>63</v>
+      </c>
+      <c r="D245" t="s">
+        <v>64</v>
+      </c>
+      <c r="E245" s="2">
+        <v>44975.41666666666</v>
+      </c>
+      <c r="F245">
+        <v>25</v>
+      </c>
+      <c r="G245" t="s">
+        <v>82</v>
+      </c>
+      <c r="H245" t="s">
+        <v>79</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>0</v>
+      </c>
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245">
+        <v>0</v>
+      </c>
+      <c r="O245" t="s">
+        <v>93</v>
+      </c>
+      <c r="P245" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q245">
+        <v>8</v>
+      </c>
+      <c r="R245">
+        <v>4</v>
+      </c>
+      <c r="S245">
+        <v>12</v>
+      </c>
+      <c r="T245">
+        <v>3.6</v>
+      </c>
+      <c r="U245">
+        <v>1.91</v>
+      </c>
+      <c r="V245">
+        <v>3.1</v>
+      </c>
+      <c r="W245">
+        <v>1.53</v>
+      </c>
+      <c r="X245">
+        <v>2.38</v>
+      </c>
+      <c r="Y245">
+        <v>3.5</v>
+      </c>
+      <c r="Z245">
+        <v>1.29</v>
+      </c>
+      <c r="AA245">
+        <v>9</v>
+      </c>
+      <c r="AB245">
+        <v>1.05</v>
+      </c>
+      <c r="AC245">
+        <v>2.75</v>
+      </c>
+      <c r="AD245">
+        <v>2.95</v>
+      </c>
+      <c r="AE245">
+        <v>2.7</v>
+      </c>
+      <c r="AF245">
+        <v>1.12</v>
+      </c>
+      <c r="AG245">
+        <v>5.5</v>
+      </c>
+      <c r="AH245">
+        <v>1.5</v>
+      </c>
+      <c r="AI245">
+        <v>2.5</v>
+      </c>
+      <c r="AJ245">
+        <v>2.52</v>
+      </c>
+      <c r="AK245">
+        <v>1.46</v>
+      </c>
+      <c r="AL245">
+        <v>2.05</v>
+      </c>
+      <c r="AM245">
+        <v>1.7</v>
+      </c>
+      <c r="AN245">
+        <v>1.44</v>
+      </c>
+      <c r="AO245">
+        <v>1.4</v>
+      </c>
+      <c r="AP245">
+        <v>1.36</v>
+      </c>
+      <c r="AQ245">
+        <v>1.33</v>
+      </c>
+      <c r="AR245">
+        <v>1.82</v>
+      </c>
+      <c r="AS245">
+        <v>1.31</v>
+      </c>
+      <c r="AT245">
+        <v>1.75</v>
+      </c>
+      <c r="AU245">
+        <v>1.31</v>
+      </c>
+      <c r="AV245">
+        <v>1.3</v>
+      </c>
+      <c r="AW245">
+        <v>2.61</v>
+      </c>
+      <c r="AX245">
+        <v>1.75</v>
+      </c>
+      <c r="AY245">
+        <v>8</v>
+      </c>
+      <c r="AZ245">
+        <v>2.52</v>
+      </c>
+      <c r="BA245">
+        <v>1.3</v>
+      </c>
+      <c r="BB245">
+        <v>1.57</v>
+      </c>
+      <c r="BC245">
+        <v>1.98</v>
+      </c>
+      <c r="BD245">
+        <v>2.7</v>
+      </c>
+      <c r="BE245">
+        <v>3.8</v>
+      </c>
+      <c r="BF245">
+        <v>8</v>
+      </c>
+      <c r="BG245">
+        <v>2</v>
+      </c>
+      <c r="BH245">
+        <v>11</v>
+      </c>
+      <c r="BI245">
+        <v>8</v>
+      </c>
+      <c r="BJ245">
+        <v>19</v>
+      </c>
+      <c r="BK245">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:63">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>2982653</v>
+      </c>
+      <c r="C246" t="s">
+        <v>63</v>
+      </c>
+      <c r="D246" t="s">
+        <v>64</v>
+      </c>
+      <c r="E246" s="2">
+        <v>44975.41666666666</v>
+      </c>
+      <c r="F246">
+        <v>25</v>
+      </c>
+      <c r="G246" t="s">
+        <v>71</v>
+      </c>
+      <c r="H246" t="s">
+        <v>67</v>
+      </c>
+      <c r="I246">
+        <v>1</v>
+      </c>
+      <c r="J246">
+        <v>1</v>
+      </c>
+      <c r="K246">
+        <v>2</v>
+      </c>
+      <c r="L246">
+        <v>1</v>
+      </c>
+      <c r="M246">
+        <v>1</v>
+      </c>
+      <c r="N246">
+        <v>2</v>
+      </c>
+      <c r="O246" t="s">
+        <v>228</v>
+      </c>
+      <c r="P246" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q246">
+        <v>7</v>
+      </c>
+      <c r="R246">
+        <v>3</v>
+      </c>
+      <c r="S246">
+        <v>10</v>
+      </c>
+      <c r="T246">
+        <v>3.58</v>
+      </c>
+      <c r="U246">
+        <v>2.06</v>
+      </c>
+      <c r="V246">
+        <v>3.12</v>
+      </c>
+      <c r="W246">
+        <v>1.4</v>
+      </c>
+      <c r="X246">
+        <v>2.75</v>
+      </c>
+      <c r="Y246">
+        <v>3</v>
+      </c>
+      <c r="Z246">
+        <v>1.36</v>
+      </c>
+      <c r="AA246">
+        <v>7</v>
+      </c>
+      <c r="AB246">
+        <v>1.08</v>
+      </c>
+      <c r="AC246">
+        <v>2.8</v>
+      </c>
+      <c r="AD246">
+        <v>3.25</v>
+      </c>
+      <c r="AE246">
+        <v>2.45</v>
+      </c>
+      <c r="AF246">
+        <v>1.07</v>
+      </c>
+      <c r="AG246">
+        <v>7.5</v>
+      </c>
+      <c r="AH246">
+        <v>1.36</v>
+      </c>
+      <c r="AI246">
+        <v>3</v>
+      </c>
+      <c r="AJ246">
+        <v>2.02</v>
+      </c>
+      <c r="AK246">
+        <v>1.75</v>
+      </c>
+      <c r="AL246">
+        <v>1.8</v>
+      </c>
+      <c r="AM246">
+        <v>1.91</v>
+      </c>
+      <c r="AN246">
+        <v>1.5</v>
+      </c>
+      <c r="AO246">
+        <v>1.33</v>
+      </c>
+      <c r="AP246">
+        <v>1.4</v>
+      </c>
+      <c r="AQ246">
+        <v>1</v>
+      </c>
+      <c r="AR246">
+        <v>0.92</v>
+      </c>
+      <c r="AS246">
+        <v>1</v>
+      </c>
+      <c r="AT246">
+        <v>0.92</v>
+      </c>
+      <c r="AU246">
+        <v>1.69</v>
+      </c>
+      <c r="AV246">
+        <v>1.48</v>
+      </c>
+      <c r="AW246">
+        <v>3.17</v>
+      </c>
+      <c r="AX246">
+        <v>1.75</v>
+      </c>
+      <c r="AY246">
+        <v>8</v>
+      </c>
+      <c r="AZ246">
+        <v>2.44</v>
+      </c>
+      <c r="BA246">
+        <v>1.21</v>
+      </c>
+      <c r="BB246">
+        <v>1.4</v>
+      </c>
+      <c r="BC246">
+        <v>1.71</v>
+      </c>
+      <c r="BD246">
+        <v>2.2</v>
+      </c>
+      <c r="BE246">
+        <v>3</v>
+      </c>
+      <c r="BF246">
+        <v>8</v>
+      </c>
+      <c r="BG246">
+        <v>6</v>
+      </c>
+      <c r="BH246">
+        <v>7</v>
+      </c>
+      <c r="BI246">
+        <v>6</v>
+      </c>
+      <c r="BJ246">
+        <v>15</v>
+      </c>
+      <c r="BK246">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="247" spans="1:63">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>2982649</v>
+      </c>
+      <c r="C247" t="s">
+        <v>63</v>
+      </c>
+      <c r="D247" t="s">
+        <v>64</v>
+      </c>
+      <c r="E247" s="2">
+        <v>44975.41666666666</v>
+      </c>
+      <c r="F247">
+        <v>25</v>
+      </c>
+      <c r="G247" t="s">
+        <v>68</v>
+      </c>
+      <c r="H247" t="s">
+        <v>83</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>1</v>
+      </c>
+      <c r="L247">
+        <v>1</v>
+      </c>
+      <c r="M247">
+        <v>1</v>
+      </c>
+      <c r="N247">
+        <v>2</v>
+      </c>
+      <c r="O247" t="s">
+        <v>102</v>
+      </c>
+      <c r="P247" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q247">
+        <v>6</v>
+      </c>
+      <c r="R247">
+        <v>1</v>
+      </c>
+      <c r="S247">
+        <v>7</v>
+      </c>
+      <c r="T247">
+        <v>3.9</v>
+      </c>
+      <c r="U247">
+        <v>2.02</v>
+      </c>
+      <c r="V247">
+        <v>2.99</v>
+      </c>
+      <c r="W247">
+        <v>1.5</v>
+      </c>
+      <c r="X247">
+        <v>2.5</v>
+      </c>
+      <c r="Y247">
+        <v>3</v>
+      </c>
+      <c r="Z247">
+        <v>1.36</v>
+      </c>
+      <c r="AA247">
+        <v>7.5</v>
+      </c>
+      <c r="AB247">
+        <v>1.07</v>
+      </c>
+      <c r="AC247">
+        <v>3.1</v>
+      </c>
+      <c r="AD247">
+        <v>3</v>
+      </c>
+      <c r="AE247">
+        <v>2.35</v>
+      </c>
+      <c r="AF247">
+        <v>1.08</v>
+      </c>
+      <c r="AG247">
+        <v>7</v>
+      </c>
+      <c r="AH247">
+        <v>1.4</v>
+      </c>
+      <c r="AI247">
+        <v>2.75</v>
+      </c>
+      <c r="AJ247">
+        <v>2.25</v>
+      </c>
+      <c r="AK247">
+        <v>1.61</v>
+      </c>
+      <c r="AL247">
+        <v>1.91</v>
+      </c>
+      <c r="AM247">
+        <v>1.8</v>
+      </c>
+      <c r="AN247">
+        <v>1.53</v>
+      </c>
+      <c r="AO247">
+        <v>1.36</v>
+      </c>
+      <c r="AP247">
+        <v>1.33</v>
+      </c>
+      <c r="AQ247">
+        <v>1.75</v>
+      </c>
+      <c r="AR247">
+        <v>1.83</v>
+      </c>
+      <c r="AS247">
+        <v>1.69</v>
+      </c>
+      <c r="AT247">
+        <v>1.77</v>
+      </c>
+      <c r="AU247">
+        <v>1.6</v>
+      </c>
+      <c r="AV247">
+        <v>1.74</v>
+      </c>
+      <c r="AW247">
+        <v>3.34</v>
+      </c>
+      <c r="AX247">
+        <v>2.1</v>
+      </c>
+      <c r="AY247">
+        <v>8</v>
+      </c>
+      <c r="AZ247">
+        <v>1.95</v>
+      </c>
+      <c r="BA247">
+        <v>1.21</v>
+      </c>
+      <c r="BB247">
+        <v>1.4</v>
+      </c>
+      <c r="BC247">
+        <v>1.71</v>
+      </c>
+      <c r="BD247">
+        <v>2.2</v>
+      </c>
+      <c r="BE247">
+        <v>3</v>
+      </c>
+      <c r="BF247">
+        <v>6</v>
+      </c>
+      <c r="BG247">
+        <v>7</v>
+      </c>
+      <c r="BH247">
+        <v>5</v>
+      </c>
+      <c r="BI247">
+        <v>7</v>
+      </c>
+      <c r="BJ247">
+        <v>11</v>
+      </c>
+      <c r="BK247">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="248" spans="1:63">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>2982650</v>
+      </c>
+      <c r="C248" t="s">
+        <v>63</v>
+      </c>
+      <c r="D248" t="s">
+        <v>64</v>
+      </c>
+      <c r="E248" s="2">
+        <v>44975.41666666666</v>
+      </c>
+      <c r="F248">
+        <v>25</v>
+      </c>
+      <c r="G248" t="s">
+        <v>65</v>
+      </c>
+      <c r="H248" t="s">
+        <v>69</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>0</v>
+      </c>
+      <c r="M248">
+        <v>1</v>
+      </c>
+      <c r="N248">
+        <v>1</v>
+      </c>
+      <c r="O248" t="s">
+        <v>93</v>
+      </c>
+      <c r="P248" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q248">
+        <v>6</v>
+      </c>
+      <c r="R248">
+        <v>1</v>
+      </c>
+      <c r="S248">
+        <v>7</v>
+      </c>
+      <c r="T248">
+        <v>2.45</v>
+      </c>
+      <c r="U248">
+        <v>2.05</v>
+      </c>
+      <c r="V248">
+        <v>4.33</v>
+      </c>
+      <c r="W248">
+        <v>1.44</v>
+      </c>
+      <c r="X248">
+        <v>2.62</v>
+      </c>
+      <c r="Y248">
+        <v>3</v>
+      </c>
+      <c r="Z248">
+        <v>1.36</v>
+      </c>
+      <c r="AA248">
+        <v>7</v>
+      </c>
+      <c r="AB248">
+        <v>1.08</v>
+      </c>
+      <c r="AC248">
+        <v>1.72</v>
+      </c>
+      <c r="AD248">
+        <v>3.35</v>
+      </c>
+      <c r="AE248">
+        <v>5</v>
+      </c>
+      <c r="AF248">
+        <v>1.08</v>
+      </c>
+      <c r="AG248">
+        <v>7</v>
+      </c>
+      <c r="AH248">
+        <v>1.36</v>
+      </c>
+      <c r="AI248">
+        <v>3</v>
+      </c>
+      <c r="AJ248">
+        <v>2.08</v>
+      </c>
+      <c r="AK248">
+        <v>1.7</v>
+      </c>
+      <c r="AL248">
+        <v>2</v>
+      </c>
+      <c r="AM248">
+        <v>1.73</v>
+      </c>
+      <c r="AN248">
+        <v>1.17</v>
+      </c>
+      <c r="AO248">
+        <v>1.3</v>
+      </c>
+      <c r="AP248">
+        <v>2</v>
+      </c>
+      <c r="AQ248">
+        <v>1.83</v>
+      </c>
+      <c r="AR248">
+        <v>1.33</v>
+      </c>
+      <c r="AS248">
+        <v>1.69</v>
+      </c>
+      <c r="AT248">
+        <v>1.46</v>
+      </c>
+      <c r="AU248">
+        <v>1.72</v>
+      </c>
+      <c r="AV248">
+        <v>1.35</v>
+      </c>
+      <c r="AW248">
+        <v>3.07</v>
+      </c>
+      <c r="AX248">
+        <v>1.45</v>
+      </c>
+      <c r="AY248">
+        <v>9</v>
+      </c>
+      <c r="AZ248">
+        <v>3.3</v>
+      </c>
+      <c r="BA248">
+        <v>1.17</v>
+      </c>
+      <c r="BB248">
+        <v>1.34</v>
+      </c>
+      <c r="BC248">
+        <v>1.61</v>
+      </c>
+      <c r="BD248">
+        <v>2.05</v>
+      </c>
+      <c r="BE248">
+        <v>2.75</v>
+      </c>
+      <c r="BF248">
+        <v>3</v>
+      </c>
+      <c r="BG248">
+        <v>3</v>
+      </c>
+      <c r="BH248">
+        <v>6</v>
+      </c>
+      <c r="BI248">
+        <v>2</v>
+      </c>
+      <c r="BJ248">
+        <v>9</v>
+      </c>
+      <c r="BK248">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:63">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>2982644</v>
+      </c>
+      <c r="C249" t="s">
+        <v>63</v>
+      </c>
+      <c r="D249" t="s">
+        <v>64</v>
+      </c>
+      <c r="E249" s="2">
+        <v>44975.51041666666</v>
+      </c>
+      <c r="F249">
+        <v>25</v>
+      </c>
+      <c r="G249" t="s">
+        <v>75</v>
+      </c>
+      <c r="H249" t="s">
+        <v>81</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>1</v>
+      </c>
+      <c r="K249">
+        <v>1</v>
+      </c>
+      <c r="L249">
+        <v>1</v>
+      </c>
+      <c r="M249">
+        <v>1</v>
+      </c>
+      <c r="N249">
+        <v>2</v>
+      </c>
+      <c r="O249" t="s">
+        <v>229</v>
+      </c>
+      <c r="P249" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q249">
+        <v>4</v>
+      </c>
+      <c r="R249">
+        <v>3</v>
+      </c>
+      <c r="S249">
+        <v>7</v>
+      </c>
+      <c r="T249">
+        <v>2.8</v>
+      </c>
+      <c r="U249">
+        <v>2</v>
+      </c>
+      <c r="V249">
+        <v>3.7</v>
+      </c>
+      <c r="W249">
+        <v>1.44</v>
+      </c>
+      <c r="X249">
+        <v>2.62</v>
+      </c>
+      <c r="Y249">
+        <v>3</v>
+      </c>
+      <c r="Z249">
+        <v>1.36</v>
+      </c>
+      <c r="AA249">
+        <v>7.5</v>
+      </c>
+      <c r="AB249">
+        <v>1.07</v>
+      </c>
+      <c r="AC249">
+        <v>2.2</v>
+      </c>
+      <c r="AD249">
+        <v>3.15</v>
+      </c>
+      <c r="AE249">
+        <v>3.25</v>
+      </c>
+      <c r="AF249">
+        <v>1.07</v>
+      </c>
+      <c r="AG249">
+        <v>7.5</v>
+      </c>
+      <c r="AH249">
+        <v>1.36</v>
+      </c>
+      <c r="AI249">
+        <v>3</v>
+      </c>
+      <c r="AJ249">
+        <v>2.12</v>
+      </c>
+      <c r="AK249">
+        <v>1.67</v>
+      </c>
+      <c r="AL249">
+        <v>1.85</v>
+      </c>
+      <c r="AM249">
+        <v>1.85</v>
+      </c>
+      <c r="AN249">
+        <v>1.3</v>
+      </c>
+      <c r="AO249">
+        <v>1.33</v>
+      </c>
+      <c r="AP249">
+        <v>1.65</v>
+      </c>
+      <c r="AQ249">
+        <v>1.42</v>
+      </c>
+      <c r="AR249">
+        <v>0.73</v>
+      </c>
+      <c r="AS249">
+        <v>1.38</v>
+      </c>
+      <c r="AT249">
+        <v>0.75</v>
+      </c>
+      <c r="AU249">
+        <v>1.82</v>
+      </c>
+      <c r="AV249">
+        <v>1.5</v>
+      </c>
+      <c r="AW249">
+        <v>3.32</v>
+      </c>
+      <c r="AX249">
+        <v>1.95</v>
+      </c>
+      <c r="AY249">
+        <v>8</v>
+      </c>
+      <c r="AZ249">
+        <v>2.05</v>
+      </c>
+      <c r="BA249">
+        <v>1.21</v>
+      </c>
+      <c r="BB249">
+        <v>1.4</v>
+      </c>
+      <c r="BC249">
+        <v>1.71</v>
+      </c>
+      <c r="BD249">
+        <v>2.2</v>
+      </c>
+      <c r="BE249">
+        <v>3</v>
+      </c>
+      <c r="BF249">
+        <v>3</v>
+      </c>
+      <c r="BG249">
+        <v>2</v>
+      </c>
+      <c r="BH249">
+        <v>5</v>
+      </c>
+      <c r="BI249">
+        <v>1</v>
+      </c>
+      <c r="BJ249">
+        <v>8</v>
+      </c>
+      <c r="BK249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:63">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>2982651</v>
+      </c>
+      <c r="C250" t="s">
+        <v>63</v>
+      </c>
+      <c r="D250" t="s">
+        <v>64</v>
+      </c>
+      <c r="E250" s="2">
+        <v>44975.51041666666</v>
+      </c>
+      <c r="F250">
+        <v>25</v>
+      </c>
+      <c r="G250" t="s">
+        <v>77</v>
+      </c>
+      <c r="H250" t="s">
+        <v>78</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+      <c r="L250">
+        <v>3</v>
+      </c>
+      <c r="M250">
+        <v>0</v>
+      </c>
+      <c r="N250">
+        <v>3</v>
+      </c>
+      <c r="O250" t="s">
+        <v>230</v>
+      </c>
+      <c r="P250" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q250">
+        <v>4</v>
+      </c>
+      <c r="R250">
+        <v>6</v>
+      </c>
+      <c r="S250">
+        <v>10</v>
+      </c>
+      <c r="T250">
+        <v>2.8</v>
+      </c>
+      <c r="U250">
+        <v>2</v>
+      </c>
+      <c r="V250">
+        <v>3.7</v>
+      </c>
+      <c r="W250">
+        <v>1.44</v>
+      </c>
+      <c r="X250">
+        <v>2.62</v>
+      </c>
+      <c r="Y250">
+        <v>3</v>
+      </c>
+      <c r="Z250">
+        <v>1.36</v>
+      </c>
+      <c r="AA250">
+        <v>7.5</v>
+      </c>
+      <c r="AB250">
+        <v>1.07</v>
+      </c>
+      <c r="AC250">
+        <v>2.07</v>
+      </c>
+      <c r="AD250">
+        <v>3.2</v>
+      </c>
+      <c r="AE250">
+        <v>3.6</v>
+      </c>
+      <c r="AF250">
+        <v>1.07</v>
+      </c>
+      <c r="AG250">
+        <v>7.5</v>
+      </c>
+      <c r="AH250">
+        <v>1.36</v>
+      </c>
+      <c r="AI250">
+        <v>3</v>
+      </c>
+      <c r="AJ250">
+        <v>2.05</v>
+      </c>
+      <c r="AK250">
+        <v>1.73</v>
+      </c>
+      <c r="AL250">
+        <v>1.85</v>
+      </c>
+      <c r="AM250">
+        <v>1.85</v>
+      </c>
+      <c r="AN250">
+        <v>1.25</v>
+      </c>
+      <c r="AO250">
+        <v>1.33</v>
+      </c>
+      <c r="AP250">
+        <v>1.73</v>
+      </c>
+      <c r="AQ250">
+        <v>1.36</v>
+      </c>
+      <c r="AR250">
+        <v>1</v>
+      </c>
+      <c r="AS250">
+        <v>1.5</v>
+      </c>
+      <c r="AT250">
+        <v>0.92</v>
+      </c>
+      <c r="AU250">
+        <v>1.65</v>
+      </c>
+      <c r="AV250">
+        <v>1.49</v>
+      </c>
+      <c r="AW250">
+        <v>3.14</v>
+      </c>
+      <c r="AX250">
+        <v>1.51</v>
+      </c>
+      <c r="AY250">
+        <v>8.5</v>
+      </c>
+      <c r="AZ250">
+        <v>3.07</v>
+      </c>
+      <c r="BA250">
+        <v>1.15</v>
+      </c>
+      <c r="BB250">
+        <v>1.32</v>
+      </c>
+      <c r="BC250">
+        <v>1.57</v>
+      </c>
+      <c r="BD250">
+        <v>1.98</v>
+      </c>
+      <c r="BE250">
+        <v>2.65</v>
+      </c>
+      <c r="BF250">
+        <v>11</v>
+      </c>
+      <c r="BG250">
+        <v>2</v>
+      </c>
+      <c r="BH250">
+        <v>5</v>
+      </c>
+      <c r="BI250">
+        <v>2</v>
+      </c>
+      <c r="BJ250">
+        <v>16</v>
+      </c>
+      <c r="BK250">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:63">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>2982648</v>
+      </c>
+      <c r="C251" t="s">
+        <v>63</v>
+      </c>
+      <c r="D251" t="s">
+        <v>64</v>
+      </c>
+      <c r="E251" s="2">
+        <v>44976.51041666666</v>
+      </c>
+      <c r="F251">
+        <v>25</v>
+      </c>
+      <c r="G251" t="s">
+        <v>74</v>
+      </c>
+      <c r="H251" t="s">
+        <v>76</v>
+      </c>
+      <c r="I251">
+        <v>1</v>
+      </c>
+      <c r="J251">
+        <v>1</v>
+      </c>
+      <c r="K251">
+        <v>2</v>
+      </c>
+      <c r="L251">
+        <v>2</v>
+      </c>
+      <c r="M251">
+        <v>2</v>
+      </c>
+      <c r="N251">
+        <v>4</v>
+      </c>
+      <c r="O251" t="s">
+        <v>231</v>
+      </c>
+      <c r="P251" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q251">
+        <v>6</v>
+      </c>
+      <c r="R251">
+        <v>6</v>
+      </c>
+      <c r="S251">
+        <v>12</v>
+      </c>
+      <c r="T251">
+        <v>4</v>
+      </c>
+      <c r="U251">
+        <v>2</v>
+      </c>
+      <c r="V251">
+        <v>3</v>
+      </c>
+      <c r="W251">
+        <v>1.5</v>
+      </c>
+      <c r="X251">
+        <v>2.5</v>
+      </c>
+      <c r="Y251">
+        <v>3.4</v>
+      </c>
+      <c r="Z251">
+        <v>1.3</v>
+      </c>
+      <c r="AA251">
+        <v>10</v>
+      </c>
+      <c r="AB251">
+        <v>1.06</v>
+      </c>
+      <c r="AC251">
+        <v>3.05</v>
+      </c>
+      <c r="AD251">
+        <v>3.1</v>
+      </c>
+      <c r="AE251">
+        <v>2.32</v>
+      </c>
+      <c r="AF251">
+        <v>1.05</v>
+      </c>
+      <c r="AG251">
+        <v>7.2</v>
+      </c>
+      <c r="AH251">
+        <v>1.4</v>
+      </c>
+      <c r="AI251">
+        <v>2.68</v>
+      </c>
+      <c r="AJ251">
+        <v>2.28</v>
+      </c>
+      <c r="AK251">
+        <v>1.6</v>
+      </c>
+      <c r="AL251">
+        <v>1.95</v>
+      </c>
+      <c r="AM251">
+        <v>1.8</v>
+      </c>
+      <c r="AN251">
+        <v>1.6</v>
+      </c>
+      <c r="AO251">
+        <v>1.34</v>
+      </c>
+      <c r="AP251">
+        <v>1.36</v>
+      </c>
+      <c r="AQ251">
+        <v>1.64</v>
+      </c>
+      <c r="AR251">
+        <v>1.83</v>
+      </c>
+      <c r="AS251">
+        <v>1.58</v>
+      </c>
+      <c r="AT251">
+        <v>1.77</v>
+      </c>
+      <c r="AU251">
+        <v>1.66</v>
+      </c>
+      <c r="AV251">
+        <v>1.58</v>
+      </c>
+      <c r="AW251">
+        <v>3.24</v>
+      </c>
+      <c r="AX251">
+        <v>2.2</v>
+      </c>
+      <c r="AY251">
+        <v>8</v>
+      </c>
+      <c r="AZ251">
+        <v>1.91</v>
+      </c>
+      <c r="BA251">
+        <v>1.25</v>
+      </c>
+      <c r="BB251">
+        <v>1.47</v>
+      </c>
+      <c r="BC251">
+        <v>1.88</v>
+      </c>
+      <c r="BD251">
+        <v>2.45</v>
+      </c>
+      <c r="BE251">
+        <v>3</v>
+      </c>
+      <c r="BF251">
+        <v>2</v>
+      </c>
+      <c r="BG251">
+        <v>5</v>
+      </c>
+      <c r="BH251">
+        <v>3</v>
+      </c>
+      <c r="BI251">
+        <v>10</v>
+      </c>
+      <c r="BJ251">
+        <v>5</v>
+      </c>
+      <c r="BK251">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="327">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -712,6 +712,12 @@
     <t>['33', '55']</t>
   </si>
   <si>
+    <t>['25', '48', '71']</t>
+  </si>
+  <si>
+    <t>['51', '58']</t>
+  </si>
+  <si>
     <t>['11', '35']</t>
   </si>
   <si>
@@ -986,6 +992,9 @@
   </si>
   <si>
     <t>['6', '85']</t>
+  </si>
+  <si>
+    <t>['6', '21', '35', '73']</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK251"/>
+  <dimension ref="A1:BK253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1591,7 +1600,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1782,7 +1791,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2254,7 +2263,7 @@
         <v>1.69</v>
       </c>
       <c r="AT5">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2546,7 +2555,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2737,7 +2746,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q8">
         <v>8</v>
@@ -4164,7 +4173,7 @@
         <v>1.5</v>
       </c>
       <c r="AT15">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4456,7 +4465,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -4647,7 +4656,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q18">
         <v>8</v>
@@ -4734,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT18">
         <v>0.92</v>
@@ -5307,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AT21">
         <v>0.75</v>
@@ -5411,7 +5420,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q22">
         <v>12</v>
@@ -6262,7 +6271,7 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT26">
         <v>1.77</v>
@@ -6366,7 +6375,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q27">
         <v>9</v>
@@ -6748,7 +6757,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7703,7 +7712,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7894,7 +7903,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7984,7 +7993,7 @@
         <v>1.23</v>
       </c>
       <c r="AT35">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU35">
         <v>1.41</v>
@@ -8172,7 +8181,7 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AT36">
         <v>0.92</v>
@@ -8467,7 +8476,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8658,7 +8667,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8849,7 +8858,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8939,7 +8948,7 @@
         <v>1.75</v>
       </c>
       <c r="AT40">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU40">
         <v>1.92</v>
@@ -9040,7 +9049,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9509,7 +9518,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT43">
         <v>1.46</v>
@@ -9804,7 +9813,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10186,7 +10195,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q47">
         <v>7</v>
@@ -10377,7 +10386,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10568,7 +10577,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q49">
         <v>10</v>
@@ -11332,7 +11341,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11422,7 +11431,7 @@
         <v>1.08</v>
       </c>
       <c r="AT53">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU53">
         <v>1.34</v>
@@ -11523,7 +11532,7 @@
         <v>93</v>
       </c>
       <c r="P54" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11714,7 +11723,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q55">
         <v>4</v>
@@ -11992,7 +12001,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AT56">
         <v>1.08</v>
@@ -12478,7 +12487,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12950,7 +12959,7 @@
         <v>1.83</v>
       </c>
       <c r="AT61">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU61">
         <v>1.36</v>
@@ -13433,7 +13442,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13624,7 +13633,7 @@
         <v>93</v>
       </c>
       <c r="P65" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13815,7 +13824,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -14006,7 +14015,7 @@
         <v>93</v>
       </c>
       <c r="P67" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14579,7 +14588,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -15152,7 +15161,7 @@
         <v>106</v>
       </c>
       <c r="P73" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15343,7 +15352,7 @@
         <v>95</v>
       </c>
       <c r="P74" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15812,10 +15821,10 @@
         <v>1.67</v>
       </c>
       <c r="AS76">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT76">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU76">
         <v>1.66</v>
@@ -16194,7 +16203,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AT78">
         <v>1</v>
@@ -16579,7 +16588,7 @@
         <v>1.33</v>
       </c>
       <c r="AT80">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU80">
         <v>1.64</v>
@@ -16680,7 +16689,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16871,7 +16880,7 @@
         <v>120</v>
       </c>
       <c r="P82" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17062,7 +17071,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17253,7 +17262,7 @@
         <v>142</v>
       </c>
       <c r="P84" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17635,7 +17644,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18017,7 +18026,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -18399,7 +18408,7 @@
         <v>93</v>
       </c>
       <c r="P90" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18590,7 +18599,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -19062,7 +19071,7 @@
         <v>1.46</v>
       </c>
       <c r="AT93">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU93">
         <v>1.44</v>
@@ -19163,7 +19172,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q94">
         <v>9</v>
@@ -19253,7 +19262,7 @@
         <v>1.67</v>
       </c>
       <c r="AT94">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU94">
         <v>1.74</v>
@@ -19354,7 +19363,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19823,7 +19832,7 @@
         <v>2.6</v>
       </c>
       <c r="AS97">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AT97">
         <v>1.83</v>
@@ -19927,7 +19936,7 @@
         <v>124</v>
       </c>
       <c r="P98" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -20309,7 +20318,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20396,7 +20405,7 @@
         <v>0.75</v>
       </c>
       <c r="AS100">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT100">
         <v>1.23</v>
@@ -20882,7 +20891,7 @@
         <v>93</v>
       </c>
       <c r="P103" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -21646,7 +21655,7 @@
         <v>155</v>
       </c>
       <c r="P107" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -22219,7 +22228,7 @@
         <v>150</v>
       </c>
       <c r="P110" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22410,7 +22419,7 @@
         <v>93</v>
       </c>
       <c r="P111" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q111">
         <v>2</v>
@@ -22601,7 +22610,7 @@
         <v>157</v>
       </c>
       <c r="P112" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q112">
         <v>1</v>
@@ -23070,7 +23079,7 @@
         <v>0.83</v>
       </c>
       <c r="AS114">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT114">
         <v>0.5</v>
@@ -23556,7 +23565,7 @@
         <v>102</v>
       </c>
       <c r="P117" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23834,10 +23843,10 @@
         <v>0.6</v>
       </c>
       <c r="AS118">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AT118">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU118">
         <v>2.05</v>
@@ -24028,7 +24037,7 @@
         <v>1.69</v>
       </c>
       <c r="AT119">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU119">
         <v>1.7</v>
@@ -24702,7 +24711,7 @@
         <v>162</v>
       </c>
       <c r="P123" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24893,7 +24902,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q124">
         <v>1</v>
@@ -25365,7 +25374,7 @@
         <v>1.58</v>
       </c>
       <c r="AT126">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU126">
         <v>1.67</v>
@@ -25657,7 +25666,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25848,7 +25857,7 @@
         <v>167</v>
       </c>
       <c r="P129" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q129">
         <v>10</v>
@@ -26421,7 +26430,7 @@
         <v>168</v>
       </c>
       <c r="P132" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -26699,7 +26708,7 @@
         <v>1.67</v>
       </c>
       <c r="AS133">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT133">
         <v>0.92</v>
@@ -26803,7 +26812,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26994,7 +27003,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27081,7 +27090,7 @@
         <v>1</v>
       </c>
       <c r="AS135">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AT135">
         <v>0.75</v>
@@ -27758,7 +27767,7 @@
         <v>128</v>
       </c>
       <c r="P139" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -27949,7 +27958,7 @@
         <v>175</v>
       </c>
       <c r="P140" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q140">
         <v>1</v>
@@ -28612,7 +28621,7 @@
         <v>2.08</v>
       </c>
       <c r="AT143">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU143">
         <v>1.77</v>
@@ -28713,7 +28722,7 @@
         <v>177</v>
       </c>
       <c r="P144" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q144">
         <v>2</v>
@@ -28904,7 +28913,7 @@
         <v>178</v>
       </c>
       <c r="P145" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29286,7 +29295,7 @@
         <v>93</v>
       </c>
       <c r="P147" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29567,7 +29576,7 @@
         <v>1.31</v>
       </c>
       <c r="AT148">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU148">
         <v>1.1</v>
@@ -29668,7 +29677,7 @@
         <v>93</v>
       </c>
       <c r="P149" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q149">
         <v>11</v>
@@ -30814,7 +30823,7 @@
         <v>93</v>
       </c>
       <c r="P155" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -31387,7 +31396,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q158">
         <v>7</v>
@@ -31578,7 +31587,7 @@
         <v>182</v>
       </c>
       <c r="P159" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -31856,7 +31865,7 @@
         <v>1.71</v>
       </c>
       <c r="AS160">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT160">
         <v>1.46</v>
@@ -32151,7 +32160,7 @@
         <v>184</v>
       </c>
       <c r="P162" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q162">
         <v>7</v>
@@ -32241,7 +32250,7 @@
         <v>2.08</v>
       </c>
       <c r="AT162">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU162">
         <v>1.71</v>
@@ -32533,7 +32542,7 @@
         <v>162</v>
       </c>
       <c r="P164" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q164">
         <v>4</v>
@@ -32724,7 +32733,7 @@
         <v>93</v>
       </c>
       <c r="P165" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -33766,7 +33775,7 @@
         <v>1</v>
       </c>
       <c r="AS170">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AT170">
         <v>1.31</v>
@@ -33870,7 +33879,7 @@
         <v>93</v>
       </c>
       <c r="P171" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q171">
         <v>6</v>
@@ -33960,7 +33969,7 @@
         <v>1.23</v>
       </c>
       <c r="AT171">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU171">
         <v>1.41</v>
@@ -34148,7 +34157,7 @@
         <v>1.13</v>
       </c>
       <c r="AS172">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT172">
         <v>0.75</v>
@@ -34443,7 +34452,7 @@
         <v>93</v>
       </c>
       <c r="P174" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q174">
         <v>9</v>
@@ -34634,7 +34643,7 @@
         <v>93</v>
       </c>
       <c r="P175" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q175">
         <v>8</v>
@@ -34825,7 +34834,7 @@
         <v>122</v>
       </c>
       <c r="P176" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -35780,7 +35789,7 @@
         <v>188</v>
       </c>
       <c r="P181" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q181">
         <v>9</v>
@@ -35971,7 +35980,7 @@
         <v>147</v>
       </c>
       <c r="P182" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q182">
         <v>2</v>
@@ -36353,7 +36362,7 @@
         <v>93</v>
       </c>
       <c r="P184" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36735,7 +36744,7 @@
         <v>190</v>
       </c>
       <c r="P186" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q186">
         <v>2</v>
@@ -36825,7 +36834,7 @@
         <v>0.92</v>
       </c>
       <c r="AT186">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU186">
         <v>1.56</v>
@@ -36926,7 +36935,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q187">
         <v>10</v>
@@ -37016,7 +37025,7 @@
         <v>0.92</v>
       </c>
       <c r="AT187">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU187">
         <v>1.41</v>
@@ -37586,7 +37595,7 @@
         <v>1.22</v>
       </c>
       <c r="AS190">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AT190">
         <v>0.92</v>
@@ -37690,7 +37699,7 @@
         <v>193</v>
       </c>
       <c r="P191" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q191">
         <v>6</v>
@@ -38072,7 +38081,7 @@
         <v>96</v>
       </c>
       <c r="P193" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q193">
         <v>9</v>
@@ -38159,7 +38168,7 @@
         <v>0.9</v>
       </c>
       <c r="AS193">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT193">
         <v>1</v>
@@ -38263,7 +38272,7 @@
         <v>194</v>
       </c>
       <c r="P194" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q194">
         <v>4</v>
@@ -38735,7 +38744,7 @@
         <v>1.38</v>
       </c>
       <c r="AT196">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU196">
         <v>1.89</v>
@@ -38836,7 +38845,7 @@
         <v>197</v>
       </c>
       <c r="P197" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q197">
         <v>7</v>
@@ -38923,7 +38932,7 @@
         <v>1.3</v>
       </c>
       <c r="AS197">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AT197">
         <v>1.23</v>
@@ -39982,7 +39991,7 @@
         <v>203</v>
       </c>
       <c r="P203" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -40555,7 +40564,7 @@
         <v>206</v>
       </c>
       <c r="P206" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q206">
         <v>4</v>
@@ -41027,7 +41036,7 @@
         <v>1.69</v>
       </c>
       <c r="AT208">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU208">
         <v>1.8</v>
@@ -41510,7 +41519,7 @@
         <v>119</v>
       </c>
       <c r="P211" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q211">
         <v>5</v>
@@ -41892,7 +41901,7 @@
         <v>93</v>
       </c>
       <c r="P213" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q213">
         <v>3</v>
@@ -41982,7 +41991,7 @@
         <v>1.38</v>
       </c>
       <c r="AT213">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU213">
         <v>1.87</v>
@@ -42364,7 +42373,7 @@
         <v>1.31</v>
       </c>
       <c r="AT215">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU215">
         <v>1.3</v>
@@ -42656,7 +42665,7 @@
         <v>211</v>
       </c>
       <c r="P217" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q217">
         <v>5</v>
@@ -43229,7 +43238,7 @@
         <v>212</v>
       </c>
       <c r="P220" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q220">
         <v>12</v>
@@ -43507,7 +43516,7 @@
         <v>1.4</v>
       </c>
       <c r="AS221">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AT221">
         <v>1.17</v>
@@ -43802,7 +43811,7 @@
         <v>215</v>
       </c>
       <c r="P223" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q223">
         <v>7</v>
@@ -43993,7 +44002,7 @@
         <v>93</v>
       </c>
       <c r="P224" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q224">
         <v>6</v>
@@ -44080,7 +44089,7 @@
         <v>1.7</v>
       </c>
       <c r="AS224">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT224">
         <v>1.75</v>
@@ -44375,7 +44384,7 @@
         <v>217</v>
       </c>
       <c r="P226" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q226">
         <v>7</v>
@@ -44948,7 +44957,7 @@
         <v>93</v>
       </c>
       <c r="P229" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -45712,7 +45721,7 @@
         <v>93</v>
       </c>
       <c r="P233" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q233">
         <v>11</v>
@@ -45903,7 +45912,7 @@
         <v>222</v>
       </c>
       <c r="P234" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q234">
         <v>4</v>
@@ -46094,7 +46103,7 @@
         <v>223</v>
       </c>
       <c r="P235" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q235">
         <v>3</v>
@@ -46754,7 +46763,7 @@
         <v>1.08</v>
       </c>
       <c r="AS238">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AT238">
         <v>1</v>
@@ -46858,7 +46867,7 @@
         <v>154</v>
       </c>
       <c r="P239" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q239">
         <v>5</v>
@@ -46948,7 +46957,7 @@
         <v>1.83</v>
       </c>
       <c r="AT239">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AU239">
         <v>1.59</v>
@@ -47139,7 +47148,7 @@
         <v>1.08</v>
       </c>
       <c r="AT240">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU240">
         <v>1.42</v>
@@ -47518,7 +47527,7 @@
         <v>1.36</v>
       </c>
       <c r="AS242">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT242">
         <v>1.33</v>
@@ -47813,7 +47822,7 @@
         <v>227</v>
       </c>
       <c r="P244" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q244">
         <v>8</v>
@@ -48386,7 +48395,7 @@
         <v>102</v>
       </c>
       <c r="P247" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q247">
         <v>6</v>
@@ -48577,7 +48586,7 @@
         <v>93</v>
       </c>
       <c r="P248" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q248">
         <v>6</v>
@@ -49150,7 +49159,7 @@
         <v>231</v>
       </c>
       <c r="P251" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q251">
         <v>6</v>
@@ -49292,6 +49301,388 @@
       </c>
       <c r="BK251">
         <v>15</v>
+      </c>
+    </row>
+    <row r="252" spans="1:63">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>2982657</v>
+      </c>
+      <c r="C252" t="s">
+        <v>63</v>
+      </c>
+      <c r="D252" t="s">
+        <v>64</v>
+      </c>
+      <c r="E252" s="2">
+        <v>44981.6875</v>
+      </c>
+      <c r="F252">
+        <v>26</v>
+      </c>
+      <c r="G252" t="s">
+        <v>83</v>
+      </c>
+      <c r="H252" t="s">
+        <v>65</v>
+      </c>
+      <c r="I252">
+        <v>1</v>
+      </c>
+      <c r="J252">
+        <v>3</v>
+      </c>
+      <c r="K252">
+        <v>4</v>
+      </c>
+      <c r="L252">
+        <v>3</v>
+      </c>
+      <c r="M252">
+        <v>4</v>
+      </c>
+      <c r="N252">
+        <v>7</v>
+      </c>
+      <c r="O252" t="s">
+        <v>232</v>
+      </c>
+      <c r="P252" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q252">
+        <v>4</v>
+      </c>
+      <c r="R252">
+        <v>1</v>
+      </c>
+      <c r="S252">
+        <v>5</v>
+      </c>
+      <c r="T252">
+        <v>2.7</v>
+      </c>
+      <c r="U252">
+        <v>2</v>
+      </c>
+      <c r="V252">
+        <v>4</v>
+      </c>
+      <c r="W252">
+        <v>1.44</v>
+      </c>
+      <c r="X252">
+        <v>2.62</v>
+      </c>
+      <c r="Y252">
+        <v>3</v>
+      </c>
+      <c r="Z252">
+        <v>1.36</v>
+      </c>
+      <c r="AA252">
+        <v>7.5</v>
+      </c>
+      <c r="AB252">
+        <v>1.07</v>
+      </c>
+      <c r="AC252">
+        <v>2.05</v>
+      </c>
+      <c r="AD252">
+        <v>2.85</v>
+      </c>
+      <c r="AE252">
+        <v>3.45</v>
+      </c>
+      <c r="AF252">
+        <v>1.08</v>
+      </c>
+      <c r="AG252">
+        <v>7</v>
+      </c>
+      <c r="AH252">
+        <v>1.4</v>
+      </c>
+      <c r="AI252">
+        <v>2.75</v>
+      </c>
+      <c r="AJ252">
+        <v>2.25</v>
+      </c>
+      <c r="AK252">
+        <v>1.62</v>
+      </c>
+      <c r="AL252">
+        <v>1.91</v>
+      </c>
+      <c r="AM252">
+        <v>1.8</v>
+      </c>
+      <c r="AN252">
+        <v>1.29</v>
+      </c>
+      <c r="AO252">
+        <v>1.33</v>
+      </c>
+      <c r="AP252">
+        <v>1.67</v>
+      </c>
+      <c r="AQ252">
+        <v>2.67</v>
+      </c>
+      <c r="AR252">
+        <v>1</v>
+      </c>
+      <c r="AS252">
+        <v>2.46</v>
+      </c>
+      <c r="AT252">
+        <v>1.15</v>
+      </c>
+      <c r="AU252">
+        <v>1.81</v>
+      </c>
+      <c r="AV252">
+        <v>1.81</v>
+      </c>
+      <c r="AW252">
+        <v>3.62</v>
+      </c>
+      <c r="AX252">
+        <v>1.75</v>
+      </c>
+      <c r="AY252">
+        <v>8</v>
+      </c>
+      <c r="AZ252">
+        <v>2.42</v>
+      </c>
+      <c r="BA252">
+        <v>1.2</v>
+      </c>
+      <c r="BB252">
+        <v>1.39</v>
+      </c>
+      <c r="BC252">
+        <v>1.7</v>
+      </c>
+      <c r="BD252">
+        <v>2.2</v>
+      </c>
+      <c r="BE252">
+        <v>2.95</v>
+      </c>
+      <c r="BF252">
+        <v>6</v>
+      </c>
+      <c r="BG252">
+        <v>6</v>
+      </c>
+      <c r="BH252">
+        <v>14</v>
+      </c>
+      <c r="BI252">
+        <v>1</v>
+      </c>
+      <c r="BJ252">
+        <v>20</v>
+      </c>
+      <c r="BK252">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:63">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>2982659</v>
+      </c>
+      <c r="C253" t="s">
+        <v>63</v>
+      </c>
+      <c r="D253" t="s">
+        <v>64</v>
+      </c>
+      <c r="E253" s="2">
+        <v>44981.6875</v>
+      </c>
+      <c r="F253">
+        <v>26</v>
+      </c>
+      <c r="G253" t="s">
+        <v>80</v>
+      </c>
+      <c r="H253" t="s">
+        <v>77</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>1</v>
+      </c>
+      <c r="K253">
+        <v>1</v>
+      </c>
+      <c r="L253">
+        <v>2</v>
+      </c>
+      <c r="M253">
+        <v>1</v>
+      </c>
+      <c r="N253">
+        <v>3</v>
+      </c>
+      <c r="O253" t="s">
+        <v>233</v>
+      </c>
+      <c r="P253" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q253">
+        <v>6</v>
+      </c>
+      <c r="R253">
+        <v>3</v>
+      </c>
+      <c r="S253">
+        <v>9</v>
+      </c>
+      <c r="T253">
+        <v>2.7</v>
+      </c>
+      <c r="U253">
+        <v>2</v>
+      </c>
+      <c r="V253">
+        <v>4</v>
+      </c>
+      <c r="W253">
+        <v>1.44</v>
+      </c>
+      <c r="X253">
+        <v>2.62</v>
+      </c>
+      <c r="Y253">
+        <v>3</v>
+      </c>
+      <c r="Z253">
+        <v>1.36</v>
+      </c>
+      <c r="AA253">
+        <v>8</v>
+      </c>
+      <c r="AB253">
+        <v>1.06</v>
+      </c>
+      <c r="AC253">
+        <v>2.05</v>
+      </c>
+      <c r="AD253">
+        <v>3.05</v>
+      </c>
+      <c r="AE253">
+        <v>3.15</v>
+      </c>
+      <c r="AF253">
+        <v>1.1</v>
+      </c>
+      <c r="AG253">
+        <v>6.5</v>
+      </c>
+      <c r="AH253">
+        <v>1.4</v>
+      </c>
+      <c r="AI253">
+        <v>2.75</v>
+      </c>
+      <c r="AJ253">
+        <v>2.25</v>
+      </c>
+      <c r="AK253">
+        <v>1.62</v>
+      </c>
+      <c r="AL253">
+        <v>2</v>
+      </c>
+      <c r="AM253">
+        <v>1.73</v>
+      </c>
+      <c r="AN253">
+        <v>1.25</v>
+      </c>
+      <c r="AO253">
+        <v>1.35</v>
+      </c>
+      <c r="AP253">
+        <v>1.67</v>
+      </c>
+      <c r="AQ253">
+        <v>1.5</v>
+      </c>
+      <c r="AR253">
+        <v>0.85</v>
+      </c>
+      <c r="AS253">
+        <v>1.62</v>
+      </c>
+      <c r="AT253">
+        <v>0.79</v>
+      </c>
+      <c r="AU253">
+        <v>1.61</v>
+      </c>
+      <c r="AV253">
+        <v>1.55</v>
+      </c>
+      <c r="AW253">
+        <v>3.16</v>
+      </c>
+      <c r="AX253">
+        <v>1.91</v>
+      </c>
+      <c r="AY253">
+        <v>8</v>
+      </c>
+      <c r="AZ253">
+        <v>2.2</v>
+      </c>
+      <c r="BA253">
+        <v>1.2</v>
+      </c>
+      <c r="BB253">
+        <v>1.39</v>
+      </c>
+      <c r="BC253">
+        <v>1.7</v>
+      </c>
+      <c r="BD253">
+        <v>2.2</v>
+      </c>
+      <c r="BE253">
+        <v>2.95</v>
+      </c>
+      <c r="BF253">
+        <v>6</v>
+      </c>
+      <c r="BG253">
+        <v>3</v>
+      </c>
+      <c r="BH253">
+        <v>3</v>
+      </c>
+      <c r="BI253">
+        <v>7</v>
+      </c>
+      <c r="BJ253">
+        <v>9</v>
+      </c>
+      <c r="BK253">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="333">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -718,6 +718,21 @@
     <t>['51', '58']</t>
   </si>
   <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['26', '59']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['12', '45+3', '46', '71', '76']</t>
+  </si>
+  <si>
+    <t>['77', '90+3', '90+7']</t>
+  </si>
+  <si>
     <t>['11', '35']</t>
   </si>
   <si>
@@ -904,9 +919,6 @@
     <t>['29', '54']</t>
   </si>
   <si>
-    <t>['32']</t>
-  </si>
-  <si>
     <t>['78']</t>
   </si>
   <si>
@@ -995,6 +1007,12 @@
   </si>
   <si>
     <t>['6', '21', '35', '73']</t>
+  </si>
+  <si>
+    <t>['67', '90+3']</t>
+  </si>
+  <si>
+    <t>['21', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK253"/>
+  <dimension ref="A1:BK260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1600,7 +1618,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1690,7 +1708,7 @@
         <v>1.69</v>
       </c>
       <c r="AT2">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1791,7 +1809,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2069,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT4">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2555,7 +2573,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2642,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT7">
         <v>1.77</v>
@@ -2746,7 +2764,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q8">
         <v>8</v>
@@ -3024,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT9">
         <v>1.75</v>
@@ -3218,7 +3236,7 @@
         <v>0.92</v>
       </c>
       <c r="AT10">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3788,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT13">
         <v>1.17</v>
@@ -3982,7 +4000,7 @@
         <v>1.08</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU14">
         <v>1.36</v>
@@ -4361,7 +4379,7 @@
         <v>3</v>
       </c>
       <c r="AS16">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT16">
         <v>1.46</v>
@@ -4465,7 +4483,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -4552,7 +4570,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT17">
         <v>1.33</v>
@@ -4656,7 +4674,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q18">
         <v>8</v>
@@ -4937,7 +4955,7 @@
         <v>2.08</v>
       </c>
       <c r="AT19">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5128,7 +5146,7 @@
         <v>1.31</v>
       </c>
       <c r="AT20">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5420,7 +5438,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q22">
         <v>12</v>
@@ -5701,7 +5719,7 @@
         <v>1</v>
       </c>
       <c r="AT23">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU23">
         <v>1.87</v>
@@ -6080,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT25">
         <v>1.75</v>
@@ -6375,7 +6393,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q27">
         <v>9</v>
@@ -6465,7 +6483,7 @@
         <v>1.5</v>
       </c>
       <c r="AT27">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU27">
         <v>1.03</v>
@@ -6757,7 +6775,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7038,7 +7056,7 @@
         <v>1.69</v>
       </c>
       <c r="AT30">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU30">
         <v>1.64</v>
@@ -7226,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT31">
         <v>0.75</v>
@@ -7420,7 +7438,7 @@
         <v>2.08</v>
       </c>
       <c r="AT32">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU32">
         <v>2.09</v>
@@ -7611,7 +7629,7 @@
         <v>1.08</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU33">
         <v>1.45</v>
@@ -7712,7 +7730,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7802,7 +7820,7 @@
         <v>1.38</v>
       </c>
       <c r="AT34">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU34">
         <v>2.15</v>
@@ -7903,7 +7921,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7990,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT35">
         <v>0.79</v>
@@ -8372,7 +8390,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT37">
         <v>1.08</v>
@@ -8476,7 +8494,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8563,10 +8581,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT38">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU38">
         <v>1.37</v>
@@ -8667,7 +8685,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8754,7 +8772,7 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT39">
         <v>1.17</v>
@@ -8858,7 +8876,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8945,7 +8963,7 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT40">
         <v>1.15</v>
@@ -9049,7 +9067,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9136,7 +9154,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT41">
         <v>1.31</v>
@@ -9712,7 +9730,7 @@
         <v>1.31</v>
       </c>
       <c r="AT44">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU44">
         <v>1.46</v>
@@ -9813,7 +9831,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10195,7 +10213,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q47">
         <v>7</v>
@@ -10282,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT47">
         <v>1.75</v>
@@ -10386,7 +10404,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10476,7 +10494,7 @@
         <v>0.92</v>
       </c>
       <c r="AT48">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU48">
         <v>1.53</v>
@@ -10577,7 +10595,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q49">
         <v>10</v>
@@ -11237,7 +11255,7 @@
         <v>2</v>
       </c>
       <c r="AS52">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT52">
         <v>1.17</v>
@@ -11341,7 +11359,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11532,7 +11550,7 @@
         <v>93</v>
       </c>
       <c r="P54" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11622,7 +11640,7 @@
         <v>2.08</v>
       </c>
       <c r="AT54">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU54">
         <v>2.56</v>
@@ -11723,7 +11741,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q55">
         <v>4</v>
@@ -11810,10 +11828,10 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT55">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU55">
         <v>1.67</v>
@@ -12192,7 +12210,7 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT57">
         <v>1.31</v>
@@ -12383,10 +12401,10 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT58">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU58">
         <v>1.68</v>
@@ -12487,7 +12505,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12574,10 +12592,10 @@
         <v>1.33</v>
       </c>
       <c r="AS59">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT59">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU59">
         <v>1.11</v>
@@ -12765,10 +12783,10 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT60">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU60">
         <v>1.86</v>
@@ -12956,7 +12974,7 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT61">
         <v>0.79</v>
@@ -13442,7 +13460,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13633,7 +13651,7 @@
         <v>93</v>
       </c>
       <c r="P65" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13824,7 +13842,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -14015,7 +14033,7 @@
         <v>93</v>
       </c>
       <c r="P67" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14588,7 +14606,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -15057,10 +15075,10 @@
         <v>1.33</v>
       </c>
       <c r="AS72">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT72">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU72">
         <v>1.83</v>
@@ -15161,7 +15179,7 @@
         <v>106</v>
       </c>
       <c r="P73" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15248,10 +15266,10 @@
         <v>2.5</v>
       </c>
       <c r="AS73">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT73">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU73">
         <v>1.66</v>
@@ -15352,7 +15370,7 @@
         <v>95</v>
       </c>
       <c r="P74" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15442,7 +15460,7 @@
         <v>1.08</v>
       </c>
       <c r="AT74">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU74">
         <v>1.41</v>
@@ -15630,10 +15648,10 @@
         <v>0.33</v>
       </c>
       <c r="AS75">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT75">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU75">
         <v>1.66</v>
@@ -16012,7 +16030,7 @@
         <v>0.33</v>
       </c>
       <c r="AS77">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT77">
         <v>1.08</v>
@@ -16206,7 +16224,7 @@
         <v>2.46</v>
       </c>
       <c r="AT78">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU78">
         <v>2.01</v>
@@ -16394,10 +16412,10 @@
         <v>1.25</v>
       </c>
       <c r="AS79">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT79">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU79">
         <v>1.58</v>
@@ -16585,7 +16603,7 @@
         <v>0</v>
       </c>
       <c r="AS80">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT80">
         <v>0.79</v>
@@ -16689,7 +16707,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16776,7 +16794,7 @@
         <v>1.33</v>
       </c>
       <c r="AS81">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT81">
         <v>1.17</v>
@@ -16880,7 +16898,7 @@
         <v>120</v>
       </c>
       <c r="P82" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -16967,7 +16985,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT82">
         <v>1.77</v>
@@ -17071,7 +17089,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17262,7 +17280,7 @@
         <v>142</v>
       </c>
       <c r="P84" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17543,7 +17561,7 @@
         <v>1.42</v>
       </c>
       <c r="AT85">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU85">
         <v>1.84</v>
@@ -17644,7 +17662,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18026,7 +18044,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -18408,7 +18426,7 @@
         <v>93</v>
       </c>
       <c r="P90" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18599,7 +18617,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -18880,7 +18898,7 @@
         <v>1</v>
       </c>
       <c r="AT92">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU92">
         <v>1.57</v>
@@ -19068,7 +19086,7 @@
         <v>1.5</v>
       </c>
       <c r="AS93">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT93">
         <v>1.15</v>
@@ -19172,7 +19190,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q94">
         <v>9</v>
@@ -19259,7 +19277,7 @@
         <v>0</v>
       </c>
       <c r="AS94">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT94">
         <v>0.79</v>
@@ -19363,7 +19381,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19450,7 +19468,7 @@
         <v>1.75</v>
       </c>
       <c r="AS95">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT95">
         <v>1.33</v>
@@ -19641,7 +19659,7 @@
         <v>1.25</v>
       </c>
       <c r="AS96">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT96">
         <v>1.17</v>
@@ -19835,7 +19853,7 @@
         <v>2.46</v>
       </c>
       <c r="AT97">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU97">
         <v>2.02</v>
@@ -19936,7 +19954,7 @@
         <v>124</v>
       </c>
       <c r="P98" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -20023,7 +20041,7 @@
         <v>2.4</v>
       </c>
       <c r="AS98">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT98">
         <v>1.77</v>
@@ -20217,7 +20235,7 @@
         <v>1.69</v>
       </c>
       <c r="AT99">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU99">
         <v>1.79</v>
@@ -20318,7 +20336,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20408,7 +20426,7 @@
         <v>1.62</v>
       </c>
       <c r="AT100">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU100">
         <v>1.54</v>
@@ -20599,7 +20617,7 @@
         <v>1.08</v>
       </c>
       <c r="AT101">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU101">
         <v>1.47</v>
@@ -20891,7 +20909,7 @@
         <v>93</v>
       </c>
       <c r="P103" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -20978,7 +20996,7 @@
         <v>1.75</v>
       </c>
       <c r="AS103">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT103">
         <v>1.46</v>
@@ -21655,7 +21673,7 @@
         <v>155</v>
       </c>
       <c r="P107" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -22228,7 +22246,7 @@
         <v>150</v>
       </c>
       <c r="P110" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22315,7 +22333,7 @@
         <v>1.2</v>
       </c>
       <c r="AS110">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT110">
         <v>0.75</v>
@@ -22419,7 +22437,7 @@
         <v>93</v>
       </c>
       <c r="P111" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q111">
         <v>2</v>
@@ -22509,7 +22527,7 @@
         <v>1.5</v>
       </c>
       <c r="AT111">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU111">
         <v>1.68</v>
@@ -22610,7 +22628,7 @@
         <v>157</v>
       </c>
       <c r="P112" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q112">
         <v>1</v>
@@ -22697,10 +22715,10 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT112">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU112">
         <v>1.3</v>
@@ -22888,10 +22906,10 @@
         <v>0.8</v>
       </c>
       <c r="AS113">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT113">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU113">
         <v>1.55</v>
@@ -23082,7 +23100,7 @@
         <v>1.62</v>
       </c>
       <c r="AT114">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU114">
         <v>1.61</v>
@@ -23273,7 +23291,7 @@
         <v>1.42</v>
       </c>
       <c r="AT115">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU115">
         <v>1.78</v>
@@ -23461,7 +23479,7 @@
         <v>2</v>
       </c>
       <c r="AS116">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT116">
         <v>1.46</v>
@@ -23565,7 +23583,7 @@
         <v>102</v>
       </c>
       <c r="P117" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23655,7 +23673,7 @@
         <v>0.92</v>
       </c>
       <c r="AT117">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU117">
         <v>1.45</v>
@@ -24225,7 +24243,7 @@
         <v>1.6</v>
       </c>
       <c r="AS120">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT120">
         <v>1.33</v>
@@ -24416,7 +24434,7 @@
         <v>2.5</v>
       </c>
       <c r="AS121">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT121">
         <v>1.77</v>
@@ -24711,7 +24729,7 @@
         <v>162</v>
       </c>
       <c r="P123" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24798,7 +24816,7 @@
         <v>1.17</v>
       </c>
       <c r="AS123">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT123">
         <v>1.46</v>
@@ -24902,7 +24920,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q124">
         <v>1</v>
@@ -25183,7 +25201,7 @@
         <v>1.69</v>
       </c>
       <c r="AT125">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU125">
         <v>1.48</v>
@@ -25666,7 +25684,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25857,7 +25875,7 @@
         <v>167</v>
       </c>
       <c r="P129" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q129">
         <v>10</v>
@@ -26135,7 +26153,7 @@
         <v>1.17</v>
       </c>
       <c r="AS130">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT130">
         <v>0.75</v>
@@ -26326,7 +26344,7 @@
         <v>0.2</v>
       </c>
       <c r="AS131">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT131">
         <v>0.92</v>
@@ -26430,7 +26448,7 @@
         <v>168</v>
       </c>
       <c r="P132" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -26520,7 +26538,7 @@
         <v>1.69</v>
       </c>
       <c r="AT132">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU132">
         <v>1.49</v>
@@ -26812,7 +26830,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26899,7 +26917,7 @@
         <v>1.33</v>
       </c>
       <c r="AS134">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT134">
         <v>1.17</v>
@@ -27003,7 +27021,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27093,7 +27111,7 @@
         <v>2.46</v>
       </c>
       <c r="AT135">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU135">
         <v>1.92</v>
@@ -27284,7 +27302,7 @@
         <v>1.42</v>
       </c>
       <c r="AT136">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU136">
         <v>1.85</v>
@@ -27663,10 +27681,10 @@
         <v>0.83</v>
       </c>
       <c r="AS138">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT138">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU138">
         <v>1.47</v>
@@ -27767,7 +27785,7 @@
         <v>128</v>
       </c>
       <c r="P139" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -27854,10 +27872,10 @@
         <v>2</v>
       </c>
       <c r="AS139">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT139">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU139">
         <v>1.58</v>
@@ -27958,7 +27976,7 @@
         <v>175</v>
       </c>
       <c r="P140" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q140">
         <v>1</v>
@@ -28045,7 +28063,7 @@
         <v>1.83</v>
       </c>
       <c r="AS140">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT140">
         <v>1.46</v>
@@ -28427,7 +28445,7 @@
         <v>1.43</v>
       </c>
       <c r="AS142">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT142">
         <v>0.92</v>
@@ -28722,7 +28740,7 @@
         <v>177</v>
       </c>
       <c r="P144" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q144">
         <v>2</v>
@@ -28812,7 +28830,7 @@
         <v>1</v>
       </c>
       <c r="AT144">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU144">
         <v>1.43</v>
@@ -28913,7 +28931,7 @@
         <v>178</v>
       </c>
       <c r="P145" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29295,7 +29313,7 @@
         <v>93</v>
       </c>
       <c r="P147" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29382,7 +29400,7 @@
         <v>1.43</v>
       </c>
       <c r="AS147">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT147">
         <v>1.46</v>
@@ -29677,7 +29695,7 @@
         <v>93</v>
       </c>
       <c r="P149" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q149">
         <v>11</v>
@@ -29764,10 +29782,10 @@
         <v>0.86</v>
       </c>
       <c r="AS149">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT149">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU149">
         <v>1.74</v>
@@ -29955,7 +29973,7 @@
         <v>1.71</v>
       </c>
       <c r="AS150">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT150">
         <v>1.77</v>
@@ -30337,10 +30355,10 @@
         <v>1</v>
       </c>
       <c r="AS152">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT152">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU152">
         <v>1.46</v>
@@ -30722,7 +30740,7 @@
         <v>1.5</v>
       </c>
       <c r="AT154">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU154">
         <v>1.54</v>
@@ -30823,7 +30841,7 @@
         <v>93</v>
       </c>
       <c r="P155" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -30910,7 +30928,7 @@
         <v>1.63</v>
       </c>
       <c r="AS155">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT155">
         <v>1.77</v>
@@ -31101,7 +31119,7 @@
         <v>1.57</v>
       </c>
       <c r="AS156">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT156">
         <v>1.75</v>
@@ -31396,7 +31414,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q158">
         <v>7</v>
@@ -31486,7 +31504,7 @@
         <v>1.42</v>
       </c>
       <c r="AT158">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU158">
         <v>1.85</v>
@@ -31587,7 +31605,7 @@
         <v>182</v>
       </c>
       <c r="P159" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -32160,7 +32178,7 @@
         <v>184</v>
       </c>
       <c r="P162" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q162">
         <v>7</v>
@@ -32438,10 +32456,10 @@
         <v>0.75</v>
       </c>
       <c r="AS163">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT163">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU163">
         <v>1.56</v>
@@ -32542,7 +32560,7 @@
         <v>162</v>
       </c>
       <c r="P164" t="s">
-        <v>296</v>
+        <v>234</v>
       </c>
       <c r="Q164">
         <v>4</v>
@@ -32733,7 +32751,7 @@
         <v>93</v>
       </c>
       <c r="P165" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -32820,7 +32838,7 @@
         <v>1.63</v>
       </c>
       <c r="AS165">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT165">
         <v>1.46</v>
@@ -33011,7 +33029,7 @@
         <v>1.25</v>
       </c>
       <c r="AS166">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT166">
         <v>0.92</v>
@@ -33205,7 +33223,7 @@
         <v>0.92</v>
       </c>
       <c r="AT167">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU167">
         <v>1.48</v>
@@ -33587,7 +33605,7 @@
         <v>1.38</v>
       </c>
       <c r="AT169">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU169">
         <v>2.01</v>
@@ -33879,7 +33897,7 @@
         <v>93</v>
       </c>
       <c r="P171" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q171">
         <v>6</v>
@@ -33966,7 +33984,7 @@
         <v>1</v>
       </c>
       <c r="AS171">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT171">
         <v>1.15</v>
@@ -34348,10 +34366,10 @@
         <v>2</v>
       </c>
       <c r="AS173">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT173">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU173">
         <v>1.86</v>
@@ -34452,7 +34470,7 @@
         <v>93</v>
       </c>
       <c r="P174" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q174">
         <v>9</v>
@@ -34539,7 +34557,7 @@
         <v>0.5</v>
       </c>
       <c r="AS174">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT174">
         <v>0.92</v>
@@ -34643,7 +34661,7 @@
         <v>93</v>
       </c>
       <c r="P175" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q175">
         <v>8</v>
@@ -34834,7 +34852,7 @@
         <v>122</v>
       </c>
       <c r="P176" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -35306,7 +35324,7 @@
         <v>1.69</v>
       </c>
       <c r="AT178">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU178">
         <v>1.73</v>
@@ -35497,7 +35515,7 @@
         <v>1.69</v>
       </c>
       <c r="AT179">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU179">
         <v>1.61</v>
@@ -35685,7 +35703,7 @@
         <v>1.78</v>
       </c>
       <c r="AS180">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT180">
         <v>1.77</v>
@@ -35789,7 +35807,7 @@
         <v>188</v>
       </c>
       <c r="P181" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q181">
         <v>9</v>
@@ -35980,7 +35998,7 @@
         <v>147</v>
       </c>
       <c r="P182" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q182">
         <v>2</v>
@@ -36067,7 +36085,7 @@
         <v>1</v>
       </c>
       <c r="AS182">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT182">
         <v>1.08</v>
@@ -36258,10 +36276,10 @@
         <v>1</v>
       </c>
       <c r="AS183">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT183">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU183">
         <v>1.59</v>
@@ -36362,7 +36380,7 @@
         <v>93</v>
       </c>
       <c r="P184" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36449,10 +36467,10 @@
         <v>1.11</v>
       </c>
       <c r="AS184">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT184">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU184">
         <v>1.39</v>
@@ -36744,7 +36762,7 @@
         <v>190</v>
       </c>
       <c r="P186" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q186">
         <v>2</v>
@@ -36831,7 +36849,7 @@
         <v>1.25</v>
       </c>
       <c r="AS186">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT186">
         <v>1.15</v>
@@ -36935,7 +36953,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q187">
         <v>10</v>
@@ -37407,7 +37425,7 @@
         <v>2.08</v>
       </c>
       <c r="AT189">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU189">
         <v>1.83</v>
@@ -37699,7 +37717,7 @@
         <v>193</v>
       </c>
       <c r="P191" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q191">
         <v>6</v>
@@ -37977,10 +37995,10 @@
         <v>1</v>
       </c>
       <c r="AS192">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT192">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU192">
         <v>1.81</v>
@@ -38081,7 +38099,7 @@
         <v>96</v>
       </c>
       <c r="P193" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q193">
         <v>9</v>
@@ -38171,7 +38189,7 @@
         <v>1.62</v>
       </c>
       <c r="AT193">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU193">
         <v>1.42</v>
@@ -38272,7 +38290,7 @@
         <v>194</v>
       </c>
       <c r="P194" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q194">
         <v>4</v>
@@ -38845,7 +38863,7 @@
         <v>197</v>
       </c>
       <c r="P197" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q197">
         <v>7</v>
@@ -38935,7 +38953,7 @@
         <v>2.46</v>
       </c>
       <c r="AT197">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU197">
         <v>1.87</v>
@@ -39123,7 +39141,7 @@
         <v>1</v>
       </c>
       <c r="AS198">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT198">
         <v>0.75</v>
@@ -39314,7 +39332,7 @@
         <v>1.67</v>
       </c>
       <c r="AS199">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT199">
         <v>1.46</v>
@@ -39696,7 +39714,7 @@
         <v>1.33</v>
       </c>
       <c r="AS201">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT201">
         <v>1.33</v>
@@ -39890,7 +39908,7 @@
         <v>1.69</v>
       </c>
       <c r="AT202">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU202">
         <v>1.64</v>
@@ -39991,7 +40009,7 @@
         <v>203</v>
       </c>
       <c r="P203" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -40460,7 +40478,7 @@
         <v>1.1</v>
       </c>
       <c r="AS205">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT205">
         <v>0.92</v>
@@ -40564,7 +40582,7 @@
         <v>206</v>
       </c>
       <c r="P206" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q206">
         <v>4</v>
@@ -40651,7 +40669,7 @@
         <v>1.2</v>
       </c>
       <c r="AS206">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT206">
         <v>1.31</v>
@@ -40845,7 +40863,7 @@
         <v>1.58</v>
       </c>
       <c r="AT207">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU207">
         <v>1.59</v>
@@ -41224,7 +41242,7 @@
         <v>1.56</v>
       </c>
       <c r="AS209">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT209">
         <v>1.75</v>
@@ -41418,7 +41436,7 @@
         <v>1.42</v>
       </c>
       <c r="AT210">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU210">
         <v>1.87</v>
@@ -41519,7 +41537,7 @@
         <v>119</v>
       </c>
       <c r="P211" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q211">
         <v>5</v>
@@ -41606,7 +41624,7 @@
         <v>1.6</v>
       </c>
       <c r="AS211">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT211">
         <v>1.77</v>
@@ -41800,7 +41818,7 @@
         <v>2.08</v>
       </c>
       <c r="AT212">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU212">
         <v>1.85</v>
@@ -41901,7 +41919,7 @@
         <v>93</v>
       </c>
       <c r="P213" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q213">
         <v>3</v>
@@ -42179,7 +42197,7 @@
         <v>0.7</v>
       </c>
       <c r="AS214">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT214">
         <v>0.92</v>
@@ -42561,7 +42579,7 @@
         <v>1.9</v>
       </c>
       <c r="AS216">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT216">
         <v>1.46</v>
@@ -42665,7 +42683,7 @@
         <v>211</v>
       </c>
       <c r="P217" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q217">
         <v>5</v>
@@ -42752,10 +42770,10 @@
         <v>1.18</v>
       </c>
       <c r="AS217">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT217">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU217">
         <v>1.59</v>
@@ -42943,10 +42961,10 @@
         <v>1.09</v>
       </c>
       <c r="AS218">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT218">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU218">
         <v>1.5</v>
@@ -43134,7 +43152,7 @@
         <v>1.18</v>
       </c>
       <c r="AS219">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT219">
         <v>1.31</v>
@@ -43238,7 +43256,7 @@
         <v>212</v>
       </c>
       <c r="P220" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q220">
         <v>12</v>
@@ -43710,7 +43728,7 @@
         <v>1.58</v>
       </c>
       <c r="AT222">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU222">
         <v>1.66</v>
@@ -43811,7 +43829,7 @@
         <v>215</v>
       </c>
       <c r="P223" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q223">
         <v>7</v>
@@ -43901,7 +43919,7 @@
         <v>1</v>
       </c>
       <c r="AT223">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU223">
         <v>1.59</v>
@@ -44002,7 +44020,7 @@
         <v>93</v>
       </c>
       <c r="P224" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q224">
         <v>6</v>
@@ -44384,7 +44402,7 @@
         <v>217</v>
       </c>
       <c r="P226" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q226">
         <v>7</v>
@@ -44957,7 +44975,7 @@
         <v>93</v>
       </c>
       <c r="P229" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -45044,7 +45062,7 @@
         <v>1.73</v>
       </c>
       <c r="AS229">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT229">
         <v>1.77</v>
@@ -45617,7 +45635,7 @@
         <v>1.18</v>
       </c>
       <c r="AS232">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT232">
         <v>1.08</v>
@@ -45721,7 +45739,7 @@
         <v>93</v>
       </c>
       <c r="P233" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q233">
         <v>11</v>
@@ -45808,7 +45826,7 @@
         <v>1.17</v>
       </c>
       <c r="AS233">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AT233">
         <v>1.31</v>
@@ -45912,7 +45930,7 @@
         <v>222</v>
       </c>
       <c r="P234" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q234">
         <v>4</v>
@@ -45999,10 +46017,10 @@
         <v>1.09</v>
       </c>
       <c r="AS234">
+        <v>0.93</v>
+      </c>
+      <c r="AT234">
         <v>0.92</v>
-      </c>
-      <c r="AT234">
-        <v>1</v>
       </c>
       <c r="AU234">
         <v>1.5</v>
@@ -46103,7 +46121,7 @@
         <v>223</v>
       </c>
       <c r="P235" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q235">
         <v>3</v>
@@ -46190,7 +46208,7 @@
         <v>0.91</v>
       </c>
       <c r="AS235">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT235">
         <v>0.92</v>
@@ -46381,10 +46399,10 @@
         <v>1.08</v>
       </c>
       <c r="AS236">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT236">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU236">
         <v>1.3</v>
@@ -46766,7 +46784,7 @@
         <v>2.46</v>
       </c>
       <c r="AT238">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU238">
         <v>1.77</v>
@@ -46867,7 +46885,7 @@
         <v>154</v>
       </c>
       <c r="P239" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q239">
         <v>5</v>
@@ -46954,7 +46972,7 @@
         <v>1</v>
       </c>
       <c r="AS239">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT239">
         <v>1.15</v>
@@ -47339,7 +47357,7 @@
         <v>1.38</v>
       </c>
       <c r="AT241">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU241">
         <v>1.82</v>
@@ -47822,7 +47840,7 @@
         <v>227</v>
       </c>
       <c r="P244" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q244">
         <v>8</v>
@@ -48395,7 +48413,7 @@
         <v>102</v>
       </c>
       <c r="P247" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q247">
         <v>6</v>
@@ -48586,7 +48604,7 @@
         <v>93</v>
       </c>
       <c r="P248" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q248">
         <v>6</v>
@@ -48867,7 +48885,7 @@
         <v>1.38</v>
       </c>
       <c r="AT249">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU249">
         <v>1.82</v>
@@ -49159,7 +49177,7 @@
         <v>231</v>
       </c>
       <c r="P251" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q251">
         <v>6</v>
@@ -49350,7 +49368,7 @@
         <v>232</v>
       </c>
       <c r="P252" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q252">
         <v>4</v>
@@ -49541,7 +49559,7 @@
         <v>233</v>
       </c>
       <c r="P253" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q253">
         <v>6</v>
@@ -49683,6 +49701,1343 @@
       </c>
       <c r="BK253">
         <v>10</v>
+      </c>
+    </row>
+    <row r="254" spans="1:63">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>2982662</v>
+      </c>
+      <c r="C254" t="s">
+        <v>63</v>
+      </c>
+      <c r="D254" t="s">
+        <v>64</v>
+      </c>
+      <c r="E254" s="2">
+        <v>44982.41666666666</v>
+      </c>
+      <c r="F254">
+        <v>26</v>
+      </c>
+      <c r="G254" t="s">
+        <v>78</v>
+      </c>
+      <c r="H254" t="s">
+        <v>66</v>
+      </c>
+      <c r="I254">
+        <v>1</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>1</v>
+      </c>
+      <c r="L254">
+        <v>1</v>
+      </c>
+      <c r="M254">
+        <v>2</v>
+      </c>
+      <c r="N254">
+        <v>3</v>
+      </c>
+      <c r="O254" t="s">
+        <v>234</v>
+      </c>
+      <c r="P254" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q254">
+        <v>7</v>
+      </c>
+      <c r="R254">
+        <v>3</v>
+      </c>
+      <c r="S254">
+        <v>10</v>
+      </c>
+      <c r="T254">
+        <v>3</v>
+      </c>
+      <c r="U254">
+        <v>2.01</v>
+      </c>
+      <c r="V254">
+        <v>3.92</v>
+      </c>
+      <c r="W254">
+        <v>1.5</v>
+      </c>
+      <c r="X254">
+        <v>2.5</v>
+      </c>
+      <c r="Y254">
+        <v>3.4</v>
+      </c>
+      <c r="Z254">
+        <v>1.3</v>
+      </c>
+      <c r="AA254">
+        <v>10</v>
+      </c>
+      <c r="AB254">
+        <v>1.06</v>
+      </c>
+      <c r="AC254">
+        <v>2.36</v>
+      </c>
+      <c r="AD254">
+        <v>3.24</v>
+      </c>
+      <c r="AE254">
+        <v>3.27</v>
+      </c>
+      <c r="AF254">
+        <v>1.08</v>
+      </c>
+      <c r="AG254">
+        <v>8.65</v>
+      </c>
+      <c r="AH254">
+        <v>1.42</v>
+      </c>
+      <c r="AI254">
+        <v>2.89</v>
+      </c>
+      <c r="AJ254">
+        <v>2.2</v>
+      </c>
+      <c r="AK254">
+        <v>1.62</v>
+      </c>
+      <c r="AL254">
+        <v>1.95</v>
+      </c>
+      <c r="AM254">
+        <v>1.8</v>
+      </c>
+      <c r="AN254">
+        <v>1.36</v>
+      </c>
+      <c r="AO254">
+        <v>1.34</v>
+      </c>
+      <c r="AP254">
+        <v>1.6</v>
+      </c>
+      <c r="AQ254">
+        <v>1.83</v>
+      </c>
+      <c r="AR254">
+        <v>1</v>
+      </c>
+      <c r="AS254">
+        <v>1.69</v>
+      </c>
+      <c r="AT254">
+        <v>1.14</v>
+      </c>
+      <c r="AU254">
+        <v>1.57</v>
+      </c>
+      <c r="AV254">
+        <v>1.38</v>
+      </c>
+      <c r="AW254">
+        <v>2.95</v>
+      </c>
+      <c r="AX254">
+        <v>2.1</v>
+      </c>
+      <c r="AY254">
+        <v>8</v>
+      </c>
+      <c r="AZ254">
+        <v>1.95</v>
+      </c>
+      <c r="BA254">
+        <v>1.25</v>
+      </c>
+      <c r="BB254">
+        <v>1.47</v>
+      </c>
+      <c r="BC254">
+        <v>1.85</v>
+      </c>
+      <c r="BD254">
+        <v>2.4</v>
+      </c>
+      <c r="BE254">
+        <v>3.4</v>
+      </c>
+      <c r="BF254">
+        <v>6</v>
+      </c>
+      <c r="BG254">
+        <v>7</v>
+      </c>
+      <c r="BH254">
+        <v>6</v>
+      </c>
+      <c r="BI254">
+        <v>10</v>
+      </c>
+      <c r="BJ254">
+        <v>12</v>
+      </c>
+      <c r="BK254">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="255" spans="1:63">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>2982663</v>
+      </c>
+      <c r="C255" t="s">
+        <v>63</v>
+      </c>
+      <c r="D255" t="s">
+        <v>64</v>
+      </c>
+      <c r="E255" s="2">
+        <v>44982.41666666666</v>
+      </c>
+      <c r="F255">
+        <v>26</v>
+      </c>
+      <c r="G255" t="s">
+        <v>70</v>
+      </c>
+      <c r="H255" t="s">
+        <v>81</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <v>0</v>
+      </c>
+      <c r="M255">
+        <v>0</v>
+      </c>
+      <c r="N255">
+        <v>0</v>
+      </c>
+      <c r="O255" t="s">
+        <v>93</v>
+      </c>
+      <c r="P255" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q255">
+        <v>4</v>
+      </c>
+      <c r="R255">
+        <v>10</v>
+      </c>
+      <c r="S255">
+        <v>14</v>
+      </c>
+      <c r="T255">
+        <v>3.2</v>
+      </c>
+      <c r="U255">
+        <v>2</v>
+      </c>
+      <c r="V255">
+        <v>3.75</v>
+      </c>
+      <c r="W255">
+        <v>1.5</v>
+      </c>
+      <c r="X255">
+        <v>2.5</v>
+      </c>
+      <c r="Y255">
+        <v>3.4</v>
+      </c>
+      <c r="Z255">
+        <v>1.3</v>
+      </c>
+      <c r="AA255">
+        <v>10</v>
+      </c>
+      <c r="AB255">
+        <v>1.06</v>
+      </c>
+      <c r="AC255">
+        <v>2.73</v>
+      </c>
+      <c r="AD255">
+        <v>2.81</v>
+      </c>
+      <c r="AE255">
+        <v>3.21</v>
+      </c>
+      <c r="AF255">
+        <v>1.09</v>
+      </c>
+      <c r="AG255">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AH255">
+        <v>1.43</v>
+      </c>
+      <c r="AI255">
+        <v>2.84</v>
+      </c>
+      <c r="AJ255">
+        <v>2.25</v>
+      </c>
+      <c r="AK255">
+        <v>1.6</v>
+      </c>
+      <c r="AL255">
+        <v>1.95</v>
+      </c>
+      <c r="AM255">
+        <v>1.8</v>
+      </c>
+      <c r="AN255">
+        <v>1.39</v>
+      </c>
+      <c r="AO255">
+        <v>1.34</v>
+      </c>
+      <c r="AP255">
+        <v>1.56</v>
+      </c>
+      <c r="AQ255">
+        <v>0.92</v>
+      </c>
+      <c r="AR255">
+        <v>0.75</v>
+      </c>
+      <c r="AS255">
+        <v>0.93</v>
+      </c>
+      <c r="AT255">
+        <v>0.77</v>
+      </c>
+      <c r="AU255">
+        <v>1.52</v>
+      </c>
+      <c r="AV255">
+        <v>1.4</v>
+      </c>
+      <c r="AW255">
+        <v>2.92</v>
+      </c>
+      <c r="AX255">
+        <v>2.28</v>
+      </c>
+      <c r="AY255">
+        <v>8</v>
+      </c>
+      <c r="AZ255">
+        <v>1.85</v>
+      </c>
+      <c r="BA255">
+        <v>1.2</v>
+      </c>
+      <c r="BB255">
+        <v>1.39</v>
+      </c>
+      <c r="BC255">
+        <v>1.68</v>
+      </c>
+      <c r="BD255">
+        <v>2.2</v>
+      </c>
+      <c r="BE255">
+        <v>2.95</v>
+      </c>
+      <c r="BF255">
+        <v>3</v>
+      </c>
+      <c r="BG255">
+        <v>4</v>
+      </c>
+      <c r="BH255">
+        <v>8</v>
+      </c>
+      <c r="BI255">
+        <v>13</v>
+      </c>
+      <c r="BJ255">
+        <v>11</v>
+      </c>
+      <c r="BK255">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="256" spans="1:63">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>2982660</v>
+      </c>
+      <c r="C256" t="s">
+        <v>63</v>
+      </c>
+      <c r="D256" t="s">
+        <v>64</v>
+      </c>
+      <c r="E256" s="2">
+        <v>44982.41666666666</v>
+      </c>
+      <c r="F256">
+        <v>26</v>
+      </c>
+      <c r="G256" t="s">
+        <v>84</v>
+      </c>
+      <c r="H256" t="s">
+        <v>74</v>
+      </c>
+      <c r="I256">
+        <v>1</v>
+      </c>
+      <c r="J256">
+        <v>1</v>
+      </c>
+      <c r="K256">
+        <v>2</v>
+      </c>
+      <c r="L256">
+        <v>2</v>
+      </c>
+      <c r="M256">
+        <v>1</v>
+      </c>
+      <c r="N256">
+        <v>3</v>
+      </c>
+      <c r="O256" t="s">
+        <v>235</v>
+      </c>
+      <c r="P256" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q256">
+        <v>4</v>
+      </c>
+      <c r="R256">
+        <v>9</v>
+      </c>
+      <c r="S256">
+        <v>13</v>
+      </c>
+      <c r="T256">
+        <v>2.77</v>
+      </c>
+      <c r="U256">
+        <v>2.04</v>
+      </c>
+      <c r="V256">
+        <v>4.28</v>
+      </c>
+      <c r="W256">
+        <v>1.44</v>
+      </c>
+      <c r="X256">
+        <v>2.63</v>
+      </c>
+      <c r="Y256">
+        <v>3.25</v>
+      </c>
+      <c r="Z256">
+        <v>1.33</v>
+      </c>
+      <c r="AA256">
+        <v>10</v>
+      </c>
+      <c r="AB256">
+        <v>1.06</v>
+      </c>
+      <c r="AC256">
+        <v>2.19</v>
+      </c>
+      <c r="AD256">
+        <v>3.26</v>
+      </c>
+      <c r="AE256">
+        <v>3.62</v>
+      </c>
+      <c r="AF256">
+        <v>1.08</v>
+      </c>
+      <c r="AG256">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="AH256">
+        <v>1.39</v>
+      </c>
+      <c r="AI256">
+        <v>3.02</v>
+      </c>
+      <c r="AJ256">
+        <v>2.15</v>
+      </c>
+      <c r="AK256">
+        <v>1.65</v>
+      </c>
+      <c r="AL256">
+        <v>1.91</v>
+      </c>
+      <c r="AM256">
+        <v>1.91</v>
+      </c>
+      <c r="AN256">
+        <v>1.31</v>
+      </c>
+      <c r="AO256">
+        <v>1.32</v>
+      </c>
+      <c r="AP256">
+        <v>1.71</v>
+      </c>
+      <c r="AQ256">
+        <v>1.67</v>
+      </c>
+      <c r="AR256">
+        <v>1.23</v>
+      </c>
+      <c r="AS256">
+        <v>1.77</v>
+      </c>
+      <c r="AT256">
+        <v>1.14</v>
+      </c>
+      <c r="AU256">
+        <v>1.84</v>
+      </c>
+      <c r="AV256">
+        <v>1.47</v>
+      </c>
+      <c r="AW256">
+        <v>3.31</v>
+      </c>
+      <c r="AX256">
+        <v>1.85</v>
+      </c>
+      <c r="AY256">
+        <v>8</v>
+      </c>
+      <c r="AZ256">
+        <v>2.28</v>
+      </c>
+      <c r="BA256">
+        <v>1.22</v>
+      </c>
+      <c r="BB256">
+        <v>1.42</v>
+      </c>
+      <c r="BC256">
+        <v>1.83</v>
+      </c>
+      <c r="BD256">
+        <v>2.3</v>
+      </c>
+      <c r="BE256">
+        <v>3.1</v>
+      </c>
+      <c r="BF256">
+        <v>6</v>
+      </c>
+      <c r="BG256">
+        <v>5</v>
+      </c>
+      <c r="BH256">
+        <v>11</v>
+      </c>
+      <c r="BI256">
+        <v>8</v>
+      </c>
+      <c r="BJ256">
+        <v>17</v>
+      </c>
+      <c r="BK256">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="1:63">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>2982661</v>
+      </c>
+      <c r="C257" t="s">
+        <v>63</v>
+      </c>
+      <c r="D257" t="s">
+        <v>64</v>
+      </c>
+      <c r="E257" s="2">
+        <v>44982.41666666666</v>
+      </c>
+      <c r="F257">
+        <v>26</v>
+      </c>
+      <c r="G257" t="s">
+        <v>79</v>
+      </c>
+      <c r="H257" t="s">
+        <v>68</v>
+      </c>
+      <c r="I257">
+        <v>1</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <v>1</v>
+      </c>
+      <c r="L257">
+        <v>1</v>
+      </c>
+      <c r="M257">
+        <v>1</v>
+      </c>
+      <c r="N257">
+        <v>2</v>
+      </c>
+      <c r="O257" t="s">
+        <v>236</v>
+      </c>
+      <c r="P257" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q257">
+        <v>6</v>
+      </c>
+      <c r="R257">
+        <v>7</v>
+      </c>
+      <c r="S257">
+        <v>13</v>
+      </c>
+      <c r="T257">
+        <v>3.25</v>
+      </c>
+      <c r="U257">
+        <v>2</v>
+      </c>
+      <c r="V257">
+        <v>3.6</v>
+      </c>
+      <c r="W257">
+        <v>1.5</v>
+      </c>
+      <c r="X257">
+        <v>2.5</v>
+      </c>
+      <c r="Y257">
+        <v>3.5</v>
+      </c>
+      <c r="Z257">
+        <v>1.29</v>
+      </c>
+      <c r="AA257">
+        <v>10</v>
+      </c>
+      <c r="AB257">
+        <v>1.06</v>
+      </c>
+      <c r="AC257">
+        <v>2.58</v>
+      </c>
+      <c r="AD257">
+        <v>3.09</v>
+      </c>
+      <c r="AE257">
+        <v>3.05</v>
+      </c>
+      <c r="AF257">
+        <v>1.09</v>
+      </c>
+      <c r="AG257">
+        <v>8.5</v>
+      </c>
+      <c r="AH257">
+        <v>1.42</v>
+      </c>
+      <c r="AI257">
+        <v>2.88</v>
+      </c>
+      <c r="AJ257">
+        <v>2.25</v>
+      </c>
+      <c r="AK257">
+        <v>1.6</v>
+      </c>
+      <c r="AL257">
+        <v>1.95</v>
+      </c>
+      <c r="AM257">
+        <v>1.8</v>
+      </c>
+      <c r="AN257">
+        <v>1.42</v>
+      </c>
+      <c r="AO257">
+        <v>1.36</v>
+      </c>
+      <c r="AP257">
+        <v>1.51</v>
+      </c>
+      <c r="AQ257">
+        <v>1.46</v>
+      </c>
+      <c r="AR257">
+        <v>1.08</v>
+      </c>
+      <c r="AS257">
+        <v>1.43</v>
+      </c>
+      <c r="AT257">
+        <v>1.08</v>
+      </c>
+      <c r="AU257">
+        <v>1.35</v>
+      </c>
+      <c r="AV257">
+        <v>1.39</v>
+      </c>
+      <c r="AW257">
+        <v>2.74</v>
+      </c>
+      <c r="AX257">
+        <v>2.33</v>
+      </c>
+      <c r="AY257">
+        <v>7.5</v>
+      </c>
+      <c r="AZ257">
+        <v>1.85</v>
+      </c>
+      <c r="BA257">
+        <v>1.35</v>
+      </c>
+      <c r="BB257">
+        <v>1.65</v>
+      </c>
+      <c r="BC257">
+        <v>2.15</v>
+      </c>
+      <c r="BD257">
+        <v>2.95</v>
+      </c>
+      <c r="BE257">
+        <v>4.1</v>
+      </c>
+      <c r="BF257">
+        <v>7</v>
+      </c>
+      <c r="BG257">
+        <v>2</v>
+      </c>
+      <c r="BH257">
+        <v>9</v>
+      </c>
+      <c r="BI257">
+        <v>11</v>
+      </c>
+      <c r="BJ257">
+        <v>16</v>
+      </c>
+      <c r="BK257">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:63">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>2982656</v>
+      </c>
+      <c r="C258" t="s">
+        <v>63</v>
+      </c>
+      <c r="D258" t="s">
+        <v>64</v>
+      </c>
+      <c r="E258" s="2">
+        <v>44982.41666666666</v>
+      </c>
+      <c r="F258">
+        <v>26</v>
+      </c>
+      <c r="G258" t="s">
+        <v>67</v>
+      </c>
+      <c r="H258" t="s">
+        <v>82</v>
+      </c>
+      <c r="I258">
+        <v>2</v>
+      </c>
+      <c r="J258">
+        <v>1</v>
+      </c>
+      <c r="K258">
+        <v>3</v>
+      </c>
+      <c r="L258">
+        <v>5</v>
+      </c>
+      <c r="M258">
+        <v>1</v>
+      </c>
+      <c r="N258">
+        <v>6</v>
+      </c>
+      <c r="O258" t="s">
+        <v>237</v>
+      </c>
+      <c r="P258" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q258">
+        <v>3</v>
+      </c>
+      <c r="R258">
+        <v>7</v>
+      </c>
+      <c r="S258">
+        <v>10</v>
+      </c>
+      <c r="T258">
+        <v>2.25</v>
+      </c>
+      <c r="U258">
+        <v>2.2</v>
+      </c>
+      <c r="V258">
+        <v>5.5</v>
+      </c>
+      <c r="W258">
+        <v>1.4</v>
+      </c>
+      <c r="X258">
+        <v>2.75</v>
+      </c>
+      <c r="Y258">
+        <v>3</v>
+      </c>
+      <c r="Z258">
+        <v>1.36</v>
+      </c>
+      <c r="AA258">
+        <v>8</v>
+      </c>
+      <c r="AB258">
+        <v>1.08</v>
+      </c>
+      <c r="AC258">
+        <v>1.74</v>
+      </c>
+      <c r="AD258">
+        <v>3.68</v>
+      </c>
+      <c r="AE258">
+        <v>5.17</v>
+      </c>
+      <c r="AF258">
+        <v>1.06</v>
+      </c>
+      <c r="AG258">
+        <v>11</v>
+      </c>
+      <c r="AH258">
+        <v>1.33</v>
+      </c>
+      <c r="AI258">
+        <v>3.35</v>
+      </c>
+      <c r="AJ258">
+        <v>2.06</v>
+      </c>
+      <c r="AK258">
+        <v>1.81</v>
+      </c>
+      <c r="AL258">
+        <v>1.95</v>
+      </c>
+      <c r="AM258">
+        <v>1.8</v>
+      </c>
+      <c r="AN258">
+        <v>1.15</v>
+      </c>
+      <c r="AO258">
+        <v>1.26</v>
+      </c>
+      <c r="AP258">
+        <v>2.24</v>
+      </c>
+      <c r="AQ258">
+        <v>1.33</v>
+      </c>
+      <c r="AR258">
+        <v>0.5</v>
+      </c>
+      <c r="AS258">
+        <v>1.46</v>
+      </c>
+      <c r="AT258">
+        <v>0.46</v>
+      </c>
+      <c r="AU258">
+        <v>1.66</v>
+      </c>
+      <c r="AV258">
+        <v>1.26</v>
+      </c>
+      <c r="AW258">
+        <v>2.92</v>
+      </c>
+      <c r="AX258">
+        <v>1.75</v>
+      </c>
+      <c r="AY258">
+        <v>8</v>
+      </c>
+      <c r="AZ258">
+        <v>2.44</v>
+      </c>
+      <c r="BA258">
+        <v>1.2</v>
+      </c>
+      <c r="BB258">
+        <v>1.39</v>
+      </c>
+      <c r="BC258">
+        <v>1.7</v>
+      </c>
+      <c r="BD258">
+        <v>2.2</v>
+      </c>
+      <c r="BE258">
+        <v>3</v>
+      </c>
+      <c r="BF258">
+        <v>9</v>
+      </c>
+      <c r="BG258">
+        <v>6</v>
+      </c>
+      <c r="BH258">
+        <v>12</v>
+      </c>
+      <c r="BI258">
+        <v>9</v>
+      </c>
+      <c r="BJ258">
+        <v>21</v>
+      </c>
+      <c r="BK258">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="259" spans="1:63">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>2982655</v>
+      </c>
+      <c r="C259" t="s">
+        <v>63</v>
+      </c>
+      <c r="D259" t="s">
+        <v>64</v>
+      </c>
+      <c r="E259" s="2">
+        <v>44982.41666666666</v>
+      </c>
+      <c r="F259">
+        <v>26</v>
+      </c>
+      <c r="G259" t="s">
+        <v>72</v>
+      </c>
+      <c r="H259" t="s">
+        <v>75</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>1</v>
+      </c>
+      <c r="K259">
+        <v>1</v>
+      </c>
+      <c r="L259">
+        <v>0</v>
+      </c>
+      <c r="M259">
+        <v>2</v>
+      </c>
+      <c r="N259">
+        <v>2</v>
+      </c>
+      <c r="O259" t="s">
+        <v>93</v>
+      </c>
+      <c r="P259" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q259">
+        <v>10</v>
+      </c>
+      <c r="R259">
+        <v>1</v>
+      </c>
+      <c r="S259">
+        <v>11</v>
+      </c>
+      <c r="T259">
+        <v>3.96</v>
+      </c>
+      <c r="U259">
+        <v>1.99</v>
+      </c>
+      <c r="V259">
+        <v>3.02</v>
+      </c>
+      <c r="W259">
+        <v>1.5</v>
+      </c>
+      <c r="X259">
+        <v>2.5</v>
+      </c>
+      <c r="Y259">
+        <v>3.4</v>
+      </c>
+      <c r="Z259">
+        <v>1.3</v>
+      </c>
+      <c r="AA259">
+        <v>10</v>
+      </c>
+      <c r="AB259">
+        <v>1.06</v>
+      </c>
+      <c r="AC259">
+        <v>3.45</v>
+      </c>
+      <c r="AD259">
+        <v>3.05</v>
+      </c>
+      <c r="AE259">
+        <v>2.38</v>
+      </c>
+      <c r="AF259">
+        <v>1.08</v>
+      </c>
+      <c r="AG259">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="AH259">
+        <v>1.4</v>
+      </c>
+      <c r="AI259">
+        <v>2.98</v>
+      </c>
+      <c r="AJ259">
+        <v>2.15</v>
+      </c>
+      <c r="AK259">
+        <v>1.65</v>
+      </c>
+      <c r="AL259">
+        <v>1.95</v>
+      </c>
+      <c r="AM259">
+        <v>1.8</v>
+      </c>
+      <c r="AN259">
+        <v>1.6</v>
+      </c>
+      <c r="AO259">
+        <v>1.34</v>
+      </c>
+      <c r="AP259">
+        <v>1.36</v>
+      </c>
+      <c r="AQ259">
+        <v>1.23</v>
+      </c>
+      <c r="AR259">
+        <v>1.83</v>
+      </c>
+      <c r="AS259">
+        <v>1.14</v>
+      </c>
+      <c r="AT259">
+        <v>1.92</v>
+      </c>
+      <c r="AU259">
+        <v>1.28</v>
+      </c>
+      <c r="AV259">
+        <v>1.24</v>
+      </c>
+      <c r="AW259">
+        <v>2.52</v>
+      </c>
+      <c r="AX259">
+        <v>1.85</v>
+      </c>
+      <c r="AY259">
+        <v>8</v>
+      </c>
+      <c r="AZ259">
+        <v>2.28</v>
+      </c>
+      <c r="BA259">
+        <v>1.25</v>
+      </c>
+      <c r="BB259">
+        <v>1.47</v>
+      </c>
+      <c r="BC259">
+        <v>1.85</v>
+      </c>
+      <c r="BD259">
+        <v>2.4</v>
+      </c>
+      <c r="BE259">
+        <v>3.4</v>
+      </c>
+      <c r="BF259">
+        <v>8</v>
+      </c>
+      <c r="BG259">
+        <v>7</v>
+      </c>
+      <c r="BH259">
+        <v>12</v>
+      </c>
+      <c r="BI259">
+        <v>7</v>
+      </c>
+      <c r="BJ259">
+        <v>20</v>
+      </c>
+      <c r="BK259">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="260" spans="1:63">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>2982658</v>
+      </c>
+      <c r="C260" t="s">
+        <v>63</v>
+      </c>
+      <c r="D260" t="s">
+        <v>64</v>
+      </c>
+      <c r="E260" s="2">
+        <v>44982.51041666666</v>
+      </c>
+      <c r="F260">
+        <v>26</v>
+      </c>
+      <c r="G260" t="s">
+        <v>76</v>
+      </c>
+      <c r="H260" t="s">
+        <v>71</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <v>3</v>
+      </c>
+      <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260">
+        <v>3</v>
+      </c>
+      <c r="O260" t="s">
+        <v>238</v>
+      </c>
+      <c r="P260" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q260">
+        <v>6</v>
+      </c>
+      <c r="R260">
+        <v>3</v>
+      </c>
+      <c r="S260">
+        <v>9</v>
+      </c>
+      <c r="T260">
+        <v>2.1</v>
+      </c>
+      <c r="U260">
+        <v>2.2</v>
+      </c>
+      <c r="V260">
+        <v>6.5</v>
+      </c>
+      <c r="W260">
+        <v>1.44</v>
+      </c>
+      <c r="X260">
+        <v>2.63</v>
+      </c>
+      <c r="Y260">
+        <v>3.25</v>
+      </c>
+      <c r="Z260">
+        <v>1.33</v>
+      </c>
+      <c r="AA260">
+        <v>9</v>
+      </c>
+      <c r="AB260">
+        <v>1.07</v>
+      </c>
+      <c r="AC260">
+        <v>1.5</v>
+      </c>
+      <c r="AD260">
+        <v>3.8</v>
+      </c>
+      <c r="AE260">
+        <v>7.5</v>
+      </c>
+      <c r="AF260">
+        <v>1.07</v>
+      </c>
+      <c r="AG260">
+        <v>10</v>
+      </c>
+      <c r="AH260">
+        <v>1.36</v>
+      </c>
+      <c r="AI260">
+        <v>3.15</v>
+      </c>
+      <c r="AJ260">
+        <v>2.05</v>
+      </c>
+      <c r="AK260">
+        <v>1.73</v>
+      </c>
+      <c r="AL260">
+        <v>2.1</v>
+      </c>
+      <c r="AM260">
+        <v>1.67</v>
+      </c>
+      <c r="AN260">
+        <v>1.11</v>
+      </c>
+      <c r="AO260">
+        <v>1.25</v>
+      </c>
+      <c r="AP260">
+        <v>2.43</v>
+      </c>
+      <c r="AQ260">
+        <v>1.75</v>
+      </c>
+      <c r="AR260">
+        <v>1</v>
+      </c>
+      <c r="AS260">
+        <v>1.85</v>
+      </c>
+      <c r="AT260">
+        <v>0.92</v>
+      </c>
+      <c r="AU260">
+        <v>1.72</v>
+      </c>
+      <c r="AV260">
+        <v>1.41</v>
+      </c>
+      <c r="AW260">
+        <v>3.13</v>
+      </c>
+      <c r="AX260">
+        <v>1.3</v>
+      </c>
+      <c r="AY260">
+        <v>10</v>
+      </c>
+      <c r="AZ260">
+        <v>4.42</v>
+      </c>
+      <c r="BA260">
+        <v>1.2</v>
+      </c>
+      <c r="BB260">
+        <v>1.39</v>
+      </c>
+      <c r="BC260">
+        <v>1.7</v>
+      </c>
+      <c r="BD260">
+        <v>2.2</v>
+      </c>
+      <c r="BE260">
+        <v>3</v>
+      </c>
+      <c r="BF260">
+        <v>5</v>
+      </c>
+      <c r="BG260">
+        <v>0</v>
+      </c>
+      <c r="BH260">
+        <v>15</v>
+      </c>
+      <c r="BI260">
+        <v>7</v>
+      </c>
+      <c r="BJ260">
+        <v>20</v>
+      </c>
+      <c r="BK260">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="333">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1374,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK260"/>
+  <dimension ref="A1:BK261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3809,7 +3809,7 @@
         <v>1.85</v>
       </c>
       <c r="AT13">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0.93</v>
       </c>
       <c r="AT39">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU39">
         <v>1.46</v>
@@ -11258,7 +11258,7 @@
         <v>1.14</v>
       </c>
       <c r="AT52">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU52">
         <v>1.71</v>
@@ -16797,7 +16797,7 @@
         <v>1.43</v>
       </c>
       <c r="AT81">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU81">
         <v>1.5</v>
@@ -19662,7 +19662,7 @@
         <v>1.46</v>
       </c>
       <c r="AT96">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU96">
         <v>1.64</v>
@@ -25010,7 +25010,7 @@
         <v>1</v>
       </c>
       <c r="AT124">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU124">
         <v>1.53</v>
@@ -26920,7 +26920,7 @@
         <v>1.77</v>
       </c>
       <c r="AT134">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU134">
         <v>1.98</v>
@@ -30549,7 +30549,7 @@
         <v>1.69</v>
       </c>
       <c r="AT153">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU153">
         <v>1.64</v>
@@ -35133,7 +35133,7 @@
         <v>1.58</v>
       </c>
       <c r="AT177">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU177">
         <v>1.61</v>
@@ -39526,7 +39526,7 @@
         <v>1.31</v>
       </c>
       <c r="AT200">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU200">
         <v>1.33</v>
@@ -43537,7 +43537,7 @@
         <v>2.46</v>
       </c>
       <c r="AT221">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU221">
         <v>1.8</v>
@@ -46593,7 +46593,7 @@
         <v>2.08</v>
       </c>
       <c r="AT237">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AU237">
         <v>1.84</v>
@@ -51038,6 +51038,197 @@
       </c>
       <c r="BK260">
         <v>7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:63">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>2982654</v>
+      </c>
+      <c r="C261" t="s">
+        <v>63</v>
+      </c>
+      <c r="D261" t="s">
+        <v>64</v>
+      </c>
+      <c r="E261" s="2">
+        <v>44983.51041666666</v>
+      </c>
+      <c r="F261">
+        <v>26</v>
+      </c>
+      <c r="G261" t="s">
+        <v>69</v>
+      </c>
+      <c r="H261" t="s">
+        <v>73</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>0</v>
+      </c>
+      <c r="L261">
+        <v>0</v>
+      </c>
+      <c r="M261">
+        <v>0</v>
+      </c>
+      <c r="N261">
+        <v>0</v>
+      </c>
+      <c r="O261" t="s">
+        <v>93</v>
+      </c>
+      <c r="P261" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q261">
+        <v>7</v>
+      </c>
+      <c r="R261">
+        <v>5</v>
+      </c>
+      <c r="S261">
+        <v>12</v>
+      </c>
+      <c r="T261">
+        <v>3.25</v>
+      </c>
+      <c r="U261">
+        <v>1.95</v>
+      </c>
+      <c r="V261">
+        <v>3.75</v>
+      </c>
+      <c r="W261">
+        <v>1.53</v>
+      </c>
+      <c r="X261">
+        <v>2.38</v>
+      </c>
+      <c r="Y261">
+        <v>3.75</v>
+      </c>
+      <c r="Z261">
+        <v>1.25</v>
+      </c>
+      <c r="AA261">
+        <v>11</v>
+      </c>
+      <c r="AB261">
+        <v>1.05</v>
+      </c>
+      <c r="AC261">
+        <v>2.3</v>
+      </c>
+      <c r="AD261">
+        <v>3.1</v>
+      </c>
+      <c r="AE261">
+        <v>3.2</v>
+      </c>
+      <c r="AF261">
+        <v>1.11</v>
+      </c>
+      <c r="AG261">
+        <v>6</v>
+      </c>
+      <c r="AH261">
+        <v>1.47</v>
+      </c>
+      <c r="AI261">
+        <v>2.55</v>
+      </c>
+      <c r="AJ261">
+        <v>2.48</v>
+      </c>
+      <c r="AK261">
+        <v>1.5</v>
+      </c>
+      <c r="AL261">
+        <v>2.05</v>
+      </c>
+      <c r="AM261">
+        <v>1.7</v>
+      </c>
+      <c r="AN261">
+        <v>1.35</v>
+      </c>
+      <c r="AO261">
+        <v>1.34</v>
+      </c>
+      <c r="AP261">
+        <v>1.57</v>
+      </c>
+      <c r="AQ261">
+        <v>1.08</v>
+      </c>
+      <c r="AR261">
+        <v>1.17</v>
+      </c>
+      <c r="AS261">
+        <v>1.08</v>
+      </c>
+      <c r="AT261">
+        <v>1.15</v>
+      </c>
+      <c r="AU261">
+        <v>1.45</v>
+      </c>
+      <c r="AV261">
+        <v>1.34</v>
+      </c>
+      <c r="AW261">
+        <v>2.79</v>
+      </c>
+      <c r="AX261">
+        <v>1.76</v>
+      </c>
+      <c r="AY261">
+        <v>7.7</v>
+      </c>
+      <c r="AZ261">
+        <v>2.58</v>
+      </c>
+      <c r="BA261">
+        <v>1.23</v>
+      </c>
+      <c r="BB261">
+        <v>1.45</v>
+      </c>
+      <c r="BC261">
+        <v>1.82</v>
+      </c>
+      <c r="BD261">
+        <v>2.32</v>
+      </c>
+      <c r="BE261">
+        <v>3.08</v>
+      </c>
+      <c r="BF261">
+        <v>5</v>
+      </c>
+      <c r="BG261">
+        <v>4</v>
+      </c>
+      <c r="BH261">
+        <v>19</v>
+      </c>
+      <c r="BI261">
+        <v>4</v>
+      </c>
+      <c r="BJ261">
+        <v>24</v>
+      </c>
+      <c r="BK261">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="334">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -733,6 +733,9 @@
     <t>['77', '90+3', '90+7']</t>
   </si>
   <si>
+    <t>['90', '90+2']</t>
+  </si>
+  <si>
     <t>['11', '35']</t>
   </si>
   <si>
@@ -1374,7 +1377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK261"/>
+  <dimension ref="A1:BK264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1618,7 +1621,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1705,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT2">
         <v>1.92</v>
@@ -1809,7 +1812,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1899,7 +1902,7 @@
         <v>1.42</v>
       </c>
       <c r="AT3">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2278,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT5">
         <v>0.79</v>
@@ -2472,7 +2475,7 @@
         <v>1.08</v>
       </c>
       <c r="AT6">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2573,7 +2576,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2764,7 +2767,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q8">
         <v>8</v>
@@ -2854,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="AT8">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -4382,7 +4385,7 @@
         <v>1.69</v>
       </c>
       <c r="AT16">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4483,7 +4486,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -4674,7 +4677,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q18">
         <v>8</v>
@@ -5143,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT20">
         <v>1.14</v>
@@ -5438,7 +5441,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q22">
         <v>12</v>
@@ -5525,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT22">
         <v>1.46</v>
@@ -5910,7 +5913,7 @@
         <v>1.58</v>
       </c>
       <c r="AT24">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU24">
         <v>1.55</v>
@@ -6393,7 +6396,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q27">
         <v>9</v>
@@ -6775,7 +6778,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7053,7 +7056,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT30">
         <v>0.46</v>
@@ -7730,7 +7733,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7921,7 +7924,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8494,7 +8497,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8685,7 +8688,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8876,7 +8879,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9067,7 +9070,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9157,7 +9160,7 @@
         <v>1.43</v>
       </c>
       <c r="AT41">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU41">
         <v>0.73</v>
@@ -9345,7 +9348,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT42">
         <v>1.77</v>
@@ -9539,7 +9542,7 @@
         <v>1.62</v>
       </c>
       <c r="AT43">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU43">
         <v>1.69</v>
@@ -9727,7 +9730,7 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT44">
         <v>1.92</v>
@@ -9831,7 +9834,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9918,10 +9921,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT45">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU45">
         <v>1.64</v>
@@ -10213,7 +10216,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q47">
         <v>7</v>
@@ -10404,7 +10407,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10595,7 +10598,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q49">
         <v>10</v>
@@ -11359,7 +11362,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11550,7 +11553,7 @@
         <v>93</v>
       </c>
       <c r="P54" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11741,7 +11744,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q55">
         <v>4</v>
@@ -12213,7 +12216,7 @@
         <v>0.93</v>
       </c>
       <c r="AT57">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU57">
         <v>1.49</v>
@@ -12505,7 +12508,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13165,7 +13168,7 @@
         <v>0.5</v>
       </c>
       <c r="AS62">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT62">
         <v>0.92</v>
@@ -13356,7 +13359,7 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT63">
         <v>1.75</v>
@@ -13460,7 +13463,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13651,7 +13654,7 @@
         <v>93</v>
       </c>
       <c r="P65" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13842,7 +13845,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -14033,7 +14036,7 @@
         <v>93</v>
       </c>
       <c r="P67" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14123,7 +14126,7 @@
         <v>1.42</v>
       </c>
       <c r="AT67">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU67">
         <v>1.79</v>
@@ -14314,7 +14317,7 @@
         <v>1.58</v>
       </c>
       <c r="AT68">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU68">
         <v>1.73</v>
@@ -14502,7 +14505,7 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT69">
         <v>1.77</v>
@@ -14606,7 +14609,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14696,7 +14699,7 @@
         <v>1.5</v>
       </c>
       <c r="AT70">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU70">
         <v>1.8</v>
@@ -15179,7 +15182,7 @@
         <v>106</v>
       </c>
       <c r="P73" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15370,7 +15373,7 @@
         <v>95</v>
       </c>
       <c r="P74" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -16707,7 +16710,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16898,7 +16901,7 @@
         <v>120</v>
       </c>
       <c r="P82" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17089,7 +17092,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17179,7 +17182,7 @@
         <v>0.92</v>
       </c>
       <c r="AT83">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU83">
         <v>1.51</v>
@@ -17280,7 +17283,7 @@
         <v>142</v>
       </c>
       <c r="P84" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17662,7 +17665,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17749,7 +17752,7 @@
         <v>2.25</v>
       </c>
       <c r="AS86">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT86">
         <v>1.77</v>
@@ -18044,7 +18047,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -18131,10 +18134,10 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT88">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU88">
         <v>1.79</v>
@@ -18322,10 +18325,10 @@
         <v>1.5</v>
       </c>
       <c r="AS89">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT89">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU89">
         <v>1.69</v>
@@ -18426,7 +18429,7 @@
         <v>93</v>
       </c>
       <c r="P90" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18617,7 +18620,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -19190,7 +19193,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q94">
         <v>9</v>
@@ -19381,7 +19384,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19954,7 +19957,7 @@
         <v>124</v>
       </c>
       <c r="P98" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -20232,7 +20235,7 @@
         <v>0.5</v>
       </c>
       <c r="AS99">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT99">
         <v>1.14</v>
@@ -20336,7 +20339,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20808,7 +20811,7 @@
         <v>1.38</v>
       </c>
       <c r="AT102">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU102">
         <v>1.8</v>
@@ -20909,7 +20912,7 @@
         <v>93</v>
       </c>
       <c r="P103" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -21378,7 +21381,7 @@
         <v>0.25</v>
       </c>
       <c r="AS105">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT105">
         <v>0.92</v>
@@ -21673,7 +21676,7 @@
         <v>155</v>
       </c>
       <c r="P107" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21760,7 +21763,7 @@
         <v>1.2</v>
       </c>
       <c r="AS107">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT107">
         <v>1.77</v>
@@ -21954,7 +21957,7 @@
         <v>2.08</v>
       </c>
       <c r="AT108">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU108">
         <v>1.88</v>
@@ -22145,7 +22148,7 @@
         <v>0.92</v>
       </c>
       <c r="AT109">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU109">
         <v>1.52</v>
@@ -22246,7 +22249,7 @@
         <v>150</v>
       </c>
       <c r="P110" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22437,7 +22440,7 @@
         <v>93</v>
       </c>
       <c r="P111" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q111">
         <v>2</v>
@@ -22628,7 +22631,7 @@
         <v>157</v>
       </c>
       <c r="P112" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q112">
         <v>1</v>
@@ -23583,7 +23586,7 @@
         <v>102</v>
       </c>
       <c r="P117" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -24052,7 +24055,7 @@
         <v>1.2</v>
       </c>
       <c r="AS119">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT119">
         <v>1.15</v>
@@ -24729,7 +24732,7 @@
         <v>162</v>
       </c>
       <c r="P123" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24819,7 +24822,7 @@
         <v>0.93</v>
       </c>
       <c r="AT123">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU123">
         <v>1.49</v>
@@ -24920,7 +24923,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q124">
         <v>1</v>
@@ -25198,7 +25201,7 @@
         <v>1</v>
       </c>
       <c r="AS125">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT125">
         <v>1.14</v>
@@ -25583,7 +25586,7 @@
         <v>2.08</v>
       </c>
       <c r="AT127">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU127">
         <v>1.77</v>
@@ -25684,7 +25687,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25771,7 +25774,7 @@
         <v>0.8</v>
       </c>
       <c r="AS128">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT128">
         <v>1.08</v>
@@ -25875,7 +25878,7 @@
         <v>167</v>
       </c>
       <c r="P129" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q129">
         <v>10</v>
@@ -26448,7 +26451,7 @@
         <v>168</v>
       </c>
       <c r="P132" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -26535,7 +26538,7 @@
         <v>0.67</v>
       </c>
       <c r="AS132">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT132">
         <v>1.14</v>
@@ -26729,7 +26732,7 @@
         <v>1.62</v>
       </c>
       <c r="AT133">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU133">
         <v>1.64</v>
@@ -26830,7 +26833,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27021,7 +27024,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27785,7 +27788,7 @@
         <v>128</v>
       </c>
       <c r="P139" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -27976,7 +27979,7 @@
         <v>175</v>
       </c>
       <c r="P140" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q140">
         <v>1</v>
@@ -28254,7 +28257,7 @@
         <v>1.33</v>
       </c>
       <c r="AS141">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT141">
         <v>1.33</v>
@@ -28448,7 +28451,7 @@
         <v>0.93</v>
       </c>
       <c r="AT142">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU142">
         <v>1.54</v>
@@ -28740,7 +28743,7 @@
         <v>177</v>
       </c>
       <c r="P144" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q144">
         <v>2</v>
@@ -28931,7 +28934,7 @@
         <v>178</v>
       </c>
       <c r="P145" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29212,7 +29215,7 @@
         <v>1.38</v>
       </c>
       <c r="AT146">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU146">
         <v>2.05</v>
@@ -29313,7 +29316,7 @@
         <v>93</v>
       </c>
       <c r="P147" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29403,7 +29406,7 @@
         <v>1.14</v>
       </c>
       <c r="AT147">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU147">
         <v>1.47</v>
@@ -29591,7 +29594,7 @@
         <v>0.57</v>
       </c>
       <c r="AS148">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT148">
         <v>0.79</v>
@@ -29695,7 +29698,7 @@
         <v>93</v>
       </c>
       <c r="P149" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q149">
         <v>11</v>
@@ -30546,7 +30549,7 @@
         <v>1.29</v>
       </c>
       <c r="AS153">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT153">
         <v>1.15</v>
@@ -30841,7 +30844,7 @@
         <v>93</v>
       </c>
       <c r="P155" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -31310,7 +31313,7 @@
         <v>1.14</v>
       </c>
       <c r="AS157">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT157">
         <v>0.75</v>
@@ -31414,7 +31417,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q158">
         <v>7</v>
@@ -31605,7 +31608,7 @@
         <v>182</v>
       </c>
       <c r="P159" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -32074,7 +32077,7 @@
         <v>0.43</v>
       </c>
       <c r="AS161">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT161">
         <v>0.92</v>
@@ -32178,7 +32181,7 @@
         <v>184</v>
       </c>
       <c r="P162" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q162">
         <v>7</v>
@@ -32751,7 +32754,7 @@
         <v>93</v>
       </c>
       <c r="P165" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -32841,7 +32844,7 @@
         <v>1.46</v>
       </c>
       <c r="AT165">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU165">
         <v>1.62</v>
@@ -33032,7 +33035,7 @@
         <v>1.43</v>
       </c>
       <c r="AT166">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU166">
         <v>1.34</v>
@@ -33796,7 +33799,7 @@
         <v>2.46</v>
       </c>
       <c r="AT170">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU170">
         <v>1.94</v>
@@ -33897,7 +33900,7 @@
         <v>93</v>
       </c>
       <c r="P171" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q171">
         <v>6</v>
@@ -34470,7 +34473,7 @@
         <v>93</v>
       </c>
       <c r="P174" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q174">
         <v>9</v>
@@ -34661,7 +34664,7 @@
         <v>93</v>
       </c>
       <c r="P175" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q175">
         <v>8</v>
@@ -34852,7 +34855,7 @@
         <v>122</v>
       </c>
       <c r="P176" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -34939,7 +34942,7 @@
         <v>1.5</v>
       </c>
       <c r="AS176">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT176">
         <v>1.46</v>
@@ -35321,7 +35324,7 @@
         <v>0.75</v>
       </c>
       <c r="AS178">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT178">
         <v>0.92</v>
@@ -35512,7 +35515,7 @@
         <v>0.88</v>
       </c>
       <c r="AS179">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT179">
         <v>0.77</v>
@@ -35807,7 +35810,7 @@
         <v>188</v>
       </c>
       <c r="P181" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q181">
         <v>9</v>
@@ -35998,7 +36001,7 @@
         <v>147</v>
       </c>
       <c r="P182" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q182">
         <v>2</v>
@@ -36380,7 +36383,7 @@
         <v>93</v>
       </c>
       <c r="P184" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36661,7 +36664,7 @@
         <v>1</v>
       </c>
       <c r="AT185">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU185">
         <v>1.54</v>
@@ -36762,7 +36765,7 @@
         <v>190</v>
       </c>
       <c r="P186" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q186">
         <v>2</v>
@@ -36953,7 +36956,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q187">
         <v>10</v>
@@ -37234,7 +37237,7 @@
         <v>1.08</v>
       </c>
       <c r="AT188">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU188">
         <v>1.34</v>
@@ -37616,7 +37619,7 @@
         <v>2.46</v>
       </c>
       <c r="AT190">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU190">
         <v>1.87</v>
@@ -37717,7 +37720,7 @@
         <v>193</v>
       </c>
       <c r="P191" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q191">
         <v>6</v>
@@ -38099,7 +38102,7 @@
         <v>96</v>
       </c>
       <c r="P193" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q193">
         <v>9</v>
@@ -38290,7 +38293,7 @@
         <v>194</v>
       </c>
       <c r="P194" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q194">
         <v>4</v>
@@ -38863,7 +38866,7 @@
         <v>197</v>
       </c>
       <c r="P197" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q197">
         <v>7</v>
@@ -39523,7 +39526,7 @@
         <v>1.44</v>
       </c>
       <c r="AS200">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT200">
         <v>1.15</v>
@@ -39905,7 +39908,7 @@
         <v>1.9</v>
       </c>
       <c r="AS202">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT202">
         <v>1.92</v>
@@ -40009,7 +40012,7 @@
         <v>203</v>
       </c>
       <c r="P203" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -40481,7 +40484,7 @@
         <v>1.77</v>
       </c>
       <c r="AT205">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU205">
         <v>1.83</v>
@@ -40582,7 +40585,7 @@
         <v>206</v>
       </c>
       <c r="P206" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q206">
         <v>4</v>
@@ -40672,7 +40675,7 @@
         <v>1.46</v>
       </c>
       <c r="AT206">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU206">
         <v>1.58</v>
@@ -41051,7 +41054,7 @@
         <v>0.8</v>
       </c>
       <c r="AS208">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT208">
         <v>0.79</v>
@@ -41537,7 +41540,7 @@
         <v>119</v>
       </c>
       <c r="P211" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q211">
         <v>5</v>
@@ -41919,7 +41922,7 @@
         <v>93</v>
       </c>
       <c r="P213" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q213">
         <v>3</v>
@@ -42388,7 +42391,7 @@
         <v>1.1</v>
       </c>
       <c r="AS215">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT215">
         <v>1.15</v>
@@ -42582,7 +42585,7 @@
         <v>1.43</v>
       </c>
       <c r="AT216">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU216">
         <v>1.4</v>
@@ -42683,7 +42686,7 @@
         <v>211</v>
       </c>
       <c r="P217" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q217">
         <v>5</v>
@@ -43155,7 +43158,7 @@
         <v>1.85</v>
       </c>
       <c r="AT219">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU219">
         <v>1.71</v>
@@ -43256,7 +43259,7 @@
         <v>212</v>
       </c>
       <c r="P220" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q220">
         <v>12</v>
@@ -43829,7 +43832,7 @@
         <v>215</v>
       </c>
       <c r="P223" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q223">
         <v>7</v>
@@ -44020,7 +44023,7 @@
         <v>93</v>
       </c>
       <c r="P224" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q224">
         <v>6</v>
@@ -44402,7 +44405,7 @@
         <v>217</v>
       </c>
       <c r="P226" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q226">
         <v>7</v>
@@ -44871,10 +44874,10 @@
         <v>1</v>
       </c>
       <c r="AS228">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT228">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU228">
         <v>1.31</v>
@@ -44975,7 +44978,7 @@
         <v>93</v>
       </c>
       <c r="P229" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -45253,10 +45256,10 @@
         <v>1.73</v>
       </c>
       <c r="AS230">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT230">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU230">
         <v>1.62</v>
@@ -45444,7 +45447,7 @@
         <v>2</v>
       </c>
       <c r="AS231">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT231">
         <v>1.77</v>
@@ -45739,7 +45742,7 @@
         <v>93</v>
       </c>
       <c r="P233" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q233">
         <v>11</v>
@@ -45829,7 +45832,7 @@
         <v>1.77</v>
       </c>
       <c r="AT233">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU233">
         <v>1.85</v>
@@ -45930,7 +45933,7 @@
         <v>222</v>
       </c>
       <c r="P234" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q234">
         <v>4</v>
@@ -46121,7 +46124,7 @@
         <v>223</v>
       </c>
       <c r="P235" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q235">
         <v>3</v>
@@ -46885,7 +46888,7 @@
         <v>154</v>
       </c>
       <c r="P239" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q239">
         <v>5</v>
@@ -47840,7 +47843,7 @@
         <v>227</v>
       </c>
       <c r="P244" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q244">
         <v>8</v>
@@ -47930,7 +47933,7 @@
         <v>1.42</v>
       </c>
       <c r="AT244">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU244">
         <v>1.79</v>
@@ -48118,7 +48121,7 @@
         <v>1.82</v>
       </c>
       <c r="AS245">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT245">
         <v>1.75</v>
@@ -48413,7 +48416,7 @@
         <v>102</v>
       </c>
       <c r="P247" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q247">
         <v>6</v>
@@ -48500,7 +48503,7 @@
         <v>1.83</v>
       </c>
       <c r="AS247">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT247">
         <v>1.77</v>
@@ -48604,7 +48607,7 @@
         <v>93</v>
       </c>
       <c r="P248" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q248">
         <v>6</v>
@@ -48691,7 +48694,7 @@
         <v>1.33</v>
       </c>
       <c r="AS248">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT248">
         <v>1.46</v>
@@ -49076,7 +49079,7 @@
         <v>1.5</v>
       </c>
       <c r="AT250">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU250">
         <v>1.65</v>
@@ -49177,7 +49180,7 @@
         <v>231</v>
       </c>
       <c r="P251" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q251">
         <v>6</v>
@@ -49368,7 +49371,7 @@
         <v>232</v>
       </c>
       <c r="P252" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q252">
         <v>4</v>
@@ -49559,7 +49562,7 @@
         <v>233</v>
       </c>
       <c r="P253" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q253">
         <v>6</v>
@@ -49750,7 +49753,7 @@
         <v>234</v>
       </c>
       <c r="P254" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q254">
         <v>7</v>
@@ -50132,7 +50135,7 @@
         <v>235</v>
       </c>
       <c r="P256" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -50705,7 +50708,7 @@
         <v>93</v>
       </c>
       <c r="P259" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q259">
         <v>10</v>
@@ -51229,6 +51232,579 @@
       </c>
       <c r="BK261">
         <v>8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:63">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>2982670</v>
+      </c>
+      <c r="C262" t="s">
+        <v>63</v>
+      </c>
+      <c r="D262" t="s">
+        <v>64</v>
+      </c>
+      <c r="E262" s="2">
+        <v>44985.6875</v>
+      </c>
+      <c r="F262">
+        <v>27</v>
+      </c>
+      <c r="G262" t="s">
+        <v>68</v>
+      </c>
+      <c r="H262" t="s">
+        <v>78</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+      <c r="L262">
+        <v>0</v>
+      </c>
+      <c r="M262">
+        <v>0</v>
+      </c>
+      <c r="N262">
+        <v>0</v>
+      </c>
+      <c r="O262" t="s">
+        <v>93</v>
+      </c>
+      <c r="P262" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q262">
+        <v>3</v>
+      </c>
+      <c r="R262">
+        <v>9</v>
+      </c>
+      <c r="S262">
+        <v>12</v>
+      </c>
+      <c r="T262">
+        <v>2.85</v>
+      </c>
+      <c r="U262">
+        <v>1.95</v>
+      </c>
+      <c r="V262">
+        <v>4</v>
+      </c>
+      <c r="W262">
+        <v>1.49</v>
+      </c>
+      <c r="X262">
+        <v>2.45</v>
+      </c>
+      <c r="Y262">
+        <v>3.05</v>
+      </c>
+      <c r="Z262">
+        <v>1.33</v>
+      </c>
+      <c r="AA262">
+        <v>7.9</v>
+      </c>
+      <c r="AB262">
+        <v>1.05</v>
+      </c>
+      <c r="AC262">
+        <v>2</v>
+      </c>
+      <c r="AD262">
+        <v>3.3</v>
+      </c>
+      <c r="AE262">
+        <v>3.55</v>
+      </c>
+      <c r="AF262">
+        <v>1.08</v>
+      </c>
+      <c r="AG262">
+        <v>7</v>
+      </c>
+      <c r="AH262">
+        <v>1.36</v>
+      </c>
+      <c r="AI262">
+        <v>3</v>
+      </c>
+      <c r="AJ262">
+        <v>2.07</v>
+      </c>
+      <c r="AK262">
+        <v>1.67</v>
+      </c>
+      <c r="AL262">
+        <v>1.87</v>
+      </c>
+      <c r="AM262">
+        <v>1.87</v>
+      </c>
+      <c r="AN262">
+        <v>1.25</v>
+      </c>
+      <c r="AO262">
+        <v>1.33</v>
+      </c>
+      <c r="AP262">
+        <v>1.7</v>
+      </c>
+      <c r="AQ262">
+        <v>1.69</v>
+      </c>
+      <c r="AR262">
+        <v>0.92</v>
+      </c>
+      <c r="AS262">
+        <v>1.64</v>
+      </c>
+      <c r="AT262">
+        <v>0.93</v>
+      </c>
+      <c r="AU262">
+        <v>1.59</v>
+      </c>
+      <c r="AV262">
+        <v>1.42</v>
+      </c>
+      <c r="AW262">
+        <v>3.01</v>
+      </c>
+      <c r="AX262">
+        <v>1.55</v>
+      </c>
+      <c r="AY262">
+        <v>8.5</v>
+      </c>
+      <c r="AZ262">
+        <v>2.91</v>
+      </c>
+      <c r="BA262">
+        <v>1.22</v>
+      </c>
+      <c r="BB262">
+        <v>1.37</v>
+      </c>
+      <c r="BC262">
+        <v>1.71</v>
+      </c>
+      <c r="BD262">
+        <v>2.09</v>
+      </c>
+      <c r="BE262">
+        <v>2.75</v>
+      </c>
+      <c r="BF262">
+        <v>5</v>
+      </c>
+      <c r="BG262">
+        <v>5</v>
+      </c>
+      <c r="BH262">
+        <v>10</v>
+      </c>
+      <c r="BI262">
+        <v>10</v>
+      </c>
+      <c r="BJ262">
+        <v>15</v>
+      </c>
+      <c r="BK262">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="263" spans="1:63">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>2982668</v>
+      </c>
+      <c r="C263" t="s">
+        <v>63</v>
+      </c>
+      <c r="D263" t="s">
+        <v>64</v>
+      </c>
+      <c r="E263" s="2">
+        <v>44985.6875</v>
+      </c>
+      <c r="F263">
+        <v>27</v>
+      </c>
+      <c r="G263" t="s">
+        <v>82</v>
+      </c>
+      <c r="H263" t="s">
+        <v>84</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>1</v>
+      </c>
+      <c r="K263">
+        <v>1</v>
+      </c>
+      <c r="L263">
+        <v>2</v>
+      </c>
+      <c r="M263">
+        <v>1</v>
+      </c>
+      <c r="N263">
+        <v>3</v>
+      </c>
+      <c r="O263" t="s">
+        <v>239</v>
+      </c>
+      <c r="P263" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q263">
+        <v>7</v>
+      </c>
+      <c r="R263">
+        <v>1</v>
+      </c>
+      <c r="S263">
+        <v>8</v>
+      </c>
+      <c r="T263">
+        <v>4.4</v>
+      </c>
+      <c r="U263">
+        <v>2</v>
+      </c>
+      <c r="V263">
+        <v>2.45</v>
+      </c>
+      <c r="W263">
+        <v>1.43</v>
+      </c>
+      <c r="X263">
+        <v>2.6</v>
+      </c>
+      <c r="Y263">
+        <v>2.9</v>
+      </c>
+      <c r="Z263">
+        <v>1.36</v>
+      </c>
+      <c r="AA263">
+        <v>7.5</v>
+      </c>
+      <c r="AB263">
+        <v>1.07</v>
+      </c>
+      <c r="AC263">
+        <v>3.8</v>
+      </c>
+      <c r="AD263">
+        <v>3.35</v>
+      </c>
+      <c r="AE263">
+        <v>1.91</v>
+      </c>
+      <c r="AF263">
+        <v>1.07</v>
+      </c>
+      <c r="AG263">
+        <v>7.5</v>
+      </c>
+      <c r="AH263">
+        <v>1.36</v>
+      </c>
+      <c r="AI263">
+        <v>3</v>
+      </c>
+      <c r="AJ263">
+        <v>2.15</v>
+      </c>
+      <c r="AK263">
+        <v>1.62</v>
+      </c>
+      <c r="AL263">
+        <v>1.93</v>
+      </c>
+      <c r="AM263">
+        <v>1.77</v>
+      </c>
+      <c r="AN263">
+        <v>1.88</v>
+      </c>
+      <c r="AO263">
+        <v>1.31</v>
+      </c>
+      <c r="AP263">
+        <v>1.23</v>
+      </c>
+      <c r="AQ263">
+        <v>1.31</v>
+      </c>
+      <c r="AR263">
+        <v>1.46</v>
+      </c>
+      <c r="AS263">
+        <v>1.43</v>
+      </c>
+      <c r="AT263">
+        <v>1.36</v>
+      </c>
+      <c r="AU263">
+        <v>1.38</v>
+      </c>
+      <c r="AV263">
+        <v>1.57</v>
+      </c>
+      <c r="AW263">
+        <v>2.95</v>
+      </c>
+      <c r="AX263">
+        <v>2.44</v>
+      </c>
+      <c r="AY263">
+        <v>8</v>
+      </c>
+      <c r="AZ263">
+        <v>1.75</v>
+      </c>
+      <c r="BA263">
+        <v>1.25</v>
+      </c>
+      <c r="BB263">
+        <v>1.55</v>
+      </c>
+      <c r="BC263">
+        <v>1.85</v>
+      </c>
+      <c r="BD263">
+        <v>2.3</v>
+      </c>
+      <c r="BE263">
+        <v>2.85</v>
+      </c>
+      <c r="BF263">
+        <v>6</v>
+      </c>
+      <c r="BG263">
+        <v>6</v>
+      </c>
+      <c r="BH263">
+        <v>6</v>
+      </c>
+      <c r="BI263">
+        <v>2</v>
+      </c>
+      <c r="BJ263">
+        <v>12</v>
+      </c>
+      <c r="BK263">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:63">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>2982671</v>
+      </c>
+      <c r="C264" t="s">
+        <v>63</v>
+      </c>
+      <c r="D264" t="s">
+        <v>64</v>
+      </c>
+      <c r="E264" s="2">
+        <v>44985.6875</v>
+      </c>
+      <c r="F264">
+        <v>27</v>
+      </c>
+      <c r="G264" t="s">
+        <v>65</v>
+      </c>
+      <c r="H264" t="s">
+        <v>80</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>0</v>
+      </c>
+      <c r="L264">
+        <v>0</v>
+      </c>
+      <c r="M264">
+        <v>1</v>
+      </c>
+      <c r="N264">
+        <v>1</v>
+      </c>
+      <c r="O264" t="s">
+        <v>93</v>
+      </c>
+      <c r="P264" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q264">
+        <v>5</v>
+      </c>
+      <c r="R264">
+        <v>1</v>
+      </c>
+      <c r="S264">
+        <v>6</v>
+      </c>
+      <c r="T264">
+        <v>3</v>
+      </c>
+      <c r="U264">
+        <v>1.95</v>
+      </c>
+      <c r="V264">
+        <v>3.75</v>
+      </c>
+      <c r="W264">
+        <v>1.49</v>
+      </c>
+      <c r="X264">
+        <v>2.45</v>
+      </c>
+      <c r="Y264">
+        <v>3.25</v>
+      </c>
+      <c r="Z264">
+        <v>1.3</v>
+      </c>
+      <c r="AA264">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB264">
+        <v>1.04</v>
+      </c>
+      <c r="AC264">
+        <v>2.15</v>
+      </c>
+      <c r="AD264">
+        <v>3.15</v>
+      </c>
+      <c r="AE264">
+        <v>3.31</v>
+      </c>
+      <c r="AF264">
+        <v>1.08</v>
+      </c>
+      <c r="AG264">
+        <v>7</v>
+      </c>
+      <c r="AH264">
+        <v>1.4</v>
+      </c>
+      <c r="AI264">
+        <v>2.8</v>
+      </c>
+      <c r="AJ264">
+        <v>2.19</v>
+      </c>
+      <c r="AK264">
+        <v>1.6</v>
+      </c>
+      <c r="AL264">
+        <v>1.9</v>
+      </c>
+      <c r="AM264">
+        <v>1.83</v>
+      </c>
+      <c r="AN264">
+        <v>1.28</v>
+      </c>
+      <c r="AO264">
+        <v>1.4</v>
+      </c>
+      <c r="AP264">
+        <v>1.57</v>
+      </c>
+      <c r="AQ264">
+        <v>1.69</v>
+      </c>
+      <c r="AR264">
+        <v>1.31</v>
+      </c>
+      <c r="AS264">
+        <v>1.57</v>
+      </c>
+      <c r="AT264">
+        <v>1.43</v>
+      </c>
+      <c r="AU264">
+        <v>1.7</v>
+      </c>
+      <c r="AV264">
+        <v>1.37</v>
+      </c>
+      <c r="AW264">
+        <v>3.07</v>
+      </c>
+      <c r="AX264">
+        <v>1.51</v>
+      </c>
+      <c r="AY264">
+        <v>8.5</v>
+      </c>
+      <c r="AZ264">
+        <v>3.07</v>
+      </c>
+      <c r="BA264">
+        <v>1.22</v>
+      </c>
+      <c r="BB264">
+        <v>1.36</v>
+      </c>
+      <c r="BC264">
+        <v>1.65</v>
+      </c>
+      <c r="BD264">
+        <v>2</v>
+      </c>
+      <c r="BE264">
+        <v>2.5</v>
+      </c>
+      <c r="BF264">
+        <v>2</v>
+      </c>
+      <c r="BG264">
+        <v>6</v>
+      </c>
+      <c r="BH264">
+        <v>6</v>
+      </c>
+      <c r="BI264">
+        <v>7</v>
+      </c>
+      <c r="BJ264">
+        <v>8</v>
+      </c>
+      <c r="BK264">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="344">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -739,6 +739,27 @@
     <t>['63']</t>
   </si>
   <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['41', '72']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['25', '74']</t>
+  </si>
+  <si>
+    <t>['15', '47', '50']</t>
+  </si>
+  <si>
+    <t>['7', '32']</t>
+  </si>
+  <si>
     <t>['11', '35']</t>
   </si>
   <si>
@@ -797,9 +818,6 @@
   </si>
   <si>
     <t>['7', '18', '66']</t>
-  </si>
-  <si>
-    <t>['77']</t>
   </si>
   <si>
     <t>['8', '59', '90+3']</t>
@@ -973,9 +991,6 @@
     <t>['75', '81']</t>
   </si>
   <si>
-    <t>['51']</t>
-  </si>
-  <si>
     <t>['15', '82']</t>
   </si>
   <si>
@@ -1025,6 +1040,12 @@
   </si>
   <si>
     <t>['24', '61']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['20', '45+1']</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK271"/>
+  <dimension ref="A1:BK280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1630,7 +1651,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1720,7 +1741,7 @@
         <v>1.57</v>
       </c>
       <c r="AT2">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1821,7 +1842,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2099,10 +2120,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT4">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2293,7 +2314,7 @@
         <v>1.64</v>
       </c>
       <c r="AT5">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2481,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT6">
         <v>0.93</v>
@@ -2585,7 +2606,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2776,7 +2797,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q8">
         <v>8</v>
@@ -2863,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT8">
         <v>1.36</v>
@@ -3054,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT9">
         <v>1.85</v>
@@ -3630,7 +3651,7 @@
         <v>1.5</v>
       </c>
       <c r="AT12">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3821,7 +3842,7 @@
         <v>1.85</v>
       </c>
       <c r="AT13">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4009,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT14">
         <v>0.92</v>
@@ -4203,7 +4224,7 @@
         <v>1.46</v>
       </c>
       <c r="AT15">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4391,7 +4412,7 @@
         <v>3</v>
       </c>
       <c r="AS16">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT16">
         <v>1.36</v>
@@ -4495,7 +4516,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -4582,10 +4603,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT17">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4686,7 +4707,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q18">
         <v>8</v>
@@ -4773,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT18">
         <v>0.93</v>
@@ -4967,7 +4988,7 @@
         <v>2</v>
       </c>
       <c r="AT19">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5158,7 +5179,7 @@
         <v>1.43</v>
       </c>
       <c r="AT20">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5346,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT21">
         <v>0.77</v>
@@ -5450,7 +5471,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q22">
         <v>12</v>
@@ -5728,10 +5749,10 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT23">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU23">
         <v>1.87</v>
@@ -6110,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT25">
         <v>1.85</v>
@@ -6301,7 +6322,7 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT26">
         <v>1.71</v>
@@ -6405,7 +6426,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q27">
         <v>9</v>
@@ -6495,7 +6516,7 @@
         <v>1.46</v>
       </c>
       <c r="AT27">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU27">
         <v>1.03</v>
@@ -6686,7 +6707,7 @@
         <v>1.38</v>
       </c>
       <c r="AT28">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU28">
         <v>1.97</v>
@@ -6787,7 +6808,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7256,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT31">
         <v>0.77</v>
@@ -7450,7 +7471,7 @@
         <v>2</v>
       </c>
       <c r="AT32">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU32">
         <v>2.09</v>
@@ -7638,10 +7659,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT33">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU33">
         <v>1.45</v>
@@ -7742,7 +7763,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7933,7 +7954,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8020,10 +8041,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT35">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU35">
         <v>1.41</v>
@@ -8211,7 +8232,7 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT36">
         <v>0.93</v>
@@ -8402,10 +8423,10 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT37">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU37">
         <v>2.16</v>
@@ -8506,7 +8527,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8593,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT38">
         <v>0.46</v>
@@ -8697,7 +8718,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8787,7 +8808,7 @@
         <v>0.93</v>
       </c>
       <c r="AT39">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU39">
         <v>1.46</v>
@@ -8888,7 +8909,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8978,7 +8999,7 @@
         <v>1.85</v>
       </c>
       <c r="AT40">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU40">
         <v>1.92</v>
@@ -9079,7 +9100,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9166,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT41">
         <v>1.43</v>
@@ -9548,7 +9569,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT43">
         <v>1.36</v>
@@ -9742,7 +9763,7 @@
         <v>1.43</v>
       </c>
       <c r="AT44">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU44">
         <v>1.46</v>
@@ -9843,7 +9864,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10225,7 +10246,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q47">
         <v>7</v>
@@ -10312,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT47">
         <v>1.85</v>
@@ -10416,7 +10437,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10506,7 +10527,7 @@
         <v>0.86</v>
       </c>
       <c r="AT48">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU48">
         <v>1.53</v>
@@ -10607,7 +10628,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Q49">
         <v>10</v>
@@ -11076,10 +11097,10 @@
         <v>2</v>
       </c>
       <c r="AS51">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT51">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU51">
         <v>1.62</v>
@@ -11267,10 +11288,10 @@
         <v>2</v>
       </c>
       <c r="AS52">
+        <v>1.13</v>
+      </c>
+      <c r="AT52">
         <v>1.14</v>
-      </c>
-      <c r="AT52">
-        <v>1.15</v>
       </c>
       <c r="AU52">
         <v>1.71</v>
@@ -11371,7 +11392,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11458,10 +11479,10 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT53">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU53">
         <v>1.34</v>
@@ -11562,7 +11583,7 @@
         <v>93</v>
       </c>
       <c r="P54" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -11652,7 +11673,7 @@
         <v>2</v>
       </c>
       <c r="AT54">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU54">
         <v>2.56</v>
@@ -11753,7 +11774,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q55">
         <v>4</v>
@@ -11840,7 +11861,7 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT55">
         <v>0.92</v>
@@ -12031,10 +12052,10 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT56">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU56">
         <v>2.25</v>
@@ -12413,10 +12434,10 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT58">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU58">
         <v>1.68</v>
@@ -12517,7 +12538,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12604,7 +12625,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT59">
         <v>0.46</v>
@@ -12798,7 +12819,7 @@
         <v>1.85</v>
       </c>
       <c r="AT60">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU60">
         <v>1.86</v>
@@ -12986,10 +13007,10 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT61">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU61">
         <v>1.36</v>
@@ -13472,7 +13493,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13663,7 +13684,7 @@
         <v>93</v>
       </c>
       <c r="P65" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13750,7 +13771,7 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT65">
         <v>1.71</v>
@@ -13854,7 +13875,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13944,7 +13965,7 @@
         <v>2</v>
       </c>
       <c r="AT66">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU66">
         <v>2.14</v>
@@ -14045,7 +14066,7 @@
         <v>93</v>
       </c>
       <c r="P67" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14618,7 +14639,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -15090,7 +15111,7 @@
         <v>1.85</v>
       </c>
       <c r="AT72">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU72">
         <v>1.83</v>
@@ -15191,7 +15212,7 @@
         <v>106</v>
       </c>
       <c r="P73" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15281,7 +15302,7 @@
         <v>0.93</v>
       </c>
       <c r="AT73">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU73">
         <v>1.66</v>
@@ -15382,7 +15403,7 @@
         <v>95</v>
       </c>
       <c r="P74" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15469,10 +15490,10 @@
         <v>0</v>
       </c>
       <c r="AS74">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT74">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU74">
         <v>1.41</v>
@@ -15660,10 +15681,10 @@
         <v>0.33</v>
       </c>
       <c r="AS75">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT75">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU75">
         <v>1.66</v>
@@ -15851,10 +15872,10 @@
         <v>1.67</v>
       </c>
       <c r="AS76">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT76">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU76">
         <v>1.66</v>
@@ -16042,10 +16063,10 @@
         <v>0.33</v>
       </c>
       <c r="AS77">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT77">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU77">
         <v>1.43</v>
@@ -16233,7 +16254,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT78">
         <v>0.92</v>
@@ -16424,7 +16445,7 @@
         <v>1.25</v>
       </c>
       <c r="AS79">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT79">
         <v>0.46</v>
@@ -16615,10 +16636,10 @@
         <v>0</v>
       </c>
       <c r="AS80">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT80">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU80">
         <v>1.64</v>
@@ -16719,7 +16740,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16806,10 +16827,10 @@
         <v>1.33</v>
       </c>
       <c r="AS81">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT81">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU81">
         <v>1.5</v>
@@ -16910,7 +16931,7 @@
         <v>120</v>
       </c>
       <c r="P82" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17101,7 +17122,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17292,7 +17313,7 @@
         <v>142</v>
       </c>
       <c r="P84" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17674,7 +17695,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18056,7 +18077,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -18438,7 +18459,7 @@
         <v>93</v>
       </c>
       <c r="P90" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18629,7 +18650,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -18907,7 +18928,7 @@
         <v>1</v>
       </c>
       <c r="AS92">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT92">
         <v>0.46</v>
@@ -19098,10 +19119,10 @@
         <v>1.5</v>
       </c>
       <c r="AS93">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT93">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU93">
         <v>1.44</v>
@@ -19202,7 +19223,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q94">
         <v>9</v>
@@ -19289,10 +19310,10 @@
         <v>0</v>
       </c>
       <c r="AS94">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT94">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU94">
         <v>1.74</v>
@@ -19393,7 +19414,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19480,10 +19501,10 @@
         <v>1.75</v>
       </c>
       <c r="AS95">
+        <v>1.13</v>
+      </c>
+      <c r="AT95">
         <v>1.14</v>
-      </c>
-      <c r="AT95">
-        <v>1.23</v>
       </c>
       <c r="AU95">
         <v>1.47</v>
@@ -19671,10 +19692,10 @@
         <v>1.25</v>
       </c>
       <c r="AS96">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT96">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU96">
         <v>1.64</v>
@@ -19862,10 +19883,10 @@
         <v>2.6</v>
       </c>
       <c r="AS97">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT97">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU97">
         <v>2.02</v>
@@ -19966,7 +19987,7 @@
         <v>124</v>
       </c>
       <c r="P98" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -20053,7 +20074,7 @@
         <v>2.4</v>
       </c>
       <c r="AS98">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT98">
         <v>1.71</v>
@@ -20247,7 +20268,7 @@
         <v>1.64</v>
       </c>
       <c r="AT99">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU99">
         <v>1.79</v>
@@ -20348,7 +20369,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20435,10 +20456,10 @@
         <v>0.75</v>
       </c>
       <c r="AS100">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT100">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU100">
         <v>1.54</v>
@@ -20626,10 +20647,10 @@
         <v>1.25</v>
       </c>
       <c r="AS101">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT101">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU101">
         <v>1.47</v>
@@ -20921,7 +20942,7 @@
         <v>93</v>
       </c>
       <c r="P103" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -21199,7 +21220,7 @@
         <v>1.8</v>
       </c>
       <c r="AS104">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT104">
         <v>1.85</v>
@@ -21584,7 +21605,7 @@
         <v>1.46</v>
       </c>
       <c r="AT106">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU106">
         <v>1.68</v>
@@ -21685,7 +21706,7 @@
         <v>155</v>
       </c>
       <c r="P107" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -22258,7 +22279,7 @@
         <v>150</v>
       </c>
       <c r="P110" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22449,7 +22470,7 @@
         <v>93</v>
       </c>
       <c r="P111" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q111">
         <v>2</v>
@@ -22539,7 +22560,7 @@
         <v>1.46</v>
       </c>
       <c r="AT111">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU111">
         <v>1.68</v>
@@ -22640,7 +22661,7 @@
         <v>157</v>
       </c>
       <c r="P112" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q112">
         <v>1</v>
@@ -22727,10 +22748,10 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT112">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU112">
         <v>1.3</v>
@@ -22918,7 +22939,7 @@
         <v>0.8</v>
       </c>
       <c r="AS113">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT113">
         <v>0.92</v>
@@ -23109,7 +23130,7 @@
         <v>0.83</v>
       </c>
       <c r="AS114">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT114">
         <v>0.46</v>
@@ -23303,7 +23324,7 @@
         <v>1.38</v>
       </c>
       <c r="AT115">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU115">
         <v>1.78</v>
@@ -23491,7 +23512,7 @@
         <v>2</v>
       </c>
       <c r="AS116">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT116">
         <v>1.57</v>
@@ -23595,7 +23616,7 @@
         <v>102</v>
       </c>
       <c r="P117" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23685,7 +23706,7 @@
         <v>0.86</v>
       </c>
       <c r="AT117">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU117">
         <v>1.45</v>
@@ -23873,10 +23894,10 @@
         <v>0.6</v>
       </c>
       <c r="AS118">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT118">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU118">
         <v>2.05</v>
@@ -24067,7 +24088,7 @@
         <v>1.64</v>
       </c>
       <c r="AT119">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU119">
         <v>1.7</v>
@@ -24255,10 +24276,10 @@
         <v>1.6</v>
       </c>
       <c r="AS120">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT120">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU120">
         <v>1.51</v>
@@ -24446,7 +24467,7 @@
         <v>2.5</v>
       </c>
       <c r="AS121">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT121">
         <v>1.71</v>
@@ -24637,7 +24658,7 @@
         <v>1.5</v>
       </c>
       <c r="AS122">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT122">
         <v>1.86</v>
@@ -24741,7 +24762,7 @@
         <v>162</v>
       </c>
       <c r="P123" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24932,7 +24953,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q124">
         <v>1</v>
@@ -25019,10 +25040,10 @@
         <v>1</v>
       </c>
       <c r="AS124">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT124">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU124">
         <v>1.53</v>
@@ -25213,7 +25234,7 @@
         <v>1.57</v>
       </c>
       <c r="AT125">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU125">
         <v>1.48</v>
@@ -25404,7 +25425,7 @@
         <v>1.46</v>
       </c>
       <c r="AT126">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU126">
         <v>1.67</v>
@@ -25696,7 +25717,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25786,7 +25807,7 @@
         <v>1.43</v>
       </c>
       <c r="AT128">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU128">
         <v>1.01</v>
@@ -25887,7 +25908,7 @@
         <v>167</v>
       </c>
       <c r="P129" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q129">
         <v>10</v>
@@ -26165,7 +26186,7 @@
         <v>1.17</v>
       </c>
       <c r="AS130">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT130">
         <v>0.77</v>
@@ -26460,7 +26481,7 @@
         <v>168</v>
       </c>
       <c r="P132" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -26550,7 +26571,7 @@
         <v>1.57</v>
       </c>
       <c r="AT132">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU132">
         <v>1.49</v>
@@ -26738,7 +26759,7 @@
         <v>1.67</v>
       </c>
       <c r="AS133">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT133">
         <v>0.93</v>
@@ -26842,7 +26863,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26929,10 +26950,10 @@
         <v>1.33</v>
       </c>
       <c r="AS134">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT134">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU134">
         <v>1.98</v>
@@ -27033,7 +27054,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27120,10 +27141,10 @@
         <v>1</v>
       </c>
       <c r="AS135">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT135">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU135">
         <v>1.92</v>
@@ -27693,7 +27714,7 @@
         <v>0.83</v>
       </c>
       <c r="AS138">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT138">
         <v>0.92</v>
@@ -27797,7 +27818,7 @@
         <v>128</v>
       </c>
       <c r="P139" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -27884,10 +27905,10 @@
         <v>2</v>
       </c>
       <c r="AS139">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT139">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU139">
         <v>1.58</v>
@@ -27988,7 +28009,7 @@
         <v>175</v>
       </c>
       <c r="P140" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q140">
         <v>1</v>
@@ -28075,7 +28096,7 @@
         <v>1.83</v>
       </c>
       <c r="AS140">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT140">
         <v>1.57</v>
@@ -28269,7 +28290,7 @@
         <v>1.64</v>
       </c>
       <c r="AT141">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU141">
         <v>1.58</v>
@@ -28651,7 +28672,7 @@
         <v>2</v>
       </c>
       <c r="AT143">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU143">
         <v>1.77</v>
@@ -28752,7 +28773,7 @@
         <v>177</v>
       </c>
       <c r="P144" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q144">
         <v>2</v>
@@ -28839,10 +28860,10 @@
         <v>1</v>
       </c>
       <c r="AS144">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT144">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU144">
         <v>1.43</v>
@@ -28943,7 +28964,7 @@
         <v>178</v>
       </c>
       <c r="P145" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29030,7 +29051,7 @@
         <v>0.33</v>
       </c>
       <c r="AS145">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT145">
         <v>0.93</v>
@@ -29325,7 +29346,7 @@
         <v>93</v>
       </c>
       <c r="P147" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29412,7 +29433,7 @@
         <v>1.43</v>
       </c>
       <c r="AS147">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT147">
         <v>1.36</v>
@@ -29606,7 +29627,7 @@
         <v>1.43</v>
       </c>
       <c r="AT148">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU148">
         <v>1.1</v>
@@ -29707,7 +29728,7 @@
         <v>93</v>
       </c>
       <c r="P149" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q149">
         <v>11</v>
@@ -29797,7 +29818,7 @@
         <v>1.85</v>
       </c>
       <c r="AT149">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU149">
         <v>1.74</v>
@@ -29985,7 +30006,7 @@
         <v>1.71</v>
       </c>
       <c r="AS150">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT150">
         <v>1.86</v>
@@ -30179,7 +30200,7 @@
         <v>0.86</v>
       </c>
       <c r="AT151">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU151">
         <v>1.47</v>
@@ -30367,10 +30388,10 @@
         <v>1</v>
       </c>
       <c r="AS152">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT152">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU152">
         <v>1.46</v>
@@ -30561,7 +30582,7 @@
         <v>1.57</v>
       </c>
       <c r="AT153">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU153">
         <v>1.64</v>
@@ -30853,7 +30874,7 @@
         <v>93</v>
       </c>
       <c r="P155" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -30940,7 +30961,7 @@
         <v>1.63</v>
       </c>
       <c r="AS155">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT155">
         <v>1.86</v>
@@ -31426,7 +31447,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q158">
         <v>7</v>
@@ -31516,7 +31537,7 @@
         <v>1.38</v>
       </c>
       <c r="AT158">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU158">
         <v>1.85</v>
@@ -31617,7 +31638,7 @@
         <v>182</v>
       </c>
       <c r="P159" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -31707,7 +31728,7 @@
         <v>1.46</v>
       </c>
       <c r="AT159">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU159">
         <v>1.66</v>
@@ -31895,7 +31916,7 @@
         <v>1.71</v>
       </c>
       <c r="AS160">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT160">
         <v>1.57</v>
@@ -32190,7 +32211,7 @@
         <v>184</v>
       </c>
       <c r="P162" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q162">
         <v>7</v>
@@ -32280,7 +32301,7 @@
         <v>2</v>
       </c>
       <c r="AT162">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU162">
         <v>1.71</v>
@@ -32659,10 +32680,10 @@
         <v>1</v>
       </c>
       <c r="AS164">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT164">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU164">
         <v>1.55</v>
@@ -32763,7 +32784,7 @@
         <v>93</v>
       </c>
       <c r="P165" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -32850,7 +32871,7 @@
         <v>1.63</v>
       </c>
       <c r="AS165">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT165">
         <v>1.36</v>
@@ -33041,7 +33062,7 @@
         <v>1.25</v>
       </c>
       <c r="AS166">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT166">
         <v>0.93</v>
@@ -33235,7 +33256,7 @@
         <v>0.86</v>
       </c>
       <c r="AT167">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU167">
         <v>1.48</v>
@@ -33423,7 +33444,7 @@
         <v>1.88</v>
       </c>
       <c r="AS168">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT168">
         <v>1.71</v>
@@ -33617,7 +33638,7 @@
         <v>1.5</v>
       </c>
       <c r="AT169">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU169">
         <v>2.01</v>
@@ -33805,7 +33826,7 @@
         <v>1</v>
       </c>
       <c r="AS170">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT170">
         <v>1.43</v>
@@ -33909,7 +33930,7 @@
         <v>93</v>
       </c>
       <c r="P171" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q171">
         <v>6</v>
@@ -33996,10 +34017,10 @@
         <v>1</v>
       </c>
       <c r="AS171">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT171">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU171">
         <v>1.41</v>
@@ -34187,7 +34208,7 @@
         <v>1.13</v>
       </c>
       <c r="AS172">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT172">
         <v>0.77</v>
@@ -34378,10 +34399,10 @@
         <v>2</v>
       </c>
       <c r="AS173">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT173">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU173">
         <v>1.86</v>
@@ -34482,7 +34503,7 @@
         <v>93</v>
       </c>
       <c r="P174" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q174">
         <v>9</v>
@@ -34569,7 +34590,7 @@
         <v>0.5</v>
       </c>
       <c r="AS174">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT174">
         <v>0.93</v>
@@ -34673,7 +34694,7 @@
         <v>93</v>
       </c>
       <c r="P175" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q175">
         <v>8</v>
@@ -34864,7 +34885,7 @@
         <v>122</v>
       </c>
       <c r="P176" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -35145,7 +35166,7 @@
         <v>1.46</v>
       </c>
       <c r="AT177">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU177">
         <v>1.61</v>
@@ -35527,7 +35548,7 @@
         <v>1.64</v>
       </c>
       <c r="AT179">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU179">
         <v>1.61</v>
@@ -35819,7 +35840,7 @@
         <v>188</v>
       </c>
       <c r="P181" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q181">
         <v>9</v>
@@ -35909,7 +35930,7 @@
         <v>1.46</v>
       </c>
       <c r="AT181">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU181">
         <v>1.49</v>
@@ -36010,7 +36031,7 @@
         <v>147</v>
       </c>
       <c r="P182" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q182">
         <v>2</v>
@@ -36097,10 +36118,10 @@
         <v>1</v>
       </c>
       <c r="AS182">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT182">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU182">
         <v>1.36</v>
@@ -36288,10 +36309,10 @@
         <v>1</v>
       </c>
       <c r="AS183">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT183">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU183">
         <v>1.59</v>
@@ -36392,7 +36413,7 @@
         <v>93</v>
       </c>
       <c r="P184" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36479,10 +36500,10 @@
         <v>1.11</v>
       </c>
       <c r="AS184">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT184">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU184">
         <v>1.39</v>
@@ -36670,7 +36691,7 @@
         <v>1</v>
       </c>
       <c r="AS185">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT185">
         <v>1.43</v>
@@ -36774,7 +36795,7 @@
         <v>190</v>
       </c>
       <c r="P186" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q186">
         <v>2</v>
@@ -36864,7 +36885,7 @@
         <v>0.93</v>
       </c>
       <c r="AT186">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU186">
         <v>1.56</v>
@@ -36965,7 +36986,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q187">
         <v>10</v>
@@ -37055,7 +37076,7 @@
         <v>0.86</v>
       </c>
       <c r="AT187">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU187">
         <v>1.41</v>
@@ -37243,7 +37264,7 @@
         <v>1.78</v>
       </c>
       <c r="AS188">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT188">
         <v>1.36</v>
@@ -37625,7 +37646,7 @@
         <v>1.22</v>
       </c>
       <c r="AS190">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT190">
         <v>0.93</v>
@@ -37729,7 +37750,7 @@
         <v>193</v>
       </c>
       <c r="P191" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q191">
         <v>6</v>
@@ -38007,7 +38028,7 @@
         <v>1</v>
       </c>
       <c r="AS192">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT192">
         <v>0.92</v>
@@ -38111,7 +38132,7 @@
         <v>96</v>
       </c>
       <c r="P193" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q193">
         <v>9</v>
@@ -38198,10 +38219,10 @@
         <v>0.9</v>
       </c>
       <c r="AS193">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT193">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU193">
         <v>1.42</v>
@@ -38302,7 +38323,7 @@
         <v>194</v>
       </c>
       <c r="P194" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q194">
         <v>4</v>
@@ -38392,7 +38413,7 @@
         <v>1.46</v>
       </c>
       <c r="AT194">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU194">
         <v>1.51</v>
@@ -38774,7 +38795,7 @@
         <v>1.5</v>
       </c>
       <c r="AT196">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU196">
         <v>1.89</v>
@@ -38875,7 +38896,7 @@
         <v>197</v>
       </c>
       <c r="P197" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q197">
         <v>7</v>
@@ -38962,10 +38983,10 @@
         <v>1.3</v>
       </c>
       <c r="AS197">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT197">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU197">
         <v>1.87</v>
@@ -39153,7 +39174,7 @@
         <v>1</v>
       </c>
       <c r="AS198">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT198">
         <v>0.77</v>
@@ -39344,7 +39365,7 @@
         <v>1.67</v>
       </c>
       <c r="AS199">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT199">
         <v>1.57</v>
@@ -39538,7 +39559,7 @@
         <v>1.43</v>
       </c>
       <c r="AT200">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU200">
         <v>1.33</v>
@@ -39729,7 +39750,7 @@
         <v>1.85</v>
       </c>
       <c r="AT201">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU201">
         <v>1.74</v>
@@ -39920,7 +39941,7 @@
         <v>1.64</v>
       </c>
       <c r="AT202">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU202">
         <v>1.64</v>
@@ -40021,7 +40042,7 @@
         <v>203</v>
       </c>
       <c r="P203" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -40299,7 +40320,7 @@
         <v>1.5</v>
       </c>
       <c r="AS204">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT204">
         <v>1.57</v>
@@ -40490,7 +40511,7 @@
         <v>1.1</v>
       </c>
       <c r="AS205">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT205">
         <v>0.93</v>
@@ -40594,7 +40615,7 @@
         <v>206</v>
       </c>
       <c r="P206" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q206">
         <v>4</v>
@@ -40681,7 +40702,7 @@
         <v>1.2</v>
       </c>
       <c r="AS206">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT206">
         <v>1.43</v>
@@ -41066,7 +41087,7 @@
         <v>1.57</v>
       </c>
       <c r="AT208">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU208">
         <v>1.8</v>
@@ -41448,7 +41469,7 @@
         <v>1.38</v>
       </c>
       <c r="AT210">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU210">
         <v>1.87</v>
@@ -41549,7 +41570,7 @@
         <v>119</v>
       </c>
       <c r="P211" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q211">
         <v>5</v>
@@ -41636,7 +41657,7 @@
         <v>1.6</v>
       </c>
       <c r="AS211">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT211">
         <v>1.86</v>
@@ -41931,7 +41952,7 @@
         <v>93</v>
       </c>
       <c r="P213" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q213">
         <v>3</v>
@@ -42021,7 +42042,7 @@
         <v>1.5</v>
       </c>
       <c r="AT213">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU213">
         <v>1.87</v>
@@ -42209,7 +42230,7 @@
         <v>0.7</v>
       </c>
       <c r="AS214">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT214">
         <v>0.93</v>
@@ -42403,7 +42424,7 @@
         <v>1.43</v>
       </c>
       <c r="AT215">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU215">
         <v>1.3</v>
@@ -42591,7 +42612,7 @@
         <v>1.9</v>
       </c>
       <c r="AS216">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT216">
         <v>1.36</v>
@@ -42695,7 +42716,7 @@
         <v>211</v>
       </c>
       <c r="P217" t="s">
-        <v>319</v>
+        <v>244</v>
       </c>
       <c r="Q217">
         <v>5</v>
@@ -42782,10 +42803,10 @@
         <v>1.18</v>
       </c>
       <c r="AS217">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT217">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU217">
         <v>1.59</v>
@@ -42976,7 +42997,7 @@
         <v>0.93</v>
       </c>
       <c r="AT218">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU218">
         <v>1.5</v>
@@ -43268,7 +43289,7 @@
         <v>212</v>
       </c>
       <c r="P220" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q220">
         <v>12</v>
@@ -43355,10 +43376,10 @@
         <v>1</v>
       </c>
       <c r="AS220">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT220">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU220">
         <v>1.31</v>
@@ -43546,10 +43567,10 @@
         <v>1.4</v>
       </c>
       <c r="AS221">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT221">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU221">
         <v>1.8</v>
@@ -43740,7 +43761,7 @@
         <v>1.46</v>
       </c>
       <c r="AT222">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU222">
         <v>1.66</v>
@@ -43841,7 +43862,7 @@
         <v>215</v>
       </c>
       <c r="P223" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q223">
         <v>7</v>
@@ -43928,10 +43949,10 @@
         <v>1.73</v>
       </c>
       <c r="AS223">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT223">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU223">
         <v>1.59</v>
@@ -44032,7 +44053,7 @@
         <v>93</v>
       </c>
       <c r="P224" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q224">
         <v>6</v>
@@ -44119,7 +44140,7 @@
         <v>1.7</v>
       </c>
       <c r="AS224">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT224">
         <v>1.85</v>
@@ -44414,7 +44435,7 @@
         <v>217</v>
       </c>
       <c r="P226" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q226">
         <v>7</v>
@@ -44504,7 +44525,7 @@
         <v>0.86</v>
       </c>
       <c r="AT226">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU226">
         <v>1.45</v>
@@ -44987,7 +45008,7 @@
         <v>93</v>
       </c>
       <c r="P229" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -45074,7 +45095,7 @@
         <v>1.73</v>
       </c>
       <c r="AS229">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT229">
         <v>1.86</v>
@@ -45650,7 +45671,7 @@
         <v>1.85</v>
       </c>
       <c r="AT232">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU232">
         <v>1.74</v>
@@ -45751,7 +45772,7 @@
         <v>93</v>
       </c>
       <c r="P233" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q233">
         <v>11</v>
@@ -45838,7 +45859,7 @@
         <v>1.17</v>
       </c>
       <c r="AS233">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT233">
         <v>1.43</v>
@@ -45942,7 +45963,7 @@
         <v>222</v>
       </c>
       <c r="P234" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q234">
         <v>4</v>
@@ -46133,7 +46154,7 @@
         <v>223</v>
       </c>
       <c r="P235" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q235">
         <v>3</v>
@@ -46220,7 +46241,7 @@
         <v>0.91</v>
       </c>
       <c r="AS235">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT235">
         <v>0.93</v>
@@ -46411,10 +46432,10 @@
         <v>1.08</v>
       </c>
       <c r="AS236">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT236">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU236">
         <v>1.3</v>
@@ -46605,7 +46626,7 @@
         <v>2</v>
       </c>
       <c r="AT237">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU237">
         <v>1.84</v>
@@ -46793,10 +46814,10 @@
         <v>1.08</v>
       </c>
       <c r="AS238">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT238">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU238">
         <v>1.77</v>
@@ -46897,7 +46918,7 @@
         <v>154</v>
       </c>
       <c r="P239" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q239">
         <v>5</v>
@@ -46984,10 +47005,10 @@
         <v>1</v>
       </c>
       <c r="AS239">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT239">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU239">
         <v>1.59</v>
@@ -47175,10 +47196,10 @@
         <v>0.92</v>
       </c>
       <c r="AS240">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT240">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU240">
         <v>1.42</v>
@@ -47557,10 +47578,10 @@
         <v>1.36</v>
       </c>
       <c r="AS242">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT242">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU242">
         <v>1.58</v>
@@ -47852,7 +47873,7 @@
         <v>227</v>
       </c>
       <c r="P244" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q244">
         <v>8</v>
@@ -48321,7 +48342,7 @@
         <v>0.92</v>
       </c>
       <c r="AS246">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT246">
         <v>0.93</v>
@@ -48425,7 +48446,7 @@
         <v>102</v>
       </c>
       <c r="P247" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q247">
         <v>6</v>
@@ -48616,7 +48637,7 @@
         <v>93</v>
       </c>
       <c r="P248" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q248">
         <v>6</v>
@@ -48897,7 +48918,7 @@
         <v>1.5</v>
       </c>
       <c r="AT249">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU249">
         <v>1.82</v>
@@ -49189,7 +49210,7 @@
         <v>231</v>
       </c>
       <c r="P251" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q251">
         <v>6</v>
@@ -49380,7 +49401,7 @@
         <v>232</v>
       </c>
       <c r="P252" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q252">
         <v>4</v>
@@ -49467,10 +49488,10 @@
         <v>1</v>
       </c>
       <c r="AS252">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT252">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU252">
         <v>1.81</v>
@@ -49571,7 +49592,7 @@
         <v>233</v>
       </c>
       <c r="P253" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q253">
         <v>6</v>
@@ -49658,10 +49679,10 @@
         <v>0.85</v>
       </c>
       <c r="AS253">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT253">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU253">
         <v>1.61</v>
@@ -49762,7 +49783,7 @@
         <v>234</v>
       </c>
       <c r="P254" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q254">
         <v>7</v>
@@ -49849,10 +49870,10 @@
         <v>1</v>
       </c>
       <c r="AS254">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT254">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU254">
         <v>1.57</v>
@@ -50043,7 +50064,7 @@
         <v>0.93</v>
       </c>
       <c r="AT255">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU255">
         <v>1.52</v>
@@ -50144,7 +50165,7 @@
         <v>235</v>
       </c>
       <c r="P256" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -50231,10 +50252,10 @@
         <v>1.23</v>
       </c>
       <c r="AS256">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AT256">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU256">
         <v>1.84</v>
@@ -50422,10 +50443,10 @@
         <v>1.08</v>
       </c>
       <c r="AS257">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT257">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU257">
         <v>1.35</v>
@@ -50613,7 +50634,7 @@
         <v>0.5</v>
       </c>
       <c r="AS258">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT258">
         <v>0.46</v>
@@ -50717,7 +50738,7 @@
         <v>93</v>
       </c>
       <c r="P259" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q259">
         <v>10</v>
@@ -50804,10 +50825,10 @@
         <v>1.83</v>
       </c>
       <c r="AS259">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT259">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AU259">
         <v>1.28</v>
@@ -51186,10 +51207,10 @@
         <v>1.17</v>
       </c>
       <c r="AS261">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT261">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AU261">
         <v>1.45</v>
@@ -52054,7 +52075,7 @@
         <v>93</v>
       </c>
       <c r="P266" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q266">
         <v>9</v>
@@ -52245,7 +52266,7 @@
         <v>93</v>
       </c>
       <c r="P267" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q267">
         <v>5</v>
@@ -52526,7 +52547,7 @@
         <v>1.5</v>
       </c>
       <c r="AT268">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU268">
         <v>1.78</v>
@@ -52818,7 +52839,7 @@
         <v>93</v>
       </c>
       <c r="P270" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q270">
         <v>8</v>
@@ -52905,7 +52926,7 @@
         <v>1.77</v>
       </c>
       <c r="AS270">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT270">
         <v>1.86</v>
@@ -53151,6 +53172,1725 @@
       </c>
       <c r="BK271">
         <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:63">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>2982679</v>
+      </c>
+      <c r="C272" t="s">
+        <v>63</v>
+      </c>
+      <c r="D272" t="s">
+        <v>64</v>
+      </c>
+      <c r="E272" s="2">
+        <v>44989.41666666666</v>
+      </c>
+      <c r="F272">
+        <v>28</v>
+      </c>
+      <c r="G272" t="s">
+        <v>80</v>
+      </c>
+      <c r="H272" t="s">
+        <v>68</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>1</v>
+      </c>
+      <c r="K272">
+        <v>1</v>
+      </c>
+      <c r="L272">
+        <v>1</v>
+      </c>
+      <c r="M272">
+        <v>1</v>
+      </c>
+      <c r="N272">
+        <v>2</v>
+      </c>
+      <c r="O272" t="s">
+        <v>241</v>
+      </c>
+      <c r="P272" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q272">
+        <v>1</v>
+      </c>
+      <c r="R272">
+        <v>6</v>
+      </c>
+      <c r="S272">
+        <v>7</v>
+      </c>
+      <c r="T272">
+        <v>2.65</v>
+      </c>
+      <c r="U272">
+        <v>2</v>
+      </c>
+      <c r="V272">
+        <v>4.33</v>
+      </c>
+      <c r="W272">
+        <v>1.49</v>
+      </c>
+      <c r="X272">
+        <v>2.45</v>
+      </c>
+      <c r="Y272">
+        <v>3.25</v>
+      </c>
+      <c r="Z272">
+        <v>1.3</v>
+      </c>
+      <c r="AA272">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB272">
+        <v>1.04</v>
+      </c>
+      <c r="AC272">
+        <v>2.1</v>
+      </c>
+      <c r="AD272">
+        <v>3.15</v>
+      </c>
+      <c r="AE272">
+        <v>3.65</v>
+      </c>
+      <c r="AF272">
+        <v>1.08</v>
+      </c>
+      <c r="AG272">
+        <v>7</v>
+      </c>
+      <c r="AH272">
+        <v>1.4</v>
+      </c>
+      <c r="AI272">
+        <v>2.8</v>
+      </c>
+      <c r="AJ272">
+        <v>2.18</v>
+      </c>
+      <c r="AK272">
+        <v>1.6</v>
+      </c>
+      <c r="AL272">
+        <v>1.95</v>
+      </c>
+      <c r="AM272">
+        <v>1.78</v>
+      </c>
+      <c r="AN272">
+        <v>1.2</v>
+      </c>
+      <c r="AO272">
+        <v>1.28</v>
+      </c>
+      <c r="AP272">
+        <v>1.8</v>
+      </c>
+      <c r="AQ272">
+        <v>1.62</v>
+      </c>
+      <c r="AR272">
+        <v>1.08</v>
+      </c>
+      <c r="AS272">
+        <v>1.57</v>
+      </c>
+      <c r="AT272">
+        <v>1.07</v>
+      </c>
+      <c r="AU272">
+        <v>1.58</v>
+      </c>
+      <c r="AV272">
+        <v>1.4</v>
+      </c>
+      <c r="AW272">
+        <v>2.98</v>
+      </c>
+      <c r="AX272">
+        <v>1.84</v>
+      </c>
+      <c r="AY272">
+        <v>7.6</v>
+      </c>
+      <c r="AZ272">
+        <v>2.44</v>
+      </c>
+      <c r="BA272">
+        <v>1.25</v>
+      </c>
+      <c r="BB272">
+        <v>1.55</v>
+      </c>
+      <c r="BC272">
+        <v>1.85</v>
+      </c>
+      <c r="BD272">
+        <v>2.3</v>
+      </c>
+      <c r="BE272">
+        <v>3.28</v>
+      </c>
+      <c r="BF272">
+        <v>5</v>
+      </c>
+      <c r="BG272">
+        <v>7</v>
+      </c>
+      <c r="BH272">
+        <v>10</v>
+      </c>
+      <c r="BI272">
+        <v>6</v>
+      </c>
+      <c r="BJ272">
+        <v>15</v>
+      </c>
+      <c r="BK272">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="273" spans="1:63">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>2982680</v>
+      </c>
+      <c r="C273" t="s">
+        <v>63</v>
+      </c>
+      <c r="D273" t="s">
+        <v>64</v>
+      </c>
+      <c r="E273" s="2">
+        <v>44989.51041666666</v>
+      </c>
+      <c r="F273">
+        <v>28</v>
+      </c>
+      <c r="G273" t="s">
+        <v>84</v>
+      </c>
+      <c r="H273" t="s">
+        <v>65</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>0</v>
+      </c>
+      <c r="L273">
+        <v>0</v>
+      </c>
+      <c r="M273">
+        <v>1</v>
+      </c>
+      <c r="N273">
+        <v>1</v>
+      </c>
+      <c r="O273" t="s">
+        <v>93</v>
+      </c>
+      <c r="P273" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q273">
+        <v>1</v>
+      </c>
+      <c r="R273">
+        <v>7</v>
+      </c>
+      <c r="S273">
+        <v>8</v>
+      </c>
+      <c r="T273">
+        <v>3.2</v>
+      </c>
+      <c r="U273">
+        <v>1.87</v>
+      </c>
+      <c r="V273">
+        <v>3.6</v>
+      </c>
+      <c r="W273">
+        <v>1.54</v>
+      </c>
+      <c r="X273">
+        <v>2.34</v>
+      </c>
+      <c r="Y273">
+        <v>3.6</v>
+      </c>
+      <c r="Z273">
+        <v>1.25</v>
+      </c>
+      <c r="AA273">
+        <v>9.85</v>
+      </c>
+      <c r="AB273">
+        <v>1.03</v>
+      </c>
+      <c r="AC273">
+        <v>2.5</v>
+      </c>
+      <c r="AD273">
+        <v>3.05</v>
+      </c>
+      <c r="AE273">
+        <v>2.9</v>
+      </c>
+      <c r="AF273">
+        <v>1.11</v>
+      </c>
+      <c r="AG273">
+        <v>6</v>
+      </c>
+      <c r="AH273">
+        <v>1.47</v>
+      </c>
+      <c r="AI273">
+        <v>2.55</v>
+      </c>
+      <c r="AJ273">
+        <v>2.38</v>
+      </c>
+      <c r="AK273">
+        <v>1.51</v>
+      </c>
+      <c r="AL273">
+        <v>2</v>
+      </c>
+      <c r="AM273">
+        <v>1.7</v>
+      </c>
+      <c r="AN273">
+        <v>1.37</v>
+      </c>
+      <c r="AO273">
+        <v>1.38</v>
+      </c>
+      <c r="AP273">
+        <v>1.49</v>
+      </c>
+      <c r="AQ273">
+        <v>1.77</v>
+      </c>
+      <c r="AR273">
+        <v>1.15</v>
+      </c>
+      <c r="AS273">
+        <v>1.64</v>
+      </c>
+      <c r="AT273">
+        <v>1.29</v>
+      </c>
+      <c r="AU273">
+        <v>1.83</v>
+      </c>
+      <c r="AV273">
+        <v>1.76</v>
+      </c>
+      <c r="AW273">
+        <v>3.59</v>
+      </c>
+      <c r="AX273">
+        <v>2.22</v>
+      </c>
+      <c r="AY273">
+        <v>7.7</v>
+      </c>
+      <c r="AZ273">
+        <v>1.95</v>
+      </c>
+      <c r="BA273">
+        <v>1.18</v>
+      </c>
+      <c r="BB273">
+        <v>1.43</v>
+      </c>
+      <c r="BC273">
+        <v>1.67</v>
+      </c>
+      <c r="BD273">
+        <v>2.05</v>
+      </c>
+      <c r="BE273">
+        <v>2.6</v>
+      </c>
+      <c r="BF273">
+        <v>4</v>
+      </c>
+      <c r="BG273">
+        <v>7</v>
+      </c>
+      <c r="BH273">
+        <v>5</v>
+      </c>
+      <c r="BI273">
+        <v>4</v>
+      </c>
+      <c r="BJ273">
+        <v>9</v>
+      </c>
+      <c r="BK273">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="274" spans="1:63">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>2982681</v>
+      </c>
+      <c r="C274" t="s">
+        <v>63</v>
+      </c>
+      <c r="D274" t="s">
+        <v>64</v>
+      </c>
+      <c r="E274" s="2">
+        <v>44990.45833333334</v>
+      </c>
+      <c r="F274">
+        <v>28</v>
+      </c>
+      <c r="G274" t="s">
+        <v>71</v>
+      </c>
+      <c r="H274" t="s">
+        <v>66</v>
+      </c>
+      <c r="I274">
+        <v>1</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>1</v>
+      </c>
+      <c r="L274">
+        <v>2</v>
+      </c>
+      <c r="M274">
+        <v>1</v>
+      </c>
+      <c r="N274">
+        <v>3</v>
+      </c>
+      <c r="O274" t="s">
+        <v>242</v>
+      </c>
+      <c r="P274" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q274">
+        <v>3</v>
+      </c>
+      <c r="R274">
+        <v>3</v>
+      </c>
+      <c r="S274">
+        <v>6</v>
+      </c>
+      <c r="T274">
+        <v>3.3</v>
+      </c>
+      <c r="U274">
+        <v>1.87</v>
+      </c>
+      <c r="V274">
+        <v>3.4</v>
+      </c>
+      <c r="W274">
+        <v>1.53</v>
+      </c>
+      <c r="X274">
+        <v>2.3</v>
+      </c>
+      <c r="Y274">
+        <v>3.4</v>
+      </c>
+      <c r="Z274">
+        <v>1.28</v>
+      </c>
+      <c r="AA274">
+        <v>9.5</v>
+      </c>
+      <c r="AB274">
+        <v>1.05</v>
+      </c>
+      <c r="AC274">
+        <v>2.46</v>
+      </c>
+      <c r="AD274">
+        <v>3.09</v>
+      </c>
+      <c r="AE274">
+        <v>2.6</v>
+      </c>
+      <c r="AF274">
+        <v>1.11</v>
+      </c>
+      <c r="AG274">
+        <v>7.25</v>
+      </c>
+      <c r="AH274">
+        <v>1.46</v>
+      </c>
+      <c r="AI274">
+        <v>2.5</v>
+      </c>
+      <c r="AJ274">
+        <v>2.37</v>
+      </c>
+      <c r="AK274">
+        <v>1.51</v>
+      </c>
+      <c r="AL274">
+        <v>2</v>
+      </c>
+      <c r="AM274">
+        <v>1.7</v>
+      </c>
+      <c r="AN274">
+        <v>1.42</v>
+      </c>
+      <c r="AO274">
+        <v>1.3</v>
+      </c>
+      <c r="AP274">
+        <v>1.45</v>
+      </c>
+      <c r="AQ274">
+        <v>0.93</v>
+      </c>
+      <c r="AR274">
+        <v>1.14</v>
+      </c>
+      <c r="AS274">
+        <v>1.07</v>
+      </c>
+      <c r="AT274">
+        <v>1.07</v>
+      </c>
+      <c r="AU274">
+        <v>1.62</v>
+      </c>
+      <c r="AV274">
+        <v>1.44</v>
+      </c>
+      <c r="AW274">
+        <v>3.06</v>
+      </c>
+      <c r="AX274">
+        <v>2.09</v>
+      </c>
+      <c r="AY274">
+        <v>7.3</v>
+      </c>
+      <c r="AZ274">
+        <v>2.09</v>
+      </c>
+      <c r="BA274">
+        <v>1.27</v>
+      </c>
+      <c r="BB274">
+        <v>1.52</v>
+      </c>
+      <c r="BC274">
+        <v>1.92</v>
+      </c>
+      <c r="BD274">
+        <v>2.49</v>
+      </c>
+      <c r="BE274">
+        <v>3.42</v>
+      </c>
+      <c r="BF274">
+        <v>5</v>
+      </c>
+      <c r="BG274">
+        <v>4</v>
+      </c>
+      <c r="BH274">
+        <v>4</v>
+      </c>
+      <c r="BI274">
+        <v>3</v>
+      </c>
+      <c r="BJ274">
+        <v>9</v>
+      </c>
+      <c r="BK274">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:63">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>2982675</v>
+      </c>
+      <c r="C275" t="s">
+        <v>63</v>
+      </c>
+      <c r="D275" t="s">
+        <v>64</v>
+      </c>
+      <c r="E275" s="2">
+        <v>44990.45833333334</v>
+      </c>
+      <c r="F275">
+        <v>28</v>
+      </c>
+      <c r="G275" t="s">
+        <v>72</v>
+      </c>
+      <c r="H275" t="s">
+        <v>81</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>0</v>
+      </c>
+      <c r="L275">
+        <v>1</v>
+      </c>
+      <c r="M275">
+        <v>1</v>
+      </c>
+      <c r="N275">
+        <v>2</v>
+      </c>
+      <c r="O275" t="s">
+        <v>243</v>
+      </c>
+      <c r="P275" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q275">
+        <v>6</v>
+      </c>
+      <c r="R275">
+        <v>3</v>
+      </c>
+      <c r="S275">
+        <v>9</v>
+      </c>
+      <c r="T275">
+        <v>3.4</v>
+      </c>
+      <c r="U275">
+        <v>1.87</v>
+      </c>
+      <c r="V275">
+        <v>3.4</v>
+      </c>
+      <c r="W275">
+        <v>1.53</v>
+      </c>
+      <c r="X275">
+        <v>2.3</v>
+      </c>
+      <c r="Y275">
+        <v>3.4</v>
+      </c>
+      <c r="Z275">
+        <v>1.27</v>
+      </c>
+      <c r="AA275">
+        <v>9.75</v>
+      </c>
+      <c r="AB275">
+        <v>1.05</v>
+      </c>
+      <c r="AC275">
+        <v>2.54</v>
+      </c>
+      <c r="AD275">
+        <v>3.06</v>
+      </c>
+      <c r="AE275">
+        <v>2.54</v>
+      </c>
+      <c r="AF275">
+        <v>1.1</v>
+      </c>
+      <c r="AG275">
+        <v>7.55</v>
+      </c>
+      <c r="AH275">
+        <v>1.48</v>
+      </c>
+      <c r="AI275">
+        <v>2.67</v>
+      </c>
+      <c r="AJ275">
+        <v>2.26</v>
+      </c>
+      <c r="AK275">
+        <v>1.56</v>
+      </c>
+      <c r="AL275">
+        <v>2</v>
+      </c>
+      <c r="AM275">
+        <v>1.7</v>
+      </c>
+      <c r="AN275">
+        <v>1.45</v>
+      </c>
+      <c r="AO275">
+        <v>1.3</v>
+      </c>
+      <c r="AP275">
+        <v>1.42</v>
+      </c>
+      <c r="AQ275">
+        <v>1.14</v>
+      </c>
+      <c r="AR275">
+        <v>0.77</v>
+      </c>
+      <c r="AS275">
+        <v>1.13</v>
+      </c>
+      <c r="AT275">
+        <v>0.79</v>
+      </c>
+      <c r="AU275">
+        <v>1.35</v>
+      </c>
+      <c r="AV275">
+        <v>1.43</v>
+      </c>
+      <c r="AW275">
+        <v>2.78</v>
+      </c>
+      <c r="AX275">
+        <v>2.04</v>
+      </c>
+      <c r="AY275">
+        <v>7.6</v>
+      </c>
+      <c r="AZ275">
+        <v>2.12</v>
+      </c>
+      <c r="BA275">
+        <v>1.21</v>
+      </c>
+      <c r="BB275">
+        <v>1.41</v>
+      </c>
+      <c r="BC275">
+        <v>1.75</v>
+      </c>
+      <c r="BD275">
+        <v>2.19</v>
+      </c>
+      <c r="BE275">
+        <v>2.93</v>
+      </c>
+      <c r="BF275">
+        <v>7</v>
+      </c>
+      <c r="BG275">
+        <v>5</v>
+      </c>
+      <c r="BH275">
+        <v>7</v>
+      </c>
+      <c r="BI275">
+        <v>8</v>
+      </c>
+      <c r="BJ275">
+        <v>14</v>
+      </c>
+      <c r="BK275">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="276" spans="1:63">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>2982676</v>
+      </c>
+      <c r="C276" t="s">
+        <v>63</v>
+      </c>
+      <c r="D276" t="s">
+        <v>64</v>
+      </c>
+      <c r="E276" s="2">
+        <v>44990.45833333334</v>
+      </c>
+      <c r="F276">
+        <v>28</v>
+      </c>
+      <c r="G276" t="s">
+        <v>67</v>
+      </c>
+      <c r="H276" t="s">
+        <v>74</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>0</v>
+      </c>
+      <c r="L276">
+        <v>1</v>
+      </c>
+      <c r="M276">
+        <v>0</v>
+      </c>
+      <c r="N276">
+        <v>1</v>
+      </c>
+      <c r="O276" t="s">
+        <v>244</v>
+      </c>
+      <c r="P276" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q276">
+        <v>2</v>
+      </c>
+      <c r="R276">
+        <v>4</v>
+      </c>
+      <c r="S276">
+        <v>6</v>
+      </c>
+      <c r="T276">
+        <v>3.1</v>
+      </c>
+      <c r="U276">
+        <v>1.95</v>
+      </c>
+      <c r="V276">
+        <v>3.5</v>
+      </c>
+      <c r="W276">
+        <v>1.47</v>
+      </c>
+      <c r="X276">
+        <v>2.5</v>
+      </c>
+      <c r="Y276">
+        <v>3.2</v>
+      </c>
+      <c r="Z276">
+        <v>1.31</v>
+      </c>
+      <c r="AA276">
+        <v>8.75</v>
+      </c>
+      <c r="AB276">
+        <v>1.06</v>
+      </c>
+      <c r="AC276">
+        <v>2.29</v>
+      </c>
+      <c r="AD276">
+        <v>3.18</v>
+      </c>
+      <c r="AE276">
+        <v>2.75</v>
+      </c>
+      <c r="AF276">
+        <v>1.08</v>
+      </c>
+      <c r="AG276">
+        <v>7</v>
+      </c>
+      <c r="AH276">
+        <v>1.4</v>
+      </c>
+      <c r="AI276">
+        <v>2.75</v>
+      </c>
+      <c r="AJ276">
+        <v>1.98</v>
+      </c>
+      <c r="AK276">
+        <v>1.73</v>
+      </c>
+      <c r="AL276">
+        <v>1.9</v>
+      </c>
+      <c r="AM276">
+        <v>1.78</v>
+      </c>
+      <c r="AN276">
+        <v>1.39</v>
+      </c>
+      <c r="AO276">
+        <v>1.33</v>
+      </c>
+      <c r="AP276">
+        <v>1.53</v>
+      </c>
+      <c r="AQ276">
+        <v>1.46</v>
+      </c>
+      <c r="AR276">
+        <v>1.14</v>
+      </c>
+      <c r="AS276">
+        <v>1.57</v>
+      </c>
+      <c r="AT276">
+        <v>1.07</v>
+      </c>
+      <c r="AU276">
+        <v>1.71</v>
+      </c>
+      <c r="AV276">
+        <v>1.47</v>
+      </c>
+      <c r="AW276">
+        <v>3.18</v>
+      </c>
+      <c r="AX276">
+        <v>2.47</v>
+      </c>
+      <c r="AY276">
+        <v>7.8</v>
+      </c>
+      <c r="AZ276">
+        <v>1.81</v>
+      </c>
+      <c r="BA276">
+        <v>1.21</v>
+      </c>
+      <c r="BB276">
+        <v>1.41</v>
+      </c>
+      <c r="BC276">
+        <v>1.75</v>
+      </c>
+      <c r="BD276">
+        <v>2.19</v>
+      </c>
+      <c r="BE276">
+        <v>2.93</v>
+      </c>
+      <c r="BF276">
+        <v>5</v>
+      </c>
+      <c r="BG276">
+        <v>2</v>
+      </c>
+      <c r="BH276">
+        <v>4</v>
+      </c>
+      <c r="BI276">
+        <v>8</v>
+      </c>
+      <c r="BJ276">
+        <v>9</v>
+      </c>
+      <c r="BK276">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:63">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>2982674</v>
+      </c>
+      <c r="C277" t="s">
+        <v>63</v>
+      </c>
+      <c r="D277" t="s">
+        <v>64</v>
+      </c>
+      <c r="E277" s="2">
+        <v>44990.45833333334</v>
+      </c>
+      <c r="F277">
+        <v>28</v>
+      </c>
+      <c r="G277" t="s">
+        <v>69</v>
+      </c>
+      <c r="H277" t="s">
+        <v>75</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>1</v>
+      </c>
+      <c r="K277">
+        <v>1</v>
+      </c>
+      <c r="L277">
+        <v>0</v>
+      </c>
+      <c r="M277">
+        <v>1</v>
+      </c>
+      <c r="N277">
+        <v>1</v>
+      </c>
+      <c r="O277" t="s">
+        <v>93</v>
+      </c>
+      <c r="P277" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q277">
+        <v>7</v>
+      </c>
+      <c r="R277">
+        <v>0</v>
+      </c>
+      <c r="S277">
+        <v>7</v>
+      </c>
+      <c r="T277">
+        <v>3.4</v>
+      </c>
+      <c r="U277">
+        <v>1.88</v>
+      </c>
+      <c r="V277">
+        <v>3.4</v>
+      </c>
+      <c r="W277">
+        <v>1.53</v>
+      </c>
+      <c r="X277">
+        <v>2.3</v>
+      </c>
+      <c r="Y277">
+        <v>3.4</v>
+      </c>
+      <c r="Z277">
+        <v>1.27</v>
+      </c>
+      <c r="AA277">
+        <v>9.75</v>
+      </c>
+      <c r="AB277">
+        <v>1.05</v>
+      </c>
+      <c r="AC277">
+        <v>2.54</v>
+      </c>
+      <c r="AD277">
+        <v>3.06</v>
+      </c>
+      <c r="AE277">
+        <v>2.54</v>
+      </c>
+      <c r="AF277">
+        <v>1.1</v>
+      </c>
+      <c r="AG277">
+        <v>7.65</v>
+      </c>
+      <c r="AH277">
+        <v>1.5</v>
+      </c>
+      <c r="AI277">
+        <v>2.45</v>
+      </c>
+      <c r="AJ277">
+        <v>2.28</v>
+      </c>
+      <c r="AK277">
+        <v>1.55</v>
+      </c>
+      <c r="AL277">
+        <v>2.05</v>
+      </c>
+      <c r="AM277">
+        <v>1.68</v>
+      </c>
+      <c r="AN277">
+        <v>1.44</v>
+      </c>
+      <c r="AO277">
+        <v>1.36</v>
+      </c>
+      <c r="AP277">
+        <v>1.44</v>
+      </c>
+      <c r="AQ277">
+        <v>1.08</v>
+      </c>
+      <c r="AR277">
+        <v>1.92</v>
+      </c>
+      <c r="AS277">
+        <v>1</v>
+      </c>
+      <c r="AT277">
+        <v>2</v>
+      </c>
+      <c r="AU277">
+        <v>1.52</v>
+      </c>
+      <c r="AV277">
+        <v>1.27</v>
+      </c>
+      <c r="AW277">
+        <v>2.79</v>
+      </c>
+      <c r="AX277">
+        <v>1.74</v>
+      </c>
+      <c r="AY277">
+        <v>7.7</v>
+      </c>
+      <c r="AZ277">
+        <v>2.63</v>
+      </c>
+      <c r="BA277">
+        <v>1.27</v>
+      </c>
+      <c r="BB277">
+        <v>1.52</v>
+      </c>
+      <c r="BC277">
+        <v>1.92</v>
+      </c>
+      <c r="BD277">
+        <v>2.49</v>
+      </c>
+      <c r="BE277">
+        <v>3.42</v>
+      </c>
+      <c r="BF277">
+        <v>3</v>
+      </c>
+      <c r="BG277">
+        <v>3</v>
+      </c>
+      <c r="BH277">
+        <v>4</v>
+      </c>
+      <c r="BI277">
+        <v>3</v>
+      </c>
+      <c r="BJ277">
+        <v>7</v>
+      </c>
+      <c r="BK277">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278" spans="1:63">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>2982682</v>
+      </c>
+      <c r="C278" t="s">
+        <v>63</v>
+      </c>
+      <c r="D278" t="s">
+        <v>64</v>
+      </c>
+      <c r="E278" s="2">
+        <v>44990.45833333334</v>
+      </c>
+      <c r="F278">
+        <v>28</v>
+      </c>
+      <c r="G278" t="s">
+        <v>79</v>
+      </c>
+      <c r="H278" t="s">
+        <v>77</v>
+      </c>
+      <c r="I278">
+        <v>1</v>
+      </c>
+      <c r="J278">
+        <v>1</v>
+      </c>
+      <c r="K278">
+        <v>2</v>
+      </c>
+      <c r="L278">
+        <v>2</v>
+      </c>
+      <c r="M278">
+        <v>1</v>
+      </c>
+      <c r="N278">
+        <v>3</v>
+      </c>
+      <c r="O278" t="s">
+        <v>245</v>
+      </c>
+      <c r="P278" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q278">
+        <v>9</v>
+      </c>
+      <c r="R278">
+        <v>3</v>
+      </c>
+      <c r="S278">
+        <v>12</v>
+      </c>
+      <c r="T278">
+        <v>3.4</v>
+      </c>
+      <c r="U278">
+        <v>1.87</v>
+      </c>
+      <c r="V278">
+        <v>3.4</v>
+      </c>
+      <c r="W278">
+        <v>1.53</v>
+      </c>
+      <c r="X278">
+        <v>2.3</v>
+      </c>
+      <c r="Y278">
+        <v>3.4</v>
+      </c>
+      <c r="Z278">
+        <v>1.28</v>
+      </c>
+      <c r="AA278">
+        <v>9.5</v>
+      </c>
+      <c r="AB278">
+        <v>1.05</v>
+      </c>
+      <c r="AC278">
+        <v>2.66</v>
+      </c>
+      <c r="AD278">
+        <v>2.96</v>
+      </c>
+      <c r="AE278">
+        <v>2.69</v>
+      </c>
+      <c r="AF278">
+        <v>1.1</v>
+      </c>
+      <c r="AG278">
+        <v>7.45</v>
+      </c>
+      <c r="AH278">
+        <v>1.53</v>
+      </c>
+      <c r="AI278">
+        <v>2.43</v>
+      </c>
+      <c r="AJ278">
+        <v>2.29</v>
+      </c>
+      <c r="AK278">
+        <v>1.54</v>
+      </c>
+      <c r="AL278">
+        <v>2</v>
+      </c>
+      <c r="AM278">
+        <v>1.7</v>
+      </c>
+      <c r="AN278">
+        <v>1.44</v>
+      </c>
+      <c r="AO278">
+        <v>1.3</v>
+      </c>
+      <c r="AP278">
+        <v>1.44</v>
+      </c>
+      <c r="AQ278">
+        <v>1.43</v>
+      </c>
+      <c r="AR278">
+        <v>0.79</v>
+      </c>
+      <c r="AS278">
+        <v>1.53</v>
+      </c>
+      <c r="AT278">
+        <v>0.73</v>
+      </c>
+      <c r="AU278">
+        <v>1.38</v>
+      </c>
+      <c r="AV278">
+        <v>1.52</v>
+      </c>
+      <c r="AW278">
+        <v>2.9</v>
+      </c>
+      <c r="AX278">
+        <v>2.49</v>
+      </c>
+      <c r="AY278">
+        <v>7.6</v>
+      </c>
+      <c r="AZ278">
+        <v>1.81</v>
+      </c>
+      <c r="BA278">
+        <v>1.27</v>
+      </c>
+      <c r="BB278">
+        <v>1.52</v>
+      </c>
+      <c r="BC278">
+        <v>1.92</v>
+      </c>
+      <c r="BD278">
+        <v>2.49</v>
+      </c>
+      <c r="BE278">
+        <v>3.42</v>
+      </c>
+      <c r="BF278">
+        <v>7</v>
+      </c>
+      <c r="BG278">
+        <v>3</v>
+      </c>
+      <c r="BH278">
+        <v>9</v>
+      </c>
+      <c r="BI278">
+        <v>6</v>
+      </c>
+      <c r="BJ278">
+        <v>16</v>
+      </c>
+      <c r="BK278">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="279" spans="1:63">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>2982677</v>
+      </c>
+      <c r="C279" t="s">
+        <v>63</v>
+      </c>
+      <c r="D279" t="s">
+        <v>64</v>
+      </c>
+      <c r="E279" s="2">
+        <v>44990.45833333334</v>
+      </c>
+      <c r="F279">
+        <v>28</v>
+      </c>
+      <c r="G279" t="s">
+        <v>83</v>
+      </c>
+      <c r="H279" t="s">
+        <v>70</v>
+      </c>
+      <c r="I279">
+        <v>1</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279">
+        <v>1</v>
+      </c>
+      <c r="L279">
+        <v>3</v>
+      </c>
+      <c r="M279">
+        <v>0</v>
+      </c>
+      <c r="N279">
+        <v>3</v>
+      </c>
+      <c r="O279" t="s">
+        <v>246</v>
+      </c>
+      <c r="P279" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q279">
+        <v>3</v>
+      </c>
+      <c r="R279">
+        <v>1</v>
+      </c>
+      <c r="S279">
+        <v>4</v>
+      </c>
+      <c r="T279">
+        <v>2.5</v>
+      </c>
+      <c r="U279">
+        <v>1.93</v>
+      </c>
+      <c r="V279">
+        <v>4.8</v>
+      </c>
+      <c r="W279">
+        <v>1.53</v>
+      </c>
+      <c r="X279">
+        <v>2.3</v>
+      </c>
+      <c r="Y279">
+        <v>3.5</v>
+      </c>
+      <c r="Z279">
+        <v>1.25</v>
+      </c>
+      <c r="AA279">
+        <v>10.5</v>
+      </c>
+      <c r="AB279">
+        <v>1.04</v>
+      </c>
+      <c r="AC279">
+        <v>1.85</v>
+      </c>
+      <c r="AD279">
+        <v>3.4</v>
+      </c>
+      <c r="AE279">
+        <v>4.3</v>
+      </c>
+      <c r="AF279">
+        <v>1.11</v>
+      </c>
+      <c r="AG279">
+        <v>6</v>
+      </c>
+      <c r="AH279">
+        <v>1.5</v>
+      </c>
+      <c r="AI279">
+        <v>2.5</v>
+      </c>
+      <c r="AJ279">
+        <v>2.14</v>
+      </c>
+      <c r="AK279">
+        <v>1.62</v>
+      </c>
+      <c r="AL279">
+        <v>2.2</v>
+      </c>
+      <c r="AM279">
+        <v>1.57</v>
+      </c>
+      <c r="AN279">
+        <v>1.2</v>
+      </c>
+      <c r="AO279">
+        <v>1.3</v>
+      </c>
+      <c r="AP279">
+        <v>1.93</v>
+      </c>
+      <c r="AQ279">
+        <v>2.46</v>
+      </c>
+      <c r="AR279">
+        <v>1.23</v>
+      </c>
+      <c r="AS279">
+        <v>2.5</v>
+      </c>
+      <c r="AT279">
+        <v>1.14</v>
+      </c>
+      <c r="AU279">
+        <v>1.84</v>
+      </c>
+      <c r="AV279">
+        <v>1.55</v>
+      </c>
+      <c r="AW279">
+        <v>3.39</v>
+      </c>
+      <c r="AX279">
+        <v>1.25</v>
+      </c>
+      <c r="AY279">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ279">
+        <v>5.4</v>
+      </c>
+      <c r="BA279">
+        <v>1.25</v>
+      </c>
+      <c r="BB279">
+        <v>1.48</v>
+      </c>
+      <c r="BC279">
+        <v>1.87</v>
+      </c>
+      <c r="BD279">
+        <v>2.41</v>
+      </c>
+      <c r="BE279">
+        <v>3.28</v>
+      </c>
+      <c r="BF279">
+        <v>9</v>
+      </c>
+      <c r="BG279">
+        <v>2</v>
+      </c>
+      <c r="BH279">
+        <v>8</v>
+      </c>
+      <c r="BI279">
+        <v>4</v>
+      </c>
+      <c r="BJ279">
+        <v>17</v>
+      </c>
+      <c r="BK279">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:63">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>2982683</v>
+      </c>
+      <c r="C280" t="s">
+        <v>63</v>
+      </c>
+      <c r="D280" t="s">
+        <v>64</v>
+      </c>
+      <c r="E280" s="2">
+        <v>44990.45833333334</v>
+      </c>
+      <c r="F280">
+        <v>28</v>
+      </c>
+      <c r="G280" t="s">
+        <v>78</v>
+      </c>
+      <c r="H280" t="s">
+        <v>73</v>
+      </c>
+      <c r="I280">
+        <v>2</v>
+      </c>
+      <c r="J280">
+        <v>2</v>
+      </c>
+      <c r="K280">
+        <v>4</v>
+      </c>
+      <c r="L280">
+        <v>2</v>
+      </c>
+      <c r="M280">
+        <v>2</v>
+      </c>
+      <c r="N280">
+        <v>4</v>
+      </c>
+      <c r="O280" t="s">
+        <v>247</v>
+      </c>
+      <c r="P280" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q280">
+        <v>6</v>
+      </c>
+      <c r="R280">
+        <v>4</v>
+      </c>
+      <c r="S280">
+        <v>10</v>
+      </c>
+      <c r="T280">
+        <v>3.38</v>
+      </c>
+      <c r="U280">
+        <v>2</v>
+      </c>
+      <c r="V280">
+        <v>3.38</v>
+      </c>
+      <c r="W280">
+        <v>1.5</v>
+      </c>
+      <c r="X280">
+        <v>2.45</v>
+      </c>
+      <c r="Y280">
+        <v>3.2</v>
+      </c>
+      <c r="Z280">
+        <v>1.3</v>
+      </c>
+      <c r="AA280">
+        <v>9.75</v>
+      </c>
+      <c r="AB280">
+        <v>1.06</v>
+      </c>
+      <c r="AC280">
+        <v>2.5</v>
+      </c>
+      <c r="AD280">
+        <v>3.17</v>
+      </c>
+      <c r="AE280">
+        <v>2.5</v>
+      </c>
+      <c r="AF280">
+        <v>1.09</v>
+      </c>
+      <c r="AG280">
+        <v>8.5</v>
+      </c>
+      <c r="AH280">
+        <v>1.42</v>
+      </c>
+      <c r="AI280">
+        <v>2.9</v>
+      </c>
+      <c r="AJ280">
+        <v>1.9</v>
+      </c>
+      <c r="AK280">
+        <v>1.79</v>
+      </c>
+      <c r="AL280">
+        <v>1.93</v>
+      </c>
+      <c r="AM280">
+        <v>1.77</v>
+      </c>
+      <c r="AN280">
+        <v>1.44</v>
+      </c>
+      <c r="AO280">
+        <v>1.34</v>
+      </c>
+      <c r="AP280">
+        <v>1.44</v>
+      </c>
+      <c r="AQ280">
+        <v>1.69</v>
+      </c>
+      <c r="AR280">
+        <v>1.15</v>
+      </c>
+      <c r="AS280">
+        <v>1.64</v>
+      </c>
+      <c r="AT280">
+        <v>1.14</v>
+      </c>
+      <c r="AU280">
+        <v>1.56</v>
+      </c>
+      <c r="AV280">
+        <v>1.32</v>
+      </c>
+      <c r="AW280">
+        <v>2.88</v>
+      </c>
+      <c r="AX280">
+        <v>1.94</v>
+      </c>
+      <c r="AY280">
+        <v>7.6</v>
+      </c>
+      <c r="AZ280">
+        <v>2.24</v>
+      </c>
+      <c r="BA280">
+        <v>1.21</v>
+      </c>
+      <c r="BB280">
+        <v>1.41</v>
+      </c>
+      <c r="BC280">
+        <v>1.75</v>
+      </c>
+      <c r="BD280">
+        <v>2.19</v>
+      </c>
+      <c r="BE280">
+        <v>2.93</v>
+      </c>
+      <c r="BF280">
+        <v>7</v>
+      </c>
+      <c r="BG280">
+        <v>8</v>
+      </c>
+      <c r="BH280">
+        <v>2</v>
+      </c>
+      <c r="BI280">
+        <v>4</v>
+      </c>
+      <c r="BJ280">
+        <v>9</v>
+      </c>
+      <c r="BK280">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="346">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -763,6 +763,9 @@
     <t>['33', '57', '59', '79']</t>
   </si>
   <si>
+    <t>['56', '61', '84', '88']</t>
+  </si>
+  <si>
     <t>['11', '35']</t>
   </si>
   <si>
@@ -1410,7 +1413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK281"/>
+  <dimension ref="A1:BK282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1654,7 +1657,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1845,7 +1848,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2609,7 +2612,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2800,7 +2803,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q8">
         <v>8</v>
@@ -4519,7 +4522,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -4710,7 +4713,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q18">
         <v>8</v>
@@ -4988,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT19">
         <v>1.07</v>
@@ -5474,7 +5477,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q22">
         <v>12</v>
@@ -5564,7 +5567,7 @@
         <v>1.64</v>
       </c>
       <c r="AT22">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU22">
         <v>1.62</v>
@@ -6429,7 +6432,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q27">
         <v>9</v>
@@ -6811,7 +6814,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7471,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT32">
         <v>1.07</v>
@@ -7766,7 +7769,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7957,7 +7960,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8530,7 +8533,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8721,7 +8724,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8912,7 +8915,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9103,7 +9106,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9867,7 +9870,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10249,7 +10252,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q47">
         <v>7</v>
@@ -10440,7 +10443,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10631,7 +10634,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q49">
         <v>10</v>
@@ -10912,7 +10915,7 @@
         <v>1.46</v>
       </c>
       <c r="AT50">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU50">
         <v>1.82</v>
@@ -11395,7 +11398,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11673,7 +11676,7 @@
         <v>2.33</v>
       </c>
       <c r="AS54">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT54">
         <v>2</v>
@@ -11777,7 +11780,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q55">
         <v>4</v>
@@ -13496,7 +13499,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13687,7 +13690,7 @@
         <v>93</v>
       </c>
       <c r="P65" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13878,7 +13881,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13965,7 +13968,7 @@
         <v>1.33</v>
       </c>
       <c r="AS66">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT66">
         <v>1.14</v>
@@ -14069,7 +14072,7 @@
         <v>93</v>
       </c>
       <c r="P67" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14642,7 +14645,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14923,7 +14926,7 @@
         <v>0.86</v>
       </c>
       <c r="AT71">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU71">
         <v>1.68</v>
@@ -15215,7 +15218,7 @@
         <v>106</v>
       </c>
       <c r="P73" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15406,7 +15409,7 @@
         <v>95</v>
       </c>
       <c r="P74" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -16743,7 +16746,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16934,7 +16937,7 @@
         <v>120</v>
       </c>
       <c r="P82" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17125,7 +17128,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17316,7 +17319,7 @@
         <v>142</v>
       </c>
       <c r="P84" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17403,7 +17406,7 @@
         <v>1.5</v>
       </c>
       <c r="AS84">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT84">
         <v>0.77</v>
@@ -17698,7 +17701,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18080,7 +18083,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -18462,7 +18465,7 @@
         <v>93</v>
       </c>
       <c r="P90" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18552,7 +18555,7 @@
         <v>1.5</v>
       </c>
       <c r="AT90">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU90">
         <v>1.88</v>
@@ -18653,7 +18656,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -19226,7 +19229,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q94">
         <v>9</v>
@@ -19417,7 +19420,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19990,7 +19993,7 @@
         <v>124</v>
       </c>
       <c r="P98" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -20372,7 +20375,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20945,7 +20948,7 @@
         <v>93</v>
       </c>
       <c r="P103" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -21035,7 +21038,7 @@
         <v>0.93</v>
       </c>
       <c r="AT103">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU103">
         <v>1.57</v>
@@ -21709,7 +21712,7 @@
         <v>155</v>
       </c>
       <c r="P107" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21987,7 +21990,7 @@
         <v>1.2</v>
       </c>
       <c r="AS108">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT108">
         <v>1.36</v>
@@ -22282,7 +22285,7 @@
         <v>150</v>
       </c>
       <c r="P110" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22473,7 +22476,7 @@
         <v>93</v>
       </c>
       <c r="P111" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q111">
         <v>2</v>
@@ -22664,7 +22667,7 @@
         <v>157</v>
       </c>
       <c r="P112" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q112">
         <v>1</v>
@@ -23518,7 +23521,7 @@
         <v>1.13</v>
       </c>
       <c r="AT116">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU116">
         <v>1.45</v>
@@ -24765,7 +24768,7 @@
         <v>162</v>
       </c>
       <c r="P123" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24956,7 +24959,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q124">
         <v>1</v>
@@ -25616,7 +25619,7 @@
         <v>1</v>
       </c>
       <c r="AS127">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT127">
         <v>1.43</v>
@@ -25720,7 +25723,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25911,7 +25914,7 @@
         <v>167</v>
       </c>
       <c r="P129" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q129">
         <v>10</v>
@@ -26484,7 +26487,7 @@
         <v>168</v>
       </c>
       <c r="P132" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -26866,7 +26869,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27057,7 +27060,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27821,7 +27824,7 @@
         <v>128</v>
       </c>
       <c r="P139" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -28012,7 +28015,7 @@
         <v>175</v>
       </c>
       <c r="P140" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q140">
         <v>1</v>
@@ -28102,7 +28105,7 @@
         <v>1.53</v>
       </c>
       <c r="AT140">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU140">
         <v>1.32</v>
@@ -28672,7 +28675,7 @@
         <v>1</v>
       </c>
       <c r="AS143">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT143">
         <v>1.29</v>
@@ -28776,7 +28779,7 @@
         <v>177</v>
       </c>
       <c r="P144" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q144">
         <v>2</v>
@@ -28967,7 +28970,7 @@
         <v>178</v>
       </c>
       <c r="P145" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29349,7 +29352,7 @@
         <v>93</v>
       </c>
       <c r="P147" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29731,7 +29734,7 @@
         <v>93</v>
       </c>
       <c r="P149" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q149">
         <v>11</v>
@@ -30877,7 +30880,7 @@
         <v>93</v>
       </c>
       <c r="P155" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -31450,7 +31453,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q158">
         <v>7</v>
@@ -31641,7 +31644,7 @@
         <v>182</v>
       </c>
       <c r="P159" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -31922,7 +31925,7 @@
         <v>1.57</v>
       </c>
       <c r="AT160">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU160">
         <v>1.64</v>
@@ -32214,7 +32217,7 @@
         <v>184</v>
       </c>
       <c r="P162" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q162">
         <v>7</v>
@@ -32301,7 +32304,7 @@
         <v>0.63</v>
       </c>
       <c r="AS162">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT162">
         <v>0.73</v>
@@ -32787,7 +32790,7 @@
         <v>93</v>
       </c>
       <c r="P165" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -33933,7 +33936,7 @@
         <v>93</v>
       </c>
       <c r="P171" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q171">
         <v>6</v>
@@ -34506,7 +34509,7 @@
         <v>93</v>
       </c>
       <c r="P174" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q174">
         <v>9</v>
@@ -34697,7 +34700,7 @@
         <v>93</v>
       </c>
       <c r="P175" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q175">
         <v>8</v>
@@ -34888,7 +34891,7 @@
         <v>122</v>
       </c>
       <c r="P176" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -34978,7 +34981,7 @@
         <v>1.43</v>
       </c>
       <c r="AT176">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU176">
         <v>1.19</v>
@@ -35843,7 +35846,7 @@
         <v>188</v>
       </c>
       <c r="P181" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q181">
         <v>9</v>
@@ -36034,7 +36037,7 @@
         <v>147</v>
       </c>
       <c r="P182" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q182">
         <v>2</v>
@@ -36416,7 +36419,7 @@
         <v>93</v>
       </c>
       <c r="P184" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36798,7 +36801,7 @@
         <v>190</v>
       </c>
       <c r="P186" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q186">
         <v>2</v>
@@ -36989,7 +36992,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q187">
         <v>10</v>
@@ -37458,7 +37461,7 @@
         <v>0.67</v>
       </c>
       <c r="AS189">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT189">
         <v>0.43</v>
@@ -37753,7 +37756,7 @@
         <v>193</v>
       </c>
       <c r="P191" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q191">
         <v>6</v>
@@ -38135,7 +38138,7 @@
         <v>96</v>
       </c>
       <c r="P193" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q193">
         <v>9</v>
@@ -38326,7 +38329,7 @@
         <v>194</v>
       </c>
       <c r="P194" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q194">
         <v>4</v>
@@ -38604,7 +38607,7 @@
         <v>0.78</v>
       </c>
       <c r="AS195">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT195">
         <v>0.93</v>
@@ -38899,7 +38902,7 @@
         <v>197</v>
       </c>
       <c r="P197" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q197">
         <v>7</v>
@@ -39371,7 +39374,7 @@
         <v>1.64</v>
       </c>
       <c r="AT199">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU199">
         <v>1.6</v>
@@ -40045,7 +40048,7 @@
         <v>203</v>
       </c>
       <c r="P203" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -40326,7 +40329,7 @@
         <v>1.07</v>
       </c>
       <c r="AT204">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU204">
         <v>1.54</v>
@@ -40618,7 +40621,7 @@
         <v>206</v>
       </c>
       <c r="P206" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q206">
         <v>4</v>
@@ -41573,7 +41576,7 @@
         <v>119</v>
       </c>
       <c r="P211" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q211">
         <v>5</v>
@@ -41851,7 +41854,7 @@
         <v>1.2</v>
       </c>
       <c r="AS212">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT212">
         <v>0.92</v>
@@ -41955,7 +41958,7 @@
         <v>93</v>
       </c>
       <c r="P213" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q213">
         <v>3</v>
@@ -43292,7 +43295,7 @@
         <v>212</v>
       </c>
       <c r="P220" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q220">
         <v>12</v>
@@ -43865,7 +43868,7 @@
         <v>215</v>
       </c>
       <c r="P223" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q223">
         <v>7</v>
@@ -44056,7 +44059,7 @@
         <v>93</v>
       </c>
       <c r="P224" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q224">
         <v>6</v>
@@ -44438,7 +44441,7 @@
         <v>217</v>
       </c>
       <c r="P226" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q226">
         <v>7</v>
@@ -44719,7 +44722,7 @@
         <v>1.38</v>
       </c>
       <c r="AT227">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU227">
         <v>1.78</v>
@@ -45011,7 +45014,7 @@
         <v>93</v>
       </c>
       <c r="P229" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -45775,7 +45778,7 @@
         <v>93</v>
       </c>
       <c r="P233" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q233">
         <v>11</v>
@@ -45966,7 +45969,7 @@
         <v>222</v>
       </c>
       <c r="P234" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q234">
         <v>4</v>
@@ -46157,7 +46160,7 @@
         <v>223</v>
       </c>
       <c r="P235" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q235">
         <v>3</v>
@@ -46626,7 +46629,7 @@
         <v>1.27</v>
       </c>
       <c r="AS237">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT237">
         <v>1.14</v>
@@ -46921,7 +46924,7 @@
         <v>154</v>
       </c>
       <c r="P239" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q239">
         <v>5</v>
@@ -47876,7 +47879,7 @@
         <v>227</v>
       </c>
       <c r="P244" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q244">
         <v>8</v>
@@ -48449,7 +48452,7 @@
         <v>102</v>
       </c>
       <c r="P247" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q247">
         <v>6</v>
@@ -48640,7 +48643,7 @@
         <v>93</v>
       </c>
       <c r="P248" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q248">
         <v>6</v>
@@ -48730,7 +48733,7 @@
         <v>1.57</v>
       </c>
       <c r="AT248">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU248">
         <v>1.72</v>
@@ -49213,7 +49216,7 @@
         <v>231</v>
       </c>
       <c r="P251" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q251">
         <v>6</v>
@@ -49404,7 +49407,7 @@
         <v>232</v>
       </c>
       <c r="P252" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q252">
         <v>4</v>
@@ -49595,7 +49598,7 @@
         <v>233</v>
       </c>
       <c r="P253" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q253">
         <v>6</v>
@@ -49786,7 +49789,7 @@
         <v>234</v>
       </c>
       <c r="P254" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q254">
         <v>7</v>
@@ -50168,7 +50171,7 @@
         <v>235</v>
       </c>
       <c r="P256" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -50741,7 +50744,7 @@
         <v>93</v>
       </c>
       <c r="P259" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q259">
         <v>10</v>
@@ -52078,7 +52081,7 @@
         <v>93</v>
       </c>
       <c r="P266" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q266">
         <v>9</v>
@@ -52269,7 +52272,7 @@
         <v>93</v>
       </c>
       <c r="P267" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q267">
         <v>5</v>
@@ -52359,7 +52362,7 @@
         <v>1.46</v>
       </c>
       <c r="AT267">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AU267">
         <v>1.58</v>
@@ -52842,7 +52845,7 @@
         <v>93</v>
       </c>
       <c r="P270" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q270">
         <v>8</v>
@@ -53120,7 +53123,7 @@
         <v>1.77</v>
       </c>
       <c r="AS271">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT271">
         <v>1.71</v>
@@ -54179,7 +54182,7 @@
         <v>93</v>
       </c>
       <c r="P277" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q277">
         <v>7</v>
@@ -54752,7 +54755,7 @@
         <v>247</v>
       </c>
       <c r="P280" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q280">
         <v>6</v>
@@ -55085,6 +55088,197 @@
       </c>
       <c r="BK281">
         <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:63">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>2982686</v>
+      </c>
+      <c r="C282" t="s">
+        <v>63</v>
+      </c>
+      <c r="D282" t="s">
+        <v>64</v>
+      </c>
+      <c r="E282" s="2">
+        <v>44995.6875</v>
+      </c>
+      <c r="F282">
+        <v>29</v>
+      </c>
+      <c r="G282" t="s">
+        <v>81</v>
+      </c>
+      <c r="H282" t="s">
+        <v>69</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <v>1</v>
+      </c>
+      <c r="K282">
+        <v>1</v>
+      </c>
+      <c r="L282">
+        <v>4</v>
+      </c>
+      <c r="M282">
+        <v>1</v>
+      </c>
+      <c r="N282">
+        <v>5</v>
+      </c>
+      <c r="O282" t="s">
+        <v>249</v>
+      </c>
+      <c r="P282" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q282">
+        <v>5</v>
+      </c>
+      <c r="R282">
+        <v>2</v>
+      </c>
+      <c r="S282">
+        <v>7</v>
+      </c>
+      <c r="T282">
+        <v>2.7</v>
+      </c>
+      <c r="U282">
+        <v>1.99</v>
+      </c>
+      <c r="V282">
+        <v>4.7</v>
+      </c>
+      <c r="W282">
+        <v>1.51</v>
+      </c>
+      <c r="X282">
+        <v>2.46</v>
+      </c>
+      <c r="Y282">
+        <v>3.42</v>
+      </c>
+      <c r="Z282">
+        <v>1.29</v>
+      </c>
+      <c r="AA282">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AB282">
+        <v>1.04</v>
+      </c>
+      <c r="AC282">
+        <v>2.15</v>
+      </c>
+      <c r="AD282">
+        <v>3</v>
+      </c>
+      <c r="AE282">
+        <v>3.9</v>
+      </c>
+      <c r="AF282">
+        <v>1.09</v>
+      </c>
+      <c r="AG282">
+        <v>6</v>
+      </c>
+      <c r="AH282">
+        <v>1.42</v>
+      </c>
+      <c r="AI282">
+        <v>2.62</v>
+      </c>
+      <c r="AJ282">
+        <v>2.45</v>
+      </c>
+      <c r="AK282">
+        <v>1.53</v>
+      </c>
+      <c r="AL282">
+        <v>2.05</v>
+      </c>
+      <c r="AM282">
+        <v>1.73</v>
+      </c>
+      <c r="AN282">
+        <v>1.26</v>
+      </c>
+      <c r="AO282">
+        <v>1.33</v>
+      </c>
+      <c r="AP282">
+        <v>1.77</v>
+      </c>
+      <c r="AQ282">
+        <v>2</v>
+      </c>
+      <c r="AR282">
+        <v>1.57</v>
+      </c>
+      <c r="AS282">
+        <v>2.07</v>
+      </c>
+      <c r="AT282">
+        <v>1.47</v>
+      </c>
+      <c r="AU282">
+        <v>1.73</v>
+      </c>
+      <c r="AV282">
+        <v>1.36</v>
+      </c>
+      <c r="AW282">
+        <v>3.09</v>
+      </c>
+      <c r="AX282">
+        <v>1.75</v>
+      </c>
+      <c r="AY282">
+        <v>8</v>
+      </c>
+      <c r="AZ282">
+        <v>2.52</v>
+      </c>
+      <c r="BA282">
+        <v>1.25</v>
+      </c>
+      <c r="BB282">
+        <v>1.47</v>
+      </c>
+      <c r="BC282">
+        <v>1.88</v>
+      </c>
+      <c r="BD282">
+        <v>2.38</v>
+      </c>
+      <c r="BE282">
+        <v>3.25</v>
+      </c>
+      <c r="BF282">
+        <v>9</v>
+      </c>
+      <c r="BG282">
+        <v>3</v>
+      </c>
+      <c r="BH282">
+        <v>8</v>
+      </c>
+      <c r="BI282">
+        <v>2</v>
+      </c>
+      <c r="BJ282">
+        <v>17</v>
+      </c>
+      <c r="BK282">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="349">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -766,6 +766,9 @@
     <t>['56', '61', '84', '88']</t>
   </si>
   <si>
+    <t>['3', '23', '74']</t>
+  </si>
+  <si>
     <t>['11', '35']</t>
   </si>
   <si>
@@ -1052,6 +1055,12 @@
   </si>
   <si>
     <t>['20', '45+1']</t>
+  </si>
+  <si>
+    <t>['33', '45+2', '64']</t>
+  </si>
+  <si>
+    <t>['61']</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK282"/>
+  <dimension ref="A1:BK287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1657,7 +1666,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1744,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT2">
         <v>2</v>
@@ -1848,7 +1857,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1935,10 +1944,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT3">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2612,7 +2621,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2803,7 +2812,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q8">
         <v>8</v>
@@ -3084,7 +3093,7 @@
         <v>1.13</v>
       </c>
       <c r="AT9">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3272,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT10">
         <v>0.43</v>
@@ -3463,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT11">
         <v>1.86</v>
@@ -4522,7 +4531,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -4713,7 +4722,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q18">
         <v>8</v>
@@ -5376,7 +5385,7 @@
         <v>2.5</v>
       </c>
       <c r="AT21">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5477,7 +5486,7 @@
         <v>101</v>
       </c>
       <c r="P22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q22">
         <v>12</v>
@@ -5946,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT24">
         <v>0.93</v>
@@ -6140,7 +6149,7 @@
         <v>1.64</v>
       </c>
       <c r="AT25">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6432,7 +6441,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q27">
         <v>9</v>
@@ -6710,7 +6719,7 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT28">
         <v>1.14</v>
@@ -6814,7 +6823,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6901,7 +6910,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT29">
         <v>1.86</v>
@@ -7092,7 +7101,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT30">
         <v>0.43</v>
@@ -7286,7 +7295,7 @@
         <v>1.57</v>
       </c>
       <c r="AT31">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU31">
         <v>1.15</v>
@@ -7769,7 +7778,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7960,7 +7969,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8533,7 +8542,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8724,7 +8733,7 @@
         <v>93</v>
       </c>
       <c r="P39" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8915,7 +8924,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9106,7 +9115,7 @@
         <v>107</v>
       </c>
       <c r="P41" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9196,7 +9205,7 @@
         <v>1.53</v>
       </c>
       <c r="AT41">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU41">
         <v>0.73</v>
@@ -9870,7 +9879,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9957,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT45">
         <v>0.93</v>
@@ -10148,7 +10157,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT46">
         <v>1.86</v>
@@ -10252,7 +10261,7 @@
         <v>93</v>
       </c>
       <c r="P47" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q47">
         <v>7</v>
@@ -10342,7 +10351,7 @@
         <v>1.57</v>
       </c>
       <c r="AT47">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU47">
         <v>1.49</v>
@@ -10443,7 +10452,7 @@
         <v>93</v>
       </c>
       <c r="P48" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10530,7 +10539,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT48">
         <v>0.79</v>
@@ -10634,7 +10643,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q49">
         <v>10</v>
@@ -10721,10 +10730,10 @@
         <v>1.5</v>
       </c>
       <c r="AS49">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT49">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU49">
         <v>1.68</v>
@@ -11398,7 +11407,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11780,7 +11789,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q55">
         <v>4</v>
@@ -12252,7 +12261,7 @@
         <v>0.93</v>
       </c>
       <c r="AT57">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU57">
         <v>1.49</v>
@@ -13398,7 +13407,7 @@
         <v>1.64</v>
       </c>
       <c r="AT63">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU63">
         <v>1.59</v>
@@ -13499,7 +13508,7 @@
         <v>130</v>
       </c>
       <c r="P64" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13589,7 +13598,7 @@
         <v>1.5</v>
       </c>
       <c r="AT64">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU64">
         <v>1.93</v>
@@ -13690,7 +13699,7 @@
         <v>93</v>
       </c>
       <c r="P65" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13881,7 +13890,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -14072,7 +14081,7 @@
         <v>93</v>
       </c>
       <c r="P67" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14159,7 +14168,7 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT67">
         <v>0.93</v>
@@ -14350,7 +14359,7 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT68">
         <v>1.36</v>
@@ -14541,7 +14550,7 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT69">
         <v>1.86</v>
@@ -14645,7 +14654,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14735,7 +14744,7 @@
         <v>1.46</v>
       </c>
       <c r="AT70">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU70">
         <v>1.8</v>
@@ -14923,7 +14932,7 @@
         <v>1.5</v>
       </c>
       <c r="AS71">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT71">
         <v>1.47</v>
@@ -15218,7 +15227,7 @@
         <v>106</v>
       </c>
       <c r="P73" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15409,7 +15418,7 @@
         <v>95</v>
       </c>
       <c r="P74" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -16746,7 +16755,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16937,7 +16946,7 @@
         <v>120</v>
       </c>
       <c r="P82" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17128,7 +17137,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17215,7 +17224,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT83">
         <v>0.93</v>
@@ -17319,7 +17328,7 @@
         <v>142</v>
       </c>
       <c r="P84" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17409,7 +17418,7 @@
         <v>2.07</v>
       </c>
       <c r="AT84">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU84">
         <v>2.07</v>
@@ -17597,7 +17606,7 @@
         <v>0.75</v>
       </c>
       <c r="AS85">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT85">
         <v>0.92</v>
@@ -17701,7 +17710,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -17979,7 +17988,7 @@
         <v>0.33</v>
       </c>
       <c r="AS87">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT87">
         <v>0.93</v>
@@ -18083,7 +18092,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -18173,7 +18182,7 @@
         <v>1.64</v>
       </c>
       <c r="AT88">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU88">
         <v>1.79</v>
@@ -18361,7 +18370,7 @@
         <v>1.5</v>
       </c>
       <c r="AS89">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT89">
         <v>1.36</v>
@@ -18465,7 +18474,7 @@
         <v>93</v>
       </c>
       <c r="P90" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18656,7 +18665,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q91">
         <v>9</v>
@@ -18746,7 +18755,7 @@
         <v>1.46</v>
       </c>
       <c r="AT91">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU91">
         <v>1.73</v>
@@ -19229,7 +19238,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q94">
         <v>9</v>
@@ -19420,7 +19429,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19993,7 +20002,7 @@
         <v>124</v>
       </c>
       <c r="P98" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -20375,7 +20384,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20948,7 +20957,7 @@
         <v>93</v>
       </c>
       <c r="P103" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q103">
         <v>2</v>
@@ -21229,7 +21238,7 @@
         <v>1.07</v>
       </c>
       <c r="AT104">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU104">
         <v>1.53</v>
@@ -21417,7 +21426,7 @@
         <v>0.25</v>
       </c>
       <c r="AS105">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT105">
         <v>0.93</v>
@@ -21608,7 +21617,7 @@
         <v>0.25</v>
       </c>
       <c r="AS106">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT106">
         <v>1.07</v>
@@ -21712,7 +21721,7 @@
         <v>155</v>
       </c>
       <c r="P107" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -22181,10 +22190,10 @@
         <v>1</v>
       </c>
       <c r="AS109">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT109">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU109">
         <v>1.52</v>
@@ -22285,7 +22294,7 @@
         <v>150</v>
       </c>
       <c r="P110" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22375,7 +22384,7 @@
         <v>1.93</v>
       </c>
       <c r="AT110">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU110">
         <v>1.87</v>
@@ -22476,7 +22485,7 @@
         <v>93</v>
       </c>
       <c r="P111" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q111">
         <v>2</v>
@@ -22667,7 +22676,7 @@
         <v>157</v>
       </c>
       <c r="P112" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q112">
         <v>1</v>
@@ -23327,7 +23336,7 @@
         <v>0.6</v>
       </c>
       <c r="AS115">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT115">
         <v>1.07</v>
@@ -23709,7 +23718,7 @@
         <v>2.17</v>
       </c>
       <c r="AS117">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT117">
         <v>2</v>
@@ -24768,7 +24777,7 @@
         <v>162</v>
       </c>
       <c r="P123" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24959,7 +24968,7 @@
         <v>162</v>
       </c>
       <c r="P124" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q124">
         <v>1</v>
@@ -25237,7 +25246,7 @@
         <v>1</v>
       </c>
       <c r="AS125">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT125">
         <v>1.07</v>
@@ -25428,7 +25437,7 @@
         <v>0.5</v>
       </c>
       <c r="AS126">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT126">
         <v>0.73</v>
@@ -25622,7 +25631,7 @@
         <v>2.07</v>
       </c>
       <c r="AT127">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU127">
         <v>1.77</v>
@@ -25723,7 +25732,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25914,7 +25923,7 @@
         <v>167</v>
       </c>
       <c r="P129" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q129">
         <v>10</v>
@@ -26004,7 +26013,7 @@
         <v>1.5</v>
       </c>
       <c r="AT129">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU129">
         <v>1.93</v>
@@ -26195,7 +26204,7 @@
         <v>1.64</v>
       </c>
       <c r="AT130">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU130">
         <v>1.51</v>
@@ -26487,7 +26496,7 @@
         <v>168</v>
       </c>
       <c r="P132" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -26574,7 +26583,7 @@
         <v>0.67</v>
       </c>
       <c r="AS132">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT132">
         <v>1.07</v>
@@ -26869,7 +26878,7 @@
         <v>170</v>
       </c>
       <c r="P134" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27060,7 +27069,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27338,7 +27347,7 @@
         <v>0.71</v>
       </c>
       <c r="AS136">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT136">
         <v>0.43</v>
@@ -27824,7 +27833,7 @@
         <v>128</v>
       </c>
       <c r="P139" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -28015,7 +28024,7 @@
         <v>175</v>
       </c>
       <c r="P140" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q140">
         <v>1</v>
@@ -28779,7 +28788,7 @@
         <v>177</v>
       </c>
       <c r="P144" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q144">
         <v>2</v>
@@ -28970,7 +28979,7 @@
         <v>178</v>
       </c>
       <c r="P145" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29251,7 +29260,7 @@
         <v>1.5</v>
       </c>
       <c r="AT146">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU146">
         <v>2.05</v>
@@ -29352,7 +29361,7 @@
         <v>93</v>
       </c>
       <c r="P147" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29734,7 +29743,7 @@
         <v>93</v>
       </c>
       <c r="P149" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q149">
         <v>11</v>
@@ -30203,7 +30212,7 @@
         <v>0.67</v>
       </c>
       <c r="AS151">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT151">
         <v>1.07</v>
@@ -30585,7 +30594,7 @@
         <v>1.29</v>
       </c>
       <c r="AS153">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT153">
         <v>1.14</v>
@@ -30880,7 +30889,7 @@
         <v>93</v>
       </c>
       <c r="P155" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q155">
         <v>6</v>
@@ -31161,7 +31170,7 @@
         <v>1.93</v>
       </c>
       <c r="AT156">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU156">
         <v>1.75</v>
@@ -31352,7 +31361,7 @@
         <v>1.43</v>
       </c>
       <c r="AT157">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU157">
         <v>1.15</v>
@@ -31453,7 +31462,7 @@
         <v>93</v>
       </c>
       <c r="P158" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q158">
         <v>7</v>
@@ -31540,7 +31549,7 @@
         <v>1.88</v>
       </c>
       <c r="AS158">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT158">
         <v>2</v>
@@ -31644,7 +31653,7 @@
         <v>182</v>
       </c>
       <c r="P159" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -31731,7 +31740,7 @@
         <v>1.57</v>
       </c>
       <c r="AS159">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT159">
         <v>1.14</v>
@@ -32217,7 +32226,7 @@
         <v>184</v>
       </c>
       <c r="P162" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q162">
         <v>7</v>
@@ -32790,7 +32799,7 @@
         <v>93</v>
       </c>
       <c r="P165" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -33259,7 +33268,7 @@
         <v>1.13</v>
       </c>
       <c r="AS167">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT167">
         <v>1.07</v>
@@ -33835,7 +33844,7 @@
         <v>2.5</v>
       </c>
       <c r="AT170">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU170">
         <v>1.94</v>
@@ -33936,7 +33945,7 @@
         <v>93</v>
       </c>
       <c r="P171" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q171">
         <v>6</v>
@@ -34217,7 +34226,7 @@
         <v>1.57</v>
       </c>
       <c r="AT172">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU172">
         <v>1.55</v>
@@ -34509,7 +34518,7 @@
         <v>93</v>
       </c>
       <c r="P174" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q174">
         <v>9</v>
@@ -34700,7 +34709,7 @@
         <v>93</v>
       </c>
       <c r="P175" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q175">
         <v>8</v>
@@ -34787,10 +34796,10 @@
         <v>1.38</v>
       </c>
       <c r="AS175">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT175">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU175">
         <v>1.88</v>
@@ -34891,7 +34900,7 @@
         <v>122</v>
       </c>
       <c r="P176" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q176">
         <v>4</v>
@@ -35169,7 +35178,7 @@
         <v>1.5</v>
       </c>
       <c r="AS177">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT177">
         <v>1.14</v>
@@ -35360,7 +35369,7 @@
         <v>0.75</v>
       </c>
       <c r="AS178">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT178">
         <v>0.92</v>
@@ -35846,7 +35855,7 @@
         <v>188</v>
       </c>
       <c r="P181" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q181">
         <v>9</v>
@@ -36037,7 +36046,7 @@
         <v>147</v>
       </c>
       <c r="P182" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q182">
         <v>2</v>
@@ -36419,7 +36428,7 @@
         <v>93</v>
       </c>
       <c r="P184" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36700,7 +36709,7 @@
         <v>1.07</v>
       </c>
       <c r="AT185">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU185">
         <v>1.54</v>
@@ -36801,7 +36810,7 @@
         <v>190</v>
       </c>
       <c r="P186" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q186">
         <v>2</v>
@@ -36992,7 +37001,7 @@
         <v>93</v>
       </c>
       <c r="P187" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q187">
         <v>10</v>
@@ -37079,7 +37088,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS187">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT187">
         <v>0.73</v>
@@ -37756,7 +37765,7 @@
         <v>193</v>
       </c>
       <c r="P191" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q191">
         <v>6</v>
@@ -38138,7 +38147,7 @@
         <v>96</v>
       </c>
       <c r="P193" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q193">
         <v>9</v>
@@ -38329,7 +38338,7 @@
         <v>194</v>
       </c>
       <c r="P194" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q194">
         <v>4</v>
@@ -38902,7 +38911,7 @@
         <v>197</v>
       </c>
       <c r="P197" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q197">
         <v>7</v>
@@ -39183,7 +39192,7 @@
         <v>1.53</v>
       </c>
       <c r="AT198">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU198">
         <v>1.43</v>
@@ -40048,7 +40057,7 @@
         <v>203</v>
       </c>
       <c r="P203" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -40135,7 +40144,7 @@
         <v>1.9</v>
       </c>
       <c r="AS203">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT203">
         <v>1.71</v>
@@ -40621,7 +40630,7 @@
         <v>206</v>
       </c>
       <c r="P206" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q206">
         <v>4</v>
@@ -40711,7 +40720,7 @@
         <v>1.57</v>
       </c>
       <c r="AT206">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU206">
         <v>1.58</v>
@@ -40899,7 +40908,7 @@
         <v>0.6</v>
       </c>
       <c r="AS207">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT207">
         <v>0.43</v>
@@ -41090,7 +41099,7 @@
         <v>0.8</v>
       </c>
       <c r="AS208">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT208">
         <v>0.73</v>
@@ -41284,7 +41293,7 @@
         <v>0.93</v>
       </c>
       <c r="AT209">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU209">
         <v>1.55</v>
@@ -41472,7 +41481,7 @@
         <v>0.78</v>
       </c>
       <c r="AS210">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT210">
         <v>0.79</v>
@@ -41576,7 +41585,7 @@
         <v>119</v>
       </c>
       <c r="P211" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q211">
         <v>5</v>
@@ -41958,7 +41967,7 @@
         <v>93</v>
       </c>
       <c r="P213" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q213">
         <v>3</v>
@@ -43194,7 +43203,7 @@
         <v>1.93</v>
       </c>
       <c r="AT219">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU219">
         <v>1.71</v>
@@ -43295,7 +43304,7 @@
         <v>212</v>
       </c>
       <c r="P220" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q220">
         <v>12</v>
@@ -43764,7 +43773,7 @@
         <v>0.8</v>
       </c>
       <c r="AS222">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT222">
         <v>0.79</v>
@@ -43868,7 +43877,7 @@
         <v>215</v>
       </c>
       <c r="P223" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q223">
         <v>7</v>
@@ -44059,7 +44068,7 @@
         <v>93</v>
       </c>
       <c r="P224" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q224">
         <v>6</v>
@@ -44149,7 +44158,7 @@
         <v>1.57</v>
       </c>
       <c r="AT224">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU224">
         <v>1.44</v>
@@ -44340,7 +44349,7 @@
         <v>1.46</v>
       </c>
       <c r="AT225">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU225">
         <v>1.56</v>
@@ -44441,7 +44450,7 @@
         <v>217</v>
       </c>
       <c r="P226" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q226">
         <v>7</v>
@@ -44528,7 +44537,7 @@
         <v>1.2</v>
       </c>
       <c r="AS226">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT226">
         <v>1.14</v>
@@ -44719,7 +44728,7 @@
         <v>1.45</v>
       </c>
       <c r="AS227">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT227">
         <v>1.47</v>
@@ -45014,7 +45023,7 @@
         <v>93</v>
       </c>
       <c r="P229" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -45483,7 +45492,7 @@
         <v>2</v>
       </c>
       <c r="AS231">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT231">
         <v>1.71</v>
@@ -45778,7 +45787,7 @@
         <v>93</v>
       </c>
       <c r="P233" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q233">
         <v>11</v>
@@ -45868,7 +45877,7 @@
         <v>1.64</v>
       </c>
       <c r="AT233">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU233">
         <v>1.85</v>
@@ -45969,7 +45978,7 @@
         <v>222</v>
       </c>
       <c r="P234" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q234">
         <v>4</v>
@@ -46160,7 +46169,7 @@
         <v>223</v>
       </c>
       <c r="P235" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q235">
         <v>3</v>
@@ -46924,7 +46933,7 @@
         <v>154</v>
       </c>
       <c r="P239" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q239">
         <v>5</v>
@@ -47775,10 +47784,10 @@
         <v>0.82</v>
       </c>
       <c r="AS243">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT243">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU243">
         <v>1.46</v>
@@ -47879,7 +47888,7 @@
         <v>227</v>
       </c>
       <c r="P244" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q244">
         <v>8</v>
@@ -47966,7 +47975,7 @@
         <v>1.58</v>
       </c>
       <c r="AS244">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT244">
         <v>1.36</v>
@@ -48160,7 +48169,7 @@
         <v>1.43</v>
       </c>
       <c r="AT245">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU245">
         <v>1.31</v>
@@ -48452,7 +48461,7 @@
         <v>102</v>
       </c>
       <c r="P247" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q247">
         <v>6</v>
@@ -48643,7 +48652,7 @@
         <v>93</v>
       </c>
       <c r="P248" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q248">
         <v>6</v>
@@ -48730,7 +48739,7 @@
         <v>1.33</v>
       </c>
       <c r="AS248">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT248">
         <v>1.47</v>
@@ -49216,7 +49225,7 @@
         <v>231</v>
       </c>
       <c r="P251" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q251">
         <v>6</v>
@@ -49303,7 +49312,7 @@
         <v>1.83</v>
       </c>
       <c r="AS251">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT251">
         <v>1.71</v>
@@ -49407,7 +49416,7 @@
         <v>232</v>
       </c>
       <c r="P252" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q252">
         <v>4</v>
@@ -49598,7 +49607,7 @@
         <v>233</v>
       </c>
       <c r="P253" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q253">
         <v>6</v>
@@ -49789,7 +49798,7 @@
         <v>234</v>
       </c>
       <c r="P254" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q254">
         <v>7</v>
@@ -50171,7 +50180,7 @@
         <v>235</v>
       </c>
       <c r="P256" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q256">
         <v>4</v>
@@ -50744,7 +50753,7 @@
         <v>93</v>
       </c>
       <c r="P259" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q259">
         <v>10</v>
@@ -51786,10 +51795,10 @@
         <v>1.31</v>
       </c>
       <c r="AS264">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT264">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AU264">
         <v>1.7</v>
@@ -51977,10 +51986,10 @@
         <v>0.75</v>
       </c>
       <c r="AS265">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT265">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU265">
         <v>1.76</v>
@@ -52081,7 +52090,7 @@
         <v>93</v>
       </c>
       <c r="P266" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q266">
         <v>9</v>
@@ -52168,10 +52177,10 @@
         <v>1.75</v>
       </c>
       <c r="AS266">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT266">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU266">
         <v>1.43</v>
@@ -52272,7 +52281,7 @@
         <v>93</v>
       </c>
       <c r="P267" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q267">
         <v>5</v>
@@ -52359,7 +52368,7 @@
         <v>1.46</v>
       </c>
       <c r="AS267">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT267">
         <v>1.47</v>
@@ -52845,7 +52854,7 @@
         <v>93</v>
       </c>
       <c r="P270" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q270">
         <v>8</v>
@@ -54182,7 +54191,7 @@
         <v>93</v>
       </c>
       <c r="P277" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q277">
         <v>7</v>
@@ -54755,7 +54764,7 @@
         <v>247</v>
       </c>
       <c r="P280" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q280">
         <v>6</v>
@@ -55279,6 +55288,961 @@
       </c>
       <c r="BK282">
         <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:63">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>2982685</v>
+      </c>
+      <c r="C283" t="s">
+        <v>63</v>
+      </c>
+      <c r="D283" t="s">
+        <v>64</v>
+      </c>
+      <c r="E283" s="2">
+        <v>44996.41666666666</v>
+      </c>
+      <c r="F283">
+        <v>29</v>
+      </c>
+      <c r="G283" t="s">
+        <v>73</v>
+      </c>
+      <c r="H283" t="s">
+        <v>67</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <v>0</v>
+      </c>
+      <c r="L283">
+        <v>0</v>
+      </c>
+      <c r="M283">
+        <v>0</v>
+      </c>
+      <c r="N283">
+        <v>0</v>
+      </c>
+      <c r="O283" t="s">
+        <v>93</v>
+      </c>
+      <c r="P283" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q283">
+        <v>7</v>
+      </c>
+      <c r="R283">
+        <v>3</v>
+      </c>
+      <c r="S283">
+        <v>10</v>
+      </c>
+      <c r="T283">
+        <v>3.24</v>
+      </c>
+      <c r="U283">
+        <v>1.99</v>
+      </c>
+      <c r="V283">
+        <v>3.54</v>
+      </c>
+      <c r="W283">
+        <v>1.44</v>
+      </c>
+      <c r="X283">
+        <v>2.62</v>
+      </c>
+      <c r="Y283">
+        <v>3.25</v>
+      </c>
+      <c r="Z283">
+        <v>1.33</v>
+      </c>
+      <c r="AA283">
+        <v>8</v>
+      </c>
+      <c r="AB283">
+        <v>1.06</v>
+      </c>
+      <c r="AC283">
+        <v>2.5</v>
+      </c>
+      <c r="AD283">
+        <v>3.1</v>
+      </c>
+      <c r="AE283">
+        <v>2.8</v>
+      </c>
+      <c r="AF283">
+        <v>1.09</v>
+      </c>
+      <c r="AG283">
+        <v>8.6</v>
+      </c>
+      <c r="AH283">
+        <v>1.42</v>
+      </c>
+      <c r="AI283">
+        <v>2.91</v>
+      </c>
+      <c r="AJ283">
+        <v>2.2</v>
+      </c>
+      <c r="AK283">
+        <v>1.6</v>
+      </c>
+      <c r="AL283">
+        <v>1.95</v>
+      </c>
+      <c r="AM283">
+        <v>1.81</v>
+      </c>
+      <c r="AN283">
+        <v>1.4</v>
+      </c>
+      <c r="AO283">
+        <v>1.35</v>
+      </c>
+      <c r="AP283">
+        <v>1.5</v>
+      </c>
+      <c r="AQ283">
+        <v>0.86</v>
+      </c>
+      <c r="AR283">
+        <v>0.93</v>
+      </c>
+      <c r="AS283">
+        <v>0.87</v>
+      </c>
+      <c r="AT283">
+        <v>0.93</v>
+      </c>
+      <c r="AU283">
+        <v>1.41</v>
+      </c>
+      <c r="AV283">
+        <v>1.44</v>
+      </c>
+      <c r="AW283">
+        <v>2.85</v>
+      </c>
+      <c r="AX283">
+        <v>1.64</v>
+      </c>
+      <c r="AY283">
+        <v>8.5</v>
+      </c>
+      <c r="AZ283">
+        <v>2.66</v>
+      </c>
+      <c r="BA283">
+        <v>1.2</v>
+      </c>
+      <c r="BB283">
+        <v>1.38</v>
+      </c>
+      <c r="BC283">
+        <v>1.67</v>
+      </c>
+      <c r="BD283">
+        <v>2.12</v>
+      </c>
+      <c r="BE283">
+        <v>2.85</v>
+      </c>
+      <c r="BF283">
+        <v>3</v>
+      </c>
+      <c r="BG283">
+        <v>6</v>
+      </c>
+      <c r="BH283">
+        <v>0</v>
+      </c>
+      <c r="BI283">
+        <v>4</v>
+      </c>
+      <c r="BJ283">
+        <v>3</v>
+      </c>
+      <c r="BK283">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="284" spans="1:63">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>2982687</v>
+      </c>
+      <c r="C284" t="s">
+        <v>63</v>
+      </c>
+      <c r="D284" t="s">
+        <v>64</v>
+      </c>
+      <c r="E284" s="2">
+        <v>44996.41666666666</v>
+      </c>
+      <c r="F284">
+        <v>29</v>
+      </c>
+      <c r="G284" t="s">
+        <v>66</v>
+      </c>
+      <c r="H284" t="s">
+        <v>68</v>
+      </c>
+      <c r="I284">
+        <v>2</v>
+      </c>
+      <c r="J284">
+        <v>2</v>
+      </c>
+      <c r="K284">
+        <v>4</v>
+      </c>
+      <c r="L284">
+        <v>3</v>
+      </c>
+      <c r="M284">
+        <v>3</v>
+      </c>
+      <c r="N284">
+        <v>6</v>
+      </c>
+      <c r="O284" t="s">
+        <v>250</v>
+      </c>
+      <c r="P284" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q284">
+        <v>2</v>
+      </c>
+      <c r="R284">
+        <v>5</v>
+      </c>
+      <c r="S284">
+        <v>7</v>
+      </c>
+      <c r="T284">
+        <v>2.98</v>
+      </c>
+      <c r="U284">
+        <v>1.96</v>
+      </c>
+      <c r="V284">
+        <v>4.18</v>
+      </c>
+      <c r="W284">
+        <v>1.52</v>
+      </c>
+      <c r="X284">
+        <v>2.44</v>
+      </c>
+      <c r="Y284">
+        <v>3.44</v>
+      </c>
+      <c r="Z284">
+        <v>1.29</v>
+      </c>
+      <c r="AA284">
+        <v>9.4</v>
+      </c>
+      <c r="AB284">
+        <v>1.04</v>
+      </c>
+      <c r="AC284">
+        <v>2.4</v>
+      </c>
+      <c r="AD284">
+        <v>3.05</v>
+      </c>
+      <c r="AE284">
+        <v>3.1</v>
+      </c>
+      <c r="AF284">
+        <v>1.09</v>
+      </c>
+      <c r="AG284">
+        <v>6</v>
+      </c>
+      <c r="AH284">
+        <v>1.5</v>
+      </c>
+      <c r="AI284">
+        <v>2.55</v>
+      </c>
+      <c r="AJ284">
+        <v>2.35</v>
+      </c>
+      <c r="AK284">
+        <v>1.53</v>
+      </c>
+      <c r="AL284">
+        <v>2.04</v>
+      </c>
+      <c r="AM284">
+        <v>1.74</v>
+      </c>
+      <c r="AN284">
+        <v>1.33</v>
+      </c>
+      <c r="AO284">
+        <v>1.35</v>
+      </c>
+      <c r="AP284">
+        <v>1.62</v>
+      </c>
+      <c r="AQ284">
+        <v>1.38</v>
+      </c>
+      <c r="AR284">
+        <v>1.07</v>
+      </c>
+      <c r="AS284">
+        <v>1.36</v>
+      </c>
+      <c r="AT284">
+        <v>1.07</v>
+      </c>
+      <c r="AU284">
+        <v>1.73</v>
+      </c>
+      <c r="AV284">
+        <v>1.42</v>
+      </c>
+      <c r="AW284">
+        <v>3.15</v>
+      </c>
+      <c r="AX284">
+        <v>1.82</v>
+      </c>
+      <c r="AY284">
+        <v>7.5</v>
+      </c>
+      <c r="AZ284">
+        <v>2.4</v>
+      </c>
+      <c r="BA284">
+        <v>1.36</v>
+      </c>
+      <c r="BB284">
+        <v>1.66</v>
+      </c>
+      <c r="BC284">
+        <v>2.12</v>
+      </c>
+      <c r="BD284">
+        <v>2.88</v>
+      </c>
+      <c r="BE284">
+        <v>4.1</v>
+      </c>
+      <c r="BF284">
+        <v>4</v>
+      </c>
+      <c r="BG284">
+        <v>3</v>
+      </c>
+      <c r="BH284">
+        <v>2</v>
+      </c>
+      <c r="BI284">
+        <v>2</v>
+      </c>
+      <c r="BJ284">
+        <v>6</v>
+      </c>
+      <c r="BK284">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:63">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>2982690</v>
+      </c>
+      <c r="C285" t="s">
+        <v>63</v>
+      </c>
+      <c r="D285" t="s">
+        <v>64</v>
+      </c>
+      <c r="E285" s="2">
+        <v>44996.41666666666</v>
+      </c>
+      <c r="F285">
+        <v>29</v>
+      </c>
+      <c r="G285" t="s">
+        <v>74</v>
+      </c>
+      <c r="H285" t="s">
+        <v>80</v>
+      </c>
+      <c r="I285">
+        <v>1</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>1</v>
+      </c>
+      <c r="L285">
+        <v>1</v>
+      </c>
+      <c r="M285">
+        <v>0</v>
+      </c>
+      <c r="N285">
+        <v>1</v>
+      </c>
+      <c r="O285" t="s">
+        <v>180</v>
+      </c>
+      <c r="P285" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q285">
+        <v>3</v>
+      </c>
+      <c r="R285">
+        <v>5</v>
+      </c>
+      <c r="S285">
+        <v>8</v>
+      </c>
+      <c r="T285">
+        <v>3.2</v>
+      </c>
+      <c r="U285">
+        <v>1.99</v>
+      </c>
+      <c r="V285">
+        <v>3.55</v>
+      </c>
+      <c r="W285">
+        <v>1.44</v>
+      </c>
+      <c r="X285">
+        <v>2.6</v>
+      </c>
+      <c r="Y285">
+        <v>3</v>
+      </c>
+      <c r="Z285">
+        <v>1.33</v>
+      </c>
+      <c r="AA285">
+        <v>7</v>
+      </c>
+      <c r="AB285">
+        <v>1.07</v>
+      </c>
+      <c r="AC285">
+        <v>2.5</v>
+      </c>
+      <c r="AD285">
+        <v>3.2</v>
+      </c>
+      <c r="AE285">
+        <v>2.8</v>
+      </c>
+      <c r="AF285">
+        <v>1.06</v>
+      </c>
+      <c r="AG285">
+        <v>7.5</v>
+      </c>
+      <c r="AH285">
+        <v>1.33</v>
+      </c>
+      <c r="AI285">
+        <v>3</v>
+      </c>
+      <c r="AJ285">
+        <v>2</v>
+      </c>
+      <c r="AK285">
+        <v>1.7</v>
+      </c>
+      <c r="AL285">
+        <v>1.84</v>
+      </c>
+      <c r="AM285">
+        <v>1.92</v>
+      </c>
+      <c r="AN285">
+        <v>1.4</v>
+      </c>
+      <c r="AO285">
+        <v>1.33</v>
+      </c>
+      <c r="AP285">
+        <v>1.53</v>
+      </c>
+      <c r="AQ285">
+        <v>1.46</v>
+      </c>
+      <c r="AR285">
+        <v>1.43</v>
+      </c>
+      <c r="AS285">
+        <v>1.57</v>
+      </c>
+      <c r="AT285">
+        <v>1.33</v>
+      </c>
+      <c r="AU285">
+        <v>1.55</v>
+      </c>
+      <c r="AV285">
+        <v>1.38</v>
+      </c>
+      <c r="AW285">
+        <v>2.93</v>
+      </c>
+      <c r="AX285">
+        <v>1.69</v>
+      </c>
+      <c r="AY285">
+        <v>8</v>
+      </c>
+      <c r="AZ285">
+        <v>2.63</v>
+      </c>
+      <c r="BA285">
+        <v>1.23</v>
+      </c>
+      <c r="BB285">
+        <v>1.42</v>
+      </c>
+      <c r="BC285">
+        <v>1.74</v>
+      </c>
+      <c r="BD285">
+        <v>2.23</v>
+      </c>
+      <c r="BE285">
+        <v>3.05</v>
+      </c>
+      <c r="BF285">
+        <v>3</v>
+      </c>
+      <c r="BG285">
+        <v>4</v>
+      </c>
+      <c r="BH285">
+        <v>2</v>
+      </c>
+      <c r="BI285">
+        <v>9</v>
+      </c>
+      <c r="BJ285">
+        <v>5</v>
+      </c>
+      <c r="BK285">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="286" spans="1:63">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>2982691</v>
+      </c>
+      <c r="C286" t="s">
+        <v>63</v>
+      </c>
+      <c r="D286" t="s">
+        <v>64</v>
+      </c>
+      <c r="E286" s="2">
+        <v>44996.41666666666</v>
+      </c>
+      <c r="F286">
+        <v>29</v>
+      </c>
+      <c r="G286" t="s">
+        <v>65</v>
+      </c>
+      <c r="H286" t="s">
+        <v>79</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>0</v>
+      </c>
+      <c r="L286">
+        <v>0</v>
+      </c>
+      <c r="M286">
+        <v>0</v>
+      </c>
+      <c r="N286">
+        <v>0</v>
+      </c>
+      <c r="O286" t="s">
+        <v>93</v>
+      </c>
+      <c r="P286" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q286">
+        <v>13</v>
+      </c>
+      <c r="R286">
+        <v>3</v>
+      </c>
+      <c r="S286">
+        <v>16</v>
+      </c>
+      <c r="T286">
+        <v>2.58</v>
+      </c>
+      <c r="U286">
+        <v>1.9</v>
+      </c>
+      <c r="V286">
+        <v>5.4</v>
+      </c>
+      <c r="W286">
+        <v>1.44</v>
+      </c>
+      <c r="X286">
+        <v>2.62</v>
+      </c>
+      <c r="Y286">
+        <v>3.25</v>
+      </c>
+      <c r="Z286">
+        <v>1.33</v>
+      </c>
+      <c r="AA286">
+        <v>8</v>
+      </c>
+      <c r="AB286">
+        <v>1.06</v>
+      </c>
+      <c r="AC286">
+        <v>1.9</v>
+      </c>
+      <c r="AD286">
+        <v>3.25</v>
+      </c>
+      <c r="AE286">
+        <v>4.4</v>
+      </c>
+      <c r="AF286">
+        <v>1.09</v>
+      </c>
+      <c r="AG286">
+        <v>6</v>
+      </c>
+      <c r="AH286">
+        <v>1.47</v>
+      </c>
+      <c r="AI286">
+        <v>2.6</v>
+      </c>
+      <c r="AJ286">
+        <v>2.3</v>
+      </c>
+      <c r="AK286">
+        <v>1.55</v>
+      </c>
+      <c r="AL286">
+        <v>2.23</v>
+      </c>
+      <c r="AM286">
+        <v>1.62</v>
+      </c>
+      <c r="AN286">
+        <v>1.19</v>
+      </c>
+      <c r="AO286">
+        <v>1.33</v>
+      </c>
+      <c r="AP286">
+        <v>1.93</v>
+      </c>
+      <c r="AQ286">
+        <v>1.57</v>
+      </c>
+      <c r="AR286">
+        <v>1.85</v>
+      </c>
+      <c r="AS286">
+        <v>1.53</v>
+      </c>
+      <c r="AT286">
+        <v>1.79</v>
+      </c>
+      <c r="AU286">
+        <v>1.66</v>
+      </c>
+      <c r="AV286">
+        <v>1.22</v>
+      </c>
+      <c r="AW286">
+        <v>2.88</v>
+      </c>
+      <c r="AX286">
+        <v>1.3</v>
+      </c>
+      <c r="AY286">
+        <v>9.5</v>
+      </c>
+      <c r="AZ286">
+        <v>4.44</v>
+      </c>
+      <c r="BA286">
+        <v>1.25</v>
+      </c>
+      <c r="BB286">
+        <v>1.47</v>
+      </c>
+      <c r="BC286">
+        <v>1.85</v>
+      </c>
+      <c r="BD286">
+        <v>2.38</v>
+      </c>
+      <c r="BE286">
+        <v>3.25</v>
+      </c>
+      <c r="BF286">
+        <v>4</v>
+      </c>
+      <c r="BG286">
+        <v>3</v>
+      </c>
+      <c r="BH286">
+        <v>12</v>
+      </c>
+      <c r="BI286">
+        <v>2</v>
+      </c>
+      <c r="BJ286">
+        <v>16</v>
+      </c>
+      <c r="BK286">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:63">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>2982693</v>
+      </c>
+      <c r="C287" t="s">
+        <v>63</v>
+      </c>
+      <c r="D287" t="s">
+        <v>64</v>
+      </c>
+      <c r="E287" s="2">
+        <v>44996.41666666666</v>
+      </c>
+      <c r="F287">
+        <v>29</v>
+      </c>
+      <c r="G287" t="s">
+        <v>70</v>
+      </c>
+      <c r="H287" t="s">
+        <v>72</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287">
+        <v>0</v>
+      </c>
+      <c r="L287">
+        <v>1</v>
+      </c>
+      <c r="M287">
+        <v>1</v>
+      </c>
+      <c r="N287">
+        <v>2</v>
+      </c>
+      <c r="O287" t="s">
+        <v>147</v>
+      </c>
+      <c r="P287" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q287">
+        <v>4</v>
+      </c>
+      <c r="R287">
+        <v>5</v>
+      </c>
+      <c r="S287">
+        <v>9</v>
+      </c>
+      <c r="T287">
+        <v>2.74</v>
+      </c>
+      <c r="U287">
+        <v>1.91</v>
+      </c>
+      <c r="V287">
+        <v>4.75</v>
+      </c>
+      <c r="W287">
+        <v>1.44</v>
+      </c>
+      <c r="X287">
+        <v>2.62</v>
+      </c>
+      <c r="Y287">
+        <v>3.25</v>
+      </c>
+      <c r="Z287">
+        <v>1.33</v>
+      </c>
+      <c r="AA287">
+        <v>8</v>
+      </c>
+      <c r="AB287">
+        <v>1.06</v>
+      </c>
+      <c r="AC287">
+        <v>2</v>
+      </c>
+      <c r="AD287">
+        <v>3.25</v>
+      </c>
+      <c r="AE287">
+        <v>3.9</v>
+      </c>
+      <c r="AF287">
+        <v>1.08</v>
+      </c>
+      <c r="AG287">
+        <v>7</v>
+      </c>
+      <c r="AH287">
+        <v>1.44</v>
+      </c>
+      <c r="AI287">
+        <v>2.62</v>
+      </c>
+      <c r="AJ287">
+        <v>2.25</v>
+      </c>
+      <c r="AK287">
+        <v>1.57</v>
+      </c>
+      <c r="AL287">
+        <v>2.09</v>
+      </c>
+      <c r="AM287">
+        <v>1.7</v>
+      </c>
+      <c r="AN287">
+        <v>1.22</v>
+      </c>
+      <c r="AO287">
+        <v>1.33</v>
+      </c>
+      <c r="AP287">
+        <v>1.86</v>
+      </c>
+      <c r="AQ287">
+        <v>0.93</v>
+      </c>
+      <c r="AR287">
+        <v>0.77</v>
+      </c>
+      <c r="AS287">
+        <v>0.93</v>
+      </c>
+      <c r="AT287">
+        <v>0.79</v>
+      </c>
+      <c r="AU287">
+        <v>1.5</v>
+      </c>
+      <c r="AV287">
+        <v>1.36</v>
+      </c>
+      <c r="AW287">
+        <v>2.86</v>
+      </c>
+      <c r="AX287">
+        <v>1.95</v>
+      </c>
+      <c r="AY287">
+        <v>8</v>
+      </c>
+      <c r="AZ287">
+        <v>2.1</v>
+      </c>
+      <c r="BA287">
+        <v>1.23</v>
+      </c>
+      <c r="BB287">
+        <v>1.42</v>
+      </c>
+      <c r="BC287">
+        <v>1.74</v>
+      </c>
+      <c r="BD287">
+        <v>2.23</v>
+      </c>
+      <c r="BE287">
+        <v>3.05</v>
+      </c>
+      <c r="BF287">
+        <v>5</v>
+      </c>
+      <c r="BG287">
+        <v>3</v>
+      </c>
+      <c r="BH287">
+        <v>2</v>
+      </c>
+      <c r="BI287">
+        <v>5</v>
+      </c>
+      <c r="BJ287">
+        <v>7</v>
+      </c>
+      <c r="BK287">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK290"/>
+  <dimension ref="A1:BK299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT3" t="n">
         <v>1.33</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT6" t="n">
         <v>0.87</v>
@@ -1918,7 +1918,7 @@
         <v>0.93</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT9" t="n">
         <v>1.79</v>
@@ -2527,7 +2527,7 @@
         <v>0.87</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>2</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU14" t="n">
         <v>1.36</v>
@@ -3542,7 +3542,7 @@
         <v>1.46</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT18" t="n">
         <v>0.93</v>
@@ -4557,7 +4557,7 @@
         <v>1.53</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT21" t="n">
         <v>0.79</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT22" t="n">
         <v>1.47</v>
@@ -5166,7 +5166,7 @@
         <v>1.07</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU23" t="n">
         <v>1.87</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT25" t="n">
         <v>1.79</v>
@@ -5772,10 +5772,10 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU26" t="n">
         <v>1.77</v>
@@ -6178,10 +6178,10 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU28" t="n">
         <v>1.97</v>
@@ -6587,7 +6587,7 @@
         <v>1.53</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU30" t="n">
         <v>1.64</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT31" t="n">
         <v>0.79</v>
@@ -6993,7 +6993,7 @@
         <v>2.07</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU32" t="n">
         <v>2.09</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT33" t="n">
         <v>1.07</v>
@@ -7399,7 +7399,7 @@
         <v>1.47</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU34" t="n">
         <v>2.15</v>
@@ -7599,10 +7599,10 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU35" t="n">
         <v>1.41</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT36" t="n">
         <v>0.93</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT37" t="n">
         <v>1.07</v>
@@ -8211,7 +8211,7 @@
         <v>1.64</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU38" t="n">
         <v>1.37</v>
@@ -8414,7 +8414,7 @@
         <v>0.93</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU39" t="n">
         <v>1.46</v>
@@ -8617,7 +8617,7 @@
         <v>2</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU40" t="n">
         <v>1.92</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT41" t="n">
         <v>1.33</v>
@@ -9020,10 +9020,10 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU42" t="n">
         <v>1.67</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT43" t="n">
         <v>1.36</v>
@@ -9832,7 +9832,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT46" t="n">
         <v>1.8</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT47" t="n">
         <v>1.79</v>
@@ -10241,7 +10241,7 @@
         <v>0.87</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU48" t="n">
         <v>1.53</v>
@@ -10850,7 +10850,7 @@
         <v>1.07</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU51" t="n">
         <v>1.62</v>
@@ -11050,10 +11050,10 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU52" t="n">
         <v>1.71</v>
@@ -11253,10 +11253,10 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU53" t="n">
         <v>1.34</v>
@@ -11659,10 +11659,10 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU55" t="n">
         <v>1.67</v>
@@ -11862,7 +11862,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT56" t="n">
         <v>1.07</v>
@@ -12268,7 +12268,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT58" t="n">
         <v>1.07</v>
@@ -12471,10 +12471,10 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU59" t="n">
         <v>1.11</v>
@@ -12677,7 +12677,7 @@
         <v>2</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU60" t="n">
         <v>1.86</v>
@@ -12880,7 +12880,7 @@
         <v>1.64</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU61" t="n">
         <v>1.36</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT63" t="n">
         <v>1.79</v>
@@ -13692,7 +13692,7 @@
         <v>1.07</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU65" t="n">
         <v>1.76</v>
@@ -13895,7 +13895,7 @@
         <v>2.07</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU66" t="n">
         <v>2.14</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT67" t="n">
         <v>0.87</v>
@@ -15113,7 +15113,7 @@
         <v>2</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU72" t="n">
         <v>1.83</v>
@@ -15516,10 +15516,10 @@
         <v>0</v>
       </c>
       <c r="AS74" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU74" t="n">
         <v>1.41</v>
@@ -15719,7 +15719,7 @@
         <v>0.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT75" t="n">
         <v>1.07</v>
@@ -15922,10 +15922,10 @@
         <v>1.67</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU76" t="n">
         <v>1.66</v>
@@ -16328,10 +16328,10 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU78" t="n">
         <v>2.01</v>
@@ -16531,10 +16531,10 @@
         <v>1.25</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU79" t="n">
         <v>1.58</v>
@@ -16734,10 +16734,10 @@
         <v>0</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU80" t="n">
         <v>1.64</v>
@@ -16937,10 +16937,10 @@
         <v>1.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU81" t="n">
         <v>1.5</v>
@@ -17749,10 +17749,10 @@
         <v>0.75</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU85" t="n">
         <v>1.84</v>
@@ -17955,7 +17955,7 @@
         <v>1.53</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU86" t="n">
         <v>1.17</v>
@@ -18358,7 +18358,7 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT88" t="n">
         <v>1.33</v>
@@ -19173,7 +19173,7 @@
         <v>1.07</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU92" t="n">
         <v>1.57</v>
@@ -19373,10 +19373,10 @@
         <v>1.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU93" t="n">
         <v>1.44</v>
@@ -19576,10 +19576,10 @@
         <v>0</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU94" t="n">
         <v>1.74</v>
@@ -19779,10 +19779,10 @@
         <v>1.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU95" t="n">
         <v>1.47</v>
@@ -19982,10 +19982,10 @@
         <v>1.25</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU96" t="n">
         <v>1.64</v>
@@ -20185,7 +20185,7 @@
         <v>2.6</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT97" t="n">
         <v>2</v>
@@ -20391,7 +20391,7 @@
         <v>1.64</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU98" t="n">
         <v>1.51</v>
@@ -20591,7 +20591,7 @@
         <v>0.5</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT99" t="n">
         <v>1.07</v>
@@ -20794,10 +20794,10 @@
         <v>0.75</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU100" t="n">
         <v>1.54</v>
@@ -20997,10 +20997,10 @@
         <v>1.25</v>
       </c>
       <c r="AS101" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU101" t="n">
         <v>1.47</v>
@@ -23230,10 +23230,10 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU112" t="n">
         <v>1.3</v>
@@ -23436,7 +23436,7 @@
         <v>1.64</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU113" t="n">
         <v>1.55</v>
@@ -23636,10 +23636,10 @@
         <v>0.83</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU114" t="n">
         <v>1.61</v>
@@ -23839,10 +23839,10 @@
         <v>0.6</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU115" t="n">
         <v>1.78</v>
@@ -24042,7 +24042,7 @@
         <v>2</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT116" t="n">
         <v>1.47</v>
@@ -24448,10 +24448,10 @@
         <v>0.6</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU118" t="n">
         <v>2.05</v>
@@ -24651,10 +24651,10 @@
         <v>1.2</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU119" t="n">
         <v>1.7</v>
@@ -24854,10 +24854,10 @@
         <v>1.6</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU120" t="n">
         <v>1.51</v>
@@ -25057,10 +25057,10 @@
         <v>2.5</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU121" t="n">
         <v>2.12</v>
@@ -25260,7 +25260,7 @@
         <v>1.5</v>
       </c>
       <c r="AS122" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT122" t="n">
         <v>1.8</v>
@@ -25669,7 +25669,7 @@
         <v>1.07</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU124" t="n">
         <v>1.53</v>
@@ -26075,7 +26075,7 @@
         <v>1.57</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU126" t="n">
         <v>1.67</v>
@@ -27293,7 +27293,7 @@
         <v>1.53</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU132" t="n">
         <v>1.49</v>
@@ -27493,7 +27493,7 @@
         <v>1.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT133" t="n">
         <v>0.87</v>
@@ -27696,10 +27696,10 @@
         <v>1.33</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU134" t="n">
         <v>1.98</v>
@@ -27899,10 +27899,10 @@
         <v>1</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU135" t="n">
         <v>1.92</v>
@@ -28102,10 +28102,10 @@
         <v>0.71</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU136" t="n">
         <v>1.85</v>
@@ -28308,7 +28308,7 @@
         <v>1.46</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU137" t="n">
         <v>1.57</v>
@@ -28508,10 +28508,10 @@
         <v>0.83</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU138" t="n">
         <v>1.47</v>
@@ -28711,7 +28711,7 @@
         <v>2</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT139" t="n">
         <v>2</v>
@@ -28914,7 +28914,7 @@
         <v>1.83</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT140" t="n">
         <v>1.47</v>
@@ -29117,10 +29117,10 @@
         <v>1.33</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU141" t="n">
         <v>1.58</v>
@@ -29526,7 +29526,7 @@
         <v>2.07</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU143" t="n">
         <v>1.77</v>
@@ -29729,7 +29729,7 @@
         <v>1.07</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU144" t="n">
         <v>1.43</v>
@@ -29929,7 +29929,7 @@
         <v>0.33</v>
       </c>
       <c r="AS145" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT145" t="n">
         <v>0.93</v>
@@ -30335,7 +30335,7 @@
         <v>1.43</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT147" t="n">
         <v>1.36</v>
@@ -30541,7 +30541,7 @@
         <v>1.53</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU148" t="n">
         <v>1.1</v>
@@ -30944,7 +30944,7 @@
         <v>1.71</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT150" t="n">
         <v>1.8</v>
@@ -31353,7 +31353,7 @@
         <v>1.64</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU152" t="n">
         <v>1.46</v>
@@ -31556,7 +31556,7 @@
         <v>1.53</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU153" t="n">
         <v>1.64</v>
@@ -31759,7 +31759,7 @@
         <v>1.46</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU154" t="n">
         <v>1.54</v>
@@ -31959,7 +31959,7 @@
         <v>1.63</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT155" t="n">
         <v>1.8</v>
@@ -32568,7 +32568,7 @@
         <v>1.88</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT158" t="n">
         <v>2</v>
@@ -32774,7 +32774,7 @@
         <v>1.57</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU159" t="n">
         <v>1.66</v>
@@ -32974,7 +32974,7 @@
         <v>1.71</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT160" t="n">
         <v>1.47</v>
@@ -33177,7 +33177,7 @@
         <v>0.43</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT161" t="n">
         <v>0.93</v>
@@ -33383,7 +33383,7 @@
         <v>2.07</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU162" t="n">
         <v>1.71</v>
@@ -33586,7 +33586,7 @@
         <v>0.93</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU163" t="n">
         <v>1.56</v>
@@ -33989,7 +33989,7 @@
         <v>1.63</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT165" t="n">
         <v>1.36</v>
@@ -34192,7 +34192,7 @@
         <v>1.25</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT166" t="n">
         <v>0.87</v>
@@ -34598,10 +34598,10 @@
         <v>1.88</v>
       </c>
       <c r="AS168" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU168" t="n">
         <v>1.37</v>
@@ -34804,7 +34804,7 @@
         <v>1.47</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU169" t="n">
         <v>2.01</v>
@@ -35004,7 +35004,7 @@
         <v>1</v>
       </c>
       <c r="AS170" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT170" t="n">
         <v>1.33</v>
@@ -35207,10 +35207,10 @@
         <v>1</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU171" t="n">
         <v>1.41</v>
@@ -35410,7 +35410,7 @@
         <v>1.13</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT172" t="n">
         <v>0.79</v>
@@ -35613,7 +35613,7 @@
         <v>2</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT173" t="n">
         <v>2</v>
@@ -36019,7 +36019,7 @@
         <v>1.38</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT175" t="n">
         <v>1.79</v>
@@ -36428,7 +36428,7 @@
         <v>1.57</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU177" t="n">
         <v>1.61</v>
@@ -36631,7 +36631,7 @@
         <v>1.53</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU178" t="n">
         <v>1.73</v>
@@ -36831,10 +36831,10 @@
         <v>0.88</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU179" t="n">
         <v>1.61</v>
@@ -37240,7 +37240,7 @@
         <v>1.46</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU181" t="n">
         <v>1.49</v>
@@ -37440,7 +37440,7 @@
         <v>1</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT182" t="n">
         <v>1.07</v>
@@ -37643,7 +37643,7 @@
         <v>1</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT183" t="n">
         <v>1.07</v>
@@ -37846,10 +37846,10 @@
         <v>1.11</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU184" t="n">
         <v>1.39</v>
@@ -38255,7 +38255,7 @@
         <v>0.93</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU186" t="n">
         <v>1.56</v>
@@ -38458,7 +38458,7 @@
         <v>0.87</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU187" t="n">
         <v>1.41</v>
@@ -38658,7 +38658,7 @@
         <v>1.78</v>
       </c>
       <c r="AS188" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT188" t="n">
         <v>1.36</v>
@@ -38864,7 +38864,7 @@
         <v>2.07</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU189" t="n">
         <v>1.83</v>
@@ -39064,7 +39064,7 @@
         <v>1.22</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT190" t="n">
         <v>0.87</v>
@@ -39270,7 +39270,7 @@
         <v>1.47</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU191" t="n">
         <v>1.92</v>
@@ -39470,10 +39470,10 @@
         <v>1</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU192" t="n">
         <v>1.81</v>
@@ -39673,7 +39673,7 @@
         <v>0.9</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT193" t="n">
         <v>1.07</v>
@@ -40285,7 +40285,7 @@
         <v>1.47</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU196" t="n">
         <v>1.89</v>
@@ -40485,10 +40485,10 @@
         <v>1.3</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU197" t="n">
         <v>1.87</v>
@@ -40688,7 +40688,7 @@
         <v>1</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT198" t="n">
         <v>0.79</v>
@@ -41097,7 +41097,7 @@
         <v>1.53</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU200" t="n">
         <v>1.33</v>
@@ -41300,7 +41300,7 @@
         <v>2</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU201" t="n">
         <v>1.74</v>
@@ -41500,7 +41500,7 @@
         <v>1.9</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT202" t="n">
         <v>2</v>
@@ -41706,7 +41706,7 @@
         <v>0.87</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU203" t="n">
         <v>1.46</v>
@@ -42109,7 +42109,7 @@
         <v>1.1</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT205" t="n">
         <v>0.87</v>
@@ -42312,7 +42312,7 @@
         <v>1.2</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT206" t="n">
         <v>1.33</v>
@@ -42518,7 +42518,7 @@
         <v>1.57</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU207" t="n">
         <v>1.59</v>
@@ -42721,7 +42721,7 @@
         <v>1.53</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU208" t="n">
         <v>1.8</v>
@@ -43124,10 +43124,10 @@
         <v>0.78</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU210" t="n">
         <v>1.87</v>
@@ -43327,7 +43327,7 @@
         <v>1.6</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT211" t="n">
         <v>1.8</v>
@@ -43533,7 +43533,7 @@
         <v>2.07</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU212" t="n">
         <v>1.85</v>
@@ -43736,7 +43736,7 @@
         <v>1.47</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU213" t="n">
         <v>1.87</v>
@@ -43936,7 +43936,7 @@
         <v>0.7</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT214" t="n">
         <v>0.93</v>
@@ -44142,7 +44142,7 @@
         <v>1.53</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU215" t="n">
         <v>1.3</v>
@@ -44342,7 +44342,7 @@
         <v>1.9</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT216" t="n">
         <v>1.36</v>
@@ -44548,7 +44548,7 @@
         <v>1.64</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU217" t="n">
         <v>1.59</v>
@@ -45154,7 +45154,7 @@
         <v>1</v>
       </c>
       <c r="AS220" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT220" t="n">
         <v>1.07</v>
@@ -45357,10 +45357,10 @@
         <v>1.4</v>
       </c>
       <c r="AS221" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU221" t="n">
         <v>1.8</v>
@@ -45563,7 +45563,7 @@
         <v>1.57</v>
       </c>
       <c r="AT222" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU222" t="n">
         <v>1.66</v>
@@ -45966,7 +45966,7 @@
         <v>1.7</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT224" t="n">
         <v>1.79</v>
@@ -46375,7 +46375,7 @@
         <v>0.87</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU226" t="n">
         <v>1.45</v>
@@ -46575,7 +46575,7 @@
         <v>1.45</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT227" t="n">
         <v>1.47</v>
@@ -46981,7 +46981,7 @@
         <v>1.73</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT229" t="n">
         <v>1.8</v>
@@ -47184,7 +47184,7 @@
         <v>1.73</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT230" t="n">
         <v>1.36</v>
@@ -47390,7 +47390,7 @@
         <v>1.53</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU231" t="n">
         <v>1.74</v>
@@ -47793,7 +47793,7 @@
         <v>1.17</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT233" t="n">
         <v>1.33</v>
@@ -47999,7 +47999,7 @@
         <v>0.93</v>
       </c>
       <c r="AT234" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU234" t="n">
         <v>1.5</v>
@@ -48199,7 +48199,7 @@
         <v>0.91</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT235" t="n">
         <v>0.93</v>
@@ -48402,10 +48402,10 @@
         <v>1.08</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU236" t="n">
         <v>1.3</v>
@@ -48608,7 +48608,7 @@
         <v>2.07</v>
       </c>
       <c r="AT237" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU237" t="n">
         <v>1.84</v>
@@ -48808,7 +48808,7 @@
         <v>1.08</v>
       </c>
       <c r="AS238" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT238" t="n">
         <v>1.07</v>
@@ -49014,7 +49014,7 @@
         <v>1.64</v>
       </c>
       <c r="AT239" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU239" t="n">
         <v>1.59</v>
@@ -49214,10 +49214,10 @@
         <v>0.92</v>
       </c>
       <c r="AS240" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT240" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU240" t="n">
         <v>1.42</v>
@@ -49420,7 +49420,7 @@
         <v>1.47</v>
       </c>
       <c r="AT241" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU241" t="n">
         <v>1.82</v>
@@ -49620,10 +49620,10 @@
         <v>1.36</v>
       </c>
       <c r="AS242" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT242" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU242" t="n">
         <v>1.58</v>
@@ -50026,7 +50026,7 @@
         <v>1.58</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT244" t="n">
         <v>1.36</v>
@@ -50635,7 +50635,7 @@
         <v>1.83</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT247" t="n">
         <v>1.8</v>
@@ -51044,7 +51044,7 @@
         <v>1.47</v>
       </c>
       <c r="AT249" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU249" t="n">
         <v>1.82</v>
@@ -51450,7 +51450,7 @@
         <v>1.57</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU251" t="n">
         <v>1.66</v>
@@ -51650,10 +51650,10 @@
         <v>1</v>
       </c>
       <c r="AS252" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT252" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU252" t="n">
         <v>1.81</v>
@@ -51853,10 +51853,10 @@
         <v>0.85</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT253" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU253" t="n">
         <v>1.61</v>
@@ -52262,7 +52262,7 @@
         <v>0.93</v>
       </c>
       <c r="AT255" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU255" t="n">
         <v>1.52</v>
@@ -52462,10 +52462,10 @@
         <v>1.23</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT256" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU256" t="n">
         <v>1.84</v>
@@ -52665,7 +52665,7 @@
         <v>1.08</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT257" t="n">
         <v>1.07</v>
@@ -52868,10 +52868,10 @@
         <v>0.5</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT258" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU258" t="n">
         <v>1.66</v>
@@ -53071,7 +53071,7 @@
         <v>1.83</v>
       </c>
       <c r="AS259" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT259" t="n">
         <v>2</v>
@@ -53277,7 +53277,7 @@
         <v>2</v>
       </c>
       <c r="AT260" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU260" t="n">
         <v>1.72</v>
@@ -53477,10 +53477,10 @@
         <v>1.17</v>
       </c>
       <c r="AS261" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT261" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU261" t="n">
         <v>1.45</v>
@@ -53680,7 +53680,7 @@
         <v>0.92</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT262" t="n">
         <v>0.87</v>
@@ -54289,7 +54289,7 @@
         <v>0.75</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT265" t="n">
         <v>0.79</v>
@@ -54901,7 +54901,7 @@
         <v>1.47</v>
       </c>
       <c r="AT268" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU268" t="n">
         <v>1.78</v>
@@ -55510,7 +55510,7 @@
         <v>2.07</v>
       </c>
       <c r="AT271" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU271" t="n">
         <v>1.83</v>
@@ -55710,7 +55710,7 @@
         <v>1.08</v>
       </c>
       <c r="AS272" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT272" t="n">
         <v>1.07</v>
@@ -55913,10 +55913,10 @@
         <v>1.15</v>
       </c>
       <c r="AS273" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT273" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU273" t="n">
         <v>1.83</v>
@@ -56319,10 +56319,10 @@
         <v>0.77</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT275" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU275" t="n">
         <v>1.35</v>
@@ -56522,10 +56522,10 @@
         <v>1.14</v>
       </c>
       <c r="AS276" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT276" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU276" t="n">
         <v>1.71</v>
@@ -56725,7 +56725,7 @@
         <v>1.92</v>
       </c>
       <c r="AS277" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT277" t="n">
         <v>2</v>
@@ -56928,10 +56928,10 @@
         <v>0.79</v>
       </c>
       <c r="AS278" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT278" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU278" t="n">
         <v>1.38</v>
@@ -57131,10 +57131,10 @@
         <v>1.23</v>
       </c>
       <c r="AS279" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT279" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU279" t="n">
         <v>1.84</v>
@@ -57337,7 +57337,7 @@
         <v>1.64</v>
       </c>
       <c r="AT280" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU280" t="n">
         <v>1.56</v>
@@ -57540,7 +57540,7 @@
         <v>2</v>
       </c>
       <c r="AT281" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AU281" t="n">
         <v>1.75</v>
@@ -58146,7 +58146,7 @@
         <v>1.07</v>
       </c>
       <c r="AS284" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT284" t="n">
         <v>1.07</v>
@@ -59164,7 +59164,7 @@
         <v>1.53</v>
       </c>
       <c r="AT289" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AU289" t="n">
         <v>1.39</v>
@@ -59419,6 +59419,1833 @@
       </c>
       <c r="BK290" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" t="n">
+        <v>2982699</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E291" s="2" t="n">
+        <v>45002.6875</v>
+      </c>
+      <c r="F291" t="n">
+        <v>30</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="I291" t="n">
+        <v>1</v>
+      </c>
+      <c r="J291" t="n">
+        <v>2</v>
+      </c>
+      <c r="K291" t="n">
+        <v>3</v>
+      </c>
+      <c r="L291" t="n">
+        <v>5</v>
+      </c>
+      <c r="M291" t="n">
+        <v>2</v>
+      </c>
+      <c r="N291" t="n">
+        <v>7</v>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>['25', '47', '56', '59', '79']</t>
+        </is>
+      </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>['4', '30']</t>
+        </is>
+      </c>
+      <c r="Q291" t="n">
+        <v>7</v>
+      </c>
+      <c r="R291" t="n">
+        <v>5</v>
+      </c>
+      <c r="S291" t="n">
+        <v>12</v>
+      </c>
+      <c r="T291" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U291" t="n">
+        <v>2</v>
+      </c>
+      <c r="V291" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W291" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X291" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y291" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z291" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA291" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB291" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC291" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD291" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE291" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF291" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG291" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH291" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI291" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ291" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK291" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL291" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM291" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN291" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO291" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP291" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ291" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR291" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS291" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT291" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU291" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV291" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW291" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX291" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY291" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ291" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BA291" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB291" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC291" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD291" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE291" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF291" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG291" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH291" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI291" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ291" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK291" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" t="n">
+        <v>2982702</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E292" s="2" t="n">
+        <v>45003.41666666666</v>
+      </c>
+      <c r="F292" t="n">
+        <v>30</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>SPAL</t>
+        </is>
+      </c>
+      <c r="I292" t="n">
+        <v>1</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="n">
+        <v>2</v>
+      </c>
+      <c r="M292" t="n">
+        <v>0</v>
+      </c>
+      <c r="N292" t="n">
+        <v>2</v>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>['25', '74']</t>
+        </is>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q292" t="n">
+        <v>6</v>
+      </c>
+      <c r="R292" t="n">
+        <v>4</v>
+      </c>
+      <c r="S292" t="n">
+        <v>10</v>
+      </c>
+      <c r="T292" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U292" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V292" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W292" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X292" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="Y292" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z292" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA292" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AB292" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC292" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD292" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE292" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF292" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG292" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH292" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI292" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ292" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK292" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL292" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM292" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN292" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO292" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP292" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ292" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AR292" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS292" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT292" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU292" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV292" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW292" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX292" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY292" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ292" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA292" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB292" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC292" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD292" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE292" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF292" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG292" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH292" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI292" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ292" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK292" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" t="n">
+        <v>2982700</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E293" s="2" t="n">
+        <v>45003.41666666666</v>
+      </c>
+      <c r="F293" t="n">
+        <v>30</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Benevento</t>
+        </is>
+      </c>
+      <c r="I293" t="n">
+        <v>1</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="n">
+        <v>2</v>
+      </c>
+      <c r="M293" t="n">
+        <v>0</v>
+      </c>
+      <c r="N293" t="n">
+        <v>2</v>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>['35', '78']</t>
+        </is>
+      </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q293" t="n">
+        <v>1</v>
+      </c>
+      <c r="R293" t="n">
+        <v>2</v>
+      </c>
+      <c r="S293" t="n">
+        <v>3</v>
+      </c>
+      <c r="T293" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U293" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V293" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W293" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X293" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y293" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z293" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA293" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB293" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC293" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD293" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE293" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AF293" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG293" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH293" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI293" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ293" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK293" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL293" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM293" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN293" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO293" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP293" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ293" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR293" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS293" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT293" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU293" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV293" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW293" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX293" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY293" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ293" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BA293" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB293" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC293" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD293" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE293" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF293" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG293" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH293" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI293" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ293" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK293" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B294" t="n">
+        <v>2982698</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E294" s="2" t="n">
+        <v>45003.41666666666</v>
+      </c>
+      <c r="F294" t="n">
+        <v>30</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="I294" t="n">
+        <v>0</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0</v>
+      </c>
+      <c r="L294" t="n">
+        <v>0</v>
+      </c>
+      <c r="M294" t="n">
+        <v>1</v>
+      </c>
+      <c r="N294" t="n">
+        <v>1</v>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="Q294" t="n">
+        <v>4</v>
+      </c>
+      <c r="R294" t="n">
+        <v>3</v>
+      </c>
+      <c r="S294" t="n">
+        <v>7</v>
+      </c>
+      <c r="T294" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U294" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V294" t="n">
+        <v>8</v>
+      </c>
+      <c r="W294" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X294" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y294" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z294" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA294" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB294" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC294" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AD294" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE294" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF294" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG294" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH294" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI294" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AJ294" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK294" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL294" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AM294" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN294" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO294" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP294" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AQ294" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR294" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AS294" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT294" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU294" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV294" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW294" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX294" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY294" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ294" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="BA294" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB294" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC294" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD294" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE294" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF294" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG294" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH294" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI294" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ294" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK294" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B295" t="n">
+        <v>2982695</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E295" s="2" t="n">
+        <v>45003.41666666666</v>
+      </c>
+      <c r="F295" t="n">
+        <v>30</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="I295" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" t="n">
+        <v>1</v>
+      </c>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="n">
+        <v>0</v>
+      </c>
+      <c r="M295" t="n">
+        <v>3</v>
+      </c>
+      <c r="N295" t="n">
+        <v>3</v>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>['45+1', '70', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q295" t="n">
+        <v>5</v>
+      </c>
+      <c r="R295" t="n">
+        <v>1</v>
+      </c>
+      <c r="S295" t="n">
+        <v>6</v>
+      </c>
+      <c r="T295" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U295" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V295" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W295" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X295" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="Y295" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z295" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA295" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AB295" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC295" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD295" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE295" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF295" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG295" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH295" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI295" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ295" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AK295" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL295" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM295" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN295" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO295" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP295" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ295" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR295" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS295" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT295" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU295" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV295" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW295" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX295" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AY295" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ295" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA295" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB295" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC295" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD295" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE295" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF295" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG295" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH295" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI295" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ295" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK295" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" t="n">
+        <v>2982696</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E296" s="2" t="n">
+        <v>45003.41666666666</v>
+      </c>
+      <c r="F296" t="n">
+        <v>30</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L296" t="n">
+        <v>0</v>
+      </c>
+      <c r="M296" t="n">
+        <v>2</v>
+      </c>
+      <c r="N296" t="n">
+        <v>2</v>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>['51', '53']</t>
+        </is>
+      </c>
+      <c r="Q296" t="n">
+        <v>6</v>
+      </c>
+      <c r="R296" t="n">
+        <v>4</v>
+      </c>
+      <c r="S296" t="n">
+        <v>10</v>
+      </c>
+      <c r="T296" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U296" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V296" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W296" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X296" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="Y296" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z296" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA296" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AB296" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC296" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD296" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE296" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF296" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG296" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH296" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI296" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ296" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AK296" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL296" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM296" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN296" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO296" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP296" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ296" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR296" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS296" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT296" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU296" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV296" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW296" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX296" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY296" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ296" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BA296" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB296" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC296" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD296" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE296" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF296" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG296" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH296" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI296" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ296" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK296" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" t="n">
+        <v>2982694</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E297" s="2" t="n">
+        <v>45003.41666666666</v>
+      </c>
+      <c r="F297" t="n">
+        <v>30</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="I297" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0</v>
+      </c>
+      <c r="L297" t="n">
+        <v>0</v>
+      </c>
+      <c r="M297" t="n">
+        <v>1</v>
+      </c>
+      <c r="N297" t="n">
+        <v>1</v>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q297" t="n">
+        <v>10</v>
+      </c>
+      <c r="R297" t="n">
+        <v>1</v>
+      </c>
+      <c r="S297" t="n">
+        <v>11</v>
+      </c>
+      <c r="T297" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U297" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V297" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W297" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X297" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z297" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA297" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB297" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC297" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD297" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE297" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF297" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG297" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH297" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI297" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ297" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AK297" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL297" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM297" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN297" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO297" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP297" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ297" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR297" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS297" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT297" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU297" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV297" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW297" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX297" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY297" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ297" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA297" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB297" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC297" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD297" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE297" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF297" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG297" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH297" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI297" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ297" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK297" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B298" t="n">
+        <v>2982697</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E298" s="2" t="n">
+        <v>45003.41666666666</v>
+      </c>
+      <c r="F298" t="n">
+        <v>30</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="I298" t="n">
+        <v>1</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="n">
+        <v>2</v>
+      </c>
+      <c r="M298" t="n">
+        <v>0</v>
+      </c>
+      <c r="N298" t="n">
+        <v>2</v>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>['5', '53']</t>
+        </is>
+      </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q298" t="n">
+        <v>4</v>
+      </c>
+      <c r="R298" t="n">
+        <v>11</v>
+      </c>
+      <c r="S298" t="n">
+        <v>15</v>
+      </c>
+      <c r="T298" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U298" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V298" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W298" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X298" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y298" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z298" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA298" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB298" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC298" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD298" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE298" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF298" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG298" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH298" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI298" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ298" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AK298" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL298" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM298" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN298" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO298" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP298" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ298" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR298" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS298" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT298" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU298" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV298" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AW298" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AX298" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AY298" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ298" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BA298" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB298" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC298" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD298" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE298" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF298" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG298" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH298" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI298" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ298" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK298" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B299" t="n">
+        <v>2982701</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E299" s="2" t="n">
+        <v>45003.51041666666</v>
+      </c>
+      <c r="F299" t="n">
+        <v>30</v>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>Reggina</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="n">
+        <v>2</v>
+      </c>
+      <c r="K299" t="n">
+        <v>2</v>
+      </c>
+      <c r="L299" t="n">
+        <v>0</v>
+      </c>
+      <c r="M299" t="n">
+        <v>4</v>
+      </c>
+      <c r="N299" t="n">
+        <v>4</v>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>['11', '43', '63', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q299" t="n">
+        <v>6</v>
+      </c>
+      <c r="R299" t="n">
+        <v>5</v>
+      </c>
+      <c r="S299" t="n">
+        <v>11</v>
+      </c>
+      <c r="T299" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="U299" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V299" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W299" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X299" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Y299" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Z299" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA299" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB299" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC299" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD299" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE299" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF299" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG299" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH299" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI299" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ299" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK299" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL299" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM299" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN299" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO299" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP299" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ299" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR299" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AS299" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT299" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU299" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV299" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW299" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX299" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY299" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ299" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA299" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB299" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC299" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD299" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE299" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF299" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG299" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH299" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI299" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ299" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK299" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK310"/>
+  <dimension ref="A1:BK311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,7 @@
         <v>1.06</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT15" t="n">
         <v>1.2</v>
@@ -3745,7 +3745,7 @@
         <v>1.73</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT27" t="n">
         <v>1.87</v>
@@ -9226,7 +9226,7 @@
         <v>1.67</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU43" t="n">
         <v>1.69</v>
@@ -10644,7 +10644,7 @@
         <v>3</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT50" t="n">
         <v>1.47</v>
@@ -14301,7 +14301,7 @@
         <v>1.53</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU68" t="n">
         <v>1.73</v>
@@ -14704,7 +14704,7 @@
         <v>0.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT70" t="n">
         <v>1.25</v>
@@ -18564,7 +18564,7 @@
         <v>1.63</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU89" t="n">
         <v>1.69</v>
@@ -18967,7 +18967,7 @@
         <v>1.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT91" t="n">
         <v>1.73</v>
@@ -22421,7 +22421,7 @@
         <v>2</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU108" t="n">
         <v>1.88</v>
@@ -23027,7 +23027,7 @@
         <v>0.6</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT111" t="n">
         <v>1.06</v>
@@ -25466,7 +25466,7 @@
         <v>1.06</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU123" t="n">
         <v>1.49</v>
@@ -28305,7 +28305,7 @@
         <v>2.14</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT137" t="n">
         <v>1.8</v>
@@ -30338,7 +30338,7 @@
         <v>1.06</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU147" t="n">
         <v>1.47</v>
@@ -31756,7 +31756,7 @@
         <v>0.71</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT154" t="n">
         <v>0.8</v>
@@ -33992,7 +33992,7 @@
         <v>1.67</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU165" t="n">
         <v>1.62</v>
@@ -37237,7 +37237,7 @@
         <v>1.5</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT181" t="n">
         <v>1.27</v>
@@ -38661,7 +38661,7 @@
         <v>1.06</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU188" t="n">
         <v>1.34</v>
@@ -39876,7 +39876,7 @@
         <v>1</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT194" t="n">
         <v>1</v>
@@ -44345,7 +44345,7 @@
         <v>1.63</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU216" t="n">
         <v>1.4</v>
@@ -46169,7 +46169,7 @@
         <v>0.9</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT225" t="n">
         <v>0.73</v>
@@ -47187,7 +47187,7 @@
         <v>1.73</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU230" t="n">
         <v>1.62</v>
@@ -50029,7 +50029,7 @@
         <v>1.27</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU244" t="n">
         <v>1.79</v>
@@ -51244,7 +51244,7 @@
         <v>1</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT250" t="n">
         <v>0.88</v>
@@ -53886,7 +53886,7 @@
         <v>1.63</v>
       </c>
       <c r="AT263" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU263" t="n">
         <v>1.38</v>
@@ -55101,7 +55101,7 @@
         <v>0.92</v>
       </c>
       <c r="AS269" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT269" t="n">
         <v>0.88</v>
@@ -61600,7 +61600,7 @@
         <v>2.06</v>
       </c>
       <c r="AT301" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU301" t="n">
         <v>1.8</v>
@@ -63221,7 +63221,7 @@
         <v>1.8</v>
       </c>
       <c r="AS309" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT309" t="n">
         <v>1.75</v>
@@ -63479,6 +63479,209 @@
       </c>
       <c r="BK310" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B311" t="n">
+        <v>2982692</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E311" s="2" t="n">
+        <v>45021.63541666666</v>
+      </c>
+      <c r="F311" t="n">
+        <v>29</v>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Reggina</t>
+        </is>
+      </c>
+      <c r="I311" t="n">
+        <v>1</v>
+      </c>
+      <c r="J311" t="n">
+        <v>1</v>
+      </c>
+      <c r="K311" t="n">
+        <v>2</v>
+      </c>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="n">
+        <v>3</v>
+      </c>
+      <c r="N311" t="n">
+        <v>4</v>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P311" t="inlineStr">
+        <is>
+          <t>['38', '47', '82']</t>
+        </is>
+      </c>
+      <c r="Q311" t="n">
+        <v>10</v>
+      </c>
+      <c r="R311" t="n">
+        <v>7</v>
+      </c>
+      <c r="S311" t="n">
+        <v>17</v>
+      </c>
+      <c r="T311" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U311" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V311" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W311" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X311" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y311" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z311" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA311" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB311" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC311" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD311" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE311" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF311" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG311" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH311" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI311" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ311" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK311" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL311" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM311" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN311" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO311" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP311" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ311" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR311" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS311" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT311" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU311" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV311" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW311" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX311" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY311" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ311" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA311" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB311" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC311" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD311" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE311" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF311" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG311" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH311" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI311" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ311" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK311" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK311"/>
+  <dimension ref="A1:BK312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT10" t="n">
         <v>0.6</v>
@@ -3339,7 +3339,7 @@
         <v>1.06</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU14" t="n">
         <v>1.36</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT29" t="n">
         <v>1.75</v>
@@ -7399,7 +7399,7 @@
         <v>1.56</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU34" t="n">
         <v>2.15</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT48" t="n">
         <v>0.93</v>
@@ -11662,7 +11662,7 @@
         <v>1.67</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU55" t="n">
         <v>1.67</v>
@@ -14907,7 +14907,7 @@
         <v>1.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT71" t="n">
         <v>1.47</v>
@@ -16331,7 +16331,7 @@
         <v>2.33</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU78" t="n">
         <v>2.01</v>
@@ -17343,7 +17343,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT83" t="n">
         <v>0.88</v>
@@ -17752,7 +17752,7 @@
         <v>1.27</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU85" t="n">
         <v>1.84</v>
@@ -22621,7 +22621,7 @@
         <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT109" t="n">
         <v>1.25</v>
@@ -23436,7 +23436,7 @@
         <v>1.73</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU113" t="n">
         <v>1.55</v>
@@ -24245,7 +24245,7 @@
         <v>2.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT117" t="n">
         <v>1.87</v>
@@ -28511,7 +28511,7 @@
         <v>1.06</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU138" t="n">
         <v>1.47</v>
@@ -31147,7 +31147,7 @@
         <v>0.67</v>
       </c>
       <c r="AS151" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT151" t="n">
         <v>1</v>
@@ -31759,7 +31759,7 @@
         <v>1.33</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU154" t="n">
         <v>1.54</v>
@@ -34395,7 +34395,7 @@
         <v>1.13</v>
       </c>
       <c r="AS167" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT167" t="n">
         <v>1.06</v>
@@ -36631,7 +36631,7 @@
         <v>1.63</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU178" t="n">
         <v>1.73</v>
@@ -38455,7 +38455,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS187" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT187" t="n">
         <v>0.88</v>
@@ -39473,7 +39473,7 @@
         <v>1.53</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU192" t="n">
         <v>1.81</v>
@@ -41703,7 +41703,7 @@
         <v>1.9</v>
       </c>
       <c r="AS203" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT203" t="n">
         <v>1.8</v>
@@ -43533,7 +43533,7 @@
         <v>2</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU212" t="n">
         <v>1.85</v>
@@ -46372,7 +46372,7 @@
         <v>1.2</v>
       </c>
       <c r="AS226" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT226" t="n">
         <v>1.27</v>
@@ -47999,7 +47999,7 @@
         <v>1.06</v>
       </c>
       <c r="AT234" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU234" t="n">
         <v>1.5</v>
@@ -49823,7 +49823,7 @@
         <v>0.82</v>
       </c>
       <c r="AS243" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT243" t="n">
         <v>0.73</v>
@@ -53277,7 +53277,7 @@
         <v>2.06</v>
       </c>
       <c r="AT260" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU260" t="n">
         <v>1.72</v>
@@ -54492,7 +54492,7 @@
         <v>1.75</v>
       </c>
       <c r="AS266" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT266" t="n">
         <v>1.73</v>
@@ -57943,7 +57943,7 @@
         <v>0.93</v>
       </c>
       <c r="AS283" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT283" t="n">
         <v>0.88</v>
@@ -59164,7 +59164,7 @@
         <v>1.63</v>
       </c>
       <c r="AT289" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU289" t="n">
         <v>1.39</v>
@@ -59773,7 +59773,7 @@
         <v>1.63</v>
       </c>
       <c r="AT292" t="n">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU292" t="n">
         <v>1.41</v>
@@ -63682,6 +63682,209 @@
       </c>
       <c r="BK311" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B312" t="n">
+        <v>2982714</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E312" s="2" t="n">
+        <v>45026.3125</v>
+      </c>
+      <c r="F312" t="n">
+        <v>32</v>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>Benevento</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>SPAL</t>
+        </is>
+      </c>
+      <c r="I312" t="n">
+        <v>1</v>
+      </c>
+      <c r="J312" t="n">
+        <v>1</v>
+      </c>
+      <c r="K312" t="n">
+        <v>2</v>
+      </c>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="n">
+        <v>3</v>
+      </c>
+      <c r="N312" t="n">
+        <v>4</v>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>['33', '51', '66']</t>
+        </is>
+      </c>
+      <c r="Q312" t="n">
+        <v>4</v>
+      </c>
+      <c r="R312" t="n">
+        <v>6</v>
+      </c>
+      <c r="S312" t="n">
+        <v>10</v>
+      </c>
+      <c r="T312" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U312" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V312" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W312" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X312" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y312" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z312" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA312" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB312" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC312" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD312" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE312" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF312" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG312" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH312" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI312" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AJ312" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK312" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL312" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM312" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN312" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO312" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP312" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ312" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AR312" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS312" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT312" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU312" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV312" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW312" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX312" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY312" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ312" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA312" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB312" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC312" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD312" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE312" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF312" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG312" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH312" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI312" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ312" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK312" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK321"/>
+  <dimension ref="A1:BK322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT11" t="n">
         <v>1.75</v>
@@ -3542,7 +3542,7 @@
         <v>1.25</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT24" t="n">
         <v>0.82</v>
@@ -8617,7 +8617,7 @@
         <v>2.06</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU40" t="n">
         <v>1.92</v>
@@ -10441,7 +10441,7 @@
         <v>1.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT49" t="n">
         <v>0.73</v>
@@ -11256,7 +11256,7 @@
         <v>1.06</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU53" t="n">
         <v>1.34</v>
@@ -14298,7 +14298,7 @@
         <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT68" t="n">
         <v>1.38</v>
@@ -15925,7 +15925,7 @@
         <v>1.63</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU76" t="n">
         <v>1.66</v>
@@ -18155,7 +18155,7 @@
         <v>0.33</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT87" t="n">
         <v>0.88</v>
@@ -19376,7 +19376,7 @@
         <v>1.53</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU93" t="n">
         <v>1.44</v>
@@ -22012,7 +22012,7 @@
         <v>0.25</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT106" t="n">
         <v>1</v>
@@ -24654,7 +24654,7 @@
         <v>1.69</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU119" t="n">
         <v>1.7</v>
@@ -26072,7 +26072,7 @@
         <v>0.5</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT126" t="n">
         <v>0.88</v>
@@ -29526,7 +29526,7 @@
         <v>2</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU143" t="n">
         <v>1.77</v>
@@ -32771,7 +32771,7 @@
         <v>1.57</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT159" t="n">
         <v>1.19</v>
@@ -35210,7 +35210,7 @@
         <v>1.18</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU171" t="n">
         <v>1.41</v>
@@ -36425,7 +36425,7 @@
         <v>1.5</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT177" t="n">
         <v>1</v>
@@ -38255,7 +38255,7 @@
         <v>1.06</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU186" t="n">
         <v>1.56</v>
@@ -40285,7 +40285,7 @@
         <v>1.56</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU196" t="n">
         <v>1.89</v>
@@ -42515,7 +42515,7 @@
         <v>0.6</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT207" t="n">
         <v>0.63</v>
@@ -44142,7 +44142,7 @@
         <v>1.63</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU215" t="n">
         <v>1.3</v>
@@ -45560,7 +45560,7 @@
         <v>0.8</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT222" t="n">
         <v>0.9399999999999999</v>
@@ -49014,7 +49014,7 @@
         <v>1.73</v>
       </c>
       <c r="AT239" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU239" t="n">
         <v>1.59</v>
@@ -51447,7 +51447,7 @@
         <v>1.83</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT251" t="n">
         <v>1.75</v>
@@ -51653,7 +51653,7 @@
         <v>2.38</v>
       </c>
       <c r="AT252" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU252" t="n">
         <v>1.81</v>
@@ -54695,7 +54695,7 @@
         <v>1.46</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT267" t="n">
         <v>1.38</v>
@@ -55916,7 +55916,7 @@
         <v>1.63</v>
       </c>
       <c r="AT273" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU273" t="n">
         <v>1.83</v>
@@ -58349,7 +58349,7 @@
         <v>1.43</v>
       </c>
       <c r="AS285" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT285" t="n">
         <v>1.25</v>
@@ -60991,7 +60991,7 @@
         <v>1.63</v>
       </c>
       <c r="AT298" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU298" t="n">
         <v>1.67</v>
@@ -63424,7 +63424,7 @@
         <v>1.07</v>
       </c>
       <c r="AS310" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT310" t="n">
         <v>1.06</v>
@@ -64848,7 +64848,7 @@
         <v>1.19</v>
       </c>
       <c r="AT317" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU317" t="n">
         <v>1.74</v>
@@ -65712,6 +65712,209 @@
       </c>
       <c r="BK321" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B322" t="n">
+        <v>2982730</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E322" s="2" t="n">
+        <v>45030.64583333334</v>
+      </c>
+      <c r="F322" t="n">
+        <v>33</v>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>Modena</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="I322" t="n">
+        <v>1</v>
+      </c>
+      <c r="J322" t="n">
+        <v>1</v>
+      </c>
+      <c r="K322" t="n">
+        <v>2</v>
+      </c>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="n">
+        <v>1</v>
+      </c>
+      <c r="N322" t="n">
+        <v>2</v>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="P322" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="Q322" t="n">
+        <v>5</v>
+      </c>
+      <c r="R322" t="n">
+        <v>1</v>
+      </c>
+      <c r="S322" t="n">
+        <v>6</v>
+      </c>
+      <c r="T322" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U322" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V322" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W322" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X322" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y322" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z322" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA322" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB322" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC322" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD322" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE322" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF322" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG322" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="AH322" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI322" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ322" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK322" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL322" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM322" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN322" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO322" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP322" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ322" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AR322" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS322" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT322" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU322" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV322" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW322" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX322" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AY322" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ322" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA322" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB322" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC322" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD322" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE322" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BF322" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG322" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH322" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI322" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ322" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK322" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Italy Serie B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK322"/>
+  <dimension ref="A1:BK331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.19</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.69</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT6" t="n">
         <v>0.82</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT7" t="n">
         <v>1.75</v>
@@ -2121,7 +2121,7 @@
         <v>1.06</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.18</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AT10" t="n">
         <v>0.63</v>
@@ -2730,7 +2730,7 @@
         <v>1.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT14" t="n">
         <v>0.9399999999999999</v>
@@ -3742,10 +3742,10 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT19" t="n">
         <v>1.06</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT20" t="n">
         <v>1.12</v>
@@ -4760,7 +4760,7 @@
         <v>2.38</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>1.63</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -6381,10 +6381,10 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU29" t="n">
         <v>1.86</v>
@@ -6790,7 +6790,7 @@
         <v>1.63</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU31" t="n">
         <v>1.15</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT32" t="n">
         <v>1.12</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT33" t="n">
         <v>1.06</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT34" t="n">
         <v>0.9399999999999999</v>
@@ -7602,7 +7602,7 @@
         <v>1.18</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU35" t="n">
         <v>1.41</v>
@@ -8008,7 +8008,7 @@
         <v>1.63</v>
       </c>
       <c r="AT37" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU37" t="n">
         <v>2.16</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT38" t="n">
         <v>0.63</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT39" t="n">
         <v>1</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT40" t="n">
         <v>1.29</v>
@@ -8820,7 +8820,7 @@
         <v>1.53</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU41" t="n">
         <v>0.73</v>
@@ -9226,7 +9226,7 @@
         <v>1.63</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU43" t="n">
         <v>1.69</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT44" t="n">
         <v>1.94</v>
@@ -9835,7 +9835,7 @@
         <v>1.19</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU46" t="n">
         <v>1.9</v>
@@ -10038,7 +10038,7 @@
         <v>1.63</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU47" t="n">
         <v>1.49</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AT48" t="n">
         <v>0.9399999999999999</v>
@@ -10444,7 +10444,7 @@
         <v>1.5</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU49" t="n">
         <v>1.68</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT53" t="n">
         <v>1.29</v>
@@ -11456,7 +11456,7 @@
         <v>2.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT54" t="n">
         <v>1.94</v>
@@ -11865,7 +11865,7 @@
         <v>2.38</v>
       </c>
       <c r="AT56" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU56" t="n">
         <v>2.25</v>
@@ -12065,10 +12065,10 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU57" t="n">
         <v>1.49</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT60" t="n">
         <v>1.12</v>
@@ -12877,10 +12877,10 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU61" t="n">
         <v>1.36</v>
@@ -13080,7 +13080,7 @@
         <v>0.5</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT62" t="n">
         <v>0.88</v>
@@ -13286,7 +13286,7 @@
         <v>1.69</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU63" t="n">
         <v>1.59</v>
@@ -13486,10 +13486,10 @@
         <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU64" t="n">
         <v>1.93</v>
@@ -13892,7 +13892,7 @@
         <v>1.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT66" t="n">
         <v>1.19</v>
@@ -14301,7 +14301,7 @@
         <v>1.5</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU68" t="n">
         <v>1.73</v>
@@ -14504,7 +14504,7 @@
         <v>1.63</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU69" t="n">
         <v>1.79</v>
@@ -14707,7 +14707,7 @@
         <v>1.25</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU70" t="n">
         <v>1.8</v>
@@ -14907,7 +14907,7 @@
         <v>1.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AT71" t="n">
         <v>1.38</v>
@@ -15110,7 +15110,7 @@
         <v>1.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT72" t="n">
         <v>0.9399999999999999</v>
@@ -15313,7 +15313,7 @@
         <v>2.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT73" t="n">
         <v>1.94</v>
@@ -15516,7 +15516,7 @@
         <v>0</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT74" t="n">
         <v>1.12</v>
@@ -16125,10 +16125,10 @@
         <v>0.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT77" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU77" t="n">
         <v>1.43</v>
@@ -16737,7 +16737,7 @@
         <v>1.63</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU80" t="n">
         <v>1.64</v>
@@ -17140,10 +17140,10 @@
         <v>0.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU82" t="n">
         <v>1.59</v>
@@ -17343,7 +17343,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AT83" t="n">
         <v>0.82</v>
@@ -17546,10 +17546,10 @@
         <v>1.5</v>
       </c>
       <c r="AS84" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU84" t="n">
         <v>2.07</v>
@@ -17952,7 +17952,7 @@
         <v>2.25</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT86" t="n">
         <v>1.75</v>
@@ -18361,7 +18361,7 @@
         <v>1.69</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU88" t="n">
         <v>1.79</v>
@@ -18564,7 +18564,7 @@
         <v>1.63</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU89" t="n">
         <v>1.69</v>
@@ -18764,7 +18764,7 @@
         <v>1.33</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT90" t="n">
         <v>1.38</v>
@@ -18970,7 +18970,7 @@
         <v>1.25</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU91" t="n">
         <v>1.73</v>
@@ -19579,7 +19579,7 @@
         <v>1.63</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU94" t="n">
         <v>1.74</v>
@@ -20388,7 +20388,7 @@
         <v>2.4</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT98" t="n">
         <v>1.75</v>
@@ -20997,7 +20997,7 @@
         <v>1.25</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT101" t="n">
         <v>0.9399999999999999</v>
@@ -21200,7 +21200,7 @@
         <v>1.8</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT102" t="n">
         <v>0.82</v>
@@ -21403,7 +21403,7 @@
         <v>1.75</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT103" t="n">
         <v>1.38</v>
@@ -21609,7 +21609,7 @@
         <v>1.06</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU104" t="n">
         <v>1.53</v>
@@ -22015,7 +22015,7 @@
         <v>1.5</v>
       </c>
       <c r="AT106" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU106" t="n">
         <v>1.68</v>
@@ -22215,10 +22215,10 @@
         <v>1.2</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU107" t="n">
         <v>1.06</v>
@@ -22418,10 +22418,10 @@
         <v>1.2</v>
       </c>
       <c r="AS108" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU108" t="n">
         <v>1.88</v>
@@ -22621,10 +22621,10 @@
         <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU109" t="n">
         <v>1.52</v>
@@ -22824,10 +22824,10 @@
         <v>1.2</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU110" t="n">
         <v>1.87</v>
@@ -23433,7 +23433,7 @@
         <v>0.8</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT113" t="n">
         <v>0.9399999999999999</v>
@@ -24245,7 +24245,7 @@
         <v>2.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AT117" t="n">
         <v>1.94</v>
@@ -24451,7 +24451,7 @@
         <v>2.38</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU118" t="n">
         <v>2.05</v>
@@ -25260,10 +25260,10 @@
         <v>1.5</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU122" t="n">
         <v>1.38</v>
@@ -25463,10 +25463,10 @@
         <v>1.17</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU123" t="n">
         <v>1.49</v>
@@ -26075,7 +26075,7 @@
         <v>1.5</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU126" t="n">
         <v>1.67</v>
@@ -26275,10 +26275,10 @@
         <v>1</v>
       </c>
       <c r="AS127" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU127" t="n">
         <v>1.77</v>
@@ -26478,10 +26478,10 @@
         <v>0.8</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT128" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU128" t="n">
         <v>1.01</v>
@@ -26681,10 +26681,10 @@
         <v>1.67</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU129" t="n">
         <v>1.93</v>
@@ -26884,10 +26884,10 @@
         <v>1.17</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU130" t="n">
         <v>1.51</v>
@@ -27087,7 +27087,7 @@
         <v>0.2</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT131" t="n">
         <v>0.88</v>
@@ -29320,7 +29320,7 @@
         <v>1.43</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT142" t="n">
         <v>0.82</v>
@@ -29523,7 +29523,7 @@
         <v>1</v>
       </c>
       <c r="AS143" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT143" t="n">
         <v>1.29</v>
@@ -29929,7 +29929,7 @@
         <v>0.33</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT145" t="n">
         <v>0.88</v>
@@ -30132,10 +30132,10 @@
         <v>1</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU146" t="n">
         <v>2.05</v>
@@ -30338,7 +30338,7 @@
         <v>1.18</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU147" t="n">
         <v>1.47</v>
@@ -30538,10 +30538,10 @@
         <v>0.57</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU148" t="n">
         <v>1.1</v>
@@ -30741,7 +30741,7 @@
         <v>0.86</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT149" t="n">
         <v>1.06</v>
@@ -30947,7 +30947,7 @@
         <v>1.53</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU150" t="n">
         <v>1.39</v>
@@ -31147,10 +31147,10 @@
         <v>0.67</v>
       </c>
       <c r="AS151" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AT151" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU151" t="n">
         <v>1.47</v>
@@ -31350,7 +31350,7 @@
         <v>1</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT152" t="n">
         <v>0.9399999999999999</v>
@@ -31962,7 +31962,7 @@
         <v>1.63</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU155" t="n">
         <v>1.92</v>
@@ -32162,10 +32162,10 @@
         <v>1.57</v>
       </c>
       <c r="AS156" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU156" t="n">
         <v>1.75</v>
@@ -32365,10 +32365,10 @@
         <v>1.14</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU157" t="n">
         <v>1.15</v>
@@ -33380,10 +33380,10 @@
         <v>0.63</v>
       </c>
       <c r="AS162" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU162" t="n">
         <v>1.71</v>
@@ -33583,7 +33583,7 @@
         <v>0.75</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT163" t="n">
         <v>0.63</v>
@@ -33789,7 +33789,7 @@
         <v>1.06</v>
       </c>
       <c r="AT164" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU164" t="n">
         <v>1.55</v>
@@ -33992,7 +33992,7 @@
         <v>1.63</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU165" t="n">
         <v>1.62</v>
@@ -34395,7 +34395,7 @@
         <v>1.13</v>
       </c>
       <c r="AS167" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AT167" t="n">
         <v>1.06</v>
@@ -34598,7 +34598,7 @@
         <v>1.88</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT168" t="n">
         <v>1.75</v>
@@ -34801,7 +34801,7 @@
         <v>1.25</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT169" t="n">
         <v>1.12</v>
@@ -35007,7 +35007,7 @@
         <v>2.38</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU170" t="n">
         <v>1.94</v>
@@ -35413,7 +35413,7 @@
         <v>1.63</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU172" t="n">
         <v>1.55</v>
@@ -35816,7 +35816,7 @@
         <v>0.5</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT174" t="n">
         <v>0.88</v>
@@ -36022,7 +36022,7 @@
         <v>1.19</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU175" t="n">
         <v>1.88</v>
@@ -36222,7 +36222,7 @@
         <v>1.5</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT176" t="n">
         <v>1.38</v>
@@ -37034,10 +37034,10 @@
         <v>1.78</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU180" t="n">
         <v>1.73</v>
@@ -37443,7 +37443,7 @@
         <v>1.18</v>
       </c>
       <c r="AT182" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU182" t="n">
         <v>1.36</v>
@@ -38052,7 +38052,7 @@
         <v>1.06</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU185" t="n">
         <v>1.54</v>
@@ -38252,7 +38252,7 @@
         <v>1.25</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT186" t="n">
         <v>1.29</v>
@@ -38455,10 +38455,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS187" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU187" t="n">
         <v>1.41</v>
@@ -38658,10 +38658,10 @@
         <v>1.78</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU188" t="n">
         <v>1.34</v>
@@ -38861,7 +38861,7 @@
         <v>0.67</v>
       </c>
       <c r="AS189" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT189" t="n">
         <v>0.63</v>
@@ -39267,7 +39267,7 @@
         <v>1.78</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT191" t="n">
         <v>1.75</v>
@@ -39879,7 +39879,7 @@
         <v>1.25</v>
       </c>
       <c r="AT194" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU194" t="n">
         <v>1.51</v>
@@ -40079,7 +40079,7 @@
         <v>0.78</v>
       </c>
       <c r="AS195" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT195" t="n">
         <v>0.88</v>
@@ -40282,7 +40282,7 @@
         <v>1.22</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT196" t="n">
         <v>1.29</v>
@@ -40691,7 +40691,7 @@
         <v>1.53</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU198" t="n">
         <v>1.43</v>
@@ -40891,7 +40891,7 @@
         <v>1.67</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT199" t="n">
         <v>1.38</v>
@@ -41094,7 +41094,7 @@
         <v>1.44</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT200" t="n">
         <v>1</v>
@@ -41297,7 +41297,7 @@
         <v>1.33</v>
       </c>
       <c r="AS201" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT201" t="n">
         <v>1.19</v>
@@ -41703,7 +41703,7 @@
         <v>1.9</v>
       </c>
       <c r="AS203" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AT203" t="n">
         <v>1.75</v>
@@ -42315,7 +42315,7 @@
         <v>1.63</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU206" t="n">
         <v>1.58</v>
@@ -42721,7 +42721,7 @@
         <v>1.63</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU208" t="n">
         <v>1.8</v>
@@ -42921,10 +42921,10 @@
         <v>1.56</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU209" t="n">
         <v>1.55</v>
@@ -43330,7 +43330,7 @@
         <v>1.18</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU211" t="n">
         <v>1.31</v>
@@ -43530,7 +43530,7 @@
         <v>1.2</v>
       </c>
       <c r="AS212" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT212" t="n">
         <v>0.9399999999999999</v>
@@ -43733,10 +43733,10 @@
         <v>0.73</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU213" t="n">
         <v>1.87</v>
@@ -44139,7 +44139,7 @@
         <v>1.1</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT215" t="n">
         <v>1.29</v>
@@ -44345,7 +44345,7 @@
         <v>1.53</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU216" t="n">
         <v>1.4</v>
@@ -44545,7 +44545,7 @@
         <v>1.18</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT217" t="n">
         <v>1.12</v>
@@ -44748,7 +44748,7 @@
         <v>1.09</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT218" t="n">
         <v>1.06</v>
@@ -44951,10 +44951,10 @@
         <v>1.18</v>
       </c>
       <c r="AS219" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU219" t="n">
         <v>1.71</v>
@@ -45154,10 +45154,10 @@
         <v>1</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT220" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU220" t="n">
         <v>1.31</v>
@@ -45969,7 +45969,7 @@
         <v>1.63</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU224" t="n">
         <v>1.44</v>
@@ -46172,7 +46172,7 @@
         <v>1.25</v>
       </c>
       <c r="AT225" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU225" t="n">
         <v>1.56</v>
@@ -46372,7 +46372,7 @@
         <v>1.2</v>
       </c>
       <c r="AS226" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AT226" t="n">
         <v>1.19</v>
@@ -46778,7 +46778,7 @@
         <v>1</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT228" t="n">
         <v>0.82</v>
@@ -46984,7 +46984,7 @@
         <v>1.63</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU229" t="n">
         <v>1.63</v>
@@ -47187,7 +47187,7 @@
         <v>1.69</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU230" t="n">
         <v>1.62</v>
@@ -47590,10 +47590,10 @@
         <v>1.18</v>
       </c>
       <c r="AS232" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT232" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU232" t="n">
         <v>1.74</v>
@@ -47796,7 +47796,7 @@
         <v>1.63</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU233" t="n">
         <v>1.85</v>
@@ -47996,7 +47996,7 @@
         <v>1.09</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT234" t="n">
         <v>0.9399999999999999</v>
@@ -48605,7 +48605,7 @@
         <v>1.27</v>
       </c>
       <c r="AS237" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT237" t="n">
         <v>1</v>
@@ -49011,7 +49011,7 @@
         <v>1</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT239" t="n">
         <v>1.29</v>
@@ -49214,10 +49214,10 @@
         <v>0.92</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT240" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU240" t="n">
         <v>1.42</v>
@@ -49417,7 +49417,7 @@
         <v>0.55</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT241" t="n">
         <v>0.63</v>
@@ -49823,10 +49823,10 @@
         <v>0.82</v>
       </c>
       <c r="AS243" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AT243" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU243" t="n">
         <v>1.46</v>
@@ -50029,7 +50029,7 @@
         <v>1.19</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU244" t="n">
         <v>1.79</v>
@@ -50229,10 +50229,10 @@
         <v>1.82</v>
       </c>
       <c r="AS245" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AT245" t="n">
         <v>1.63</v>
-      </c>
-      <c r="AT245" t="n">
-        <v>1.73</v>
       </c>
       <c r="AU245" t="n">
         <v>1.31</v>
@@ -50638,7 +50638,7 @@
         <v>1.69</v>
       </c>
       <c r="AT247" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU247" t="n">
         <v>1.6</v>
@@ -51041,7 +51041,7 @@
         <v>0.73</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT249" t="n">
         <v>0.9399999999999999</v>
@@ -51856,7 +51856,7 @@
         <v>1.63</v>
       </c>
       <c r="AT253" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU253" t="n">
         <v>1.61</v>
@@ -52056,7 +52056,7 @@
         <v>1</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT254" t="n">
         <v>1.06</v>
@@ -52259,7 +52259,7 @@
         <v>0.75</v>
       </c>
       <c r="AS255" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT255" t="n">
         <v>0.9399999999999999</v>
@@ -52668,7 +52668,7 @@
         <v>1.53</v>
       </c>
       <c r="AT257" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU257" t="n">
         <v>1.35</v>
@@ -53274,7 +53274,7 @@
         <v>1</v>
       </c>
       <c r="AS260" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT260" t="n">
         <v>0.9399999999999999</v>
@@ -53477,7 +53477,7 @@
         <v>1.17</v>
       </c>
       <c r="AS261" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT261" t="n">
         <v>1</v>
@@ -53883,10 +53883,10 @@
         <v>1.46</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT263" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU263" t="n">
         <v>1.38</v>
@@ -54089,7 +54089,7 @@
         <v>1.63</v>
       </c>
       <c r="AT264" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU264" t="n">
         <v>1.7</v>
@@ -54292,7 +54292,7 @@
         <v>1.19</v>
       </c>
       <c r="AT265" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU265" t="n">
         <v>1.76</v>
@@ -54492,10 +54492,10 @@
         <v>1.75</v>
       </c>
       <c r="AS266" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AT266" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU266" t="n">
         <v>1.43</v>
@@ -54898,7 +54898,7 @@
         <v>1.33</v>
       </c>
       <c r="AS268" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT268" t="n">
         <v>1.19</v>
@@ -55307,7 +55307,7 @@
         <v>1.06</v>
       </c>
       <c r="AT270" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU270" t="n">
         <v>1.7</v>
@@ -55507,7 +55507,7 @@
         <v>1.77</v>
       </c>
       <c r="AS271" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT271" t="n">
         <v>1.75</v>
@@ -55713,7 +55713,7 @@
         <v>1.63</v>
       </c>
       <c r="AT272" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU272" t="n">
         <v>1.58</v>
@@ -56725,7 +56725,7 @@
         <v>1.92</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT277" t="n">
         <v>1.94</v>
@@ -56931,7 +56931,7 @@
         <v>1.53</v>
       </c>
       <c r="AT278" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU278" t="n">
         <v>1.38</v>
@@ -57334,7 +57334,7 @@
         <v>1.15</v>
       </c>
       <c r="AS280" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT280" t="n">
         <v>1</v>
@@ -57537,7 +57537,7 @@
         <v>0.46</v>
       </c>
       <c r="AS281" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT281" t="n">
         <v>0.63</v>
@@ -57740,7 +57740,7 @@
         <v>1.57</v>
       </c>
       <c r="AS282" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT282" t="n">
         <v>1.38</v>
@@ -57943,7 +57943,7 @@
         <v>0.93</v>
       </c>
       <c r="AS283" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AT283" t="n">
         <v>0.88</v>
@@ -58149,7 +58149,7 @@
         <v>1.19</v>
       </c>
       <c r="AT284" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU284" t="n">
         <v>1.73</v>
@@ -58352,7 +58352,7 @@
         <v>1.5</v>
       </c>
       <c r="AT285" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU285" t="n">
         <v>1.55</v>
@@ -58555,7 +58555,7 @@
         <v>1.63</v>
       </c>
       <c r="AT286" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU286" t="n">
         <v>1.66</v>
@@ -58755,10 +58755,10 @@
         <v>0.77</v>
       </c>
       <c r="AS287" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT287" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU287" t="n">
         <v>1.5</v>
@@ -58958,10 +58958,10 @@
         <v>1.86</v>
       </c>
       <c r="AS288" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT288" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU288" t="n">
         <v>1.73</v>
@@ -59161,7 +59161,7 @@
         <v>0.92</v>
       </c>
       <c r="AS289" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT289" t="n">
         <v>0.9399999999999999</v>
@@ -59364,7 +59364,7 @@
         <v>0.93</v>
       </c>
       <c r="AS290" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT290" t="n">
         <v>0.82</v>
@@ -60585,7 +60585,7 @@
         <v>1.19</v>
       </c>
       <c r="AT296" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU296" t="n">
         <v>1.74</v>
@@ -60785,7 +60785,7 @@
         <v>1.14</v>
       </c>
       <c r="AS297" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT297" t="n">
         <v>1.19</v>
@@ -61394,7 +61394,7 @@
         <v>2</v>
       </c>
       <c r="AS300" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT300" t="n">
         <v>1.94</v>
@@ -61597,10 +61597,10 @@
         <v>1.36</v>
       </c>
       <c r="AS301" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT301" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU301" t="n">
         <v>1.8</v>
@@ -61800,7 +61800,7 @@
         <v>0.93</v>
       </c>
       <c r="AS302" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT302" t="n">
         <v>0.88</v>
@@ -62206,10 +62206,10 @@
         <v>1.33</v>
       </c>
       <c r="AS304" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT304" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU304" t="n">
         <v>1.44</v>
@@ -62412,7 +62412,7 @@
         <v>1.63</v>
       </c>
       <c r="AT305" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU305" t="n">
         <v>1.71</v>
@@ -62612,10 +62612,10 @@
         <v>0.79</v>
       </c>
       <c r="AS306" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT306" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU306" t="n">
         <v>1.49</v>
@@ -62815,10 +62815,10 @@
         <v>1.79</v>
       </c>
       <c r="AS307" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT307" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU307" t="n">
         <v>1.76</v>
@@ -63018,7 +63018,7 @@
         <v>1.07</v>
       </c>
       <c r="AS308" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT308" t="n">
         <v>1</v>
@@ -63224,7 +63224,7 @@
         <v>1.25</v>
       </c>
       <c r="AT309" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU309" t="n">
         <v>1.66</v>
@@ -63630,7 +63630,7 @@
         <v>1.25</v>
       </c>
       <c r="AT311" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU311" t="n">
         <v>1.64</v>
@@ -63830,7 +63830,7 @@
         <v>0.8</v>
       </c>
       <c r="AS312" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AT312" t="n">
         <v>0.9399999999999999</v>
@@ -65915,6 +65915,1833 @@
       </c>
       <c r="BK322" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B323" t="n">
+        <v>2982733</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E323" s="2" t="n">
+        <v>45031.375</v>
+      </c>
+      <c r="F323" t="n">
+        <v>33</v>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="I323" t="n">
+        <v>1</v>
+      </c>
+      <c r="J323" t="n">
+        <v>1</v>
+      </c>
+      <c r="K323" t="n">
+        <v>2</v>
+      </c>
+      <c r="L323" t="n">
+        <v>3</v>
+      </c>
+      <c r="M323" t="n">
+        <v>2</v>
+      </c>
+      <c r="N323" t="n">
+        <v>5</v>
+      </c>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>['19', '61', '63']</t>
+        </is>
+      </c>
+      <c r="P323" t="inlineStr">
+        <is>
+          <t>['5', '86']</t>
+        </is>
+      </c>
+      <c r="Q323" t="n">
+        <v>6</v>
+      </c>
+      <c r="R323" t="n">
+        <v>3</v>
+      </c>
+      <c r="S323" t="n">
+        <v>9</v>
+      </c>
+      <c r="T323" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U323" t="n">
+        <v>2</v>
+      </c>
+      <c r="V323" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W323" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X323" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y323" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z323" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA323" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB323" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC323" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AD323" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE323" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AF323" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG323" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AH323" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI323" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ323" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK323" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL323" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM323" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN323" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO323" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP323" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ323" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR323" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS323" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT323" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU323" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV323" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW323" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX323" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AY323" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ323" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BA323" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB323" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC323" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD323" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE323" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF323" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG323" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH323" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI323" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ323" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK323" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B324" t="n">
+        <v>2982724</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E324" s="2" t="n">
+        <v>45031.375</v>
+      </c>
+      <c r="F324" t="n">
+        <v>33</v>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>Ascoli</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>Südtirol</t>
+        </is>
+      </c>
+      <c r="I324" t="n">
+        <v>0</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0</v>
+      </c>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="n">
+        <v>0</v>
+      </c>
+      <c r="N324" t="n">
+        <v>1</v>
+      </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P324" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q324" t="n">
+        <v>10</v>
+      </c>
+      <c r="R324" t="n">
+        <v>3</v>
+      </c>
+      <c r="S324" t="n">
+        <v>13</v>
+      </c>
+      <c r="T324" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U324" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V324" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="W324" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X324" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Y324" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z324" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA324" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AB324" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC324" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD324" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE324" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF324" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG324" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH324" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI324" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ324" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AK324" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL324" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM324" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN324" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO324" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP324" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ324" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR324" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS324" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT324" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AU324" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV324" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW324" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX324" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY324" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ324" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA324" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB324" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC324" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD324" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE324" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF324" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG324" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH324" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI324" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ324" t="n">
+        <v>25</v>
+      </c>
+      <c r="BK324" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B325" t="n">
+        <v>2982725</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E325" s="2" t="n">
+        <v>45031.375</v>
+      </c>
+      <c r="F325" t="n">
+        <v>33</v>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>Bari 1908</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="I325" t="n">
+        <v>0</v>
+      </c>
+      <c r="J325" t="n">
+        <v>2</v>
+      </c>
+      <c r="K325" t="n">
+        <v>2</v>
+      </c>
+      <c r="L325" t="n">
+        <v>2</v>
+      </c>
+      <c r="M325" t="n">
+        <v>2</v>
+      </c>
+      <c r="N325" t="n">
+        <v>4</v>
+      </c>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>['48', '90+2']</t>
+        </is>
+      </c>
+      <c r="P325" t="inlineStr">
+        <is>
+          <t>['18', '26']</t>
+        </is>
+      </c>
+      <c r="Q325" t="n">
+        <v>9</v>
+      </c>
+      <c r="R325" t="n">
+        <v>6</v>
+      </c>
+      <c r="S325" t="n">
+        <v>15</v>
+      </c>
+      <c r="T325" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U325" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V325" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W325" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X325" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y325" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z325" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA325" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB325" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC325" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD325" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE325" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AF325" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG325" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="AH325" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI325" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ325" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK325" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL325" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM325" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN325" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO325" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP325" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ325" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR325" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS325" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT325" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU325" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV325" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW325" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX325" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY325" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ325" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BA325" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB325" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC325" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD325" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE325" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BF325" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG325" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH325" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI325" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ325" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK325" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B326" t="n">
+        <v>2982726</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E326" s="2" t="n">
+        <v>45031.375</v>
+      </c>
+      <c r="F326" t="n">
+        <v>33</v>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>Benevento</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>Reggina</t>
+        </is>
+      </c>
+      <c r="I326" t="n">
+        <v>0</v>
+      </c>
+      <c r="J326" t="n">
+        <v>1</v>
+      </c>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="n">
+        <v>1</v>
+      </c>
+      <c r="N326" t="n">
+        <v>2</v>
+      </c>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P326" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q326" t="n">
+        <v>3</v>
+      </c>
+      <c r="R326" t="n">
+        <v>2</v>
+      </c>
+      <c r="S326" t="n">
+        <v>5</v>
+      </c>
+      <c r="T326" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U326" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V326" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W326" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X326" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Y326" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z326" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA326" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB326" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC326" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD326" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE326" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AF326" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG326" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH326" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI326" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ326" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AK326" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL326" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM326" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN326" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO326" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP326" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ326" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR326" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS326" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AT326" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AU326" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV326" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW326" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX326" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AY326" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ326" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA326" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB326" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC326" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD326" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE326" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BF326" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG326" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH326" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI326" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ326" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK326" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B327" t="n">
+        <v>2982728</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E327" s="2" t="n">
+        <v>45031.375</v>
+      </c>
+      <c r="F327" t="n">
+        <v>33</v>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>Cosenza</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="I327" t="n">
+        <v>1</v>
+      </c>
+      <c r="J327" t="n">
+        <v>1</v>
+      </c>
+      <c r="K327" t="n">
+        <v>2</v>
+      </c>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="n">
+        <v>1</v>
+      </c>
+      <c r="N327" t="n">
+        <v>2</v>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="P327" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q327" t="n">
+        <v>3</v>
+      </c>
+      <c r="R327" t="n">
+        <v>8</v>
+      </c>
+      <c r="S327" t="n">
+        <v>11</v>
+      </c>
+      <c r="T327" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U327" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V327" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W327" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X327" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="Y327" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z327" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA327" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AB327" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC327" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AD327" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE327" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF327" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG327" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH327" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI327" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ327" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AK327" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL327" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM327" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN327" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO327" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP327" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ327" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR327" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS327" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AT327" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU327" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV327" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW327" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX327" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY327" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ327" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BA327" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB327" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC327" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD327" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE327" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF327" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG327" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH327" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI327" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ327" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK327" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B328" t="n">
+        <v>2982729</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E328" s="2" t="n">
+        <v>45031.375</v>
+      </c>
+      <c r="F328" t="n">
+        <v>33</v>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>Perugia</t>
+        </is>
+      </c>
+      <c r="I328" t="n">
+        <v>1</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0</v>
+      </c>
+      <c r="K328" t="n">
+        <v>1</v>
+      </c>
+      <c r="L328" t="n">
+        <v>2</v>
+      </c>
+      <c r="M328" t="n">
+        <v>0</v>
+      </c>
+      <c r="N328" t="n">
+        <v>2</v>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>['41', '69']</t>
+        </is>
+      </c>
+      <c r="P328" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q328" t="n">
+        <v>5</v>
+      </c>
+      <c r="R328" t="n">
+        <v>6</v>
+      </c>
+      <c r="S328" t="n">
+        <v>11</v>
+      </c>
+      <c r="T328" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U328" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V328" t="n">
+        <v>6</v>
+      </c>
+      <c r="W328" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X328" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y328" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z328" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA328" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB328" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC328" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AD328" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE328" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AF328" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG328" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="AH328" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI328" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AJ328" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AK328" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL328" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM328" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN328" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO328" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP328" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ328" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AR328" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS328" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AT328" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU328" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV328" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW328" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX328" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY328" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ328" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="BA328" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB328" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC328" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD328" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE328" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF328" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG328" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH328" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI328" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ328" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK328" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B329" t="n">
+        <v>2982731</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E329" s="2" t="n">
+        <v>45031.375</v>
+      </c>
+      <c r="F329" t="n">
+        <v>33</v>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>SPAL</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="I329" t="n">
+        <v>1</v>
+      </c>
+      <c r="J329" t="n">
+        <v>1</v>
+      </c>
+      <c r="K329" t="n">
+        <v>2</v>
+      </c>
+      <c r="L329" t="n">
+        <v>2</v>
+      </c>
+      <c r="M329" t="n">
+        <v>2</v>
+      </c>
+      <c r="N329" t="n">
+        <v>4</v>
+      </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>['1', '74']</t>
+        </is>
+      </c>
+      <c r="P329" t="inlineStr">
+        <is>
+          <t>['11', '80']</t>
+        </is>
+      </c>
+      <c r="Q329" t="n">
+        <v>4</v>
+      </c>
+      <c r="R329" t="n">
+        <v>4</v>
+      </c>
+      <c r="S329" t="n">
+        <v>8</v>
+      </c>
+      <c r="T329" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="U329" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V329" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="W329" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X329" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y329" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z329" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA329" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB329" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC329" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD329" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE329" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AF329" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG329" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH329" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI329" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ329" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK329" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL329" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM329" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN329" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO329" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP329" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ329" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR329" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS329" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT329" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU329" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV329" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW329" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX329" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AY329" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ329" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA329" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB329" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC329" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD329" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE329" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF329" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG329" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH329" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI329" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ329" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK329" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B330" t="n">
+        <v>2982727</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E330" s="2" t="n">
+        <v>45031.46875</v>
+      </c>
+      <c r="F330" t="n">
+        <v>33</v>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="I330" t="n">
+        <v>0</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0</v>
+      </c>
+      <c r="L330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M330" t="n">
+        <v>0</v>
+      </c>
+      <c r="N330" t="n">
+        <v>0</v>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P330" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q330" t="n">
+        <v>7</v>
+      </c>
+      <c r="R330" t="n">
+        <v>3</v>
+      </c>
+      <c r="S330" t="n">
+        <v>10</v>
+      </c>
+      <c r="T330" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U330" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V330" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W330" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X330" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y330" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z330" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA330" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB330" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC330" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AD330" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE330" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF330" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG330" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH330" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI330" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ330" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK330" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL330" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM330" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN330" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO330" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP330" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ330" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR330" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS330" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AT330" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU330" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV330" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW330" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AX330" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AY330" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ330" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BA330" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB330" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC330" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD330" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE330" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF330" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG330" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH330" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI330" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ330" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK330" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B331" t="n">
+        <v>2982732</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Italy Serie B</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E331" s="2" t="n">
+        <v>45032.46875</v>
+      </c>
+      <c r="F331" t="n">
+        <v>33</v>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="I331" t="n">
+        <v>0</v>
+      </c>
+      <c r="J331" t="n">
+        <v>1</v>
+      </c>
+      <c r="K331" t="n">
+        <v>1</v>
+      </c>
+      <c r="L331" t="n">
+        <v>2</v>
+      </c>
+      <c r="M331" t="n">
+        <v>1</v>
+      </c>
+      <c r="N331" t="n">
+        <v>3</v>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>['72', '75']</t>
+        </is>
+      </c>
+      <c r="P331" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="Q331" t="n">
+        <v>8</v>
+      </c>
+      <c r="R331" t="n">
+        <v>0</v>
+      </c>
+      <c r="S331" t="n">
+        <v>8</v>
+      </c>
+      <c r="T331" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U331" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V331" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W331" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X331" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y331" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z331" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA331" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB331" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC331" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD331" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE331" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF331" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG331" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH331" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI331" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ331" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK331" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL331" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM331" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN331" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO331" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP331" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ331" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR331" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS331" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AT331" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU331" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV331" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW331" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX331" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AY331" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ331" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BA331" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB331" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC331" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD331" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE331" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BF331" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG331" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH331" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI331" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ331" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK331" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
